--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="20200" windowHeight="13880" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Approval" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Example" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Example 2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Functional Specs" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Approval" sheetId="1" r:id="rId1"/>
+    <sheet name="Example" sheetId="2" r:id="rId2"/>
+    <sheet name="Example 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Functional Specs" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Example!$A$1:$M$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Example!$A:$B,Example!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Example 2'!$A$1:$M$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Functional Specs'!$A$1:$M$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles" vbProcedure="false">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Example!$A$1:$M$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Example!$A:$B,Example!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Example 2'!$A$1:$M$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Functional Specs'!$A$1:$M$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles" vbProcedure="false">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Example!$A$1:$M$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Example 2'!$A$1:$M$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Functional Specs'!$A$1:$M$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Example!$A:$B,Example!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,15 +41,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="95">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mwombeki Fabian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Manager</t>
+    <t>Mwombeki Fabian</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
   </si>
   <si>
     <t xml:space="preserve">                                                </t>
@@ -54,74 +58,74 @@
     <t xml:space="preserve">                                          </t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signature</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Signature</t>
   </si>
   <si>
     <t xml:space="preserve">Date </t>
   </si>
   <si>
-    <t xml:space="preserve">(DD-MMM-YYYY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewer:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savannah Informatics Form Designer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Savannah Informatics Form Designer, Programmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form/Page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Name (form designer to complete)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response on PDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field Type
+    <t>(DD-MMM-YYYY)</t>
+  </si>
+  <si>
+    <t>Reviewer:</t>
+  </si>
+  <si>
+    <t>Savannah Informatics Form Designer</t>
+  </si>
+  <si>
+    <t>Savannah Informatics Form Designer, Programmer</t>
+  </si>
+  <si>
+    <t>Form/Page</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Field Name (form designer to complete)</t>
+  </si>
+  <si>
+    <t>Response on PDF</t>
+  </si>
+  <si>
+    <t>Database Value</t>
+  </si>
+  <si>
+    <t>Field Type
 (Check Box, Radio Button, Text Field, Scale, Dropdown, etc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Field Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Format
+    <t>Field Validation</t>
+  </si>
+  <si>
+    <t>Format
 (Text, Numeric, Date)</t>
   </si>
   <si>
-    <t xml:space="preserve">Required
+    <t>Required
 (Y/N)</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display in Site Console
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Display in Site Console
 (Max 40 of Characters)</t>
   </si>
   <si>
-    <t xml:space="preserve">Other (Calculation, hidden fields)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cover page</t>
+    <t>Other (Calculation, hidden fields)</t>
+  </si>
+  <si>
+    <t>Cover page</t>
   </si>
   <si>
     <t xml:space="preserve">Cover page will display after authentication to form before first assessment at each Visit (Cycle).
@@ -137,13 +141,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">NA, not enterable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepopulated</t>
+    <t>NA, not enterable</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Prepopulated</t>
   </si>
   <si>
     <t xml:space="preserve">Study ID
@@ -158,77 +162,77 @@
     <t xml:space="preserve">Training </t>
   </si>
   <si>
-    <t xml:space="preserve">I prefer the colour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training_Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red, Blue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
+    <t>I prefer the colour</t>
+  </si>
+  <si>
+    <t>Training_Q1</t>
+  </si>
+  <si>
+    <t>Red, Blue</t>
+  </si>
+  <si>
+    <t>1
 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Radio Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One must be selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page Navigation Arrows</t>
+    <t>Radio Button</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>One must be selected</t>
+  </si>
+  <si>
+    <t>Page Navigation Arrows</t>
   </si>
   <si>
     <t xml:space="preserve">Previous </t>
   </si>
   <si>
-    <t xml:space="preserve">Previous + page #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If tapped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prior page will display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next + page #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next page will display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pagination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pages in a Cycle will be paginated as page x of y from the first page in the cycle to the last so patients have a concept of how far they've completed a cycle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response on Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAISs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAISS Instruction Set 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAISs Instruction Set 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1a
+    <t>Previous + page #</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>If tapped</t>
+  </si>
+  <si>
+    <t>Prior page will display</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Next + page #</t>
+  </si>
+  <si>
+    <t>Next page will display</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Pages in a Cycle will be paginated as page x of y from the first page in the cycle to the last so patients have a concept of how far they've completed a cycle.</t>
+  </si>
+  <si>
+    <t>Response on Site</t>
+  </si>
+  <si>
+    <t>PAISs</t>
+  </si>
+  <si>
+    <t>PAISS Instruction Set 1</t>
+  </si>
+  <si>
+    <t>PAISs Instruction Set 2</t>
+  </si>
+  <si>
+    <t>Q1a
 Q1b
 Q2a
 Q2b
@@ -244,7 +248,7 @@
 Q5d</t>
   </si>
   <si>
-    <t xml:space="preserve">PAISs_UBS_Gripping
+    <t>PAISs_UBS_Gripping
 PAISs_UBS_Lifting
 PAISs_LBS_Standing
 PAISs_LBS_Climbing
@@ -260,10 +264,10 @@
 PAISs_END_WlkIncline</t>
   </si>
   <si>
-    <t xml:space="preserve">0-No Difficulty, 1, 2, 3, 4, 5, 6, 7, 8, 0, 10-Unable to do</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
+    <t>0-No Difficulty, 1, 2, 3, 4, 5, 6, 7, 8, 0, 10-Unable to do</t>
+  </si>
+  <si>
+    <t>1
 2
 3
 4
@@ -276,106 +280,114 @@
 11</t>
   </si>
   <si>
-    <t xml:space="preserve">All Questions on Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see the question but choose not to answer it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fieldname + "NA"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checked or unchecked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If checked, value is 1
+    <t>All Questions on Form</t>
+  </si>
+  <si>
+    <t>I see the question but choose not to answer it</t>
+  </si>
+  <si>
+    <t>Fieldname + "NA"</t>
+  </si>
+  <si>
+    <t>Checked or unchecked</t>
+  </si>
+  <si>
+    <t>If checked, value is 1
 If unchecked, value if "Off"</t>
   </si>
   <si>
-    <t xml:space="preserve">Y, if none of the other answers are selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If checked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satisfies required response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refused</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field is hidden unless question is left blank upon submit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Page of Form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By checking the box below I confirm that the answers I have provided are accurate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form_Confirm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upon Submit, all required questions left blank will display “I see the question but choose not to answer it”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmed</t>
+    <t>Y, if none of the other answers are selected</t>
+  </si>
+  <si>
+    <t>If checked</t>
+  </si>
+  <si>
+    <t>Satisfies required response</t>
+  </si>
+  <si>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>Field is hidden unless question is left blank upon submit.</t>
+  </si>
+  <si>
+    <t>Last Page of Form</t>
+  </si>
+  <si>
+    <t>By checking the box below I confirm that the answers I have provided are accurate</t>
+  </si>
+  <si>
+    <t>Form_Confirm</t>
+  </si>
+  <si>
+    <t>Check Box</t>
+  </si>
+  <si>
+    <t>Upon Submit, all required questions left blank will display “I see the question but choose not to answer it”</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
   </si>
   <si>
     <t xml:space="preserve">Response on portal </t>
   </si>
   <si>
-    <t xml:space="preserve">log in page</t>
+    <t>log in page</t>
   </si>
   <si>
     <t xml:space="preserve">sign in </t>
   </si>
   <si>
-    <t xml:space="preserve">Password tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linked in Sign in addnon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facebook sign in addon</t>
+    <t>Password tab</t>
+  </si>
+  <si>
+    <t>Linked in Sign in addnon</t>
+  </si>
+  <si>
+    <t>Facebook sign in addon</t>
   </si>
   <si>
     <t xml:space="preserve">user profile </t>
   </si>
   <si>
-    <t xml:space="preserve">user name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email address</t>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email address</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth </t>
   </si>
   <si>
-    <t xml:space="preserve">demographic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fname,sname,photo,address,age.</t>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>,sname,</t>
+  </si>
+  <si>
+    <t>photo,</t>
+  </si>
+  <si>
+    <t>address,</t>
+  </si>
+  <si>
+    <t>age.</t>
+  </si>
+  <si>
+    <t>demographic page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -384,97 +396,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -486,28 +410,28 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -527,7 +451,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
@@ -555,49 +479,20 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -624,349 +519,214 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="5">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1025,226 +785,496 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>
@@ -1254,34 +1284,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="20" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="18" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="21" width="21.67"/>
+    <col min="1" max="1" width="15.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="18" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14" style="20" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="19" hidden="1" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="33" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>26</v>
       </c>
@@ -1363,7 +1393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="33" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" s="33" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
@@ -1400,8 +1430,8 @@
       <c r="L3" s="31"/>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" s="38" customFormat="true" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -1441,8 +1471,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="38" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:13" s="38" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
       <c r="B5" s="35" t="s">
         <v>47</v>
       </c>
@@ -1480,7 +1510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" s="40" customFormat="true" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" s="40" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>50</v>
       </c>
@@ -1514,17 +1544,17 @@
       <c r="K6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="18"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>
@@ -1535,34 +1565,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="20" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="18" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="21" width="21.67"/>
+    <col min="1" max="1" width="15.83203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="18" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14" style="20" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="21" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="19" hidden="1" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
@@ -1603,7 +1633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="33" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>26</v>
       </c>
@@ -1644,8 +1674,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="38" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:13" s="38" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="41" t="s">
@@ -1685,8 +1715,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="38" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
       <c r="B4" s="35" t="s">
         <v>56</v>
       </c>
@@ -1724,8 +1754,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="38" customFormat="true" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:13" s="38" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
       <c r="B5" s="41" t="s">
         <v>57</v>
       </c>
@@ -1763,7 +1793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" s="38" customFormat="true" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" s="38" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>61</v>
       </c>
@@ -1804,7 +1834,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" s="38" customFormat="true" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" s="38" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>71</v>
       </c>
@@ -1845,8 +1875,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" s="38" customFormat="true" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:13" s="38" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -1886,8 +1916,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" s="38" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:13" s="38" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
       <c r="B9" s="35" t="s">
         <v>47</v>
       </c>
@@ -1925,7 +1955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" s="40" customFormat="true" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" s="40" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>50</v>
       </c>
@@ -1959,18 +1989,18 @@
       <c r="K10" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="18"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>
@@ -1981,38 +2011,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="19" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="19" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="18" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="44" width="21.67"/>
+    <col min="1" max="1" width="15.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="33" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="43" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14" style="20" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="19" hidden="1" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="true" ht="53.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" s="25" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="22" t="s">
@@ -2021,7 +2051,7 @@
       <c r="D1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="22" t="s">
@@ -2049,8 +2079,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -2072,8 +2102,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="37" t="s">
@@ -2088,16 +2118,16 @@
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
-      <c r="L3" s="38" t="n">
-        <f aca="false">D3</f>
+      <c r="L3" s="38">
+        <f>D3</f>
         <v>0</v>
       </c>
       <c r="M3" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -2119,8 +2149,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -2142,8 +2172,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="37" t="s">
@@ -2159,8 +2189,8 @@
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="37" t="s">
@@ -2176,14 +2206,14 @@
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
     </row>
-    <row r="8" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="47"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -2192,17 +2222,17 @@
       <c r="I8" s="29"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -2211,17 +2241,17 @@
       <c r="I9" s="29"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
+      <c r="L9" s="20"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -2230,17 +2260,17 @@
       <c r="I10" s="29"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="L10" s="20"/>
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -2249,13 +2279,17 @@
       <c r="I11" s="29"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="47"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="46"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -2264,13 +2298,17 @@
       <c r="I12" s="29"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="47"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="46"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -2279,13 +2317,17 @@
       <c r="I13" s="29"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="47"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="46"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -2294,13 +2336,17 @@
       <c r="I14" s="29"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="47"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="46"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
@@ -2309,13 +2355,13 @@
       <c r="I15" s="29"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="47"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -2324,13 +2370,13 @@
       <c r="I16" s="29"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="18"/>
-    </row>
-    <row r="17" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="47"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
@@ -2339,13 +2385,13 @@
       <c r="I17" s="29"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="18"/>
-    </row>
-    <row r="18" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
       <c r="B18" s="37"/>
-      <c r="C18" s="47"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -2354,13 +2400,13 @@
       <c r="I18" s="29"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="47"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
@@ -2369,13 +2415,13 @@
       <c r="I19" s="29"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -2384,13 +2430,13 @@
       <c r="I20" s="29"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="18"/>
-    </row>
-    <row r="21" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
       <c r="B21" s="37"/>
-      <c r="C21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
@@ -2399,13 +2445,13 @@
       <c r="I21" s="29"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18"/>
-    </row>
-    <row r="22" s="38" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" s="38" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
       <c r="B22" s="37"/>
-      <c r="C22" s="47"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
@@ -2414,14 +2460,14 @@
       <c r="I22" s="29"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="18"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="19"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="110">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t xml:space="preserve">Date of Birth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help</t>
   </si>
   <si>
     <t xml:space="preserve">demographic page</t>
@@ -2039,10 +2048,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2289,10 +2298,10 @@
     </row>
     <row r="11" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="28"/>
@@ -2308,10 +2317,10 @@
     </row>
     <row r="12" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="28"/>
@@ -2327,10 +2336,10 @@
     </row>
     <row r="13" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="28"/>
@@ -2346,7 +2355,7 @@
     </row>
     <row r="14" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>93</v>
@@ -2365,7 +2374,7 @@
     </row>
     <row r="15" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>94</v>
@@ -2383,11 +2392,11 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>96</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="28"/>
@@ -2402,11 +2411,11 @@
       <c r="M16" s="18"/>
     </row>
     <row r="17" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
-        <v>97</v>
+      <c r="A17" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="28"/>
@@ -2421,11 +2430,11 @@
       <c r="M17" s="18"/>
     </row>
     <row r="18" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>99</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="28"/>
@@ -2441,10 +2450,10 @@
     </row>
     <row r="19" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="28"/>
@@ -2463,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="28"/>
@@ -2479,10 +2488,10 @@
     </row>
     <row r="21" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="28"/>
@@ -2501,7 +2510,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="28"/>
@@ -2520,7 +2529,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="28"/>
@@ -2535,8 +2544,12 @@
       <c r="M23" s="18"/>
     </row>
     <row r="24" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
+      <c r="A24" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>107</v>
+      </c>
       <c r="C24" s="45"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -2548,6 +2561,59 @@
       <c r="K24" s="34"/>
       <c r="L24" s="19"/>
       <c r="M24" s="18"/>
+    </row>
+    <row r="25" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,44 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="21820" windowHeight="13440" tabRatio="500" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Approval" sheetId="1" r:id="rId1"/>
-    <sheet name="Example" sheetId="2" r:id="rId2"/>
-    <sheet name="Example 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Functional Specs" sheetId="4" r:id="rId4"/>
+    <sheet name="Approval" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Example" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Example 2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Functional Specs" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Example!$A$1:$M$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Example 2'!$A$1:$M$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Functional Specs'!$A$1:$M$5</definedName>
-    <definedName name="Print_Area_0" localSheetId="1">Example!$A$1:$M$6</definedName>
-    <definedName name="Print_Area_0" localSheetId="2">'Example 2'!$A$1:$M$10</definedName>
-    <definedName name="Print_Area_0" localSheetId="3">'Functional Specs'!$A$1:$M$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Example!$A:$B,Example!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
-    <definedName name="Print_Titles_0" localSheetId="1">Example!$A:$B,Example!$1:$1</definedName>
-    <definedName name="Print_Titles_0" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
-    <definedName name="Print_Titles_0" localSheetId="3">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Example!$A$1:$M$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Example!$A:$B,Example!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Example 2'!$A$1:$M$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Functional Specs'!$A$1:$M$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles" vbProcedure="false">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="Print_Area_0" vbProcedure="false">Example!$A$1:$M$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="Print_Titles_0" vbProcedure="false">Example!$A:$B,Example!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Example!$A$1:$M$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Titles" vbProcedure="false">Example!$A:$B,Example!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="Print_Area_0" vbProcedure="false">'Example 2'!$A$1:$M$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="Print_Titles_0" vbProcedure="false">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Example 2'!$A$1:$M$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Titles" vbProcedure="false">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="Print_Area_0" vbProcedure="false">'Functional Specs'!$A$1:$M$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="Print_Titles_0" vbProcedure="false">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Functional Specs'!$A$1:$M$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Titles" vbProcedure="false">'Functional Specs'!$A:$B,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -47,15 +43,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="113">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
   <si>
-    <t>Mwombeki Fabian</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
+    <t xml:space="preserve">Mwombeki Fabian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Manager</t>
   </si>
   <si>
     <t xml:space="preserve">                                                </t>
@@ -64,74 +60,74 @@
     <t xml:space="preserve">                                          </t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Signature</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature</t>
   </si>
   <si>
     <t xml:space="preserve">Date </t>
   </si>
   <si>
-    <t>(DD-MMM-YYYY)</t>
-  </si>
-  <si>
-    <t>Reviewer:</t>
-  </si>
-  <si>
-    <t>Savannah Informatics Form Designer</t>
-  </si>
-  <si>
-    <t>Savannah Informatics Form Designer, Programmer</t>
-  </si>
-  <si>
-    <t>Form/Page</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Field Name (form designer to complete)</t>
-  </si>
-  <si>
-    <t>Response on PDF</t>
-  </si>
-  <si>
-    <t>Database Value</t>
-  </si>
-  <si>
-    <t>Field Type
+    <t xml:space="preserve">(DD-MMM-YYYY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah Informatics Form Designer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savannah Informatics Form Designer, Programmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form/Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Name (form designer to complete)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response on PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Type
 (Check Box, Radio Button, Text Field, Scale, Dropdown, etc.)</t>
   </si>
   <si>
-    <t>Field Validation</t>
-  </si>
-  <si>
-    <t>Format
+    <t xml:space="preserve">Field Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format
 (Text, Numeric, Date)</t>
   </si>
   <si>
-    <t>Required
+    <t xml:space="preserve">Required
 (Y/N)</t>
   </si>
   <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Display in Site Console
+    <t xml:space="preserve">Condition(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display in Site Console
 (Max 40 of Characters)</t>
   </si>
   <si>
-    <t>Other (Calculation, hidden fields)</t>
-  </si>
-  <si>
-    <t>Cover page</t>
+    <t xml:space="preserve">Other (Calculation, hidden fields)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cover page</t>
   </si>
   <si>
     <t xml:space="preserve">Cover page will display after authentication to form before first assessment at each Visit (Cycle).
@@ -147,13 +143,13 @@
 </t>
   </si>
   <si>
-    <t>NA, not enterable</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Prepopulated</t>
+    <t xml:space="preserve">NA, not enterable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepopulated</t>
   </si>
   <si>
     <t xml:space="preserve">Study ID
@@ -168,77 +164,77 @@
     <t xml:space="preserve">Training </t>
   </si>
   <si>
-    <t>I prefer the colour</t>
-  </si>
-  <si>
-    <t>Training_Q1</t>
-  </si>
-  <si>
-    <t>Red, Blue</t>
-  </si>
-  <si>
-    <t>1
+    <t xml:space="preserve">I prefer the colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training_Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red, Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
 2</t>
   </si>
   <si>
-    <t>Radio Button</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>One must be selected</t>
-  </si>
-  <si>
-    <t>Page Navigation Arrows</t>
+    <t xml:space="preserve">Radio Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One must be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page Navigation Arrows</t>
   </si>
   <si>
     <t xml:space="preserve">Previous </t>
   </si>
   <si>
-    <t>Previous + page #</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>If tapped</t>
-  </si>
-  <si>
-    <t>Prior page will display</t>
-  </si>
-  <si>
-    <t>Next</t>
-  </si>
-  <si>
-    <t>Next + page #</t>
-  </si>
-  <si>
-    <t>Next page will display</t>
-  </si>
-  <si>
-    <t>Pagination</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>Pages in a Cycle will be paginated as page x of y from the first page in the cycle to the last so patients have a concept of how far they've completed a cycle.</t>
-  </si>
-  <si>
-    <t>Response on Site</t>
-  </si>
-  <si>
-    <t>PAISs</t>
-  </si>
-  <si>
-    <t>PAISS Instruction Set 1</t>
-  </si>
-  <si>
-    <t>PAISs Instruction Set 2</t>
-  </si>
-  <si>
-    <t>Q1a
+    <t xml:space="preserve">Previous + page #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If tapped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior page will display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next + page #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next page will display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages in a Cycle will be paginated as page x of y from the first page in the cycle to the last so patients have a concept of how far they've completed a cycle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response on Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAISs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAISS Instruction Set 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAISs Instruction Set 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1a
 Q1b
 Q2a
 Q2b
@@ -254,7 +250,7 @@
 Q5d</t>
   </si>
   <si>
-    <t>PAISs_UBS_Gripping
+    <t xml:space="preserve">PAISs_UBS_Gripping
 PAISs_UBS_Lifting
 PAISs_LBS_Standing
 PAISs_LBS_Climbing
@@ -270,10 +266,10 @@
 PAISs_END_WlkIncline</t>
   </si>
   <si>
-    <t>0-No Difficulty, 1, 2, 3, 4, 5, 6, 7, 8, 0, 10-Unable to do</t>
-  </si>
-  <si>
-    <t>1
+    <t xml:space="preserve">0-No Difficulty, 1, 2, 3, 4, 5, 6, 7, 8, 0, 10-Unable to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
 2
 3
 4
@@ -286,159 +282,172 @@
 11</t>
   </si>
   <si>
-    <t>All Questions on Form</t>
-  </si>
-  <si>
-    <t>I see the question but choose not to answer it</t>
-  </si>
-  <si>
-    <t>Fieldname + "NA"</t>
-  </si>
-  <si>
-    <t>Checked or unchecked</t>
-  </si>
-  <si>
-    <t>If checked, value is 1
+    <t xml:space="preserve">All Questions on Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see the question but choose not to answer it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fieldname + "NA"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked or unchecked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If checked, value is 1
 If unchecked, value if "Off"</t>
   </si>
   <si>
-    <t>Y, if none of the other answers are selected</t>
-  </si>
-  <si>
-    <t>If checked</t>
-  </si>
-  <si>
-    <t>Satisfies required response</t>
-  </si>
-  <si>
-    <t>Refused</t>
-  </si>
-  <si>
-    <t>Field is hidden unless question is left blank upon submit.</t>
-  </si>
-  <si>
-    <t>Last Page of Form</t>
-  </si>
-  <si>
-    <t>By checking the box below I confirm that the answers I have provided are accurate</t>
-  </si>
-  <si>
-    <t>Form_Confirm</t>
-  </si>
-  <si>
-    <t>Check Box</t>
-  </si>
-  <si>
-    <t>Upon Submit, all required questions left blank will display “I see the question but choose not to answer it”</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
+    <t xml:space="preserve">Y, if none of the other answers are selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfies required response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field is hidden unless question is left blank upon submit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Page of Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By checking the box below I confirm that the answers I have provided are accurate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form_Confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon Submit, all required questions left blank will display “I see the question but choose not to answer it”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmed</t>
   </si>
   <si>
     <t xml:space="preserve">Response on portal </t>
   </si>
   <si>
-    <t>log in page</t>
+    <t xml:space="preserve">log in page</t>
   </si>
   <si>
     <t xml:space="preserve">sign in </t>
   </si>
   <si>
-    <t>Password tab</t>
-  </si>
-  <si>
-    <t>Linked in Sign in addnon</t>
-  </si>
-  <si>
-    <t>Facebook sign in addon</t>
+    <t xml:space="preserve">Password tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linked in Sign in addnon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook sign in addon</t>
   </si>
   <si>
     <t xml:space="preserve">user profile </t>
   </si>
   <si>
-    <t>user name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>Email address</t>
+    <t xml:space="preserve">user name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address</t>
   </si>
   <si>
     <t xml:space="preserve">Date of Birth </t>
   </si>
   <si>
-    <t>demographic page</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>Employers/post job</t>
-  </si>
-  <si>
-    <t>post job</t>
-  </si>
-  <si>
-    <t>registration</t>
-  </si>
-  <si>
-    <t>learn about posting a job</t>
-  </si>
-  <si>
-    <t>Sir name</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Education Page</t>
-  </si>
-  <si>
-    <t>Find jobs- which job</t>
-  </si>
-  <si>
-    <t>Search Page</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Find Salaries - job title</t>
-  </si>
-  <si>
-    <t>Name of school</t>
+    <t xml:space="preserve">Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demographic page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of school</t>
   </si>
   <si>
     <t xml:space="preserve">Course taken </t>
   </si>
   <si>
-    <t>Year Graduated</t>
-  </si>
-  <si>
-    <t>Award given</t>
+    <t xml:space="preserve">Year Graduated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find jobs- which job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Salaries - job title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employers/post job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn about posting a job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="D\-MMM"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,9 +456,97 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -461,28 +558,28 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -502,7 +599,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
@@ -531,7 +628,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -539,12 +636,48 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -571,208 +704,341 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
+  <borders count="6">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF808080"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="36">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="46">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="22">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -831,311 +1097,40 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.83"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="30.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1167,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1176,42 +1171,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1241,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1250,28 +1245,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1301,7 +1296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1310,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1318,9 +1313,10 @@
       <c r="E21" s="13"/>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>
@@ -1330,34 +1326,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="20" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="18" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="21.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="24" customFormat="true" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+    <row r="2" s="32" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1439,7 +1435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="32" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
         <v>33</v>
       </c>
@@ -1476,8 +1472,8 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+    <row r="4" s="35" customFormat="true" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -1517,8 +1513,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+    <row r="5" s="35" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
       <c r="B5" s="33" t="s">
         <v>47</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="6" s="37" customFormat="true" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -1597,10 +1593,10 @@
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>
@@ -1611,34 +1607,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="20" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="18" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="21.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="1" s="24" customFormat="true" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+    <row r="2" s="32" customFormat="true" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1720,8 +1716,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+    <row r="3" s="35" customFormat="true" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -1761,8 +1757,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+    <row r="4" s="35" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28"/>
       <c r="B4" s="33" t="s">
         <v>56</v>
       </c>
@@ -1800,8 +1796,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="182" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
+    <row r="5" s="35" customFormat="true" ht="182" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28"/>
       <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
@@ -1839,7 +1835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="6" s="35" customFormat="true" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" s="35" customFormat="true" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
         <v>71</v>
       </c>
@@ -1921,8 +1917,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+    <row r="8" s="35" customFormat="true" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -1962,8 +1958,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+    <row r="9" s="35" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28"/>
       <c r="B9" s="33" t="s">
         <v>47</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="10" s="37" customFormat="true" ht="65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
@@ -2043,10 +2039,10 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A8:A9"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>
@@ -2057,34 +2053,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="33" style="19" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="40" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="40" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="18" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="18" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="18" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="19" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="19" width="24.17"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="19" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="18" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="21.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="24" customFormat="true" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
@@ -2125,7 +2121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="43" t="s">
         <v>78</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
         <v>78</v>
       </c>
@@ -2164,15 +2160,15 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="35">
-        <f>D3</f>
+      <c r="L3" s="35" t="n">
+        <f aca="false">D3</f>
         <v>0</v>
       </c>
       <c r="M3" s="35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
         <v>78</v>
       </c>
@@ -2195,7 +2191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
         <v>78</v>
       </c>
@@ -2218,7 +2214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="43" t="s">
         <v>83</v>
       </c>
@@ -2235,7 +2231,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="43" t="s">
         <v>83</v>
       </c>
@@ -2252,7 +2248,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
         <v>83</v>
       </c>
@@ -2271,7 +2267,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
         <v>83</v>
       </c>
@@ -2290,7 +2286,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
         <v>83</v>
       </c>
@@ -2309,12 +2305,12 @@
       <c r="L10" s="19"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>89</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>98</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="28"/>
@@ -2328,12 +2324,12 @@
       <c r="L11" s="19"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="28"/>
@@ -2347,12 +2343,12 @@
       <c r="L12" s="19"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="44" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="28"/>
@@ -2366,12 +2362,12 @@
       <c r="L13" s="19"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="28"/>
@@ -2385,12 +2381,12 @@
       <c r="L14" s="19"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="28"/>
@@ -2404,12 +2400,12 @@
       <c r="L15" s="19"/>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
-        <v>101</v>
+    <row r="16" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="28"/>
@@ -2423,12 +2419,12 @@
       <c r="L16" s="19"/>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>101</v>
+    <row r="17" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="28"/>
@@ -2442,12 +2438,12 @@
       <c r="L17" s="19"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>101</v>
+    <row r="18" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="28"/>
@@ -2461,12 +2457,12 @@
       <c r="L18" s="19"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="28"/>
@@ -2480,12 +2476,12 @@
       <c r="L19" s="19"/>
       <c r="M19" s="18"/>
     </row>
-    <row r="20" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="28"/>
@@ -2499,12 +2495,12 @@
       <c r="L20" s="19"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="45"/>
       <c r="D21" s="28"/>
@@ -2518,12 +2514,12 @@
       <c r="L21" s="19"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="28"/>
@@ -2537,12 +2533,12 @@
       <c r="L22" s="19"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>91</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="28"/>
@@ -2556,9 +2552,9 @@
       <c r="L23" s="19"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>105</v>
@@ -2575,12 +2571,12 @@
       <c r="L24" s="19"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="28"/>
@@ -2594,12 +2590,12 @@
       <c r="L25" s="19"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C26" s="45"/>
       <c r="D26" s="28"/>
@@ -2613,12 +2609,12 @@
       <c r="L26" s="19"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="34" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C27" s="45"/>
       <c r="D27" s="28"/>
@@ -2632,9 +2628,13 @@
       <c r="L27" s="19"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:13" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
+    <row r="28" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>110</v>
+      </c>
       <c r="C28" s="45"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
@@ -2647,11 +2647,64 @@
       <c r="L28" s="19"/>
       <c r="M28" s="18"/>
     </row>
+    <row r="29" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" s="35" customFormat="true" ht="26" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="18"/>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
 WR myPROpad Setup Specifications
 &amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="24580" windowHeight="16900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="Print_Titles_0" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="3">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="123">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -464,12 +469,15 @@
   <si>
     <t>Text Field</t>
   </si>
+  <si>
+    <t>Empoloyee Page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -680,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,9 +809,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,19 +842,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1173,38 +1184,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.6" customHeight="1">
+    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1236,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1245,42 +1256,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.35" customHeight="1">
+    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1310,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1319,28 +1330,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1355,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1370,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1379,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1399,34 +1410,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1467,7 +1478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="27.95" customHeight="1">
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>33</v>
       </c>
@@ -1545,8 +1556,8 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -1586,8 +1597,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
       <c r="B5" s="33" t="s">
         <v>47</v>
       </c>
@@ -1625,7 +1636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="76.5">
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -1680,34 +1691,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="63.75">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1789,8 +1800,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -1830,8 +1841,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
       <c r="B4" s="33" t="s">
         <v>56</v>
       </c>
@@ -1869,8 +1880,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="178.5">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
       <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="63.75">
+    <row r="6" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
@@ -1949,7 +1960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="51">
+    <row r="7" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>71</v>
       </c>
@@ -1990,8 +2001,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2031,8 +2042,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="44"/>
+    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
       <c r="B9" s="33" t="s">
         <v>47</v>
       </c>
@@ -2070,7 +2081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="76.5">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
@@ -2126,35 +2137,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="33" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="40" customWidth="1"/>
-    <col min="5" max="6" width="20.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="40" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="18" customWidth="1"/>
     <col min="11" max="11" width="14" style="19" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="19" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="1026" width="21.7109375" customWidth="1"/>
+    <col min="15" max="1026" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="76.5">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="B1" s="41" t="s">
         <v>13</v>
       </c>
@@ -2195,11 +2206,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -2223,11 +2234,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="3" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
       </c>
@@ -2250,11 +2261,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="4" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
       </c>
@@ -2276,8 +2287,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B5" s="46"/>
+    <row r="5" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="50"/>
       <c r="C5" s="34" t="s">
         <v>88</v>
       </c>
@@ -2293,8 +2304,8 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="50"/>
       <c r="C6" s="34" t="s">
         <v>96</v>
       </c>
@@ -2310,8 +2321,8 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B7" s="46"/>
+    <row r="7" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="50"/>
       <c r="C7" s="34" t="s">
         <v>89</v>
       </c>
@@ -2327,8 +2338,8 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B8" s="46"/>
+    <row r="8" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="50"/>
       <c r="C8" s="34" t="s">
         <v>90</v>
       </c>
@@ -2344,11 +2355,11 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="9" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <v>4</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="34" t="s">
         <v>91</v>
       </c>
@@ -2370,11 +2381,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="10" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>5</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -2392,11 +2403,11 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="11" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
         <v>6</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="34" t="s">
         <v>98</v>
       </c>
@@ -2412,11 +2423,11 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="12" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
         <v>7</v>
       </c>
-      <c r="B12" s="46"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="34" t="s">
         <v>80</v>
       </c>
@@ -2434,11 +2445,11 @@
       <c r="M12" s="19"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="13" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
         <v>8</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="34" t="s">
         <v>78</v>
       </c>
@@ -2456,11 +2467,11 @@
       <c r="M13" s="19"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="14" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
         <v>9</v>
       </c>
-      <c r="B14" s="46"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="34" t="s">
         <v>99</v>
       </c>
@@ -2478,11 +2489,11 @@
       <c r="M14" s="19"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="15" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>10</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="34" t="s">
         <v>79</v>
       </c>
@@ -2500,11 +2511,11 @@
       <c r="M15" s="19"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="16" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>11</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="34" t="s">
         <v>100</v>
       </c>
@@ -2522,8 +2533,8 @@
       <c r="M16" s="19"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B17" s="46"/>
+    <row r="17" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="50"/>
       <c r="C17" s="34" t="s">
         <v>102</v>
       </c>
@@ -2541,11 +2552,11 @@
       <c r="M17" s="19"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="18" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>12</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="34" t="s">
         <v>101</v>
       </c>
@@ -2563,11 +2574,11 @@
       <c r="M18" s="19"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="19" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>13</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="52" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -2585,11 +2596,11 @@
       <c r="M19" s="19"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="20" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <v>14</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="34" t="s">
         <v>104</v>
       </c>
@@ -2605,8 +2616,8 @@
       <c r="M20" s="19"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B21" s="49"/>
+    <row r="21" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="53"/>
       <c r="C21" s="34" t="s">
         <v>99</v>
       </c>
@@ -2622,11 +2633,11 @@
       <c r="M21" s="19"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="22" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>15</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="34" t="s">
         <v>81</v>
       </c>
@@ -2642,11 +2653,11 @@
       <c r="M22" s="19"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="23" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>16</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="34" t="s">
         <v>105</v>
       </c>
@@ -2662,11 +2673,11 @@
       <c r="M23" s="19"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="24" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>17</v>
       </c>
-      <c r="B24" s="50"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="34" t="s">
         <v>106</v>
       </c>
@@ -2682,11 +2693,11 @@
       <c r="M24" s="19"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="25" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>18</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="47" t="s">
         <v>114</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -2704,11 +2715,11 @@
       <c r="M25" s="19"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="26" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>19</v>
       </c>
-      <c r="B26" s="52"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="34" t="s">
         <v>82</v>
       </c>
@@ -2724,11 +2735,11 @@
       <c r="M26" s="19"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="27" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <v>20</v>
       </c>
-      <c r="B27" s="52"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="34" t="s">
         <v>109</v>
       </c>
@@ -2744,11 +2755,11 @@
       <c r="M27" s="19"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="28" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>21</v>
       </c>
-      <c r="B28" s="52"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="34" t="s">
         <v>84</v>
       </c>
@@ -2764,8 +2775,8 @@
       <c r="M28" s="19"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B29" s="52"/>
+    <row r="29" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="55"/>
       <c r="C29" s="34" t="s">
         <v>110</v>
       </c>
@@ -2781,8 +2792,8 @@
       <c r="M29" s="19"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B30" s="52"/>
+    <row r="30" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="55"/>
       <c r="C30" s="34" t="s">
         <v>112</v>
       </c>
@@ -2798,8 +2809,8 @@
       <c r="M30" s="19"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="52"/>
+    <row r="31" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="55"/>
       <c r="C31" s="34" t="s">
         <v>113</v>
       </c>
@@ -2815,11 +2826,11 @@
       <c r="M31" s="19"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="32" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
         <v>22</v>
       </c>
-      <c r="B32" s="53"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="34" t="s">
         <v>111</v>
       </c>
@@ -2835,11 +2846,11 @@
       <c r="M32" s="19"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="33" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
         <v>23</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="47" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -2859,11 +2870,11 @@
       <c r="M33" s="19"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="34" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>24</v>
       </c>
-      <c r="B34" s="54"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -2881,11 +2892,11 @@
       <c r="M34" s="19"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="35" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35">
         <v>25</v>
       </c>
-      <c r="B35" s="54"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="34" t="s">
         <v>117</v>
       </c>
@@ -2903,14 +2914,14 @@
       <c r="M35" s="19"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="36" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
         <v>27</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="44" t="s">
         <v>120</v>
       </c>
       <c r="D36" s="43"/>
@@ -2927,12 +2938,12 @@
       <c r="M36" s="19"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="37" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
         <v>28</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="55" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="44" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="43"/>
@@ -2949,14 +2960,83 @@
       <c r="M37" s="19"/>
       <c r="N37" s="18"/>
     </row>
+    <row r="38" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35">
+        <v>29</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="43"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="48"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="47"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="41" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="48"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B18"/>
     <mergeCell ref="B19:B24"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="24580" windowHeight="16900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <definedName name="Print_Titles_0" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="3">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,8 +41,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ABDULKARIM</author>
+  </authors>
+  <commentList>
+    <comment ref="B64" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ABDULKARIM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+z</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -470,14 +499,101 @@
     <t>Text Field</t>
   </si>
   <si>
-    <t>Empoloyee Page</t>
+    <t>Company Review Page</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Employers/post job</t>
+  </si>
+  <si>
+    <t>Account information</t>
+  </si>
+  <si>
+    <t>Getting started</t>
+  </si>
+  <si>
+    <t>Job details</t>
+  </si>
+  <si>
+    <t>Application settings</t>
+  </si>
+  <si>
+    <t>Job description</t>
+  </si>
+  <si>
+    <t>Account information page</t>
+  </si>
+  <si>
+    <t>Company size</t>
+  </si>
+  <si>
+    <t>Person name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Getting started page</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Job details page</t>
+  </si>
+  <si>
+    <t>Type of job (full-time, part-time, etc)</t>
+  </si>
+  <si>
+    <t>How did you here about us (radio, TV, etc)</t>
+  </si>
+  <si>
+    <t>Salary for this job (optional)</t>
+  </si>
+  <si>
+    <t>Salary per? (monrh, week, etc)</t>
+  </si>
+  <si>
+    <t>how do you want to receive application? (email, in-person)</t>
+  </si>
+  <si>
+    <t>Appilication for this job will be sent to which email?</t>
+  </si>
+  <si>
+    <t>Required experience</t>
+  </si>
+  <si>
+    <t>Required skills</t>
+  </si>
+  <si>
+    <t>Required education</t>
+  </si>
+  <si>
+    <t>Post Job</t>
+  </si>
+  <si>
+    <t>Text Area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -576,6 +692,41 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -688,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,21 +960,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,10 +987,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1184,38 +1347,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30.6" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="8" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1247,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1256,42 +1419,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="22.35" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1306,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="8" customFormat="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1321,7 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="8" customFormat="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1330,28 +1493,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1381,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1390,7 +1553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1410,34 +1573,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
+    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1478,7 +1641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1519,7 +1682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="27.95" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>33</v>
       </c>
@@ -1556,7 +1719,7 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
       <c r="A4" s="46" t="s">
         <v>41</v>
       </c>
@@ -1597,7 +1760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="46"/>
       <c r="B5" s="33" t="s">
         <v>47</v>
@@ -1636,7 +1799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="76.5">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -1691,34 +1854,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
+    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="63.75">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1759,7 +1922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1800,7 +1963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="21.95" customHeight="1">
       <c r="A3" s="46" t="s">
         <v>54</v>
       </c>
@@ -1841,7 +2004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="46"/>
       <c r="B4" s="33" t="s">
         <v>56</v>
@@ -1880,7 +2043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="178.5">
       <c r="A5" s="46"/>
       <c r="B5" s="38" t="s">
         <v>57</v>
@@ -1919,7 +2082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="35" customFormat="1" ht="63.75">
       <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
@@ -1960,7 +2123,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="35" customFormat="1" ht="51">
       <c r="A7" s="28" t="s">
         <v>71</v>
       </c>
@@ -2001,7 +2164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
       <c r="A8" s="46" t="s">
         <v>41</v>
       </c>
@@ -2042,7 +2205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="46"/>
       <c r="B9" s="33" t="s">
         <v>47</v>
@@ -2081,7 +2244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="76.5">
       <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
@@ -2137,35 +2300,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="33" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="40" customWidth="1"/>
-    <col min="5" max="6" width="20.33203125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="40" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="18" customWidth="1"/>
     <col min="11" max="11" width="14" style="19" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="19" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="1026" width="21.6640625" customWidth="1"/>
+    <col min="15" max="1026" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="24" customFormat="1" ht="76.5">
       <c r="B1" s="41" t="s">
         <v>13</v>
       </c>
@@ -2206,11 +2369,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -2234,11 +2397,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
       </c>
@@ -2261,11 +2424,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
       </c>
@@ -2287,8 +2450,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
+    <row r="5" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B5" s="48"/>
       <c r="C5" s="34" t="s">
         <v>88</v>
       </c>
@@ -2304,8 +2467,8 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
+    <row r="6" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B6" s="48"/>
       <c r="C6" s="34" t="s">
         <v>96</v>
       </c>
@@ -2321,8 +2484,8 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
+    <row r="7" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B7" s="48"/>
       <c r="C7" s="34" t="s">
         <v>89</v>
       </c>
@@ -2338,8 +2501,8 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="50"/>
+    <row r="8" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B8" s="48"/>
       <c r="C8" s="34" t="s">
         <v>90</v>
       </c>
@@ -2355,11 +2518,11 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A9" s="35">
         <v>4</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="34" t="s">
         <v>91</v>
       </c>
@@ -2381,11 +2544,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A10" s="35">
         <v>5</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>107</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -2403,11 +2566,11 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A11" s="35">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="34" t="s">
         <v>98</v>
       </c>
@@ -2423,11 +2586,11 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A12" s="35">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="34" t="s">
         <v>80</v>
       </c>
@@ -2445,11 +2608,11 @@
       <c r="M12" s="19"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A13" s="35">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="34" t="s">
         <v>78</v>
       </c>
@@ -2467,11 +2630,11 @@
       <c r="M13" s="19"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A14" s="35">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="34" t="s">
         <v>99</v>
       </c>
@@ -2489,11 +2652,11 @@
       <c r="M14" s="19"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A15" s="35">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="34" t="s">
         <v>79</v>
       </c>
@@ -2511,11 +2674,11 @@
       <c r="M15" s="19"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A16" s="35">
         <v>11</v>
       </c>
-      <c r="B16" s="50"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="34" t="s">
         <v>100</v>
       </c>
@@ -2533,8 +2696,8 @@
       <c r="M16" s="19"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="50"/>
+    <row r="17" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B17" s="48"/>
       <c r="C17" s="34" t="s">
         <v>102</v>
       </c>
@@ -2552,11 +2715,11 @@
       <c r="M17" s="19"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A18" s="35">
         <v>12</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="34" t="s">
         <v>101</v>
       </c>
@@ -2574,11 +2737,11 @@
       <c r="M18" s="19"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A19" s="35">
         <v>13</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="50" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -2596,11 +2759,11 @@
       <c r="M19" s="19"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A20" s="35">
         <v>14</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="34" t="s">
         <v>104</v>
       </c>
@@ -2616,8 +2779,8 @@
       <c r="M20" s="19"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="53"/>
+    <row r="21" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B21" s="51"/>
       <c r="C21" s="34" t="s">
         <v>99</v>
       </c>
@@ -2633,11 +2796,11 @@
       <c r="M21" s="19"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A22" s="35">
         <v>15</v>
       </c>
-      <c r="B22" s="53"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="34" t="s">
         <v>81</v>
       </c>
@@ -2653,11 +2816,11 @@
       <c r="M22" s="19"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A23" s="35">
         <v>16</v>
       </c>
-      <c r="B23" s="53"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="34" t="s">
         <v>105</v>
       </c>
@@ -2673,11 +2836,11 @@
       <c r="M23" s="19"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A24" s="35">
         <v>17</v>
       </c>
-      <c r="B24" s="54"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="34" t="s">
         <v>106</v>
       </c>
@@ -2693,11 +2856,11 @@
       <c r="M24" s="19"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A25" s="35">
         <v>18</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="53" t="s">
         <v>114</v>
       </c>
       <c r="C25" s="34" t="s">
@@ -2715,11 +2878,11 @@
       <c r="M25" s="19"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A26" s="35">
         <v>19</v>
       </c>
-      <c r="B26" s="55"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="34" t="s">
         <v>82</v>
       </c>
@@ -2735,11 +2898,11 @@
       <c r="M26" s="19"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A27" s="35">
         <v>20</v>
       </c>
-      <c r="B27" s="55"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="34" t="s">
         <v>109</v>
       </c>
@@ -2755,11 +2918,11 @@
       <c r="M27" s="19"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A28" s="35">
         <v>21</v>
       </c>
-      <c r="B28" s="55"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="34" t="s">
         <v>84</v>
       </c>
@@ -2775,8 +2938,8 @@
       <c r="M28" s="19"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="55"/>
+    <row r="29" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B29" s="54"/>
       <c r="C29" s="34" t="s">
         <v>110</v>
       </c>
@@ -2792,8 +2955,8 @@
       <c r="M29" s="19"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="55"/>
+    <row r="30" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B30" s="54"/>
       <c r="C30" s="34" t="s">
         <v>112</v>
       </c>
@@ -2809,8 +2972,8 @@
       <c r="M30" s="19"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="55"/>
+    <row r="31" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B31" s="54"/>
       <c r="C31" s="34" t="s">
         <v>113</v>
       </c>
@@ -2826,11 +2989,11 @@
       <c r="M31" s="19"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A32" s="35">
         <v>22</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="34" t="s">
         <v>111</v>
       </c>
@@ -2846,11 +3009,11 @@
       <c r="M32" s="19"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A33" s="35">
         <v>23</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="50" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -2870,7 +3033,7 @@
       <c r="M33" s="19"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A34" s="35">
         <v>24</v>
       </c>
@@ -2892,7 +3055,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A35" s="35">
         <v>25</v>
       </c>
@@ -2914,14 +3077,14 @@
       <c r="M35" s="19"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A36" s="35">
         <v>27</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D36" s="43"/>
@@ -2938,12 +3101,12 @@
       <c r="M36" s="19"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="A37" s="35">
         <v>28</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="44" t="s">
+      <c r="B37" s="52"/>
+      <c r="C37" s="45" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="43"/>
@@ -2960,78 +3123,549 @@
       <c r="M37" s="19"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35">
-        <v>29</v>
-      </c>
-      <c r="B38" s="47" t="s">
+    <row r="38" spans="1:14">
+      <c r="B38" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="44" t="s">
-        <v>88</v>
+      <c r="C38" s="34" t="s">
+        <v>123</v>
       </c>
       <c r="D38" s="43"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="48"/>
-      <c r="C39" s="44"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" s="54"/>
+      <c r="C39" s="34" t="s">
+        <v>117</v>
+      </c>
       <c r="D39" s="43"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="18"/>
-    </row>
-    <row r="40" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="47"/>
-      <c r="C40" s="44"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>125</v>
+      </c>
       <c r="D40" s="43"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="33"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="18"/>
-    </row>
-    <row r="41" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="48"/>
-      <c r="C41" s="44"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" s="54"/>
+      <c r="C41" s="57" t="s">
+        <v>126</v>
+      </c>
       <c r="D41" s="43"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="33"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="B42" s="54"/>
+      <c r="C42" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" s="54"/>
+      <c r="C43" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" s="55"/>
+      <c r="C44" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" s="59"/>
+      <c r="C46" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" s="59"/>
+      <c r="C47" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="B48" s="59"/>
+      <c r="C48" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+    </row>
+    <row r="49" spans="2:14" ht="25.5">
+      <c r="B49" s="59"/>
+      <c r="C49" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="2:14" ht="25.5" customHeight="1">
+      <c r="B50" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="59"/>
+      <c r="C51" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="59"/>
+      <c r="C52" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="59"/>
+      <c r="C53" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="60"/>
+      <c r="C54" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="43"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="59"/>
+      <c r="C56" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="43"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="59"/>
+      <c r="C57" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="59"/>
+      <c r="C58" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="60"/>
+      <c r="C59" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+    </row>
+    <row r="60" spans="2:14" ht="25.5">
+      <c r="B60" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+    </row>
+    <row r="61" spans="2:14" ht="25.5">
+      <c r="B61" s="59"/>
+      <c r="C61" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="59"/>
+      <c r="C62" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="60"/>
+      <c r="C63" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="59"/>
+      <c r="C65" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="43"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="59"/>
+      <c r="C66" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="59"/>
+      <c r="C67" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="43"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="60"/>
+      <c r="C68" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="43"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B68"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B54"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B18"/>
     <mergeCell ref="B19:B24"/>
@@ -3048,5 +3682,6 @@
     <oddFooter>&amp;L&amp;"Times New Roman,Regular"&amp;8&amp;F&amp;C&amp;"Times New Roman,Regular"&amp;8Page &amp;P of &amp;N
 &amp;"Times New Roman,Italic"writeresult Proprietary Confidential - For authorized use only&amp;R&amp;"Times New Roman,Regular"&amp;8Print Date/Time: &amp;D &amp;T</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="20740" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="Print_Titles_0" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="3">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,40 +46,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>ABDULKARIM</author>
-  </authors>
-  <commentList>
-    <comment ref="B64" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ABDULKARIM:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-z</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
   <si>
@@ -592,8 +563,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,19 +686,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -966,9 +924,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,37 +963,10 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1347,38 +1305,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.6" customHeight="1">
+    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1410,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1419,42 +1377,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.35" customHeight="1">
+    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1484,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1493,28 +1451,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1544,7 +1502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1553,7 +1511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1573,7 +1531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1583,24 +1541,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1641,7 +1599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1682,7 +1640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="27.95" customHeight="1">
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>33</v>
       </c>
@@ -1719,8 +1677,8 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -1760,8 +1718,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
       <c r="B5" s="33" t="s">
         <v>47</v>
       </c>
@@ -1799,7 +1757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="76.5">
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -1854,7 +1812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1864,24 +1822,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="63.75">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1922,7 +1880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1963,8 +1921,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -2004,8 +1962,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
       <c r="B4" s="33" t="s">
         <v>56</v>
       </c>
@@ -2043,8 +2001,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="178.5">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
       <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
@@ -2082,7 +2040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="63.75">
+    <row r="6" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
@@ -2123,7 +2081,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="51">
+    <row r="7" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>71</v>
       </c>
@@ -2164,8 +2122,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2205,8 +2163,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="46"/>
+    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
       <c r="B9" s="33" t="s">
         <v>47</v>
       </c>
@@ -2244,7 +2202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="76.5">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
@@ -2300,35 +2258,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="B1:N68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="33" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="40" customWidth="1"/>
-    <col min="5" max="6" width="20.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="40" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="18" customWidth="1"/>
     <col min="11" max="11" width="14" style="19" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="19" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="1026" width="21.7109375" customWidth="1"/>
+    <col min="15" max="1026" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="24" customFormat="1" ht="76.5">
+    <row r="1" spans="2:14" s="24" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="B1" s="41" t="s">
         <v>13</v>
       </c>
@@ -2369,11 +2327,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="56" t="s">
         <v>95</v>
       </c>
       <c r="C2" s="34" t="s">
@@ -2397,11 +2352,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48"/>
+    <row r="3" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="57"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
       </c>
@@ -2424,11 +2376,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A4" s="35">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48"/>
+    <row r="4" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="57"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
       </c>
@@ -2450,8 +2399,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B5" s="48"/>
+    <row r="5" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="57"/>
       <c r="C5" s="34" t="s">
         <v>88</v>
       </c>
@@ -2467,8 +2416,8 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B6" s="48"/>
+    <row r="6" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="57"/>
       <c r="C6" s="34" t="s">
         <v>96</v>
       </c>
@@ -2484,8 +2433,8 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B7" s="48"/>
+    <row r="7" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="57"/>
       <c r="C7" s="34" t="s">
         <v>89</v>
       </c>
@@ -2501,8 +2450,8 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B8" s="48"/>
+    <row r="8" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="57"/>
       <c r="C8" s="34" t="s">
         <v>90</v>
       </c>
@@ -2518,11 +2467,8 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A9" s="35">
-        <v>4</v>
-      </c>
-      <c r="B9" s="49"/>
+    <row r="9" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58"/>
       <c r="C9" s="34" t="s">
         <v>91</v>
       </c>
@@ -2544,11 +2490,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A10" s="35">
-        <v>5</v>
-      </c>
-      <c r="B10" s="47" t="s">
+    <row r="10" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -2566,11 +2509,8 @@
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A11" s="35">
-        <v>6</v>
-      </c>
-      <c r="B11" s="48"/>
+    <row r="11" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="57"/>
       <c r="C11" s="34" t="s">
         <v>98</v>
       </c>
@@ -2586,11 +2526,8 @@
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
     </row>
-    <row r="12" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A12" s="35">
-        <v>7</v>
-      </c>
-      <c r="B12" s="48"/>
+    <row r="12" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="57"/>
       <c r="C12" s="34" t="s">
         <v>80</v>
       </c>
@@ -2608,11 +2545,8 @@
       <c r="M12" s="19"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A13" s="35">
-        <v>8</v>
-      </c>
-      <c r="B13" s="48"/>
+    <row r="13" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="57"/>
       <c r="C13" s="34" t="s">
         <v>78</v>
       </c>
@@ -2630,11 +2564,8 @@
       <c r="M13" s="19"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A14" s="35">
-        <v>9</v>
-      </c>
-      <c r="B14" s="48"/>
+    <row r="14" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="57"/>
       <c r="C14" s="34" t="s">
         <v>99</v>
       </c>
@@ -2652,11 +2583,8 @@
       <c r="M14" s="19"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A15" s="35">
-        <v>10</v>
-      </c>
-      <c r="B15" s="48"/>
+    <row r="15" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="57"/>
       <c r="C15" s="34" t="s">
         <v>79</v>
       </c>
@@ -2674,11 +2602,8 @@
       <c r="M15" s="19"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A16" s="35">
-        <v>11</v>
-      </c>
-      <c r="B16" s="48"/>
+    <row r="16" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="57"/>
       <c r="C16" s="34" t="s">
         <v>100</v>
       </c>
@@ -2696,8 +2621,8 @@
       <c r="M16" s="19"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B17" s="48"/>
+    <row r="17" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="57"/>
       <c r="C17" s="34" t="s">
         <v>102</v>
       </c>
@@ -2715,11 +2640,8 @@
       <c r="M17" s="19"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A18" s="35">
-        <v>12</v>
-      </c>
-      <c r="B18" s="49"/>
+    <row r="18" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="58"/>
       <c r="C18" s="34" t="s">
         <v>101</v>
       </c>
@@ -2737,11 +2659,8 @@
       <c r="M18" s="19"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A19" s="35">
-        <v>13</v>
-      </c>
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="51" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -2759,11 +2678,8 @@
       <c r="M19" s="19"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A20" s="35">
-        <v>14</v>
-      </c>
-      <c r="B20" s="51"/>
+    <row r="20" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="59"/>
       <c r="C20" s="34" t="s">
         <v>104</v>
       </c>
@@ -2779,8 +2695,8 @@
       <c r="M20" s="19"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B21" s="51"/>
+    <row r="21" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="59"/>
       <c r="C21" s="34" t="s">
         <v>99</v>
       </c>
@@ -2796,11 +2712,8 @@
       <c r="M21" s="19"/>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A22" s="35">
-        <v>15</v>
-      </c>
-      <c r="B22" s="51"/>
+    <row r="22" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="59"/>
       <c r="C22" s="34" t="s">
         <v>81</v>
       </c>
@@ -2816,11 +2729,8 @@
       <c r="M22" s="19"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A23" s="35">
-        <v>16</v>
-      </c>
-      <c r="B23" s="51"/>
+    <row r="23" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="59"/>
       <c r="C23" s="34" t="s">
         <v>105</v>
       </c>
@@ -2836,10 +2746,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A24" s="35">
-        <v>17</v>
-      </c>
+    <row r="24" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="52"/>
       <c r="C24" s="34" t="s">
         <v>106</v>
@@ -2856,10 +2763,7 @@
       <c r="M24" s="19"/>
       <c r="N24" s="18"/>
     </row>
-    <row r="25" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A25" s="35">
-        <v>18</v>
-      </c>
+    <row r="25" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="53" t="s">
         <v>114</v>
       </c>
@@ -2878,10 +2782,7 @@
       <c r="M25" s="19"/>
       <c r="N25" s="18"/>
     </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A26" s="35">
-        <v>19</v>
-      </c>
+    <row r="26" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="54"/>
       <c r="C26" s="34" t="s">
         <v>82</v>
@@ -2898,10 +2799,7 @@
       <c r="M26" s="19"/>
       <c r="N26" s="18"/>
     </row>
-    <row r="27" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A27" s="35">
-        <v>20</v>
-      </c>
+    <row r="27" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="54"/>
       <c r="C27" s="34" t="s">
         <v>109</v>
@@ -2918,10 +2816,7 @@
       <c r="M27" s="19"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A28" s="35">
-        <v>21</v>
-      </c>
+    <row r="28" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="54"/>
       <c r="C28" s="34" t="s">
         <v>84</v>
@@ -2938,7 +2833,7 @@
       <c r="M28" s="19"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="29" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="54"/>
       <c r="C29" s="34" t="s">
         <v>110</v>
@@ -2955,7 +2850,7 @@
       <c r="M29" s="19"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="30" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="54"/>
       <c r="C30" s="34" t="s">
         <v>112</v>
@@ -2972,7 +2867,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="31" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="54"/>
       <c r="C31" s="34" t="s">
         <v>113</v>
@@ -2989,10 +2884,7 @@
       <c r="M31" s="19"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A32" s="35">
-        <v>22</v>
-      </c>
+    <row r="32" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="55"/>
       <c r="C32" s="34" t="s">
         <v>111</v>
@@ -3009,11 +2901,8 @@
       <c r="M32" s="19"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A33" s="35">
-        <v>23</v>
-      </c>
-      <c r="B33" s="50" t="s">
+    <row r="33" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="51" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -3033,11 +2922,8 @@
       <c r="M33" s="19"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A34" s="35">
-        <v>24</v>
-      </c>
-      <c r="B34" s="56"/>
+    <row r="34" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="60"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -3055,11 +2941,8 @@
       <c r="M34" s="19"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A35" s="35">
-        <v>25</v>
-      </c>
-      <c r="B35" s="56"/>
+    <row r="35" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="60"/>
       <c r="C35" s="34" t="s">
         <v>117</v>
       </c>
@@ -3077,11 +2960,8 @@
       <c r="M35" s="19"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A36" s="35">
-        <v>27</v>
-      </c>
-      <c r="B36" s="50" t="s">
+    <row r="36" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="51" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="45" t="s">
@@ -3101,10 +2981,7 @@
       <c r="M36" s="19"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A37" s="35">
-        <v>28</v>
-      </c>
+    <row r="37" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="52"/>
       <c r="C37" s="45" t="s">
         <v>117</v>
@@ -3123,7 +3000,7 @@
       <c r="M37" s="19"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="53" t="s">
         <v>122</v>
       </c>
@@ -3142,7 +3019,7 @@
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="54"/>
       <c r="C39" s="34" t="s">
         <v>117</v>
@@ -3159,11 +3036,11 @@
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D40" s="43"/>
@@ -3176,9 +3053,9 @@
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="54"/>
-      <c r="C41" s="57" t="s">
+      <c r="C41" s="46" t="s">
         <v>126</v>
       </c>
       <c r="D41" s="43"/>
@@ -3191,9 +3068,9 @@
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="54"/>
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="46" t="s">
         <v>127</v>
       </c>
       <c r="D42" s="43"/>
@@ -3206,9 +3083,9 @@
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="54"/>
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="46" t="s">
         <v>128</v>
       </c>
       <c r="D43" s="43"/>
@@ -3221,9 +3098,9 @@
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="55"/>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="46" t="s">
         <v>129</v>
       </c>
       <c r="D44" s="43"/>
@@ -3236,8 +3113,8 @@
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="B45" s="58" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="48" t="s">
         <v>130</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -3255,8 +3132,8 @@
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="B46" s="59"/>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="49"/>
       <c r="C46" s="34" t="s">
         <v>131</v>
       </c>
@@ -3272,8 +3149,8 @@
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
     </row>
-    <row r="47" spans="1:14">
-      <c r="B47" s="59"/>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="49"/>
       <c r="C47" s="34" t="s">
         <v>132</v>
       </c>
@@ -3289,8 +3166,8 @@
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
     </row>
-    <row r="48" spans="1:14">
-      <c r="B48" s="59"/>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="49"/>
       <c r="C48" s="34" t="s">
         <v>133</v>
       </c>
@@ -3306,8 +3183,8 @@
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
     </row>
-    <row r="49" spans="2:14" ht="25.5">
-      <c r="B49" s="59"/>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="49"/>
       <c r="C49" s="34" t="s">
         <v>142</v>
       </c>
@@ -3325,8 +3202,8 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="2:14" ht="25.5" customHeight="1">
-      <c r="B50" s="58" t="s">
+    <row r="50" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="48" t="s">
         <v>135</v>
       </c>
       <c r="C50" s="34" t="s">
@@ -3344,8 +3221,8 @@
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
     </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="59"/>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="49"/>
       <c r="C51" s="34" t="s">
         <v>136</v>
       </c>
@@ -3361,8 +3238,8 @@
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
     </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="59"/>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="49"/>
       <c r="C52" s="34" t="s">
         <v>137</v>
       </c>
@@ -3378,8 +3255,8 @@
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
     </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="59"/>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="49"/>
       <c r="C53" s="34" t="s">
         <v>138</v>
       </c>
@@ -3395,8 +3272,8 @@
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
     </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="60"/>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="50"/>
       <c r="C54" s="34" t="s">
         <v>139</v>
       </c>
@@ -3412,8 +3289,8 @@
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
     </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="58" t="s">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="48" t="s">
         <v>140</v>
       </c>
       <c r="C55" s="34" t="s">
@@ -3431,8 +3308,8 @@
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
     </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="59"/>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="49"/>
       <c r="C56" s="34" t="s">
         <v>143</v>
       </c>
@@ -3448,8 +3325,8 @@
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
     </row>
-    <row r="57" spans="2:14">
-      <c r="B57" s="59"/>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="49"/>
       <c r="C57" s="34" t="s">
         <v>144</v>
       </c>
@@ -3465,8 +3342,8 @@
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
     </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="59"/>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="49"/>
       <c r="C58" s="34" t="s">
         <v>138</v>
       </c>
@@ -3482,8 +3359,8 @@
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
     </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="60"/>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="50"/>
       <c r="C59" s="34" t="s">
         <v>139</v>
       </c>
@@ -3499,8 +3376,8 @@
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
     </row>
-    <row r="60" spans="2:14" ht="25.5">
-      <c r="B60" s="58" t="s">
+    <row r="60" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B60" s="48" t="s">
         <v>128</v>
       </c>
       <c r="C60" s="34" t="s">
@@ -3518,8 +3395,8 @@
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
     </row>
-    <row r="61" spans="2:14" ht="25.5">
-      <c r="B61" s="59"/>
+    <row r="61" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B61" s="49"/>
       <c r="C61" s="34" t="s">
         <v>146</v>
       </c>
@@ -3535,8 +3412,8 @@
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
     </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="59"/>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="49"/>
       <c r="C62" s="34" t="s">
         <v>138</v>
       </c>
@@ -3552,8 +3429,8 @@
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
     </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="60"/>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="50"/>
       <c r="C63" s="34" t="s">
         <v>139</v>
       </c>
@@ -3569,8 +3446,8 @@
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
     </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="58" t="s">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" s="48" t="s">
         <v>129</v>
       </c>
       <c r="C64" s="34" t="s">
@@ -3588,8 +3465,8 @@
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
     </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="59"/>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="49"/>
       <c r="C65" s="34" t="s">
         <v>149</v>
       </c>
@@ -3605,8 +3482,8 @@
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
     </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="59"/>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="49"/>
       <c r="C66" s="34" t="s">
         <v>148</v>
       </c>
@@ -3622,8 +3499,8 @@
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
     </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="59"/>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" s="49"/>
       <c r="C67" s="34" t="s">
         <v>147</v>
       </c>
@@ -3639,8 +3516,8 @@
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
     </row>
-    <row r="68" spans="2:12">
-      <c r="B68" s="60"/>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="50"/>
       <c r="C68" s="34" t="s">
         <v>150</v>
       </c>
@@ -3658,6 +3535,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="B55:B59"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B64:B68"/>
@@ -3666,11 +3548,6 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3682,6 +3559,5 @@
     <oddFooter>&amp;L&amp;"Times New Roman,Regular"&amp;8&amp;F&amp;C&amp;"Times New Roman,Regular"&amp;8Page &amp;P of &amp;N
 &amp;"Times New Roman,Italic"writeresult Proprietary Confidential - For authorized use only&amp;R&amp;"Times New Roman,Regular"&amp;8Print Date/Time: &amp;D &amp;T</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="20740" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="28540" windowHeight="17660" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="156">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Facebook login</t>
   </si>
   <si>
@@ -558,6 +555,21 @@
   </si>
   <si>
     <t>Text Area</t>
+  </si>
+  <si>
+    <t>Login Tab</t>
+  </si>
+  <si>
+    <t>open a page to change password</t>
+  </si>
+  <si>
+    <t>fill in user name</t>
+  </si>
+  <si>
+    <t>link to Facebook addin Code</t>
+  </si>
+  <si>
+    <t>Log in</t>
   </si>
 </sst>
 </file>
@@ -930,6 +942,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,34 +979,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2265,7 +2277,7 @@
   <dimension ref="B1:N68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B68"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2328,17 +2340,19 @@
       </c>
     </row>
     <row r="2" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="56" t="s">
-        <v>95</v>
+      <c r="B2" s="48" t="s">
+        <v>94</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="27"/>
-      <c r="E2" s="33"/>
+      <c r="E2" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="28"/>
       <c r="G2" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
@@ -2353,39 +2367,43 @@
       </c>
     </row>
     <row r="3" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="57"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="33" t="s">
+        <v>153</v>
+      </c>
       <c r="F3" s="28"/>
       <c r="G3" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="35">
+      <c r="M3" s="35" t="str">
         <f>E3</f>
-        <v>0</v>
+        <v>fill in user name</v>
       </c>
       <c r="N3" s="35" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="57"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="27"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="33" t="s">
+        <v>153</v>
+      </c>
       <c r="F4" s="28"/>
       <c r="G4" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
@@ -2400,12 +2418,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="57"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="34" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="D5" s="27"/>
-      <c r="E5" s="33"/>
+      <c r="E5" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="28"/>
       <c r="G5" s="33" t="s">
         <v>44</v>
@@ -2417,15 +2437,17 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="57"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="27"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="33" t="s">
+        <v>152</v>
+      </c>
       <c r="F6" s="28"/>
       <c r="G6" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
@@ -2434,15 +2456,17 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="57"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="27"/>
-      <c r="E7" s="33"/>
+      <c r="E7" s="33" t="s">
+        <v>154</v>
+      </c>
       <c r="F7" s="28"/>
       <c r="G7" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
@@ -2451,15 +2475,15 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="57"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="33"/>
       <c r="F8" s="28"/>
       <c r="G8" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -2468,15 +2492,17 @@
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="58"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>155</v>
+      </c>
       <c r="F9" s="28"/>
       <c r="G9" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
@@ -2491,17 +2517,17 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="56" t="s">
-        <v>107</v>
+      <c r="B10" s="48" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="33"/>
       <c r="F10" s="28"/>
       <c r="G10" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -2510,15 +2536,15 @@
       <c r="L10" s="28"/>
     </row>
     <row r="11" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="57"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="33"/>
       <c r="F11" s="28"/>
       <c r="G11" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -2527,7 +2553,7 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="57"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="34" t="s">
         <v>80</v>
       </c>
@@ -2546,7 +2572,7 @@
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="34" t="s">
         <v>78</v>
       </c>
@@ -2565,9 +2591,9 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="28"/>
@@ -2584,7 +2610,7 @@
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="57"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="34" t="s">
         <v>79</v>
       </c>
@@ -2603,9 +2629,9 @@
       <c r="N15" s="18"/>
     </row>
     <row r="16" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="57"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="28"/>
@@ -2622,9 +2648,9 @@
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="57"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="28"/>
@@ -2641,9 +2667,9 @@
       <c r="N17" s="18"/>
     </row>
     <row r="18" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="58"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="28"/>
@@ -2661,7 +2687,7 @@
     </row>
     <row r="19" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>80</v>
@@ -2679,9 +2705,9 @@
       <c r="N19" s="18"/>
     </row>
     <row r="20" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="59"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="28"/>
@@ -2696,9 +2722,9 @@
       <c r="N20" s="18"/>
     </row>
     <row r="21" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="59"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="28"/>
@@ -2713,7 +2739,7 @@
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="59"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="34" t="s">
         <v>81</v>
       </c>
@@ -2730,9 +2756,9 @@
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="59"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="28"/>
@@ -2747,9 +2773,9 @@
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="52"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="28"/>
@@ -2764,8 +2790,8 @@
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="53" t="s">
-        <v>114</v>
+      <c r="B25" s="54" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>83</v>
@@ -2783,7 +2809,7 @@
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="54"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="34" t="s">
         <v>82</v>
       </c>
@@ -2800,9 +2826,9 @@
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="28"/>
@@ -2817,7 +2843,7 @@
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="54"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="34" t="s">
         <v>84</v>
       </c>
@@ -2834,9 +2860,9 @@
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="54"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="28"/>
@@ -2851,9 +2877,9 @@
       <c r="N29" s="18"/>
     </row>
     <row r="30" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="54"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="28"/>
@@ -2868,9 +2894,9 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="54"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="28"/>
@@ -2885,9 +2911,9 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="55"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="43"/>
       <c r="E32" s="28"/>
@@ -2903,16 +2929,16 @@
     </row>
     <row r="33" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -2923,15 +2949,15 @@
       <c r="N33" s="18"/>
     </row>
     <row r="34" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="60"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -2942,9 +2968,9 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="60"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="28"/>
@@ -2962,16 +2988,16 @@
     </row>
     <row r="36" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D36" s="43"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
       <c r="G36" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -2982,9 +3008,9 @@
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="52"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="28"/>
@@ -3001,17 +3027,17 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>122</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>123</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="44"/>
       <c r="F38" s="44"/>
       <c r="G38" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -3020,9 +3046,9 @@
       <c r="L38" s="34"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="54"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="43"/>
       <c r="E39" s="44"/>
@@ -3037,11 +3063,11 @@
       <c r="L39" s="34"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="46" t="s">
         <v>124</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>125</v>
       </c>
       <c r="D40" s="43"/>
       <c r="E40" s="44"/>
@@ -3054,9 +3080,9 @@
       <c r="L40" s="34"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="54"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="44"/>
@@ -3069,9 +3095,9 @@
       <c r="L41" s="34"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="54"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="43"/>
       <c r="E42" s="44"/>
@@ -3084,9 +3110,9 @@
       <c r="L42" s="34"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="54"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="44"/>
@@ -3099,9 +3125,9 @@
       <c r="L43" s="34"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="55"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="44"/>
@@ -3114,17 +3140,17 @@
       <c r="L44" s="34"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="48" t="s">
-        <v>130</v>
+      <c r="B45" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H45" s="44"/>
       <c r="I45" s="44"/>
@@ -3133,15 +3159,15 @@
       <c r="L45" s="34"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="49"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
       <c r="G46" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" s="44"/>
       <c r="I46" s="44"/>
@@ -3150,15 +3176,15 @@
       <c r="L46" s="34"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="49"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
       <c r="G47" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="44"/>
       <c r="I47" s="44"/>
@@ -3167,15 +3193,15 @@
       <c r="L47" s="34"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="49"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="44"/>
       <c r="F48" s="44"/>
       <c r="G48" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="44"/>
       <c r="I48" s="44"/>
@@ -3184,15 +3210,15 @@
       <c r="L48" s="34"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="49"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="44"/>
       <c r="F49" s="44"/>
       <c r="G49" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="44"/>
       <c r="I49" s="44"/>
@@ -3203,17 +3229,17 @@
       <c r="N49"/>
     </row>
     <row r="50" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="48" t="s">
-        <v>135</v>
+      <c r="B50" s="58" t="s">
+        <v>134</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="44"/>
       <c r="F50" s="44"/>
       <c r="G50" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H50" s="44"/>
       <c r="I50" s="44"/>
@@ -3222,15 +3248,15 @@
       <c r="L50" s="34"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="49"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
       <c r="G51" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H51" s="44"/>
       <c r="I51" s="44"/>
@@ -3239,15 +3265,15 @@
       <c r="L51" s="34"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="49"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" s="43"/>
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
       <c r="G52" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="44"/>
       <c r="I52" s="44"/>
@@ -3256,9 +3282,9 @@
       <c r="L52" s="34"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="49"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="44"/>
@@ -3273,9 +3299,9 @@
       <c r="L53" s="34"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="50"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D54" s="43"/>
       <c r="E54" s="44"/>
@@ -3290,17 +3316,17 @@
       <c r="L54" s="34"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="44"/>
       <c r="F55" s="44"/>
       <c r="G55" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
@@ -3309,15 +3335,15 @@
       <c r="L55" s="34"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="49"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="44"/>
       <c r="F56" s="44"/>
       <c r="G56" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
@@ -3326,15 +3352,15 @@
       <c r="L56" s="34"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="49"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="44"/>
       <c r="F57" s="44"/>
       <c r="G57" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H57" s="44"/>
       <c r="I57" s="44"/>
@@ -3343,9 +3369,9 @@
       <c r="L57" s="34"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="49"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D58" s="43"/>
       <c r="E58" s="44"/>
@@ -3360,9 +3386,9 @@
       <c r="L58" s="34"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="50"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" s="43"/>
       <c r="E59" s="44"/>
@@ -3377,11 +3403,11 @@
       <c r="L59" s="34"/>
     </row>
     <row r="60" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B60" s="48" t="s">
-        <v>128</v>
+      <c r="B60" s="58" t="s">
+        <v>127</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="44"/>
@@ -3396,15 +3422,15 @@
       <c r="L60" s="34"/>
     </row>
     <row r="61" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B61" s="49"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="44"/>
       <c r="F61" s="44"/>
       <c r="G61" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="44"/>
       <c r="I61" s="44"/>
@@ -3413,9 +3439,9 @@
       <c r="L61" s="34"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="49"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="44"/>
@@ -3430,9 +3456,9 @@
       <c r="L62" s="34"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="50"/>
+      <c r="B63" s="60"/>
       <c r="C63" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D63" s="43"/>
       <c r="E63" s="44"/>
@@ -3447,17 +3473,17 @@
       <c r="L63" s="34"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="48" t="s">
-        <v>129</v>
+      <c r="B64" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="44"/>
       <c r="F64" s="44"/>
       <c r="G64" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
@@ -3466,15 +3492,15 @@
       <c r="L64" s="34"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="49"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="44"/>
       <c r="F65" s="44"/>
       <c r="G65" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
@@ -3483,15 +3509,15 @@
       <c r="L65" s="34"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="49"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D66" s="43"/>
       <c r="E66" s="44"/>
       <c r="F66" s="44"/>
       <c r="G66" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
@@ -3500,15 +3526,15 @@
       <c r="L66" s="34"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="49"/>
+      <c r="B67" s="59"/>
       <c r="C67" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="44"/>
       <c r="F67" s="44"/>
       <c r="G67" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H67" s="44"/>
       <c r="I67" s="44"/>
@@ -3517,9 +3543,9 @@
       <c r="L67" s="34"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="50"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="44"/>
@@ -3535,11 +3561,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B35"/>
     <mergeCell ref="B55:B59"/>
     <mergeCell ref="B60:B63"/>
     <mergeCell ref="B64:B68"/>
@@ -3548,6 +3569,11 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B50:B54"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="28540" windowHeight="17660" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -20,10 +15,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Example!$A$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Example 2'!$A$1:$M$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Functional Specs'!$B$1:$N$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Functional Specs'!$B$1:$N$27</definedName>
     <definedName name="Print_Area_0" localSheetId="1">Example!$A$1:$M$6</definedName>
     <definedName name="Print_Area_0" localSheetId="2">'Example 2'!$A$1:$M$10</definedName>
-    <definedName name="Print_Area_0" localSheetId="3">'Functional Specs'!$B$1:$N$9</definedName>
+    <definedName name="Print_Area_0" localSheetId="3">'Functional Specs'!$B$1:$N$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Example!$A:$B,Example!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
@@ -31,7 +26,7 @@
     <definedName name="Print_Titles_0" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="3">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="205">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -497,9 +492,6 @@
     <t>Company size</t>
   </si>
   <si>
-    <t>Person name</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -569,14 +561,164 @@
     <t>link to Facebook addin Code</t>
   </si>
   <si>
-    <t>Log in</t>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>school_name</t>
+  </si>
+  <si>
+    <t>graduate_year</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>work_experience</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>job_location</t>
+  </si>
+  <si>
+    <t>search_job</t>
+  </si>
+  <si>
+    <t>company_or_job</t>
+  </si>
+  <si>
+    <t>search-salary</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>search_company</t>
+  </si>
+  <si>
+    <t>company_size</t>
+  </si>
+  <si>
+    <t>Person full name</t>
+  </si>
+  <si>
+    <t>person_name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>job_type</t>
+  </si>
+  <si>
+    <t>job_salry</t>
+  </si>
+  <si>
+    <t>salry_time_range</t>
+  </si>
+  <si>
+    <t>application_media</t>
+  </si>
+  <si>
+    <t>application_email</t>
+  </si>
+  <si>
+    <t>job_description</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>post_job</t>
+  </si>
+  <si>
+    <t>aboutus_spread_way</t>
+  </si>
+  <si>
+    <t>Signup page</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Repeat password</t>
+  </si>
+  <si>
+    <t>P.O.Box</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>Physical  home address</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>natonality</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>education-level</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>home_address</t>
+  </si>
+  <si>
+    <t>post_office_box</t>
+  </si>
+  <si>
+    <t>repeat_password</t>
+  </si>
+  <si>
+    <t>signup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -698,6 +840,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -809,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,9 +1075,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,6 +1087,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,33 +1123,21 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1317,38 +1477,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30.6" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="8" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1380,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1389,42 +1549,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="22.35" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="8" customFormat="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1454,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="8" customFormat="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1463,28 +1623,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1514,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1523,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1543,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1553,24 +1713,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
+    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1652,7 +1812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="27.95" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>33</v>
       </c>
@@ -1689,7 +1849,7 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>41</v>
       </c>
@@ -1730,7 +1890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="47"/>
       <c r="B5" s="33" t="s">
         <v>47</v>
@@ -1769,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="76.5">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -1824,7 +1984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1834,24 +1994,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
+    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="63.75">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +2052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -1933,7 +2093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="21.95" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>54</v>
       </c>
@@ -1974,7 +2134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="47"/>
       <c r="B4" s="33" t="s">
         <v>56</v>
@@ -2013,7 +2173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="182" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="178.5">
       <c r="A5" s="47"/>
       <c r="B5" s="38" t="s">
         <v>57</v>
@@ -2052,7 +2212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="35" customFormat="1" ht="63.75">
       <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
@@ -2093,7 +2253,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="35" customFormat="1" ht="51">
       <c r="A7" s="28" t="s">
         <v>71</v>
       </c>
@@ -2134,7 +2294,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>41</v>
       </c>
@@ -2175,7 +2335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="47"/>
       <c r="B9" s="33" t="s">
         <v>47</v>
@@ -2214,7 +2374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="76.5">
       <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
@@ -2270,35 +2430,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N68"/>
+  <dimension ref="B1:N86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="33" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="40" customWidth="1"/>
-    <col min="5" max="6" width="20.33203125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="40" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="18" customWidth="1"/>
     <col min="11" max="11" width="14" style="19" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="19" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="1026" width="21.6640625" customWidth="1"/>
+    <col min="15" max="1026" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="24" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" s="24" customFormat="1" ht="76.5">
       <c r="B1" s="41" t="s">
         <v>13</v>
       </c>
@@ -2339,14 +2499,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B2" s="56" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="33" t="s">
         <v>30</v>
       </c>
@@ -2366,14 +2528,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="49"/>
+    <row r="3" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B3" s="57"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="E3" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="33" t="s">
@@ -2392,14 +2556,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
+    <row r="4" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B4" s="57"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="27" t="s">
+        <v>155</v>
+      </c>
       <c r="E4" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="33" t="s">
@@ -2417,12 +2583,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49"/>
+    <row r="5" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B5" s="57"/>
       <c r="C5" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="27"/>
+        <v>150</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>156</v>
+      </c>
       <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
@@ -2436,14 +2604,16 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="49"/>
+    <row r="6" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B6" s="57"/>
       <c r="C6" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="33" t="s">
@@ -2455,14 +2625,16 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
+    <row r="7" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B7" s="57"/>
       <c r="C7" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="33" t="s">
@@ -2474,12 +2646,14 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="49"/>
+    <row r="8" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B8" s="57"/>
       <c r="C8" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="33"/>
       <c r="F8" s="28"/>
       <c r="G8" s="33" t="s">
@@ -2491,400 +2665,428 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
-      <c r="C9" s="34" t="s">
+    <row r="9" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B9" s="57"/>
+      <c r="C9" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="33" t="s">
+      <c r="D9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+    </row>
+    <row r="10" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B10" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B11" s="62"/>
+      <c r="C11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+    </row>
+    <row r="12" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B12" s="62"/>
+      <c r="C12" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B13" s="62"/>
+      <c r="C13" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B14" s="62"/>
+      <c r="C14" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B15" s="62"/>
+      <c r="C15" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B16" s="62"/>
+      <c r="C16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B17" s="62"/>
+      <c r="C17" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B18" s="62"/>
+      <c r="C18" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B19" s="62"/>
+      <c r="C19" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B20" s="62"/>
+      <c r="C20" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B21" s="62"/>
+      <c r="C21" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+    </row>
+    <row r="22" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B22" s="62"/>
+      <c r="C22" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B23" s="62"/>
+      <c r="C23" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+    </row>
+    <row r="24" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B24" s="62"/>
+      <c r="C24" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B25" s="62"/>
+      <c r="C25" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="33" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+    </row>
+    <row r="26" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B26" s="62"/>
+      <c r="C26" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+    </row>
+    <row r="27" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="49"/>
-      <c r="C11" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-    </row>
-    <row r="12" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
-      <c r="C12" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
-      <c r="C13" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
-      <c r="C14" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
-      <c r="C15" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="49"/>
-      <c r="C16" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
-      <c r="C17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="50"/>
-      <c r="C18" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="52"/>
-      <c r="C20" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="52"/>
-      <c r="C21" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="52"/>
-      <c r="C22" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
-      <c r="C23" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="53"/>
-      <c r="C24" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="55"/>
-      <c r="C26" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="55"/>
-      <c r="C27" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="55"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B28" s="56" t="s">
+        <v>106</v>
+      </c>
       <c r="C28" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="33"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="33" t="s">
+        <v>93</v>
+      </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="55"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B29" s="57"/>
       <c r="C29" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="33"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="G29" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="55"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B30" s="57"/>
       <c r="C30" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="43"/>
+        <v>80</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
@@ -2893,15 +3095,19 @@
       <c r="M30" s="19"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="55"/>
+    <row r="31" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B31" s="57"/>
       <c r="C31" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="43"/>
+        <v>78</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="G31" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
@@ -2910,15 +3116,19 @@
       <c r="M31" s="19"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="56"/>
+    <row r="32" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B32" s="57"/>
       <c r="C32" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="43"/>
+        <v>98</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28"/>
       <c r="J32" s="28"/>
@@ -2927,18 +3137,18 @@
       <c r="M32" s="19"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="51" t="s">
-        <v>118</v>
-      </c>
+    <row r="33" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B33" s="57"/>
       <c r="C33" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="43"/>
+        <v>79</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="33" t="s">
-        <v>120</v>
+      <c r="G33" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28"/>
@@ -2948,16 +3158,18 @@
       <c r="M33" s="19"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="B34" s="57"/>
       <c r="C34" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="43"/>
+        <v>99</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="33" t="s">
-        <v>120</v>
+      <c r="G34" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28"/>
@@ -2967,16 +3179,18 @@
       <c r="M34" s="19"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
       <c r="B35" s="57"/>
       <c r="C35" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="43"/>
+        <v>101</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="33" t="s">
-        <v>44</v>
+      <c r="G35" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
@@ -2986,18 +3200,18 @@
       <c r="M35" s="19"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="43"/>
+    <row r="36" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="33" t="s">
-        <v>120</v>
+      <c r="G36" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
@@ -3007,17 +3221,17 @@
       <c r="M36" s="19"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="53"/>
-      <c r="C37" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="43"/>
+    <row r="37" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B37" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="27"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="33" t="s">
-        <v>44</v>
-      </c>
+      <c r="G37" s="46"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
@@ -3026,554 +3240,965 @@
       <c r="M37" s="19"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="54" t="s">
-        <v>121</v>
-      </c>
+    <row r="38" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B38" s="59"/>
       <c r="C38" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
+        <v>103</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B39" s="59"/>
       <c r="C39" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
+        <v>98</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
       <c r="K39" s="34"/>
       <c r="L39" s="34"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B40" s="59"/>
+      <c r="C40" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
       <c r="K40" s="34"/>
       <c r="L40" s="34"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="55"/>
-      <c r="C41" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="41" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B41" s="59"/>
+      <c r="C41" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="55"/>
-      <c r="C42" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B42" s="52"/>
+      <c r="C42" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
       <c r="K42" s="34"/>
       <c r="L42" s="34"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="55"/>
-      <c r="C43" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B43" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
       <c r="K43" s="34"/>
       <c r="L43" s="34"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="56"/>
-      <c r="C44" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B44" s="54"/>
+      <c r="C44" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
       <c r="K44" s="34"/>
       <c r="L44" s="34"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="58" t="s">
-        <v>129</v>
-      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B45" s="54"/>
       <c r="C45" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
+        <v>108</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="34"/>
       <c r="L45" s="34"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="59"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B46" s="54"/>
       <c r="C46" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+        <v>84</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="59"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B47" s="54"/>
       <c r="C47" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+        <v>109</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
       <c r="K47" s="34"/>
       <c r="L47" s="34"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="59"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="18"/>
+    </row>
+    <row r="48" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B48" s="54"/>
       <c r="C48" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
+        <v>111</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="34"/>
       <c r="L48" s="34"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="59"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="18"/>
+    </row>
+    <row r="49" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B49" s="54"/>
       <c r="C49" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
+        <v>112</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
       <c r="K49" s="34"/>
       <c r="L49" s="34"/>
-      <c r="M49"/>
-      <c r="N49"/>
-    </row>
-    <row r="50" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="58" t="s">
-        <v>134</v>
-      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="18"/>
+    </row>
+    <row r="50" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B50" s="55"/>
       <c r="C50" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
+        <v>110</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="59"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="18"/>
+    </row>
+    <row r="51" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B51" s="51" t="s">
+        <v>118</v>
+      </c>
       <c r="C51" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
+        <v>114</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
       <c r="K51" s="34"/>
       <c r="L51" s="34"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="59"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="18"/>
+    </row>
+    <row r="52" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B52" s="60"/>
       <c r="C52" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
+        <v>115</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
       <c r="G52" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
       <c r="K52" s="34"/>
       <c r="L52" s="34"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="59"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="18"/>
+    </row>
+    <row r="53" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B53" s="60"/>
       <c r="C53" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
+        <v>116</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="60"/>
-      <c r="C54" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="43"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="18"/>
+    </row>
+    <row r="54" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B54" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
       <c r="G54" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
+        <v>120</v>
+      </c>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B55" s="52"/>
+      <c r="C55" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
       <c r="G55" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
+        <v>44</v>
+      </c>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="59"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="18"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="C56" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
+        <v>122</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
       <c r="G56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="59"/>
+    <row r="57" spans="2:14">
+      <c r="B57" s="54"/>
       <c r="C57" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
+        <v>116</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
       <c r="G57" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
+        <v>44</v>
+      </c>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="59"/>
-      <c r="C58" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
+    <row r="58" spans="2:14">
+      <c r="B58" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="60"/>
-      <c r="C59" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
+    <row r="59" spans="2:14">
+      <c r="B59" s="54"/>
+      <c r="C59" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
     </row>
-    <row r="60" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B60" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
+    <row r="60" spans="2:14">
+      <c r="B60" s="54"/>
+      <c r="C60" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
     </row>
-    <row r="61" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B61" s="59"/>
-      <c r="C61" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
+    <row r="61" spans="2:14">
+      <c r="B61" s="54"/>
+      <c r="C61" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="59"/>
-      <c r="C62" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
+    <row r="62" spans="2:14">
+      <c r="B62" s="55"/>
+      <c r="C62" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="60"/>
+    <row r="63" spans="2:14">
+      <c r="B63" s="48" t="s">
+        <v>129</v>
+      </c>
       <c r="C63" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
+        <v>122</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
       <c r="G63" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
+        <v>120</v>
+      </c>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="58" t="s">
-        <v>128</v>
-      </c>
+    <row r="64" spans="2:14">
+      <c r="B64" s="49"/>
       <c r="C64" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
+        <v>130</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
+        <v>120</v>
+      </c>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="59"/>
+    <row r="65" spans="2:14">
+      <c r="B65" s="49"/>
       <c r="C65" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
+        <v>173</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
       <c r="G65" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
+        <v>120</v>
+      </c>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="59"/>
+    <row r="66" spans="2:14">
+      <c r="B66" s="49"/>
       <c r="C66" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
+        <v>131</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
       <c r="G66" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
+        <v>120</v>
+      </c>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B67" s="59"/>
+    <row r="67" spans="2:14" ht="25.5">
+      <c r="B67" s="49"/>
       <c r="C67" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
+        <v>140</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
       <c r="G67" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
+        <v>132</v>
+      </c>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="60"/>
+      <c r="M67"/>
+      <c r="N67"/>
+    </row>
+    <row r="68" spans="2:14" ht="25.5" customHeight="1">
+      <c r="B68" s="48" t="s">
+        <v>133</v>
+      </c>
       <c r="C68" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
+        <v>114</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
+        <v>120</v>
+      </c>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
     </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="49"/>
+      <c r="C69" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="49"/>
+      <c r="C70" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="49"/>
+      <c r="C71" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="50"/>
+      <c r="C72" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="49"/>
+      <c r="C74" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="49"/>
+      <c r="C75" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="49"/>
+      <c r="C76" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="50"/>
+      <c r="C77" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+    </row>
+    <row r="78" spans="2:14" ht="25.5">
+      <c r="B78" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+    </row>
+    <row r="79" spans="2:14" ht="25.5">
+      <c r="B79" s="49"/>
+      <c r="C79" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="49"/>
+      <c r="C80" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="50"/>
+      <c r="C81" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="49"/>
+      <c r="C83" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="49"/>
+      <c r="C84" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="49"/>
+      <c r="C85" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="50"/>
+      <c r="C86" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B68"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B54"/>
+  <mergeCells count="14">
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B10:B27"/>
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B68:B72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="274">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Login page</t>
-  </si>
-  <si>
     <t>Forgot password?</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>Surname</t>
   </si>
   <si>
-    <t>Birth of date</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
@@ -660,9 +654,6 @@
     <t>aboutus_spread_way</t>
   </si>
   <si>
-    <t>Signup page</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
@@ -696,9 +687,6 @@
     <t>settlement</t>
   </si>
   <si>
-    <t>education-level</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -712,6 +700,225 @@
   </si>
   <si>
     <t>signup</t>
+  </si>
+  <si>
+    <t>Employer Login page</t>
+  </si>
+  <si>
+    <t>link to Google addin Code</t>
+  </si>
+  <si>
+    <t>Open employee signup page</t>
+  </si>
+  <si>
+    <t>Employee Login page</t>
+  </si>
+  <si>
+    <t>Employee Signup page</t>
+  </si>
+  <si>
+    <t>Employer Signup page</t>
+  </si>
+  <si>
+    <t>Open employer signup page</t>
+  </si>
+  <si>
+    <t>Signup Tab</t>
+  </si>
+  <si>
+    <t>Your Company</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>fill in first name</t>
+  </si>
+  <si>
+    <t>fill in last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex </t>
+  </si>
+  <si>
+    <t>Sex (Male, Female)</t>
+  </si>
+  <si>
+    <t>sex selected (Male or Female)</t>
+  </si>
+  <si>
+    <t>Date of birth(Year, Month, Day)</t>
+  </si>
+  <si>
+    <t>date of Birth (Year, Month, Day)</t>
+  </si>
+  <si>
+    <t>Date of birth</t>
+  </si>
+  <si>
+    <t>Date of birth selected (Year, Month and Day)</t>
+  </si>
+  <si>
+    <t>Education level selected (Primary, Secondary, High school, Certificate, Ordinary Diploma, Advanced Diploma, Bachelor Degree, Masters, Doctorial, or Professional)</t>
+  </si>
+  <si>
+    <t>education-_evel</t>
+  </si>
+  <si>
+    <t>fill in course taken</t>
+  </si>
+  <si>
+    <t>fill in phone number</t>
+  </si>
+  <si>
+    <t>fill in address</t>
+  </si>
+  <si>
+    <t>fill in post office box</t>
+  </si>
+  <si>
+    <t>fill in password</t>
+  </si>
+  <si>
+    <t>fill in password again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graduation year selected </t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>fill in surname</t>
+  </si>
+  <si>
+    <t>File (pdf format)</t>
+  </si>
+  <si>
+    <t>fill in name of school</t>
+  </si>
+  <si>
+    <t>Award selected (First class, Upper second class, Lower second class, Pass or Fail)</t>
+  </si>
+  <si>
+    <t>fill in skills</t>
+  </si>
+  <si>
+    <t>fill in work experince</t>
+  </si>
+  <si>
+    <t>Uploading a resume</t>
+  </si>
+  <si>
+    <t>fill in job title</t>
+  </si>
+  <si>
+    <t>fill in job location</t>
+  </si>
+  <si>
+    <t>fill in company name or job title</t>
+  </si>
+  <si>
+    <t>Display job search results</t>
+  </si>
+  <si>
+    <t>Display salary search results</t>
+  </si>
+  <si>
+    <t>fill in company name</t>
+  </si>
+  <si>
+    <t>Display company search results</t>
+  </si>
+  <si>
+    <t>fill in pssword</t>
+  </si>
+  <si>
+    <t>Open Job description page</t>
+  </si>
+  <si>
+    <t>Open Application settings page</t>
+  </si>
+  <si>
+    <t>Open Job details page</t>
+  </si>
+  <si>
+    <t>Open Getting started page</t>
+  </si>
+  <si>
+    <t>Application settings page</t>
+  </si>
+  <si>
+    <t>Job description page</t>
+  </si>
+  <si>
+    <t>Company size selected (1-49, 50-149, 150-249, 250-499, 500-749, 750-999, 1000+)</t>
+  </si>
+  <si>
+    <t>fill in person full name</t>
+  </si>
+  <si>
+    <t>Spread way selected (Radio, TV, Newspaper, Social media, Online video, Streaming audio, Search engine, Mail, Words of mouth or Others)</t>
+  </si>
+  <si>
+    <t>fill in Job titl</t>
+  </si>
+  <si>
+    <t>fill in location</t>
+  </si>
+  <si>
+    <t>Back to Account information page</t>
+  </si>
+  <si>
+    <t>Type of job selected (Full time, Part time, Temporary, Contract, Internship, Permanent)</t>
+  </si>
+  <si>
+    <t>fill in job salary</t>
+  </si>
+  <si>
+    <t>salary timre range selected (Per hour, Per day, Per week, Per month, Per year)</t>
+  </si>
+  <si>
+    <t>Back to Getting started page</t>
+  </si>
+  <si>
+    <t>Application media selected (Email or in-person)</t>
+  </si>
+  <si>
+    <t>fill in email</t>
+  </si>
+  <si>
+    <t>Back to Job details page</t>
+  </si>
+  <si>
+    <t>fill in job description</t>
+  </si>
+  <si>
+    <t>fill in required education</t>
+  </si>
+  <si>
+    <t>fill in required skills</t>
+  </si>
+  <si>
+    <t>fill in required experience</t>
+  </si>
+  <si>
+    <t>fill in settlement</t>
+  </si>
+  <si>
+    <t>fill in  nationality</t>
+  </si>
+  <si>
+    <t>fill in nationality</t>
+  </si>
+  <si>
+    <t>fill in position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subpage </t>
   </si>
 </sst>
 </file>
@@ -957,7 +1164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,18 +1297,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1112,18 +1328,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1136,8 +1340,14 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1477,7 +1687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1850,7 +2060,7 @@
       <c r="M3" s="31"/>
     </row>
     <row r="4" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -1891,7 +2101,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="33" t="s">
         <v>47</v>
       </c>
@@ -2094,7 +2304,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="35" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -2135,7 +2345,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="33" t="s">
         <v>56</v>
       </c>
@@ -2174,7 +2384,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="35" customFormat="1" ht="178.5">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
@@ -2295,7 +2505,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="49" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="33" t="s">
@@ -2336,7 +2546,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="33" t="s">
         <v>47</v>
       </c>
@@ -2434,10 +2644,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:N86"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2500,8 +2710,8 @@
       </c>
     </row>
     <row r="2" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B2" s="56" t="s">
-        <v>94</v>
+      <c r="B2" s="50" t="s">
+        <v>204</v>
       </c>
       <c r="C2" s="34" t="s">
         <v>85</v>
@@ -2529,15 +2739,15 @@
       </c>
     </row>
     <row r="3" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B3" s="57"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="33" t="s">
@@ -2557,15 +2767,15 @@
       </c>
     </row>
     <row r="4" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="33" t="s">
@@ -2584,12 +2794,12 @@
       </c>
     </row>
     <row r="5" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B5" s="57"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>30</v>
@@ -2605,15 +2815,15 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B6" s="57"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="33" t="s">
@@ -2626,7 +2836,7 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B7" s="57"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="34" t="s">
         <v>88</v>
       </c>
@@ -2634,7 +2844,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="33" t="s">
@@ -2647,14 +2857,16 @@
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B8" s="57"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="33" t="s">
+        <v>202</v>
+      </c>
       <c r="F8" s="28"/>
       <c r="G8" s="33" t="s">
         <v>93</v>
@@ -2666,14 +2878,16 @@
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B9" s="57"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="45" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="F9" s="46"/>
       <c r="G9" s="33" t="s">
         <v>44</v>
@@ -2685,19 +2899,21 @@
       <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B10" s="61" t="s">
-        <v>187</v>
+      <c r="B10" s="60" t="s">
+        <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="33"/>
+        <v>190</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>212</v>
+      </c>
       <c r="F10" s="46"/>
       <c r="G10" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
@@ -2706,17 +2922,19 @@
       <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B11" s="62"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="34" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="33"/>
+        <v>191</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>213</v>
+      </c>
       <c r="F11" s="46"/>
       <c r="G11" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="46"/>
@@ -2725,14 +2943,16 @@
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B12" s="62"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="34" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="33"/>
+        <v>214</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="F12" s="46"/>
       <c r="G12" s="33" t="s">
         <v>38</v>
@@ -2744,17 +2964,19 @@
       <c r="L12" s="46"/>
     </row>
     <row r="13" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B13" s="62"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="34" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="33"/>
+        <v>193</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>220</v>
+      </c>
       <c r="F13" s="46"/>
       <c r="G13" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
@@ -2763,17 +2985,19 @@
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B14" s="62"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="33"/>
+        <v>194</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>271</v>
+      </c>
       <c r="F14" s="46"/>
       <c r="G14" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="46"/>
@@ -2782,17 +3006,19 @@
       <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B15" s="62"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="33"/>
+        <v>195</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>269</v>
+      </c>
       <c r="F15" s="46"/>
       <c r="G15" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="46"/>
@@ -2800,18 +3026,20 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B16" s="62"/>
+    <row r="16" spans="2:14" s="35" customFormat="1" ht="117.75" customHeight="1">
+      <c r="B16" s="61"/>
       <c r="C16" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="33"/>
+        <v>222</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>221</v>
+      </c>
       <c r="F16" s="46"/>
       <c r="G16" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
@@ -2820,17 +3048,19 @@
       <c r="L16" s="46"/>
     </row>
     <row r="17" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B17" s="62"/>
-      <c r="C17" s="64" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="48" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="33"/>
+        <v>155</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>223</v>
+      </c>
       <c r="F17" s="46"/>
       <c r="G17" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
@@ -2839,17 +3069,19 @@
       <c r="L17" s="46"/>
     </row>
     <row r="18" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B18" s="62"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="34" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="33"/>
+        <v>156</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>233</v>
+      </c>
       <c r="F18" s="46"/>
       <c r="G18" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="46"/>
@@ -2858,17 +3090,19 @@
       <c r="L18" s="46"/>
     </row>
     <row r="19" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B19" s="62"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="33"/>
+        <v>157</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>229</v>
+      </c>
       <c r="F19" s="46"/>
       <c r="G19" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="46"/>
@@ -2877,17 +3111,19 @@
       <c r="L19" s="46"/>
     </row>
     <row r="20" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B20" s="62"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="33"/>
+        <v>173</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>224</v>
+      </c>
       <c r="F20" s="46"/>
       <c r="G20" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
@@ -2896,17 +3132,19 @@
       <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B21" s="62"/>
+      <c r="B21" s="61"/>
       <c r="C21" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="33"/>
+        <v>196</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>263</v>
+      </c>
       <c r="F21" s="46"/>
       <c r="G21" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="46"/>
@@ -2915,17 +3153,19 @@
       <c r="L21" s="46"/>
     </row>
     <row r="22" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B22" s="62"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="33"/>
+        <v>197</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>225</v>
+      </c>
       <c r="F22" s="46"/>
       <c r="G22" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
@@ -2934,17 +3174,19 @@
       <c r="L22" s="46"/>
     </row>
     <row r="23" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B23" s="62"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="33"/>
+        <v>198</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>226</v>
+      </c>
       <c r="F23" s="46"/>
       <c r="G23" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
@@ -2953,17 +3195,19 @@
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="62"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="35" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="33"/>
+        <v>152</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>150</v>
+      </c>
       <c r="F24" s="46"/>
       <c r="G24" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
@@ -2972,17 +3216,19 @@
       <c r="L24" s="46"/>
     </row>
     <row r="25" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="62"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="34" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="33"/>
+        <v>153</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>227</v>
+      </c>
       <c r="F25" s="46"/>
       <c r="G25" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
@@ -2991,17 +3237,19 @@
       <c r="L25" s="46"/>
     </row>
     <row r="26" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B26" s="62"/>
-      <c r="C26" s="64" t="s">
-        <v>189</v>
+      <c r="B26" s="61"/>
+      <c r="C26" s="48" t="s">
+        <v>186</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="33"/>
+        <v>199</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>228</v>
+      </c>
       <c r="F26" s="46"/>
       <c r="G26" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
@@ -3010,14 +3258,16 @@
       <c r="L26" s="46"/>
     </row>
     <row r="27" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="48" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="E27" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>203</v>
+      </c>
       <c r="F27" s="28"/>
       <c r="G27" s="33" t="s">
         <v>93</v>
@@ -3035,16 +3285,18 @@
       </c>
     </row>
     <row r="28" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B28" s="56" t="s">
-        <v>106</v>
+      <c r="B28" s="50" t="s">
+        <v>104</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="33"/>
+        <v>95</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F28" s="28"/>
       <c r="G28" s="33" t="s">
         <v>93</v>
@@ -3056,17 +3308,19 @@
       <c r="L28" s="28"/>
     </row>
     <row r="29" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B29" s="57"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="33"/>
+        <v>96</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F29" s="28"/>
       <c r="G29" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
@@ -3075,14 +3329,16 @@
       <c r="L29" s="28"/>
     </row>
     <row r="30" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B30" s="57"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="28"/>
+      <c r="D30" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28" t="s">
         <v>30</v>
@@ -3096,14 +3352,16 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B31" s="57"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="28"/>
+      <c r="D31" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28" t="s">
         <v>30</v>
@@ -3117,14 +3375,16 @@
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B32" s="57"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28" t="s">
         <v>30</v>
@@ -3138,14 +3398,16 @@
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B33" s="57"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="28"/>
+      <c r="D33" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28" t="s">
         <v>30</v>
@@ -3159,14 +3421,16 @@
       <c r="N33" s="18"/>
     </row>
     <row r="34" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B34" s="57"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="28"/>
+        <v>98</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28" t="s">
         <v>30</v>
@@ -3180,14 +3444,16 @@
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B35" s="57"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28" t="s">
         <v>30</v>
@@ -3201,14 +3467,16 @@
       <c r="N35" s="18"/>
     </row>
     <row r="36" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B36" s="58"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="28"/>
+        <v>99</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28" t="s">
         <v>30</v>
@@ -3222,16 +3490,22 @@
       <c r="N36" s="18"/>
     </row>
     <row r="37" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="51" t="s">
-        <v>107</v>
+      <c r="B37" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
+      <c r="D37" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>212</v>
+      </c>
       <c r="F37" s="28"/>
-      <c r="G37" s="46"/>
+      <c r="G37" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
       <c r="J37" s="28"/>
@@ -3241,14 +3515,20 @@
       <c r="N37" s="18"/>
     </row>
     <row r="38" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="59"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>231</v>
+      </c>
       <c r="F38" s="28"/>
-      <c r="G38" s="46"/>
+      <c r="G38" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
       <c r="J38" s="28"/>
@@ -3258,14 +3538,20 @@
       <c r="N38" s="18"/>
     </row>
     <row r="39" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="59"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>216</v>
+      </c>
       <c r="F39" s="28"/>
-      <c r="G39" s="46"/>
+      <c r="G39" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
@@ -3275,14 +3561,20 @@
       <c r="N39" s="18"/>
     </row>
     <row r="40" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="59"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
+      <c r="D40" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>225</v>
+      </c>
       <c r="F40" s="28"/>
-      <c r="G40" s="46"/>
+      <c r="G40" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
@@ -3292,14 +3584,20 @@
       <c r="N40" s="18"/>
     </row>
     <row r="41" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="59"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
+        <v>219</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>220</v>
+      </c>
       <c r="F41" s="28"/>
-      <c r="G41" s="46"/>
+      <c r="G41" s="33" t="s">
+        <v>130</v>
+      </c>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
       <c r="J41" s="28"/>
@@ -3309,14 +3607,20 @@
       <c r="N41" s="18"/>
     </row>
     <row r="42" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B42" s="52"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
+        <v>103</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="F42" s="28"/>
-      <c r="G42" s="46"/>
+      <c r="G42" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28"/>
       <c r="J42" s="28"/>
@@ -3326,18 +3630,22 @@
       <c r="N42" s="18"/>
     </row>
     <row r="43" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B43" s="53" t="s">
-        <v>113</v>
+      <c r="B43" s="56" t="s">
+        <v>111</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="28"/>
+        <v>155</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>223</v>
+      </c>
       <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28"/>
@@ -3347,16 +3655,20 @@
       <c r="N43" s="18"/>
     </row>
     <row r="44" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B44" s="54"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E44" s="28"/>
+        <v>156</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>233</v>
+      </c>
       <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="33" t="s">
+        <v>118</v>
+      </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28"/>
@@ -3366,16 +3678,20 @@
       <c r="N44" s="18"/>
     </row>
     <row r="45" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="54"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="28"/>
+        <v>157</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>229</v>
+      </c>
       <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="33" t="s">
+        <v>130</v>
+      </c>
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
@@ -3384,17 +3700,21 @@
       <c r="M45" s="19"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B46" s="54"/>
+    <row r="46" spans="2:14" s="35" customFormat="1" ht="50.25" customHeight="1">
+      <c r="B46" s="57"/>
       <c r="C46" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="28"/>
+        <v>158</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>234</v>
+      </c>
       <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="33" t="s">
+        <v>130</v>
+      </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -3403,17 +3723,21 @@
       <c r="M46" s="19"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B47" s="54"/>
+    <row r="47" spans="2:14" s="35" customFormat="1" ht="101.25" customHeight="1">
+      <c r="B47" s="57"/>
       <c r="C47" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="28"/>
+        <v>159</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>221</v>
+      </c>
       <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="33" t="s">
+        <v>130</v>
+      </c>
       <c r="H47" s="28"/>
       <c r="I47" s="28"/>
       <c r="J47" s="28"/>
@@ -3423,16 +3747,20 @@
       <c r="N47" s="18"/>
     </row>
     <row r="48" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B48" s="54"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="28"/>
+        <v>160</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>235</v>
+      </c>
       <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="G48" s="33" t="s">
+        <v>147</v>
+      </c>
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
       <c r="J48" s="28"/>
@@ -3441,17 +3769,21 @@
       <c r="M48" s="19"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B49" s="54"/>
+    <row r="49" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B49" s="57"/>
       <c r="C49" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="28"/>
+        <v>161</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>236</v>
+      </c>
       <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="G49" s="33" t="s">
+        <v>147</v>
+      </c>
       <c r="H49" s="28"/>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
@@ -3460,17 +3792,21 @@
       <c r="M49" s="19"/>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B50" s="55"/>
+    <row r="50" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B50" s="58"/>
       <c r="C50" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="28"/>
+        <v>162</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>237</v>
+      </c>
       <c r="F50" s="28"/>
-      <c r="G50" s="33"/>
+      <c r="G50" s="33" t="s">
+        <v>232</v>
+      </c>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
       <c r="J50" s="28"/>
@@ -3479,20 +3815,22 @@
       <c r="M50" s="19"/>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B51" s="51" t="s">
-        <v>118</v>
+    <row r="51" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B51" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="28"/>
+        <v>163</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>238</v>
+      </c>
       <c r="F51" s="28"/>
       <c r="G51" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -3502,18 +3840,20 @@
       <c r="M51" s="19"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B52" s="60"/>
+    <row r="52" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B52" s="59"/>
       <c r="C52" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="28"/>
+        <v>164</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>239</v>
+      </c>
       <c r="F52" s="28"/>
       <c r="G52" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -3523,15 +3863,17 @@
       <c r="M52" s="19"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B53" s="60"/>
+    <row r="53" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B53" s="59"/>
       <c r="C53" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="28"/>
+        <v>165</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>241</v>
+      </c>
       <c r="F53" s="28"/>
       <c r="G53" s="33" t="s">
         <v>44</v>
@@ -3544,20 +3886,22 @@
       <c r="M53" s="19"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="51" t="s">
+    <row r="54" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B54" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="D54" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="28"/>
+        <v>166</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>240</v>
+      </c>
       <c r="F54" s="28"/>
       <c r="G54" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28"/>
@@ -3567,15 +3911,17 @@
       <c r="M54" s="19"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B55" s="52"/>
+    <row r="55" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B55" s="55"/>
       <c r="C55" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" s="28"/>
+        <v>167</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>242</v>
+      </c>
       <c r="F55" s="28"/>
       <c r="G55" s="33" t="s">
         <v>44</v>
@@ -3588,20 +3934,22 @@
       <c r="M55" s="19"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="53" t="s">
-        <v>121</v>
+    <row r="56" spans="1:14">
+      <c r="B56" s="56" t="s">
+        <v>119</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="43"/>
+        <v>168</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>243</v>
+      </c>
       <c r="F56" s="43"/>
       <c r="G56" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H56" s="43"/>
       <c r="I56" s="43"/>
@@ -3609,15 +3957,17 @@
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
     </row>
-    <row r="57" spans="2:14">
-      <c r="B57" s="54"/>
+    <row r="57" spans="1:14" ht="25.5">
+      <c r="B57" s="57"/>
       <c r="C57" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="43"/>
+        <v>169</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>244</v>
+      </c>
       <c r="F57" s="43"/>
       <c r="G57" s="33" t="s">
         <v>44</v>
@@ -3628,438 +3978,512 @@
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
     </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>124</v>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
+      <c r="A58" s="35"/>
+      <c r="B58" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="D58" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="54"/>
-      <c r="C59" s="45" t="s">
-        <v>125</v>
+      <c r="E58" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="47"/>
+      <c r="G58" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="47"/>
+      <c r="L58" s="47"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="35"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="54"/>
-      <c r="C60" s="45" t="s">
-        <v>126</v>
+        <v>152</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="47"/>
+      <c r="G59" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="35"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="54"/>
-      <c r="C61" s="45" t="s">
-        <v>127</v>
+        <v>153</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" s="47"/>
+      <c r="G60" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="47"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="35"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="34" t="s">
+        <v>148</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-    </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="55"/>
-      <c r="C62" s="45" t="s">
-        <v>128</v>
+        <v>154</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="47"/>
+      <c r="G61" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="47"/>
+    </row>
+    <row r="62" spans="1:14" ht="25.5">
+      <c r="A62" s="35"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="D62" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
-    </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="34" t="s">
+      <c r="E62" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="47"/>
+      <c r="G62" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+    </row>
+    <row r="63" spans="1:14" ht="25.5">
+      <c r="A63" s="35"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="47"/>
+      <c r="G63" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="35"/>
+      <c r="B64" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="47"/>
+      <c r="G64" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="35"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" s="47"/>
+      <c r="G65" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66" spans="1:14" ht="25.5" customHeight="1">
+      <c r="A66" s="35"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" s="47"/>
+      <c r="G66" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+    </row>
+    <row r="67" spans="1:14" ht="25.5">
+      <c r="A67" s="35"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="47"/>
+      <c r="G67" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="35"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="47"/>
+      <c r="G68" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="35"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F69" s="47"/>
+      <c r="G69" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="35"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F70" s="47"/>
+      <c r="G70" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="35"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="F71" s="47"/>
+      <c r="G71" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="35"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="47"/>
+      <c r="G72" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="35"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" s="47"/>
+      <c r="G73" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="35"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F74" s="47"/>
+      <c r="G74" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H74" s="47"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="35"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" s="47"/>
+      <c r="G75" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="35"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" s="47"/>
+      <c r="G76" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="35"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="47"/>
+      <c r="G77" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H77" s="47"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="35"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="47"/>
+      <c r="G78" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H78" s="47"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+    </row>
+    <row r="79" spans="1:14" ht="25.5">
+      <c r="A79" s="35"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="47"/>
+      <c r="G79" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="B80" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="49"/>
-      <c r="C64" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="49"/>
-      <c r="C65" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="49"/>
-      <c r="C66" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-    </row>
-    <row r="67" spans="2:14" ht="25.5">
-      <c r="B67" s="49"/>
-      <c r="C67" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="2:14" ht="25.5" customHeight="1">
-      <c r="B68" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" s="49"/>
-      <c r="C69" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="49"/>
-      <c r="C70" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="49"/>
-      <c r="C71" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" s="50"/>
-      <c r="C72" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" s="49"/>
-      <c r="C74" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" s="49"/>
-      <c r="C75" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="B76" s="49"/>
-      <c r="C76" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="B77" s="50"/>
-      <c r="C77" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-    </row>
-    <row r="78" spans="2:14" ht="25.5">
-      <c r="B78" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-    </row>
-    <row r="79" spans="2:14" ht="25.5">
-      <c r="B79" s="49"/>
-      <c r="C79" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-    </row>
-    <row r="80" spans="2:14">
-      <c r="B80" s="49"/>
-      <c r="C80" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="43"/>
+      <c r="D80" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F80" s="43"/>
-      <c r="G80" s="34" t="s">
-        <v>44</v>
+      <c r="G80" s="33" t="s">
+        <v>273</v>
       </c>
       <c r="H80" s="43"/>
       <c r="I80" s="43"/>
@@ -4068,17 +4492,19 @@
       <c r="L80" s="34"/>
     </row>
     <row r="81" spans="2:12">
-      <c r="B81" s="50"/>
-      <c r="C81" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="43"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F81" s="43"/>
       <c r="G81" s="33" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="H81" s="43"/>
       <c r="I81" s="43"/>
@@ -4087,19 +4513,19 @@
       <c r="L81" s="34"/>
     </row>
     <row r="82" spans="2:12">
-      <c r="B82" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E82" s="43"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F82" s="43"/>
       <c r="G82" s="33" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="H82" s="43"/>
       <c r="I82" s="43"/>
@@ -4108,17 +4534,19 @@
       <c r="L82" s="34"/>
     </row>
     <row r="83" spans="2:12">
-      <c r="B83" s="49"/>
-      <c r="C83" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="E83" s="43"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F83" s="43"/>
       <c r="G83" s="33" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="H83" s="43"/>
       <c r="I83" s="43"/>
@@ -4127,17 +4555,19 @@
       <c r="L83" s="34"/>
     </row>
     <row r="84" spans="2:12">
-      <c r="B84" s="49"/>
-      <c r="C84" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" s="43"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F84" s="43"/>
       <c r="G84" s="33" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
@@ -4146,17 +4576,21 @@
       <c r="L84" s="34"/>
     </row>
     <row r="85" spans="2:12">
-      <c r="B85" s="49"/>
+      <c r="B85" s="63" t="s">
+        <v>127</v>
+      </c>
       <c r="C85" s="34" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="43"/>
+        <v>168</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>243</v>
+      </c>
       <c r="F85" s="43"/>
       <c r="G85" s="33" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="H85" s="43"/>
       <c r="I85" s="43"/>
@@ -4164,18 +4598,20 @@
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="2:12">
-      <c r="B86" s="50"/>
+    <row r="86" spans="2:12" ht="51">
+      <c r="B86" s="64"/>
       <c r="C86" s="34" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E86" s="43"/>
+        <v>170</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>252</v>
+      </c>
       <c r="F86" s="43"/>
       <c r="G86" s="33" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="H86" s="43"/>
       <c r="I86" s="43"/>
@@ -4183,22 +4619,515 @@
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
     </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="64"/>
+      <c r="C87" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="F87" s="43"/>
+      <c r="G87" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="64"/>
+      <c r="C88" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F88" s="43"/>
+      <c r="G88" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+    </row>
+    <row r="89" spans="2:12" ht="89.25">
+      <c r="B89" s="64"/>
+      <c r="C89" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="F89" s="47"/>
+      <c r="G89" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+    </row>
+    <row r="90" spans="2:12" ht="25.5">
+      <c r="B90" s="64"/>
+      <c r="C90" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F90" s="43"/>
+      <c r="G90" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="64"/>
+      <c r="C92" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="43"/>
+      <c r="G92" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="64"/>
+      <c r="C93" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" s="43"/>
+      <c r="G93" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+    </row>
+    <row r="94" spans="2:12" ht="25.5">
+      <c r="B94" s="64"/>
+      <c r="C94" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="F94" s="43"/>
+      <c r="G94" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="65"/>
+      <c r="C95" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+    </row>
+    <row r="96" spans="2:12" ht="51">
+      <c r="B96" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="G96" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="64"/>
+      <c r="C97" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" s="43"/>
+      <c r="G97" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+    </row>
+    <row r="98" spans="2:12" ht="51">
+      <c r="B98" s="64"/>
+      <c r="C98" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98" s="43"/>
+      <c r="G98" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="34"/>
+    </row>
+    <row r="99" spans="2:12" ht="25.5">
+      <c r="B99" s="64"/>
+      <c r="C99" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F99" s="43"/>
+      <c r="G99" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="34"/>
+    </row>
+    <row r="100" spans="2:12" ht="25.5">
+      <c r="B100" s="65"/>
+      <c r="C100" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" s="43"/>
+      <c r="G100" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="34"/>
+      <c r="L100" s="34"/>
+    </row>
+    <row r="101" spans="2:12" ht="38.25">
+      <c r="B101" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F101" s="43"/>
+      <c r="G101" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+    </row>
+    <row r="102" spans="2:12" ht="25.5">
+      <c r="B102" s="64"/>
+      <c r="C102" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" s="43"/>
+      <c r="G102" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="34"/>
+      <c r="L102" s="34"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="64"/>
+      <c r="C103" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="34"/>
+      <c r="L103" s="34"/>
+    </row>
+    <row r="104" spans="2:12" ht="25.5">
+      <c r="B104" s="65"/>
+      <c r="C104" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104" s="43"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="34"/>
+      <c r="L104" s="34"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F105" s="43"/>
+      <c r="G105" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H105" s="43"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="34"/>
+      <c r="L105" s="34"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="64"/>
+      <c r="C106" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="F106" s="43"/>
+      <c r="G106" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="34"/>
+      <c r="L106" s="34"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="64"/>
+      <c r="C107" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107" s="43"/>
+      <c r="G107" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="34"/>
+      <c r="L107" s="34"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="64"/>
+      <c r="C108" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="F108" s="43"/>
+      <c r="G108" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="34"/>
+      <c r="L108" s="34"/>
+    </row>
+    <row r="109" spans="2:12">
+      <c r="B109" s="65"/>
+      <c r="C109" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" s="43"/>
+      <c r="G109" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H109" s="43"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="34"/>
+      <c r="L109" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B79"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="B91:B95"/>
     <mergeCell ref="B28:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B10:B27"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25260" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <definedName name="Print_Titles_0" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="3">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="273">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -765,9 +770,6 @@
     <t>Education level selected (Primary, Secondary, High school, Certificate, Ordinary Diploma, Advanced Diploma, Bachelor Degree, Masters, Doctorial, or Professional)</t>
   </si>
   <si>
-    <t>education-_evel</t>
-  </si>
-  <si>
     <t>fill in course taken</t>
   </si>
   <si>
@@ -924,8 +926,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1309,46 +1311,46 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1687,38 +1689,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.6" customHeight="1">
+    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1750,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1759,42 +1761,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.35" customHeight="1">
+    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1824,7 +1826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1833,28 +1835,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1884,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1893,7 +1895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1913,7 +1915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1923,24 +1925,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="32" customFormat="1" ht="27.95" customHeight="1">
+    <row r="3" spans="1:13" s="32" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>33</v>
       </c>
@@ -2059,7 +2061,7 @@
       <c r="L3" s="30"/>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
         <v>41</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="33" t="s">
         <v>47</v>
@@ -2139,7 +2141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="37" customFormat="1" ht="76.5">
+    <row r="6" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>50</v>
       </c>
@@ -2194,7 +2196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2204,24 +2206,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="17" customWidth="1"/>
+    <col min="4" max="5" width="20.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="18" customWidth="1"/>
     <col min="10" max="10" width="14" style="19" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="14" max="1025" width="21.7109375" customWidth="1"/>
+    <col min="14" max="1025" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="24" customFormat="1" ht="63.75">
+    <row r="1" spans="1:13" s="24" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="32" customFormat="1" ht="89.25">
+    <row r="2" spans="1:13" s="32" customFormat="1" ht="91" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="21.95" customHeight="1">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
         <v>54</v>
       </c>
@@ -2344,7 +2346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:13" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="B4" s="33" t="s">
         <v>56</v>
@@ -2383,7 +2385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="35" customFormat="1" ht="178.5">
+    <row r="5" spans="1:13" s="35" customFormat="1" ht="182" x14ac:dyDescent="0.2">
       <c r="A5" s="49"/>
       <c r="B5" s="38" t="s">
         <v>57</v>
@@ -2422,7 +2424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="63.75">
+    <row r="6" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>61</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="35" customFormat="1" ht="51">
+    <row r="7" spans="1:13" s="35" customFormat="1" ht="52" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>71</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="23.1" customHeight="1">
+    <row r="8" spans="1:13" s="35" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>41</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:13" s="35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49"/>
       <c r="B9" s="33" t="s">
         <v>47</v>
@@ -2584,7 +2586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="37" customFormat="1" ht="76.5">
+    <row r="10" spans="1:13" s="37" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>50</v>
       </c>
@@ -2640,35 +2642,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="33" style="19" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="40" customWidth="1"/>
-    <col min="5" max="6" width="20.28515625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="40" customWidth="1"/>
+    <col min="5" max="6" width="20.33203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="18" customWidth="1"/>
     <col min="11" max="11" width="14" style="19" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="19" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="1026" width="21.7109375" customWidth="1"/>
+    <col min="15" max="1026" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="24" customFormat="1" ht="76.5">
+    <row r="1" spans="2:14" s="24" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="B1" s="41" t="s">
         <v>13</v>
       </c>
@@ -2709,7 +2711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="2" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="50" t="s">
         <v>204</v>
       </c>
@@ -2738,7 +2740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="3" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
@@ -2766,7 +2768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="4" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
@@ -2793,7 +2795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="5" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="51"/>
       <c r="C5" s="34" t="s">
         <v>148</v>
@@ -2814,7 +2816,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="6" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="34" t="s">
         <v>94</v>
@@ -2835,7 +2837,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="7" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="34" t="s">
         <v>88</v>
@@ -2856,7 +2858,7 @@
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
-    <row r="8" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="8" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="34" t="s">
         <v>89</v>
@@ -2877,7 +2879,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
-    <row r="9" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="9" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="45" t="s">
         <v>90</v>
@@ -2898,8 +2900,8 @@
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
     </row>
-    <row r="10" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B10" s="60" t="s">
+    <row r="10" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="52" t="s">
         <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -2921,8 +2923,8 @@
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
     </row>
-    <row r="11" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B11" s="61"/>
+    <row r="11" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="53"/>
       <c r="C11" s="34" t="s">
         <v>78</v>
       </c>
@@ -2942,8 +2944,8 @@
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
     </row>
-    <row r="12" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B12" s="61"/>
+    <row r="12" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="53"/>
       <c r="C12" s="34" t="s">
         <v>215</v>
       </c>
@@ -2963,8 +2965,8 @@
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
     </row>
-    <row r="13" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B13" s="61"/>
+    <row r="13" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="53"/>
       <c r="C13" s="34" t="s">
         <v>217</v>
       </c>
@@ -2984,8 +2986,8 @@
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
     </row>
-    <row r="14" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B14" s="61"/>
+    <row r="14" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="53"/>
       <c r="C14" s="34" t="s">
         <v>98</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>194</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="33" t="s">
@@ -3005,8 +3007,8 @@
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
     </row>
-    <row r="15" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B15" s="61"/>
+    <row r="15" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="53"/>
       <c r="C15" s="34" t="s">
         <v>188</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>195</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="33" t="s">
@@ -3026,13 +3028,13 @@
       <c r="K15" s="46"/>
       <c r="L15" s="46"/>
     </row>
-    <row r="16" spans="2:14" s="35" customFormat="1" ht="117.75" customHeight="1">
-      <c r="B16" s="61"/>
+    <row r="16" spans="2:14" s="35" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="53"/>
       <c r="C16" s="34" t="s">
         <v>107</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>221</v>
@@ -3047,8 +3049,8 @@
       <c r="K16" s="46"/>
       <c r="L16" s="46"/>
     </row>
-    <row r="17" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B17" s="61"/>
+    <row r="17" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="53"/>
       <c r="C17" s="48" t="s">
         <v>83</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>155</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="33" t="s">
@@ -3068,8 +3070,8 @@
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
     </row>
-    <row r="18" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B18" s="61"/>
+    <row r="18" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="53"/>
       <c r="C18" s="34" t="s">
         <v>185</v>
       </c>
@@ -3077,7 +3079,7 @@
         <v>156</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F18" s="46"/>
       <c r="G18" s="33" t="s">
@@ -3089,8 +3091,8 @@
       <c r="K18" s="46"/>
       <c r="L18" s="46"/>
     </row>
-    <row r="19" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B19" s="61"/>
+    <row r="19" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="53"/>
       <c r="C19" s="34" t="s">
         <v>106</v>
       </c>
@@ -3098,7 +3100,7 @@
         <v>157</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="33" t="s">
@@ -3110,8 +3112,8 @@
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
     </row>
-    <row r="20" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B20" s="61"/>
+    <row r="20" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="53"/>
       <c r="C20" s="34" t="s">
         <v>100</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>173</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="33" t="s">
@@ -3131,8 +3133,8 @@
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
     </row>
-    <row r="21" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B21" s="61"/>
+    <row r="21" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="53"/>
       <c r="C21" s="34" t="s">
         <v>99</v>
       </c>
@@ -3140,7 +3142,7 @@
         <v>196</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="33" t="s">
@@ -3152,8 +3154,8 @@
       <c r="K21" s="46"/>
       <c r="L21" s="46"/>
     </row>
-    <row r="22" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B22" s="61"/>
+    <row r="22" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="53"/>
       <c r="C22" s="19" t="s">
         <v>189</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>197</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F22" s="46"/>
       <c r="G22" s="33" t="s">
@@ -3173,8 +3175,8 @@
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B23" s="61"/>
+    <row r="23" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="53"/>
       <c r="C23" s="19" t="s">
         <v>187</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>198</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F23" s="46"/>
       <c r="G23" s="33" t="s">
@@ -3194,8 +3196,8 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B24" s="61"/>
+    <row r="24" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="53"/>
       <c r="C24" s="35" t="s">
         <v>86</v>
       </c>
@@ -3215,8 +3217,8 @@
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B25" s="61"/>
+    <row r="25" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="53"/>
       <c r="C25" s="34" t="s">
         <v>87</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>153</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F25" s="46"/>
       <c r="G25" s="33" t="s">
@@ -3236,8 +3238,8 @@
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B26" s="61"/>
+    <row r="26" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="53"/>
       <c r="C26" s="48" t="s">
         <v>186</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>199</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="33" t="s">
@@ -3257,8 +3259,8 @@
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B27" s="62"/>
+    <row r="27" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="54"/>
       <c r="C27" s="48" t="s">
         <v>90</v>
       </c>
@@ -3284,7 +3286,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="28" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="50" t="s">
         <v>104</v>
       </c>
@@ -3307,7 +3309,7 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
     </row>
-    <row r="29" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="29" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="51"/>
       <c r="C29" s="34" t="s">
         <v>96</v>
@@ -3328,7 +3330,7 @@
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="30" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="51"/>
       <c r="C30" s="34" t="s">
         <v>80</v>
@@ -3351,7 +3353,7 @@
       <c r="M30" s="19"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="31" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="51"/>
       <c r="C31" s="34" t="s">
         <v>78</v>
@@ -3374,7 +3376,7 @@
       <c r="M31" s="19"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="32" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="51"/>
       <c r="C32" s="34" t="s">
         <v>97</v>
@@ -3397,7 +3399,7 @@
       <c r="M32" s="19"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="33" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="51"/>
       <c r="C33" s="34" t="s">
         <v>79</v>
@@ -3420,7 +3422,7 @@
       <c r="M33" s="19"/>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="34" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="51"/>
       <c r="C34" s="34" t="s">
         <v>98</v>
@@ -3443,7 +3445,7 @@
       <c r="M34" s="19"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
+    <row r="35" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="51"/>
       <c r="C35" s="34" t="s">
         <v>100</v>
@@ -3466,8 +3468,8 @@
       <c r="M35" s="19"/>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B36" s="52"/>
+    <row r="36" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="63"/>
       <c r="C36" s="34" t="s">
         <v>99</v>
       </c>
@@ -3489,8 +3491,8 @@
       <c r="M36" s="19"/>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B37" s="53" t="s">
+    <row r="37" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="58" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -3514,16 +3516,16 @@
       <c r="M37" s="19"/>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B38" s="54"/>
+    <row r="38" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="64"/>
       <c r="C38" s="34" t="s">
         <v>102</v>
       </c>
       <c r="D38" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>230</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>231</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="33" t="s">
@@ -3537,8 +3539,8 @@
       <c r="M38" s="19"/>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B39" s="54"/>
+    <row r="39" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="64"/>
       <c r="C39" s="34" t="s">
         <v>97</v>
       </c>
@@ -3560,8 +3562,8 @@
       <c r="M39" s="19"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B40" s="54"/>
+    <row r="40" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="64"/>
       <c r="C40" s="34" t="s">
         <v>81</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="33" t="s">
@@ -3583,8 +3585,8 @@
       <c r="M40" s="19"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B41" s="54"/>
+    <row r="41" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="64"/>
       <c r="C41" s="34" t="s">
         <v>219</v>
       </c>
@@ -3606,8 +3608,8 @@
       <c r="M41" s="19"/>
       <c r="N41" s="18"/>
     </row>
-    <row r="42" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B42" s="55"/>
+    <row r="42" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="59"/>
       <c r="C42" s="34" t="s">
         <v>103</v>
       </c>
@@ -3629,8 +3631,8 @@
       <c r="M42" s="19"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B43" s="56" t="s">
+    <row r="43" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="60" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -3640,7 +3642,7 @@
         <v>155</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="33" t="s">
@@ -3654,8 +3656,8 @@
       <c r="M43" s="19"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B44" s="57"/>
+    <row r="44" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="61"/>
       <c r="C44" s="34" t="s">
         <v>82</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>156</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="33" t="s">
@@ -3677,8 +3679,8 @@
       <c r="M44" s="19"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B45" s="57"/>
+    <row r="45" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="61"/>
       <c r="C45" s="34" t="s">
         <v>106</v>
       </c>
@@ -3686,7 +3688,7 @@
         <v>157</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="33" t="s">
@@ -3700,8 +3702,8 @@
       <c r="M45" s="19"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="2:14" s="35" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B46" s="57"/>
+    <row r="46" spans="2:14" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="61"/>
       <c r="C46" s="34" t="s">
         <v>84</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>158</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="33" t="s">
@@ -3723,8 +3725,8 @@
       <c r="M46" s="19"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="2:14" s="35" customFormat="1" ht="101.25" customHeight="1">
-      <c r="B47" s="57"/>
+    <row r="47" spans="2:14" s="35" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="61"/>
       <c r="C47" s="34" t="s">
         <v>107</v>
       </c>
@@ -3746,8 +3748,8 @@
       <c r="M47" s="19"/>
       <c r="N47" s="18"/>
     </row>
-    <row r="48" spans="2:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B48" s="57"/>
+    <row r="48" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="61"/>
       <c r="C48" s="34" t="s">
         <v>109</v>
       </c>
@@ -3755,7 +3757,7 @@
         <v>160</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="33" t="s">
@@ -3769,8 +3771,8 @@
       <c r="M48" s="19"/>
       <c r="N48" s="18"/>
     </row>
-    <row r="49" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B49" s="57"/>
+    <row r="49" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="61"/>
       <c r="C49" s="34" t="s">
         <v>110</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>161</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="33" t="s">
@@ -3792,8 +3794,8 @@
       <c r="M49" s="19"/>
       <c r="N49" s="18"/>
     </row>
-    <row r="50" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B50" s="58"/>
+    <row r="50" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="62"/>
       <c r="C50" s="34" t="s">
         <v>108</v>
       </c>
@@ -3801,11 +3803,11 @@
         <v>162</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H50" s="28"/>
       <c r="I50" s="28"/>
@@ -3815,8 +3817,8 @@
       <c r="M50" s="19"/>
       <c r="N50" s="18"/>
     </row>
-    <row r="51" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B51" s="53" t="s">
+    <row r="51" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="58" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="34" t="s">
@@ -3826,7 +3828,7 @@
         <v>163</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="33" t="s">
@@ -3840,8 +3842,8 @@
       <c r="M51" s="19"/>
       <c r="N51" s="18"/>
     </row>
-    <row r="52" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B52" s="59"/>
+    <row r="52" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="65"/>
       <c r="C52" s="34" t="s">
         <v>113</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>164</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="33" t="s">
@@ -3863,8 +3865,8 @@
       <c r="M52" s="19"/>
       <c r="N52" s="18"/>
     </row>
-    <row r="53" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B53" s="59"/>
+    <row r="53" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="65"/>
       <c r="C53" s="34" t="s">
         <v>114</v>
       </c>
@@ -3872,7 +3874,7 @@
         <v>165</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="33" t="s">
@@ -3886,8 +3888,8 @@
       <c r="M53" s="19"/>
       <c r="N53" s="18"/>
     </row>
-    <row r="54" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B54" s="53" t="s">
+    <row r="54" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="58" t="s">
         <v>115</v>
       </c>
       <c r="C54" s="44" t="s">
@@ -3897,7 +3899,7 @@
         <v>166</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="33" t="s">
@@ -3911,8 +3913,8 @@
       <c r="M54" s="19"/>
       <c r="N54" s="18"/>
     </row>
-    <row r="55" spans="1:14" s="35" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B55" s="55"/>
+    <row r="55" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="59"/>
       <c r="C55" s="44" t="s">
         <v>114</v>
       </c>
@@ -3920,7 +3922,7 @@
         <v>167</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="33" t="s">
@@ -3934,8 +3936,8 @@
       <c r="M55" s="19"/>
       <c r="N55" s="18"/>
     </row>
-    <row r="56" spans="1:14">
-      <c r="B56" s="56" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="60" t="s">
         <v>119</v>
       </c>
       <c r="C56" s="34" t="s">
@@ -3945,7 +3947,7 @@
         <v>168</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="33" t="s">
@@ -3957,8 +3959,8 @@
       <c r="K56" s="34"/>
       <c r="L56" s="34"/>
     </row>
-    <row r="57" spans="1:14" ht="25.5">
-      <c r="B57" s="57"/>
+    <row r="57" spans="1:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B57" s="61"/>
       <c r="C57" s="34" t="s">
         <v>114</v>
       </c>
@@ -3966,7 +3968,7 @@
         <v>169</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="33" t="s">
@@ -3978,7 +3980,7 @@
       <c r="K57" s="34"/>
       <c r="L57" s="34"/>
     </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1">
+    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="B58" s="50" t="s">
         <v>201</v>
@@ -4002,7 +4004,7 @@
       <c r="K58" s="47"/>
       <c r="L58" s="47"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="B59" s="51"/>
       <c r="C59" s="34" t="s">
@@ -4024,7 +4026,7 @@
       <c r="K59" s="47"/>
       <c r="L59" s="47"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="B60" s="51"/>
       <c r="C60" s="34" t="s">
@@ -4034,7 +4036,7 @@
         <v>153</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F60" s="47"/>
       <c r="G60" s="33" t="s">
@@ -4046,7 +4048,7 @@
       <c r="K60" s="47"/>
       <c r="L60" s="47"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="B61" s="51"/>
       <c r="C61" s="34" t="s">
@@ -4068,7 +4070,7 @@
       <c r="K61" s="47"/>
       <c r="L61" s="47"/>
     </row>
-    <row r="62" spans="1:14" ht="25.5">
+    <row r="62" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="B62" s="51"/>
       <c r="C62" s="34" t="s">
@@ -4090,7 +4092,7 @@
       <c r="K62" s="47"/>
       <c r="L62" s="47"/>
     </row>
-    <row r="63" spans="1:14" ht="25.5">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="B63" s="51"/>
       <c r="C63" s="45" t="s">
@@ -4112,9 +4114,9 @@
       <c r="K63" s="47"/>
       <c r="L63" s="47"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="35"/>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="52" t="s">
         <v>206</v>
       </c>
       <c r="C64" s="34" t="s">
@@ -4136,9 +4138,9 @@
       <c r="K64" s="47"/>
       <c r="L64" s="47"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
-      <c r="B65" s="61"/>
+      <c r="B65" s="53"/>
       <c r="C65" s="34" t="s">
         <v>78</v>
       </c>
@@ -4160,9 +4162,9 @@
       <c r="M65"/>
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:14" ht="25.5" customHeight="1">
+    <row r="66" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
-      <c r="B66" s="61"/>
+      <c r="B66" s="53"/>
       <c r="C66" s="34" t="s">
         <v>97</v>
       </c>
@@ -4182,9 +4184,9 @@
       <c r="K66" s="47"/>
       <c r="L66" s="47"/>
     </row>
-    <row r="67" spans="1:14" ht="25.5">
+    <row r="67" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
-      <c r="B67" s="61"/>
+      <c r="B67" s="53"/>
       <c r="C67" s="34" t="s">
         <v>218</v>
       </c>
@@ -4204,9 +4206,9 @@
       <c r="K67" s="47"/>
       <c r="L67" s="47"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="35"/>
-      <c r="B68" s="61"/>
+      <c r="B68" s="53"/>
       <c r="C68" s="34" t="s">
         <v>98</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>194</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F68" s="47"/>
       <c r="G68" s="33" t="s">
@@ -4226,9 +4228,9 @@
       <c r="K68" s="47"/>
       <c r="L68" s="47"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
-      <c r="B69" s="61"/>
+      <c r="B69" s="53"/>
       <c r="C69" s="34" t="s">
         <v>188</v>
       </c>
@@ -4236,7 +4238,7 @@
         <v>195</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F69" s="47"/>
       <c r="G69" s="33" t="s">
@@ -4248,9 +4250,9 @@
       <c r="K69" s="47"/>
       <c r="L69" s="47"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
-      <c r="B70" s="61"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="34" t="s">
         <v>209</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>168</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F70" s="47"/>
       <c r="G70" s="33" t="s">
@@ -4270,9 +4272,9 @@
       <c r="K70" s="47"/>
       <c r="L70" s="47"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
-      <c r="B71" s="61"/>
+      <c r="B71" s="53"/>
       <c r="C71" s="34" t="s">
         <v>210</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>211</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71" s="47"/>
       <c r="G71" s="33" t="s">
@@ -4292,9 +4294,9 @@
       <c r="K71" s="47"/>
       <c r="L71" s="47"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
-      <c r="B72" s="61"/>
+      <c r="B72" s="53"/>
       <c r="C72" s="34" t="s">
         <v>100</v>
       </c>
@@ -4302,7 +4304,7 @@
         <v>173</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F72" s="47"/>
       <c r="G72" s="33" t="s">
@@ -4314,9 +4316,9 @@
       <c r="K72" s="47"/>
       <c r="L72" s="47"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
-      <c r="B73" s="61"/>
+      <c r="B73" s="53"/>
       <c r="C73" s="34" t="s">
         <v>99</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>196</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F73" s="47"/>
       <c r="G73" s="33" t="s">
@@ -4336,9 +4338,9 @@
       <c r="K73" s="47"/>
       <c r="L73" s="47"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
-      <c r="B74" s="61"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="34" t="s">
         <v>189</v>
       </c>
@@ -4346,7 +4348,7 @@
         <v>197</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F74" s="47"/>
       <c r="G74" s="33" t="s">
@@ -4358,9 +4360,9 @@
       <c r="K74" s="47"/>
       <c r="L74" s="47"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
-      <c r="B75" s="61"/>
+      <c r="B75" s="53"/>
       <c r="C75" s="34" t="s">
         <v>187</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>198</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F75" s="47"/>
       <c r="G75" s="33" t="s">
@@ -4380,9 +4382,9 @@
       <c r="K75" s="47"/>
       <c r="L75" s="47"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
-      <c r="B76" s="61"/>
+      <c r="B76" s="53"/>
       <c r="C76" s="33" t="s">
         <v>86</v>
       </c>
@@ -4402,9 +4404,9 @@
       <c r="K76" s="47"/>
       <c r="L76" s="47"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
-      <c r="B77" s="61"/>
+      <c r="B77" s="53"/>
       <c r="C77" s="34" t="s">
         <v>87</v>
       </c>
@@ -4412,7 +4414,7 @@
         <v>153</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F77" s="47"/>
       <c r="G77" s="33" t="s">
@@ -4424,9 +4426,9 @@
       <c r="K77" s="47"/>
       <c r="L77" s="47"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="35"/>
-      <c r="B78" s="61"/>
+      <c r="B78" s="53"/>
       <c r="C78" s="48" t="s">
         <v>186</v>
       </c>
@@ -4434,7 +4436,7 @@
         <v>199</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F78" s="47"/>
       <c r="G78" s="33" t="s">
@@ -4446,9 +4448,9 @@
       <c r="K78" s="47"/>
       <c r="L78" s="47"/>
     </row>
-    <row r="79" spans="1:14" ht="25.5">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="35"/>
-      <c r="B79" s="62"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="48" t="s">
         <v>208</v>
       </c>
@@ -4468,8 +4470,8 @@
       <c r="K79" s="47"/>
       <c r="L79" s="47"/>
     </row>
-    <row r="80" spans="1:14">
-      <c r="B80" s="56" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B80" s="60" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="45" t="s">
@@ -4483,7 +4485,7 @@
       </c>
       <c r="F80" s="43"/>
       <c r="G80" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H80" s="43"/>
       <c r="I80" s="43"/>
@@ -4491,8 +4493,8 @@
       <c r="K80" s="34"/>
       <c r="L80" s="34"/>
     </row>
-    <row r="81" spans="2:12">
-      <c r="B81" s="57"/>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="61"/>
       <c r="C81" s="45" t="s">
         <v>123</v>
       </c>
@@ -4504,7 +4506,7 @@
       </c>
       <c r="F81" s="43"/>
       <c r="G81" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H81" s="43"/>
       <c r="I81" s="43"/>
@@ -4512,8 +4514,8 @@
       <c r="K81" s="34"/>
       <c r="L81" s="34"/>
     </row>
-    <row r="82" spans="2:12">
-      <c r="B82" s="57"/>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="61"/>
       <c r="C82" s="45" t="s">
         <v>124</v>
       </c>
@@ -4525,7 +4527,7 @@
       </c>
       <c r="F82" s="43"/>
       <c r="G82" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H82" s="43"/>
       <c r="I82" s="43"/>
@@ -4533,8 +4535,8 @@
       <c r="K82" s="34"/>
       <c r="L82" s="34"/>
     </row>
-    <row r="83" spans="2:12">
-      <c r="B83" s="57"/>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="61"/>
       <c r="C83" s="45" t="s">
         <v>125</v>
       </c>
@@ -4546,7 +4548,7 @@
       </c>
       <c r="F83" s="43"/>
       <c r="G83" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H83" s="43"/>
       <c r="I83" s="43"/>
@@ -4554,8 +4556,8 @@
       <c r="K83" s="34"/>
       <c r="L83" s="34"/>
     </row>
-    <row r="84" spans="2:12">
-      <c r="B84" s="58"/>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B84" s="62"/>
       <c r="C84" s="45" t="s">
         <v>126</v>
       </c>
@@ -4567,7 +4569,7 @@
       </c>
       <c r="F84" s="43"/>
       <c r="G84" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
@@ -4575,8 +4577,8 @@
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
     </row>
-    <row r="85" spans="2:12">
-      <c r="B85" s="63" t="s">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B85" s="55" t="s">
         <v>127</v>
       </c>
       <c r="C85" s="34" t="s">
@@ -4586,7 +4588,7 @@
         <v>168</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F85" s="43"/>
       <c r="G85" s="33" t="s">
@@ -4598,8 +4600,8 @@
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="2:12" ht="51">
-      <c r="B86" s="64"/>
+    <row r="86" spans="2:12" ht="52" x14ac:dyDescent="0.2">
+      <c r="B86" s="56"/>
       <c r="C86" s="34" t="s">
         <v>128</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>170</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F86" s="43"/>
       <c r="G86" s="33" t="s">
@@ -4619,8 +4621,8 @@
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
     </row>
-    <row r="87" spans="2:12">
-      <c r="B87" s="64"/>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="56"/>
       <c r="C87" s="34" t="s">
         <v>171</v>
       </c>
@@ -4628,7 +4630,7 @@
         <v>172</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F87" s="43"/>
       <c r="G87" s="33" t="s">
@@ -4640,8 +4642,8 @@
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
     </row>
-    <row r="88" spans="2:12">
-      <c r="B88" s="64"/>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B88" s="56"/>
       <c r="C88" s="34" t="s">
         <v>129</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>173</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F88" s="43"/>
       <c r="G88" s="33" t="s">
@@ -4661,8 +4663,8 @@
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
     </row>
-    <row r="89" spans="2:12" ht="89.25">
-      <c r="B89" s="64"/>
+    <row r="89" spans="2:12" ht="78" x14ac:dyDescent="0.2">
+      <c r="B89" s="56"/>
       <c r="C89" s="34" t="s">
         <v>138</v>
       </c>
@@ -4670,7 +4672,7 @@
         <v>184</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F89" s="47"/>
       <c r="G89" s="33" t="s">
@@ -4682,8 +4684,8 @@
       <c r="K89" s="34"/>
       <c r="L89" s="34"/>
     </row>
-    <row r="90" spans="2:12" ht="25.5">
-      <c r="B90" s="64"/>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B90" s="56"/>
       <c r="C90" s="34" t="s">
         <v>135</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>30</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F90" s="43"/>
       <c r="G90" s="33" t="s">
@@ -4703,8 +4705,8 @@
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
     </row>
-    <row r="91" spans="2:12">
-      <c r="B91" s="63" t="s">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="55" t="s">
         <v>131</v>
       </c>
       <c r="C91" s="34" t="s">
@@ -4714,7 +4716,7 @@
         <v>163</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F91" s="43"/>
       <c r="G91" s="33" t="s">
@@ -4726,8 +4728,8 @@
       <c r="K91" s="34"/>
       <c r="L91" s="34"/>
     </row>
-    <row r="92" spans="2:12">
-      <c r="B92" s="64"/>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="56"/>
       <c r="C92" s="34" t="s">
         <v>132</v>
       </c>
@@ -4735,7 +4737,7 @@
         <v>168</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F92" s="43"/>
       <c r="G92" s="33" t="s">
@@ -4747,8 +4749,8 @@
       <c r="K92" s="34"/>
       <c r="L92" s="34"/>
     </row>
-    <row r="93" spans="2:12">
-      <c r="B93" s="64"/>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B93" s="56"/>
       <c r="C93" s="34" t="s">
         <v>133</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>174</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F93" s="43"/>
       <c r="G93" s="33" t="s">
@@ -4768,8 +4770,8 @@
       <c r="K93" s="34"/>
       <c r="L93" s="34"/>
     </row>
-    <row r="94" spans="2:12" ht="25.5">
-      <c r="B94" s="64"/>
+    <row r="94" spans="2:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="B94" s="56"/>
       <c r="C94" s="34" t="s">
         <v>134</v>
       </c>
@@ -4777,7 +4779,7 @@
         <v>30</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F94" s="43"/>
       <c r="G94" s="33" t="s">
@@ -4789,8 +4791,8 @@
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
     </row>
-    <row r="95" spans="2:12">
-      <c r="B95" s="65"/>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B95" s="57"/>
       <c r="C95" s="34" t="s">
         <v>135</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>30</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F95" s="43"/>
       <c r="G95" s="33" t="s">
@@ -4810,8 +4812,8 @@
       <c r="K95" s="34"/>
       <c r="L95" s="34"/>
     </row>
-    <row r="96" spans="2:12" ht="51">
-      <c r="B96" s="63" t="s">
+    <row r="96" spans="2:12" ht="52" x14ac:dyDescent="0.2">
+      <c r="B96" s="55" t="s">
         <v>136</v>
       </c>
       <c r="C96" s="34" t="s">
@@ -4821,7 +4823,7 @@
         <v>175</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F96" s="43"/>
       <c r="G96" s="33" t="s">
@@ -4833,8 +4835,8 @@
       <c r="K96" s="34"/>
       <c r="L96" s="34"/>
     </row>
-    <row r="97" spans="2:12">
-      <c r="B97" s="64"/>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" s="56"/>
       <c r="C97" s="34" t="s">
         <v>139</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>176</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F97" s="43"/>
       <c r="G97" s="33" t="s">
@@ -4854,8 +4856,8 @@
       <c r="K97" s="34"/>
       <c r="L97" s="34"/>
     </row>
-    <row r="98" spans="2:12" ht="51">
-      <c r="B98" s="64"/>
+    <row r="98" spans="2:12" ht="39" x14ac:dyDescent="0.2">
+      <c r="B98" s="56"/>
       <c r="C98" s="34" t="s">
         <v>140</v>
       </c>
@@ -4863,7 +4865,7 @@
         <v>177</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F98" s="43"/>
       <c r="G98" s="33" t="s">
@@ -4875,8 +4877,8 @@
       <c r="K98" s="34"/>
       <c r="L98" s="34"/>
     </row>
-    <row r="99" spans="2:12" ht="25.5">
-      <c r="B99" s="64"/>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B99" s="56"/>
       <c r="C99" s="34" t="s">
         <v>134</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>30</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F99" s="43"/>
       <c r="G99" s="33" t="s">
@@ -4896,8 +4898,8 @@
       <c r="K99" s="34"/>
       <c r="L99" s="34"/>
     </row>
-    <row r="100" spans="2:12" ht="25.5">
-      <c r="B100" s="65"/>
+    <row r="100" spans="2:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="B100" s="57"/>
       <c r="C100" s="34" t="s">
         <v>135</v>
       </c>
@@ -4905,7 +4907,7 @@
         <v>30</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F100" s="43"/>
       <c r="G100" s="33" t="s">
@@ -4917,9 +4919,9 @@
       <c r="K100" s="34"/>
       <c r="L100" s="34"/>
     </row>
-    <row r="101" spans="2:12" ht="38.25">
-      <c r="B101" s="63" t="s">
-        <v>250</v>
+    <row r="101" spans="2:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="B101" s="55" t="s">
+        <v>249</v>
       </c>
       <c r="C101" s="34" t="s">
         <v>141</v>
@@ -4928,7 +4930,7 @@
         <v>178</v>
       </c>
       <c r="E101" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F101" s="43"/>
       <c r="G101" s="34" t="s">
@@ -4940,8 +4942,8 @@
       <c r="K101" s="34"/>
       <c r="L101" s="34"/>
     </row>
-    <row r="102" spans="2:12" ht="25.5">
-      <c r="B102" s="64"/>
+    <row r="102" spans="2:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="B102" s="56"/>
       <c r="C102" s="34" t="s">
         <v>142</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>179</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F102" s="43"/>
       <c r="G102" s="34" t="s">
@@ -4961,8 +4963,8 @@
       <c r="K102" s="34"/>
       <c r="L102" s="34"/>
     </row>
-    <row r="103" spans="2:12">
-      <c r="B103" s="64"/>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B103" s="56"/>
       <c r="C103" s="34" t="s">
         <v>134</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F103" s="43"/>
       <c r="G103" s="34" t="s">
@@ -4982,8 +4984,8 @@
       <c r="K103" s="34"/>
       <c r="L103" s="34"/>
     </row>
-    <row r="104" spans="2:12" ht="25.5">
-      <c r="B104" s="65"/>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B104" s="57"/>
       <c r="C104" s="34" t="s">
         <v>135</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>30</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F104" s="43"/>
       <c r="G104" s="33" t="s">
@@ -5003,9 +5005,9 @@
       <c r="K104" s="34"/>
       <c r="L104" s="34"/>
     </row>
-    <row r="105" spans="2:12">
-      <c r="B105" s="63" t="s">
-        <v>251</v>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B105" s="55" t="s">
+        <v>250</v>
       </c>
       <c r="C105" s="34" t="s">
         <v>126</v>
@@ -5014,7 +5016,7 @@
         <v>180</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F105" s="43"/>
       <c r="G105" s="33" t="s">
@@ -5026,8 +5028,8 @@
       <c r="K105" s="34"/>
       <c r="L105" s="34"/>
     </row>
-    <row r="106" spans="2:12">
-      <c r="B106" s="64"/>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B106" s="56"/>
       <c r="C106" s="34" t="s">
         <v>145</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>181</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F106" s="43"/>
       <c r="G106" s="33" t="s">
@@ -5047,8 +5049,8 @@
       <c r="K106" s="34"/>
       <c r="L106" s="34"/>
     </row>
-    <row r="107" spans="2:12">
-      <c r="B107" s="64"/>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B107" s="56"/>
       <c r="C107" s="34" t="s">
         <v>144</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>160</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F107" s="43"/>
       <c r="G107" s="33" t="s">
@@ -5068,8 +5070,8 @@
       <c r="K107" s="34"/>
       <c r="L107" s="34"/>
     </row>
-    <row r="108" spans="2:12">
-      <c r="B108" s="64"/>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B108" s="56"/>
       <c r="C108" s="34" t="s">
         <v>143</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>182</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F108" s="43"/>
       <c r="G108" s="33" t="s">
@@ -5089,8 +5091,8 @@
       <c r="K108" s="34"/>
       <c r="L108" s="34"/>
     </row>
-    <row r="109" spans="2:12">
-      <c r="B109" s="65"/>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B109" s="57"/>
       <c r="C109" s="34" t="s">
         <v>146</v>
       </c>
@@ -5112,17 +5114,17 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B79"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="B101:B104"/>
     <mergeCell ref="B105:B109"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="B80:B84"/>
     <mergeCell ref="B85:B90"/>
     <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B79"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="B101:B104"/>
     <mergeCell ref="B28:B36"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B50"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25260" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Example!$A$1:$M$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Example 2'!$A$1:$M$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Functional Specs'!$B$1:$N$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Functional Specs'!$B$1:$P$27</definedName>
     <definedName name="Print_Area_0" localSheetId="1">Example!$A$1:$M$6</definedName>
     <definedName name="Print_Area_0" localSheetId="2">'Example 2'!$A$1:$M$10</definedName>
-    <definedName name="Print_Area_0" localSheetId="3">'Functional Specs'!$B$1:$N$27</definedName>
+    <definedName name="Print_Area_0" localSheetId="3">'Functional Specs'!$B$1:$P$27</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Example!$A:$B,Example!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Example 2'!$A:$B,'Example 2'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="277">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -921,6 +921,18 @@
   </si>
   <si>
     <t xml:space="preserve">Subpage </t>
+  </si>
+  <si>
+    <t>fill in user password</t>
+  </si>
+  <si>
+    <t>Field Name (form webdesigner to complete)</t>
+  </si>
+  <si>
+    <t>Database Field Name</t>
+  </si>
+  <si>
+    <t>Databsee field size</t>
   </si>
 </sst>
 </file>
@@ -1278,9 +1290,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1305,12 +1314,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1320,37 +1363,6 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2646,10 +2658,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2658,60 +2670,66 @@
     <col min="2" max="2" width="15.83203125" style="19" customWidth="1"/>
     <col min="3" max="3" width="33" style="19" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="40" customWidth="1"/>
-    <col min="5" max="6" width="20.33203125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="18" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="14" style="19" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="19" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="18" hidden="1" customWidth="1"/>
-    <col min="15" max="1026" width="21.6640625" customWidth="1"/>
+    <col min="5" max="8" width="20.33203125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="14" style="19" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="19" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="18" hidden="1" customWidth="1"/>
+    <col min="17" max="1028" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="24" customFormat="1" ht="65" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="2:16" s="24" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+      <c r="B1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="50" t="s">
         <v>204</v>
       </c>
@@ -2724,23 +2742,25 @@
       <c r="E2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
-      <c r="M2" s="35" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="34" t="s">
         <v>86</v>
@@ -2751,24 +2771,26 @@
       <c r="E3" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="35" t="str">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="35" t="str">
         <f>E3</f>
         <v>fill in user name</v>
       </c>
-      <c r="N3" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="34" t="s">
         <v>87</v>
@@ -2777,25 +2799,27 @@
         <v>153</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="P4" s="35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="51"/>
       <c r="C5" s="34" t="s">
         <v>148</v>
@@ -2806,17 +2830,19 @@
       <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="34" t="s">
         <v>94</v>
@@ -2827,17 +2853,19 @@
       <c r="E6" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+    </row>
+    <row r="7" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="34" t="s">
         <v>88</v>
@@ -2848,17 +2876,19 @@
       <c r="E7" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+    </row>
+    <row r="8" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="34" t="s">
         <v>89</v>
@@ -2869,19 +2899,21 @@
       <c r="E8" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="33" t="s">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -2890,18 +2922,20 @@
       <c r="E9" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-    </row>
-    <row r="10" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+    </row>
+    <row r="10" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="63" t="s">
         <v>205</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -2913,18 +2947,20 @@
       <c r="E10" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="33" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-    </row>
-    <row r="11" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="53"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="64"/>
       <c r="C11" s="34" t="s">
         <v>78</v>
       </c>
@@ -2934,18 +2970,20 @@
       <c r="E11" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="33" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-    </row>
-    <row r="12" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="53"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+    </row>
+    <row r="12" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="64"/>
       <c r="C12" s="34" t="s">
         <v>215</v>
       </c>
@@ -2955,18 +2993,20 @@
       <c r="E12" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="33" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-    </row>
-    <row r="13" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+    </row>
+    <row r="13" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="64"/>
       <c r="C13" s="34" t="s">
         <v>217</v>
       </c>
@@ -2976,18 +3016,20 @@
       <c r="E13" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-    </row>
-    <row r="14" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+    </row>
+    <row r="14" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="64"/>
       <c r="C14" s="34" t="s">
         <v>98</v>
       </c>
@@ -2997,18 +3039,20 @@
       <c r="E14" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-    </row>
-    <row r="15" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="53"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="64"/>
       <c r="C15" s="34" t="s">
         <v>188</v>
       </c>
@@ -3018,18 +3062,20 @@
       <c r="E15" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="33" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-    </row>
-    <row r="16" spans="2:14" s="35" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="53"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+    </row>
+    <row r="16" spans="2:16" s="35" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="64"/>
       <c r="C16" s="34" t="s">
         <v>107</v>
       </c>
@@ -3039,19 +3085,21 @@
       <c r="E16" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="33" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="53"/>
-      <c r="C17" s="48" t="s">
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+    </row>
+    <row r="17" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="64"/>
+      <c r="C17" s="47" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="27" t="s">
@@ -3060,18 +3108,20 @@
       <c r="E17" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F17" s="46"/>
-      <c r="G17" s="33" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-    </row>
-    <row r="18" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="53"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+    </row>
+    <row r="18" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="64"/>
       <c r="C18" s="34" t="s">
         <v>185</v>
       </c>
@@ -3081,18 +3131,20 @@
       <c r="E18" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="33" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-    </row>
-    <row r="19" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="53"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+    </row>
+    <row r="19" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="64"/>
       <c r="C19" s="34" t="s">
         <v>106</v>
       </c>
@@ -3102,18 +3154,20 @@
       <c r="E19" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="46"/>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-    </row>
-    <row r="20" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="53"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+    </row>
+    <row r="20" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="64"/>
       <c r="C20" s="34" t="s">
         <v>100</v>
       </c>
@@ -3123,18 +3177,20 @@
       <c r="E20" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-    </row>
-    <row r="21" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="53"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+    </row>
+    <row r="21" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="64"/>
       <c r="C21" s="34" t="s">
         <v>99</v>
       </c>
@@ -3144,18 +3200,20 @@
       <c r="E21" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-    </row>
-    <row r="22" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="53"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+    </row>
+    <row r="22" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="64"/>
       <c r="C22" s="19" t="s">
         <v>189</v>
       </c>
@@ -3165,18 +3223,20 @@
       <c r="E22" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="33" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="53"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="64"/>
       <c r="C23" s="19" t="s">
         <v>187</v>
       </c>
@@ -3186,18 +3246,20 @@
       <c r="E23" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="53"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+    </row>
+    <row r="24" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="64"/>
       <c r="C24" s="35" t="s">
         <v>86</v>
       </c>
@@ -3207,18 +3269,20 @@
       <c r="E24" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="33" t="s">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-    </row>
-    <row r="25" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="53"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+    </row>
+    <row r="25" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="64"/>
       <c r="C25" s="34" t="s">
         <v>87</v>
       </c>
@@ -3228,19 +3292,21 @@
       <c r="E25" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="33" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-    </row>
-    <row r="26" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="53"/>
-      <c r="C26" s="48" t="s">
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+    </row>
+    <row r="26" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="64"/>
+      <c r="C26" s="47" t="s">
         <v>186</v>
       </c>
       <c r="D26" s="27" t="s">
@@ -3249,19 +3315,21 @@
       <c r="E26" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-    </row>
-    <row r="27" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54"/>
-      <c r="C27" s="48" t="s">
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+    </row>
+    <row r="27" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="65"/>
+      <c r="C27" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="27" t="s">
@@ -3270,229 +3338,249 @@
       <c r="E27" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
       <c r="L27" s="28"/>
-      <c r="M27" s="35" t="s">
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="N27" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="50" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="33" t="s">
+      <c r="D28" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
-    </row>
-    <row r="29" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="51"/>
       <c r="C29" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="33" t="s">
+      <c r="D29" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
       <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="51"/>
       <c r="C30" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="D30" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="I30" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="J30" s="28"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="18"/>
+    </row>
+    <row r="31" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="51"/>
       <c r="C31" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="D31" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="I31" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="J31" s="28"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="18"/>
+    </row>
+    <row r="32" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="51"/>
       <c r="C32" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="D32" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="I32" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="J32" s="28"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="18"/>
+    </row>
+    <row r="33" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="51"/>
       <c r="C33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="D33" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="I33" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="J33" s="28"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="51"/>
       <c r="C34" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="D34" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="I34" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="J34" s="28"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="18"/>
+    </row>
+    <row r="35" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="51"/>
       <c r="C35" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="D35" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="I35" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="J35" s="28"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="63"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="18"/>
+    </row>
+    <row r="36" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="55"/>
       <c r="C36" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28" t="s">
-        <v>30</v>
-      </c>
+      <c r="D36" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="I36" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="J36" s="28"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="58" t="s">
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="56" t="s">
         <v>105</v>
       </c>
       <c r="C37" s="34" t="s">
@@ -3504,20 +3592,22 @@
       <c r="E37" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="28"/>
-      <c r="G37" s="33" t="s">
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="64"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="18"/>
+    </row>
+    <row r="38" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="57"/>
       <c r="C38" s="34" t="s">
         <v>102</v>
       </c>
@@ -3527,20 +3617,22 @@
       <c r="E38" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="28"/>
-      <c r="G38" s="33" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="64"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="18"/>
+    </row>
+    <row r="39" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="57"/>
       <c r="C39" s="34" t="s">
         <v>97</v>
       </c>
@@ -3550,20 +3642,22 @@
       <c r="E39" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="33" t="s">
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="18"/>
-    </row>
-    <row r="40" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="64"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="18"/>
+    </row>
+    <row r="40" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="57"/>
       <c r="C40" s="34" t="s">
         <v>81</v>
       </c>
@@ -3573,20 +3667,22 @@
       <c r="E40" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="33" t="s">
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
       <c r="J40" s="28"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="18"/>
-    </row>
-    <row r="41" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="64"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="18"/>
+    </row>
+    <row r="41" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="57"/>
       <c r="C41" s="34" t="s">
         <v>219</v>
       </c>
@@ -3596,20 +3692,22 @@
       <c r="E41" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="28"/>
-      <c r="G41" s="33" t="s">
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
       <c r="J41" s="28"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="18"/>
-    </row>
-    <row r="42" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="59"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="18"/>
+    </row>
+    <row r="42" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="58"/>
       <c r="C42" s="34" t="s">
         <v>103</v>
       </c>
@@ -3619,20 +3717,22 @@
       <c r="E42" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="28"/>
-      <c r="G42" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="I42" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="J42" s="28"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="60" t="s">
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="18"/>
+    </row>
+    <row r="43" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="59" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="34" t="s">
@@ -3644,20 +3744,22 @@
       <c r="E43" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="33" t="s">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
       <c r="J43" s="28"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="61"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="18"/>
+    </row>
+    <row r="44" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="60"/>
       <c r="C44" s="34" t="s">
         <v>82</v>
       </c>
@@ -3667,43 +3769,47 @@
       <c r="E44" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="33" t="s">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
       <c r="J44" s="28"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="61"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="18"/>
+    </row>
+    <row r="45" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="60"/>
       <c r="C45" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="33" t="s">
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
       <c r="J45" s="28"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="2:14" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="61"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="18"/>
+    </row>
+    <row r="46" spans="2:16" s="35" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="60"/>
       <c r="C46" s="34" t="s">
         <v>84</v>
       </c>
@@ -3713,20 +3819,22 @@
       <c r="E46" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="33" t="s">
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
       <c r="J46" s="28"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="18"/>
-    </row>
-    <row r="47" spans="2:14" s="35" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="61"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="18"/>
+    </row>
+    <row r="47" spans="2:16" s="35" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="60"/>
       <c r="C47" s="34" t="s">
         <v>107</v>
       </c>
@@ -3736,20 +3844,22 @@
       <c r="E47" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="33" t="s">
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="2:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="61"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="18"/>
+    </row>
+    <row r="48" spans="2:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="60"/>
       <c r="C48" s="34" t="s">
         <v>109</v>
       </c>
@@ -3759,20 +3869,22 @@
       <c r="E48" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="33" t="s">
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
       <c r="J48" s="28"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="18"/>
-    </row>
-    <row r="49" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="61"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" spans="1:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="60"/>
       <c r="C49" s="34" t="s">
         <v>110</v>
       </c>
@@ -3782,20 +3894,22 @@
       <c r="E49" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="F49" s="28"/>
-      <c r="G49" s="33" t="s">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
       <c r="J49" s="28"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="18"/>
-    </row>
-    <row r="50" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="62"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="18"/>
+    </row>
+    <row r="50" spans="1:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="61"/>
       <c r="C50" s="34" t="s">
         <v>108</v>
       </c>
@@ -3805,20 +3919,22 @@
       <c r="E50" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F50" s="28"/>
-      <c r="G50" s="33" t="s">
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
       <c r="J50" s="28"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="18"/>
-    </row>
-    <row r="51" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="58" t="s">
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="18"/>
+    </row>
+    <row r="51" spans="1:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C51" s="34" t="s">
@@ -3830,20 +3946,22 @@
       <c r="E51" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="33" t="s">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
       <c r="J51" s="28"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="65"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="18"/>
+    </row>
+    <row r="52" spans="1:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="62"/>
       <c r="C52" s="34" t="s">
         <v>113</v>
       </c>
@@ -3853,20 +3971,22 @@
       <c r="E52" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="F52" s="28"/>
-      <c r="G52" s="33" t="s">
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
       <c r="J52" s="28"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="18"/>
-    </row>
-    <row r="53" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="65"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="18"/>
+    </row>
+    <row r="53" spans="1:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="62"/>
       <c r="C53" s="34" t="s">
         <v>114</v>
       </c>
@@ -3876,23 +3996,25 @@
       <c r="E53" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="F53" s="28"/>
-      <c r="G53" s="33" t="s">
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
       <c r="J53" s="28"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="58" t="s">
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="18"/>
+    </row>
+    <row r="54" spans="1:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="43" t="s">
         <v>117</v>
       </c>
       <c r="D54" s="27" t="s">
@@ -3901,21 +4023,23 @@
       <c r="E54" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="F54" s="28"/>
-      <c r="G54" s="33" t="s">
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
       <c r="J54" s="28"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:14" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="59"/>
-      <c r="C55" s="44" t="s">
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="18"/>
+    </row>
+    <row r="55" spans="1:16" s="35" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="58"/>
+      <c r="C55" s="43" t="s">
         <v>114</v>
       </c>
       <c r="D55" s="27" t="s">
@@ -3924,20 +4048,22 @@
       <c r="E55" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="33" t="s">
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
       <c r="J55" s="28"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="60" t="s">
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="18"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="59" t="s">
         <v>119</v>
       </c>
       <c r="C56" s="34" t="s">
@@ -3949,18 +4075,20 @@
       <c r="E56" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F56" s="43"/>
-      <c r="G56" s="33" t="s">
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-    </row>
-    <row r="57" spans="1:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B57" s="61"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+    </row>
+    <row r="57" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="B57" s="60"/>
       <c r="C57" s="34" t="s">
         <v>114</v>
       </c>
@@ -3970,17 +4098,19 @@
       <c r="E57" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="F57" s="43"/>
-      <c r="G57" s="33" t="s">
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-    </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="34"/>
+    </row>
+    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="B58" s="50" t="s">
         <v>201</v>
@@ -3994,17 +4124,19 @@
       <c r="E58" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="47"/>
-      <c r="G58" s="33" t="s">
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="B59" s="51"/>
       <c r="C59" s="34" t="s">
@@ -4016,17 +4148,19 @@
       <c r="E59" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F59" s="47"/>
-      <c r="G59" s="33" t="s">
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="B60" s="51"/>
       <c r="C60" s="34" t="s">
@@ -4038,17 +4172,19 @@
       <c r="E60" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="33" t="s">
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="B61" s="51"/>
       <c r="C61" s="34" t="s">
@@ -4060,17 +4196,19 @@
       <c r="E61" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F61" s="47"/>
-      <c r="G61" s="33" t="s">
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-    </row>
-    <row r="62" spans="1:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+    </row>
+    <row r="62" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="B62" s="51"/>
       <c r="C62" s="34" t="s">
@@ -4082,20 +4220,22 @@
       <c r="E62" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="33" t="s">
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="B63" s="51"/>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="44" t="s">
         <v>90</v>
       </c>
       <c r="D63" s="27" t="s">
@@ -4104,19 +4244,21 @@
       <c r="E63" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F63" s="47"/>
-      <c r="G63" s="33" t="s">
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="35"/>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="63" t="s">
         <v>206</v>
       </c>
       <c r="C64" s="34" t="s">
@@ -4128,19 +4270,21 @@
       <c r="E64" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="47"/>
-      <c r="G64" s="33" t="s">
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
-      <c r="B65" s="53"/>
+      <c r="B65" s="64"/>
       <c r="C65" s="34" t="s">
         <v>78</v>
       </c>
@@ -4150,21 +4294,23 @@
       <c r="E65" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="F65" s="47"/>
-      <c r="G65" s="33" t="s">
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65"/>
-      <c r="N65"/>
-    </row>
-    <row r="66" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
-      <c r="B66" s="53"/>
+      <c r="B66" s="64"/>
       <c r="C66" s="34" t="s">
         <v>97</v>
       </c>
@@ -4174,19 +4320,21 @@
       <c r="E66" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="33" t="s">
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-    </row>
-    <row r="67" spans="1:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+    </row>
+    <row r="67" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
-      <c r="B67" s="53"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="34" t="s">
         <v>218</v>
       </c>
@@ -4196,19 +4344,21 @@
       <c r="E67" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="33" t="s">
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="35"/>
-      <c r="B68" s="53"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="34" t="s">
         <v>98</v>
       </c>
@@ -4218,19 +4368,21 @@
       <c r="E68" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="33" t="s">
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
-      <c r="B69" s="53"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="34" t="s">
         <v>188</v>
       </c>
@@ -4240,19 +4392,21 @@
       <c r="E69" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="F69" s="47"/>
-      <c r="G69" s="33" t="s">
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
-      <c r="B70" s="53"/>
+      <c r="B70" s="64"/>
       <c r="C70" s="34" t="s">
         <v>209</v>
       </c>
@@ -4262,19 +4416,21 @@
       <c r="E70" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F70" s="47"/>
-      <c r="G70" s="33" t="s">
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
-      <c r="B71" s="53"/>
+      <c r="B71" s="64"/>
       <c r="C71" s="34" t="s">
         <v>210</v>
       </c>
@@ -4284,19 +4440,21 @@
       <c r="E71" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="47"/>
-      <c r="G71" s="33" t="s">
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
-      <c r="B72" s="53"/>
+      <c r="B72" s="64"/>
       <c r="C72" s="34" t="s">
         <v>100</v>
       </c>
@@ -4306,19 +4464,21 @@
       <c r="E72" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="F72" s="47"/>
-      <c r="G72" s="33" t="s">
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H72" s="47"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
-      <c r="B73" s="53"/>
+      <c r="B73" s="64"/>
       <c r="C73" s="34" t="s">
         <v>99</v>
       </c>
@@ -4328,19 +4488,21 @@
       <c r="E73" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="F73" s="47"/>
-      <c r="G73" s="33" t="s">
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H73" s="47"/>
-      <c r="I73" s="47"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="47"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
-      <c r="B74" s="53"/>
+      <c r="B74" s="64"/>
       <c r="C74" s="34" t="s">
         <v>189</v>
       </c>
@@ -4350,19 +4512,21 @@
       <c r="E74" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F74" s="47"/>
-      <c r="G74" s="33" t="s">
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="47"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
-      <c r="B75" s="53"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="34" t="s">
         <v>187</v>
       </c>
@@ -4372,19 +4536,21 @@
       <c r="E75" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="F75" s="47"/>
-      <c r="G75" s="33" t="s">
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="47"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
-      <c r="B76" s="53"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="33" t="s">
         <v>86</v>
       </c>
@@ -4394,19 +4560,21 @@
       <c r="E76" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="F76" s="47"/>
-      <c r="G76" s="33" t="s">
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
-      <c r="B77" s="53"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="34" t="s">
         <v>87</v>
       </c>
@@ -4416,20 +4584,22 @@
       <c r="E77" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="F77" s="47"/>
-      <c r="G77" s="33" t="s">
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H77" s="47"/>
-      <c r="I77" s="47"/>
-      <c r="J77" s="47"/>
-      <c r="K77" s="47"/>
-      <c r="L77" s="47"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="35"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="48" t="s">
+      <c r="B78" s="64"/>
+      <c r="C78" s="47" t="s">
         <v>186</v>
       </c>
       <c r="D78" s="27" t="s">
@@ -4438,20 +4608,22 @@
       <c r="E78" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="F78" s="47"/>
-      <c r="G78" s="33" t="s">
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H78" s="47"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="47"/>
-      <c r="K78" s="47"/>
-      <c r="L78" s="47"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="35"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="48" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D79" s="27" t="s">
@@ -4460,125 +4632,137 @@
       <c r="E79" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="33" t="s">
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="60" t="s">
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B80" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C80" s="45" t="s">
+      <c r="C80" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F80" s="43"/>
-      <c r="G80" s="33" t="s">
+      <c r="D80" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="61"/>
-      <c r="C81" s="45" t="s">
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B81" s="60"/>
+      <c r="C81" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D81" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F81" s="43"/>
-      <c r="G81" s="33" t="s">
+      <c r="D81" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="61"/>
-      <c r="C82" s="45" t="s">
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82" s="60"/>
+      <c r="C82" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D82" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="43"/>
-      <c r="G82" s="33" t="s">
+      <c r="D82" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="61"/>
-      <c r="C83" s="45" t="s">
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="34"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83" s="60"/>
+      <c r="C83" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="43"/>
-      <c r="G83" s="33" t="s">
+      <c r="D83" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="62"/>
-      <c r="C84" s="45" t="s">
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="34"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84" s="61"/>
+      <c r="C84" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F84" s="43"/>
-      <c r="G84" s="33" t="s">
+      <c r="D84" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="55" t="s">
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="34"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85" s="52" t="s">
         <v>127</v>
       </c>
       <c r="C85" s="34" t="s">
@@ -4590,18 +4774,20 @@
       <c r="E85" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F85" s="43"/>
-      <c r="G85" s="33" t="s">
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-    </row>
-    <row r="86" spans="2:12" ht="52" x14ac:dyDescent="0.2">
-      <c r="B86" s="56"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+    </row>
+    <row r="86" spans="2:14" ht="52" x14ac:dyDescent="0.2">
+      <c r="B86" s="53"/>
       <c r="C86" s="34" t="s">
         <v>128</v>
       </c>
@@ -4611,18 +4797,20 @@
       <c r="E86" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="F86" s="43"/>
-      <c r="G86" s="33" t="s">
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="56"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="34"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87" s="53"/>
       <c r="C87" s="34" t="s">
         <v>171</v>
       </c>
@@ -4632,18 +4820,20 @@
       <c r="E87" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="F87" s="43"/>
-      <c r="G87" s="33" t="s">
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B88" s="56"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88" s="53"/>
       <c r="C88" s="34" t="s">
         <v>129</v>
       </c>
@@ -4653,18 +4843,20 @@
       <c r="E88" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="F88" s="43"/>
-      <c r="G88" s="33" t="s">
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-    </row>
-    <row r="89" spans="2:12" ht="78" x14ac:dyDescent="0.2">
-      <c r="B89" s="56"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+    </row>
+    <row r="89" spans="2:14" ht="78" x14ac:dyDescent="0.2">
+      <c r="B89" s="53"/>
       <c r="C89" s="34" t="s">
         <v>138</v>
       </c>
@@ -4674,18 +4866,20 @@
       <c r="E89" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="F89" s="47"/>
-      <c r="G89" s="33" t="s">
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B90" s="56"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="34"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90" s="53"/>
       <c r="C90" s="34" t="s">
         <v>135</v>
       </c>
@@ -4695,18 +4889,20 @@
       <c r="E90" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="33" t="s">
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B91" s="55" t="s">
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B91" s="52" t="s">
         <v>131</v>
       </c>
       <c r="C91" s="34" t="s">
@@ -4718,18 +4914,20 @@
       <c r="E91" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="F91" s="43"/>
-      <c r="G91" s="33" t="s">
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B92" s="56"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92" s="53"/>
       <c r="C92" s="34" t="s">
         <v>132</v>
       </c>
@@ -4739,18 +4937,20 @@
       <c r="E92" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="33" t="s">
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="56"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93" s="53"/>
       <c r="C93" s="34" t="s">
         <v>133</v>
       </c>
@@ -4760,18 +4960,20 @@
       <c r="E93" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="F93" s="43"/>
-      <c r="G93" s="33" t="s">
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-    </row>
-    <row r="94" spans="2:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="B94" s="56"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+    </row>
+    <row r="94" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B94" s="53"/>
       <c r="C94" s="34" t="s">
         <v>134</v>
       </c>
@@ -4781,18 +4983,20 @@
       <c r="E94" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="F94" s="43"/>
-      <c r="G94" s="33" t="s">
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B95" s="57"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B95" s="54"/>
       <c r="C95" s="34" t="s">
         <v>135</v>
       </c>
@@ -4802,18 +5006,20 @@
       <c r="E95" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F95" s="43"/>
-      <c r="G95" s="33" t="s">
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
-    </row>
-    <row r="96" spans="2:12" ht="52" x14ac:dyDescent="0.2">
-      <c r="B96" s="55" t="s">
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+    </row>
+    <row r="96" spans="2:14" ht="52" x14ac:dyDescent="0.2">
+      <c r="B96" s="52" t="s">
         <v>136</v>
       </c>
       <c r="C96" s="34" t="s">
@@ -4825,18 +5031,20 @@
       <c r="E96" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="33" t="s">
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B97" s="56"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B97" s="53"/>
       <c r="C97" s="34" t="s">
         <v>139</v>
       </c>
@@ -4846,18 +5054,20 @@
       <c r="E97" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="F97" s="43"/>
-      <c r="G97" s="33" t="s">
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="34"/>
-    </row>
-    <row r="98" spans="2:12" ht="39" x14ac:dyDescent="0.2">
-      <c r="B98" s="56"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="34"/>
+      <c r="N97" s="34"/>
+    </row>
+    <row r="98" spans="2:14" ht="39" x14ac:dyDescent="0.2">
+      <c r="B98" s="53"/>
       <c r="C98" s="34" t="s">
         <v>140</v>
       </c>
@@ -4867,18 +5077,20 @@
       <c r="E98" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="F98" s="43"/>
-      <c r="G98" s="33" t="s">
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B99" s="56"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B99" s="53"/>
       <c r="C99" s="34" t="s">
         <v>134</v>
       </c>
@@ -4888,18 +5100,20 @@
       <c r="E99" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="F99" s="43"/>
-      <c r="G99" s="33" t="s">
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-    </row>
-    <row r="100" spans="2:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="B100" s="57"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="34"/>
+    </row>
+    <row r="100" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B100" s="54"/>
       <c r="C100" s="34" t="s">
         <v>135</v>
       </c>
@@ -4909,18 +5123,20 @@
       <c r="E100" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F100" s="43"/>
-      <c r="G100" s="33" t="s">
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-    </row>
-    <row r="101" spans="2:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="B101" s="55" t="s">
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="34"/>
+      <c r="N100" s="34"/>
+    </row>
+    <row r="101" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B101" s="52" t="s">
         <v>249</v>
       </c>
       <c r="C101" s="34" t="s">
@@ -4929,21 +5145,23 @@
       <c r="D101" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="F101" s="43"/>
-      <c r="G101" s="34" t="s">
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-    </row>
-    <row r="102" spans="2:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="B102" s="56"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+    </row>
+    <row r="102" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B102" s="53"/>
       <c r="C102" s="34" t="s">
         <v>142</v>
       </c>
@@ -4953,18 +5171,20 @@
       <c r="E102" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="F102" s="43"/>
-      <c r="G102" s="34" t="s">
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B103" s="56"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="34"/>
+      <c r="N102" s="34"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B103" s="53"/>
       <c r="C103" s="34" t="s">
         <v>134</v>
       </c>
@@ -4974,18 +5194,20 @@
       <c r="E103" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="F103" s="43"/>
-      <c r="G103" s="34" t="s">
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B104" s="57"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="34"/>
+      <c r="N103" s="34"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B104" s="54"/>
       <c r="C104" s="34" t="s">
         <v>135</v>
       </c>
@@ -4995,18 +5217,20 @@
       <c r="E104" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F104" s="43"/>
-      <c r="G104" s="33" t="s">
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="34"/>
-      <c r="L104" s="34"/>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B105" s="55" t="s">
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="34"/>
+      <c r="N104" s="34"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B105" s="52" t="s">
         <v>250</v>
       </c>
       <c r="C105" s="34" t="s">
@@ -5018,18 +5242,20 @@
       <c r="E105" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="F105" s="43"/>
-      <c r="G105" s="33" t="s">
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="34"/>
-      <c r="L105" s="34"/>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B106" s="56"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="34"/>
+      <c r="N105" s="34"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106" s="53"/>
       <c r="C106" s="34" t="s">
         <v>145</v>
       </c>
@@ -5039,18 +5265,20 @@
       <c r="E106" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="F106" s="43"/>
-      <c r="G106" s="33" t="s">
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="34"/>
-      <c r="L106" s="34"/>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B107" s="56"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="34"/>
+      <c r="N106" s="34"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B107" s="53"/>
       <c r="C107" s="34" t="s">
         <v>144</v>
       </c>
@@ -5060,18 +5288,20 @@
       <c r="E107" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="F107" s="43"/>
-      <c r="G107" s="33" t="s">
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="34"/>
-      <c r="L107" s="34"/>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B108" s="56"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="34"/>
+      <c r="N107" s="34"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B108" s="53"/>
       <c r="C108" s="34" t="s">
         <v>143</v>
       </c>
@@ -5081,18 +5311,20 @@
       <c r="E108" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="F108" s="43"/>
-      <c r="G108" s="33" t="s">
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="34"/>
-      <c r="L108" s="34"/>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B109" s="57"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="34"/>
+      <c r="N108" s="34"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B109" s="54"/>
       <c r="C109" s="34" t="s">
         <v>146</v>
       </c>
@@ -5102,15 +5334,17 @@
       <c r="E109" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F109" s="43"/>
-      <c r="G109" s="33" t="s">
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="34"/>
-      <c r="L109" s="34"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="34"/>
+      <c r="N109" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="265">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Facebook login</t>
   </si>
   <si>
-    <t>Google login</t>
-  </si>
-  <si>
     <t>Signup</t>
   </si>
   <si>
@@ -520,9 +517,6 @@
   </si>
   <si>
     <t>Employer Login page</t>
-  </si>
-  <si>
-    <t>link to Google addin Code</t>
   </si>
   <si>
     <t>Open employee signup page</t>
@@ -1000,6 +994,27 @@
   </si>
   <si>
     <t>External Data Source (Yes, NO)</t>
+  </si>
+  <si>
+    <t>LinkedIn login</t>
+  </si>
+  <si>
+    <t>link to LinkedIn addin Code</t>
+  </si>
+  <si>
+    <t>Primary= 0, Secondary= 1, High school= 2, Certificate= 3, Ordinary Diploma= 4, Advanced Diploma= 5, Bachelor Degree= 6, Masters= 7, Doctorial or Professional= 8)</t>
+  </si>
+  <si>
+    <t>LEVEL_EDU</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>LOGO</t>
   </si>
 </sst>
 </file>
@@ -1334,61 +1349,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1405,6 +1365,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1759,14 +1774,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.19921875" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
-    <col min="3" max="3" width="38.59765625" customWidth="1"/>
-    <col min="4" max="4" width="26.3984375" customWidth="1"/>
-    <col min="5" max="5" width="26.796875" customWidth="1"/>
-    <col min="6" max="1025" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
@@ -1977,33 +1992,33 @@
   </sheetPr>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="17" customWidth="1"/>
     <col min="3" max="3" width="33" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="26" customWidth="1"/>
     <col min="5" max="5" width="27" style="16" customWidth="1"/>
-    <col min="6" max="8" width="20.3984375" style="58" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" style="16" customWidth="1"/>
+    <col min="6" max="8" width="20.33203125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="16" customWidth="1"/>
     <col min="13" max="13" width="14" style="17" customWidth="1"/>
-    <col min="14" max="14" width="24.19921875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.59765625" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="17" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="1028" width="21.59765625" customWidth="1"/>
+    <col min="17" max="1028" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="20" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
@@ -2011,19 +2026,19 @@
         <v>14</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -2051,8 +2066,8 @@
       </c>
     </row>
     <row r="2" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
-        <v>158</v>
+      <c r="B2" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>39</v>
@@ -2063,11 +2078,13 @@
       <c r="E2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
+      <c r="F2" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
       <c r="I2" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -2082,21 +2099,23 @@
       </c>
     </row>
     <row r="3" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+        <v>103</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2112,21 +2131,23 @@
       </c>
     </row>
     <row r="4" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="43"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+        <v>225</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -2141,19 +2162,19 @@
       </c>
     </row>
     <row r="5" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="23" t="s">
         <v>27</v>
       </c>
@@ -2164,21 +2185,21 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+        <v>102</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -2187,7 +2208,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="43"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="24" t="s">
         <v>42</v>
       </c>
@@ -2195,13 +2216,13 @@
         <v>24</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+        <v>104</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -2210,21 +2231,21 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="24" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+        <v>259</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -2233,19 +2254,19 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+        <v>155</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="23" t="s">
         <v>27</v>
       </c>
@@ -2256,23 +2277,23 @@
       <c r="N9" s="31"/>
     </row>
     <row r="10" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
-        <v>159</v>
+      <c r="B10" s="53" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
+        <v>164</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -2281,21 +2302,21 @@
       <c r="N10" s="31"/>
     </row>
     <row r="11" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="45"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+        <v>165</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -2304,19 +2325,19 @@
       <c r="N11" s="31"/>
     </row>
     <row r="12" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="23" t="s">
         <v>26</v>
       </c>
@@ -2327,21 +2348,21 @@
       <c r="N12" s="31"/>
     </row>
     <row r="13" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="45"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
+        <v>172</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -2350,21 +2371,21 @@
       <c r="N13" s="31"/>
     </row>
     <row r="14" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="45"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+        <v>222</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -2373,21 +2394,21 @@
       <c r="N14" s="31"/>
     </row>
     <row r="15" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="45"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+        <v>220</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
@@ -2395,22 +2416,28 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="2:16" s="25" customFormat="1" ht="78" x14ac:dyDescent="0.2">
-      <c r="B16" s="45"/>
+    <row r="16" spans="2:16" s="25" customFormat="1" ht="91" x14ac:dyDescent="0.2">
+      <c r="B16" s="54"/>
       <c r="C16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
+        <v>173</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="37">
+        <v>1</v>
+      </c>
       <c r="I16" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
@@ -2419,21 +2446,21 @@
       <c r="N16" s="31"/>
     </row>
     <row r="17" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -2442,21 +2469,21 @@
       <c r="N17" s="31"/>
     </row>
     <row r="18" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="45"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+        <v>184</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -2465,21 +2492,21 @@
       <c r="N18" s="31"/>
     </row>
     <row r="19" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="45"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
+        <v>180</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -2488,21 +2515,21 @@
       <c r="N19" s="31"/>
     </row>
     <row r="20" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="45"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
+        <v>175</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -2511,21 +2538,21 @@
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="45"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
+        <v>214</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -2534,21 +2561,21 @@
       <c r="N21" s="31"/>
     </row>
     <row r="22" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="45"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
@@ -2557,21 +2584,21 @@
       <c r="N22" s="31"/>
     </row>
     <row r="23" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="45"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
+        <v>177</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -2580,21 +2607,21 @@
       <c r="N23" s="31"/>
     </row>
     <row r="24" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="45"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+        <v>103</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -2603,21 +2630,21 @@
       <c r="N24" s="31"/>
     </row>
     <row r="25" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="45"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
+        <v>178</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -2626,21 +2653,21 @@
       <c r="N25" s="31"/>
     </row>
     <row r="26" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="45"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
+        <v>179</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -2649,21 +2676,21 @@
       <c r="N26" s="31"/>
     </row>
     <row r="27" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="46"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
+        <v>155</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
@@ -2678,11 +2705,11 @@
       </c>
     </row>
     <row r="28" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="42" t="s">
-        <v>58</v>
+      <c r="B28" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>24</v>
@@ -2690,11 +2717,11 @@
       <c r="E28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
@@ -2703,9 +2730,9 @@
       <c r="N28" s="22"/>
     </row>
     <row r="29" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="43"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>24</v>
@@ -2713,11 +2740,11 @@
       <c r="E29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
@@ -2726,7 +2753,7 @@
       <c r="N29" s="22"/>
     </row>
     <row r="30" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="43"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="24" t="s">
         <v>34</v>
       </c>
@@ -2736,9 +2763,9 @@
       <c r="E30" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="22" t="s">
         <v>24</v>
       </c>
@@ -2751,7 +2778,7 @@
       <c r="P30" s="16"/>
     </row>
     <row r="31" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="24" t="s">
         <v>32</v>
       </c>
@@ -2761,9 +2788,9 @@
       <c r="E31" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="22" t="s">
         <v>24</v>
       </c>
@@ -2776,9 +2803,9 @@
       <c r="P31" s="16"/>
     </row>
     <row r="32" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>24</v>
@@ -2786,9 +2813,9 @@
       <c r="E32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="22" t="s">
         <v>24</v>
       </c>
@@ -2801,7 +2828,7 @@
       <c r="P32" s="16"/>
     </row>
     <row r="33" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="43"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="24" t="s">
         <v>33</v>
       </c>
@@ -2811,9 +2838,9 @@
       <c r="E33" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="22" t="s">
         <v>24</v>
       </c>
@@ -2826,9 +2853,9 @@
       <c r="P33" s="16"/>
     </row>
     <row r="34" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="43"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>24</v>
@@ -2836,9 +2863,9 @@
       <c r="E34" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
       <c r="I34" s="22" t="s">
         <v>24</v>
       </c>
@@ -2851,9 +2878,9 @@
       <c r="P34" s="16"/>
     </row>
     <row r="35" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="43"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>24</v>
@@ -2861,9 +2888,9 @@
       <c r="E35" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="22" t="s">
         <v>24</v>
       </c>
@@ -2876,9 +2903,9 @@
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="47"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>24</v>
@@ -2886,9 +2913,9 @@
       <c r="E36" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
       <c r="I36" s="22" t="s">
         <v>24</v>
       </c>
@@ -2901,23 +2928,23 @@
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="37" t="s">
-        <v>59</v>
+      <c r="B37" s="46" t="s">
+        <v>58</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="56"/>
+        <v>164</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -2928,21 +2955,21 @@
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="48"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
+        <v>182</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
@@ -2953,19 +2980,19 @@
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="48"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
+        <v>168</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="23" t="s">
         <v>26</v>
       </c>
@@ -2978,7 +3005,7 @@
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="48"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="24" t="s">
         <v>35</v>
       </c>
@@ -2986,13 +3013,13 @@
         <v>35</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
@@ -3003,21 +3030,21 @@
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="48"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
+        <v>172</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -3028,9 +3055,9 @@
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="38"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>24</v>
@@ -3038,9 +3065,9 @@
       <c r="E42" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="23" t="s">
         <v>24</v>
       </c>
@@ -3053,23 +3080,23 @@
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="39" t="s">
-        <v>65</v>
+      <c r="B43" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
@@ -3080,21 +3107,21 @@
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="40"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
+        <v>184</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -3105,21 +3132,21 @@
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="40"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+        <v>180</v>
+      </c>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -3130,21 +3157,21 @@
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" s="25" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="40"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="56"/>
+        <v>185</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
@@ -3154,22 +3181,22 @@
       <c r="O46" s="17"/>
       <c r="P46" s="16"/>
     </row>
-    <row r="47" spans="2:16" s="25" customFormat="1" ht="78" x14ac:dyDescent="0.2">
-      <c r="B47" s="40"/>
+    <row r="47" spans="2:16" s="25" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+      <c r="B47" s="50"/>
       <c r="C47" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="56"/>
+        <v>173</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
@@ -3180,21 +3207,21 @@
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="40"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="56"/>
+        <v>186</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -3205,21 +3232,21 @@
       <c r="P48" s="16"/>
     </row>
     <row r="49" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="40"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="56"/>
+        <v>187</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
@@ -3230,21 +3257,21 @@
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="41"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
+        <v>188</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
@@ -3255,23 +3282,23 @@
       <c r="P50" s="16"/>
     </row>
     <row r="51" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="37" t="s">
-        <v>70</v>
+      <c r="B51" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="56"/>
+        <v>189</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
@@ -3282,21 +3309,21 @@
       <c r="P51" s="16"/>
     </row>
     <row r="52" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="49"/>
+      <c r="B52" s="52"/>
       <c r="C52" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="56"/>
+        <v>190</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
       <c r="I52" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
@@ -3307,19 +3334,19 @@
       <c r="P52" s="16"/>
     </row>
     <row r="53" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="49"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="56"/>
+        <v>192</v>
+      </c>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
       <c r="I53" s="23" t="s">
         <v>27</v>
       </c>
@@ -3332,23 +3359,23 @@
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="37" t="s">
-        <v>69</v>
+      <c r="B54" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="C54" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="23" t="s">
         <v>71</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="23" t="s">
-        <v>72</v>
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
@@ -3359,19 +3386,19 @@
       <c r="P54" s="16"/>
     </row>
     <row r="55" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="38"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="56"/>
+        <v>193</v>
+      </c>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="23" t="s">
         <v>27</v>
       </c>
@@ -3384,23 +3411,23 @@
       <c r="P55" s="16"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="D56" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
       <c r="I56" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -3408,20 +3435,20 @@
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
     </row>
-    <row r="57" spans="1:16" ht="26" x14ac:dyDescent="0.2">
-      <c r="B57" s="40"/>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B57" s="50"/>
       <c r="C57" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="56"/>
+        <v>195</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="23" t="s">
         <v>27</v>
       </c>
@@ -3433,8 +3460,8 @@
     </row>
     <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="25"/>
-      <c r="B58" s="42" t="s">
-        <v>155</v>
+      <c r="B58" s="40" t="s">
+        <v>154</v>
       </c>
       <c r="C58" s="24" t="s">
         <v>39</v>
@@ -3445,11 +3472,11 @@
       <c r="E58" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="56"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
@@ -3459,21 +3486,21 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="25"/>
-      <c r="B59" s="43"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="24" t="s">
         <v>40</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="56"/>
+        <v>103</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
@@ -3483,21 +3510,21 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="25"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="41"/>
       <c r="C60" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="56"/>
+        <v>196</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
       <c r="I60" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -3507,19 +3534,19 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="25"/>
-      <c r="B61" s="43"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="56"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
       <c r="I61" s="23" t="s">
         <v>27</v>
       </c>
@@ -3529,23 +3556,23 @@
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
     </row>
-    <row r="62" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="25"/>
-      <c r="B62" s="43"/>
+      <c r="B62" s="41"/>
       <c r="C62" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="56"/>
+        <v>102</v>
+      </c>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
@@ -3553,21 +3580,21 @@
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
     </row>
-    <row r="63" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
-      <c r="B63" s="43"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="56"/>
+        <v>159</v>
+      </c>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="23" t="s">
         <v>27</v>
       </c>
@@ -3579,23 +3606,23 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
-      <c r="B64" s="44" t="s">
-        <v>160</v>
+      <c r="B64" s="53" t="s">
+        <v>158</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="56"/>
+        <v>164</v>
+      </c>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
       <c r="I64" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
@@ -3605,21 +3632,21 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="25"/>
-      <c r="B65" s="45"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="56"/>
+        <v>165</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
       <c r="I65" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
@@ -3631,19 +3658,19 @@
     </row>
     <row r="66" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25"/>
-      <c r="B66" s="45"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="56"/>
+        <v>168</v>
+      </c>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="23" t="s">
         <v>26</v>
       </c>
@@ -3655,21 +3682,21 @@
     </row>
     <row r="67" spans="1:16" ht="26" x14ac:dyDescent="0.2">
       <c r="A67" s="25"/>
-      <c r="B67" s="45"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="56"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
       <c r="I67" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J67" s="32"/>
       <c r="K67" s="32"/>
@@ -3679,21 +3706,21 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="25"/>
-      <c r="B68" s="45"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="56"/>
+        <v>221</v>
+      </c>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
       <c r="I68" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
@@ -3703,21 +3730,21 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="25"/>
-      <c r="B69" s="45"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="56"/>
+        <v>220</v>
+      </c>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
       <c r="I69" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
@@ -3727,21 +3754,21 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="25"/>
-      <c r="B70" s="45"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
       <c r="I70" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
@@ -3751,21 +3778,21 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="25"/>
-      <c r="B71" s="45"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="56"/>
+        <v>223</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="37"/>
       <c r="I71" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
@@ -3775,21 +3802,21 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="25"/>
-      <c r="B72" s="45"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="56"/>
+        <v>175</v>
+      </c>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
       <c r="I72" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
@@ -3799,21 +3826,21 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="25"/>
-      <c r="B73" s="45"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="56"/>
+        <v>214</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
       <c r="I73" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J73" s="32"/>
       <c r="K73" s="32"/>
@@ -3823,21 +3850,21 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="25"/>
-      <c r="B74" s="45"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
       <c r="I74" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J74" s="32"/>
       <c r="K74" s="32"/>
@@ -3847,21 +3874,21 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="25"/>
-      <c r="B75" s="45"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="56"/>
+        <v>177</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
       <c r="I75" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
@@ -3871,21 +3898,21 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="25"/>
-      <c r="B76" s="45"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="56"/>
+        <v>103</v>
+      </c>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="37"/>
       <c r="I76" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
@@ -3895,21 +3922,21 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="25"/>
-      <c r="B77" s="45"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="56"/>
+        <v>178</v>
+      </c>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
       <c r="I77" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
@@ -3919,21 +3946,21 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="25"/>
-      <c r="B78" s="45"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="56"/>
+        <v>179</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="37"/>
       <c r="I78" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="32"/>
@@ -3941,21 +3968,21 @@
       <c r="M78" s="32"/>
       <c r="N78" s="32"/>
     </row>
-    <row r="79" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="25"/>
-      <c r="B79" s="46"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="56"/>
+        <v>155</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37"/>
       <c r="I79" s="23" t="s">
         <v>27</v>
       </c>
@@ -3966,23 +3993,23 @@
       <c r="N79" s="32"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>76</v>
-      </c>
       <c r="D80" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E80" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
       <c r="I80" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
@@ -3991,9 +4018,9 @@
       <c r="N80" s="24"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="40"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D81" s="32" t="s">
         <v>24</v>
@@ -4001,11 +4028,11 @@
       <c r="E81" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F81" s="56"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
       <c r="I81" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
@@ -4014,9 +4041,9 @@
       <c r="N81" s="24"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="40"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>24</v>
@@ -4024,11 +4051,11 @@
       <c r="E82" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
       <c r="I82" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J82" s="28"/>
       <c r="K82" s="28"/>
@@ -4037,9 +4064,9 @@
       <c r="N82" s="24"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="40"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="32" t="s">
         <v>24</v>
@@ -4047,11 +4074,11 @@
       <c r="E83" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
       <c r="I83" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J83" s="28"/>
       <c r="K83" s="28"/>
@@ -4060,9 +4087,9 @@
       <c r="N83" s="24"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="41"/>
+      <c r="B84" s="51"/>
       <c r="C84" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>24</v>
@@ -4070,11 +4097,11 @@
       <c r="E84" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
       <c r="I84" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J84" s="28"/>
       <c r="K84" s="28"/>
@@ -4083,23 +4110,23 @@
       <c r="N84" s="24"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="34" t="s">
-        <v>81</v>
+      <c r="B85" s="42" t="s">
+        <v>80</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="37"/>
       <c r="I85" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
@@ -4107,22 +4134,22 @@
       <c r="M85" s="24"/>
       <c r="N85" s="24"/>
     </row>
-    <row r="86" spans="2:14" ht="52" x14ac:dyDescent="0.2">
-      <c r="B86" s="35"/>
+    <row r="86" spans="2:14" ht="39" x14ac:dyDescent="0.2">
+      <c r="B86" s="43"/>
       <c r="C86" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="56"/>
+        <v>203</v>
+      </c>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="37"/>
       <c r="I86" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J86" s="28"/>
       <c r="K86" s="28"/>
@@ -4131,21 +4158,21 @@
       <c r="N86" s="24"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="35"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D87" s="21" t="s">
-        <v>126</v>
-      </c>
       <c r="E87" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="56"/>
+        <v>204</v>
+      </c>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
       <c r="I87" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J87" s="28"/>
       <c r="K87" s="28"/>
@@ -4154,21 +4181,21 @@
       <c r="N87" s="24"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="35"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="56"/>
+        <v>175</v>
+      </c>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
       <c r="I88" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J88" s="28"/>
       <c r="K88" s="28"/>
@@ -4176,22 +4203,22 @@
       <c r="M88" s="24"/>
       <c r="N88" s="24"/>
     </row>
-    <row r="89" spans="2:14" ht="104" x14ac:dyDescent="0.2">
-      <c r="B89" s="35"/>
+    <row r="89" spans="2:14" ht="65" x14ac:dyDescent="0.2">
+      <c r="B89" s="43"/>
       <c r="C89" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="56"/>
+        <v>205</v>
+      </c>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="37"/>
       <c r="I89" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J89" s="32"/>
       <c r="K89" s="32"/>
@@ -4199,20 +4226,20 @@
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
     </row>
-    <row r="90" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B90" s="35"/>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90" s="43"/>
       <c r="C90" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="56"/>
+        <v>200</v>
+      </c>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="37"/>
       <c r="I90" s="23" t="s">
         <v>27</v>
       </c>
@@ -4223,23 +4250,23 @@
       <c r="N90" s="24"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="34" t="s">
-        <v>85</v>
+      <c r="B91" s="42" t="s">
+        <v>84</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="56"/>
+        <v>206</v>
+      </c>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="37"/>
       <c r="I91" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J91" s="28"/>
       <c r="K91" s="28"/>
@@ -4248,21 +4275,21 @@
       <c r="N91" s="24"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="35"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="56"/>
+        <v>194</v>
+      </c>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="37"/>
       <c r="I92" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J92" s="28"/>
       <c r="K92" s="28"/>
@@ -4271,21 +4298,21 @@
       <c r="N92" s="24"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="35"/>
+      <c r="B93" s="43"/>
       <c r="C93" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="56"/>
+        <v>207</v>
+      </c>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
       <c r="I93" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J93" s="28"/>
       <c r="K93" s="28"/>
@@ -4293,20 +4320,20 @@
       <c r="M93" s="24"/>
       <c r="N93" s="24"/>
     </row>
-    <row r="94" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B94" s="35"/>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B94" s="43"/>
       <c r="C94" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="56"/>
+        <v>208</v>
+      </c>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="37"/>
       <c r="I94" s="23" t="s">
         <v>27</v>
       </c>
@@ -4317,19 +4344,19 @@
       <c r="N94" s="24"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="36"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="56"/>
+        <v>199</v>
+      </c>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="37"/>
       <c r="I95" s="23" t="s">
         <v>27</v>
       </c>
@@ -4339,24 +4366,24 @@
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
     </row>
-    <row r="96" spans="2:14" ht="52" x14ac:dyDescent="0.2">
-      <c r="B96" s="34" t="s">
+    <row r="96" spans="2:14" ht="39" x14ac:dyDescent="0.2">
+      <c r="B96" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>91</v>
-      </c>
       <c r="D96" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F96" s="57"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="56"/>
+        <v>209</v>
+      </c>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="37"/>
       <c r="I96" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J96" s="28"/>
       <c r="K96" s="28"/>
@@ -4365,21 +4392,21 @@
       <c r="N96" s="24"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="35"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="56"/>
+        <v>210</v>
+      </c>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="37"/>
       <c r="I97" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
@@ -4387,22 +4414,22 @@
       <c r="M97" s="24"/>
       <c r="N97" s="24"/>
     </row>
-    <row r="98" spans="2:14" ht="52" x14ac:dyDescent="0.2">
-      <c r="B98" s="35"/>
+    <row r="98" spans="2:14" ht="39" x14ac:dyDescent="0.2">
+      <c r="B98" s="43"/>
       <c r="C98" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
+        <v>211</v>
+      </c>
+      <c r="F98" s="36"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
       <c r="I98" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
@@ -4410,20 +4437,20 @@
       <c r="M98" s="24"/>
       <c r="N98" s="24"/>
     </row>
-    <row r="99" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B99" s="35"/>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B99" s="43"/>
       <c r="C99" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="56"/>
+        <v>212</v>
+      </c>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
       <c r="I99" s="23" t="s">
         <v>27</v>
       </c>
@@ -4433,20 +4460,20 @@
       <c r="M99" s="24"/>
       <c r="N99" s="24"/>
     </row>
-    <row r="100" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B100" s="36"/>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B100" s="44"/>
       <c r="C100" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="56"/>
+        <v>198</v>
+      </c>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="37"/>
       <c r="I100" s="23" t="s">
         <v>27</v>
       </c>
@@ -4456,22 +4483,22 @@
       <c r="M100" s="24"/>
       <c r="N100" s="24"/>
     </row>
-    <row r="101" spans="2:14" ht="39" x14ac:dyDescent="0.2">
-      <c r="B101" s="34" t="s">
-        <v>203</v>
+    <row r="101" spans="2:14" ht="26" x14ac:dyDescent="0.2">
+      <c r="B101" s="42" t="s">
+        <v>201</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
+        <v>213</v>
+      </c>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
       <c r="I101" s="24" t="s">
         <v>26</v>
       </c>
@@ -4482,21 +4509,21 @@
       <c r="N101" s="24"/>
     </row>
     <row r="102" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B102" s="35"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="56"/>
+        <v>214</v>
+      </c>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36"/>
+      <c r="H102" s="37"/>
       <c r="I102" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J102" s="28"/>
       <c r="K102" s="28"/>
@@ -4504,20 +4531,20 @@
       <c r="M102" s="24"/>
       <c r="N102" s="24"/>
     </row>
-    <row r="103" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B103" s="35"/>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B103" s="43"/>
       <c r="C103" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F103" s="55"/>
-      <c r="G103" s="55"/>
-      <c r="H103" s="56"/>
+        <v>215</v>
+      </c>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
       <c r="I103" s="24" t="s">
         <v>27</v>
       </c>
@@ -4527,20 +4554,20 @@
       <c r="M103" s="24"/>
       <c r="N103" s="24"/>
     </row>
-    <row r="104" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B104" s="36"/>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B104" s="44"/>
       <c r="C104" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="56"/>
+        <v>197</v>
+      </c>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="37"/>
       <c r="I104" s="23" t="s">
         <v>27</v>
       </c>
@@ -4551,23 +4578,23 @@
       <c r="N104" s="24"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B105" s="34" t="s">
-        <v>204</v>
+      <c r="B105" s="42" t="s">
+        <v>202</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="56"/>
+        <v>216</v>
+      </c>
+      <c r="F105" s="36"/>
+      <c r="G105" s="36"/>
+      <c r="H105" s="37"/>
       <c r="I105" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J105" s="28"/>
       <c r="K105" s="28"/>
@@ -4575,22 +4602,22 @@
       <c r="M105" s="24"/>
       <c r="N105" s="24"/>
     </row>
-    <row r="106" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B106" s="35"/>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106" s="43"/>
       <c r="C106" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="56"/>
+        <v>217</v>
+      </c>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="37"/>
       <c r="I106" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J106" s="28"/>
       <c r="K106" s="28"/>
@@ -4599,21 +4626,21 @@
       <c r="N106" s="24"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="35"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="56"/>
+        <v>218</v>
+      </c>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="37"/>
       <c r="I107" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J107" s="28"/>
       <c r="K107" s="28"/>
@@ -4621,22 +4648,22 @@
       <c r="M107" s="24"/>
       <c r="N107" s="24"/>
     </row>
-    <row r="108" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B108" s="35"/>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B108" s="43"/>
       <c r="C108" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="56"/>
+        <v>219</v>
+      </c>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="37"/>
       <c r="I108" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
@@ -4645,19 +4672,19 @@
       <c r="N108" s="24"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B109" s="36"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F109" s="55"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="56"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="37"/>
       <c r="I109" s="23" t="s">
         <v>27</v>
       </c>
@@ -4669,6 +4696,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B85:B90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B79"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B96:B100"/>
     <mergeCell ref="B101:B104"/>
@@ -4677,14 +4712,6 @@
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B10:B27"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B79"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4706,29 +4733,29 @@
   </sheetPr>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="17" customWidth="1"/>
     <col min="3" max="3" width="33" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" style="26" customWidth="1"/>
-    <col min="5" max="8" width="20.3984375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.3984375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.19921875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="26" customWidth="1"/>
+    <col min="5" max="8" width="20.33203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="16" customWidth="1"/>
     <col min="13" max="13" width="14" style="17" customWidth="1"/>
-    <col min="14" max="14" width="24.19921875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.59765625" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="17" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="1028" width="21.59765625" customWidth="1"/>
+    <col min="17" max="1028" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.2">
@@ -4736,25 +4763,25 @@
         <v>13</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>236</v>
-      </c>
       <c r="I1" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
@@ -4772,11 +4799,11 @@
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
-      <c r="B2" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>232</v>
+      <c r="B2" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>230</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -4793,9 +4820,9 @@
     </row>
     <row r="3" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
-      <c r="B3" s="51"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -4812,9 +4839,9 @@
     </row>
     <row r="4" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
-      <c r="B4" s="51"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -4831,9 +4858,9 @@
     </row>
     <row r="5" spans="1:16" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5" s="51"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -4850,9 +4877,9 @@
     </row>
     <row r="6" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="51"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -4869,9 +4896,9 @@
     </row>
     <row r="7" spans="1:16" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="51"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -4888,9 +4915,9 @@
     </row>
     <row r="8" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="51"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -4907,9 +4934,9 @@
     </row>
     <row r="9" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -4926,9 +4953,9 @@
     </row>
     <row r="10" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
@@ -4945,9 +4972,9 @@
     </row>
     <row r="11" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="51"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -4964,9 +4991,9 @@
     </row>
     <row r="12" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -4983,9 +5010,9 @@
     </row>
     <row r="13" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="54" t="s">
-        <v>256</v>
+      <c r="B13" s="57"/>
+      <c r="C13" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -5002,9 +5029,9 @@
     </row>
     <row r="14" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14" s="51"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="24" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -5021,9 +5048,9 @@
     </row>
     <row r="15" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -5038,11 +5065,11 @@
       <c r="N15" s="24"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -5059,9 +5086,9 @@
     </row>
     <row r="17" spans="1:16" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="51"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -5078,9 +5105,9 @@
     </row>
     <row r="18" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="51"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -5097,9 +5124,9 @@
     </row>
     <row r="19" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -5116,9 +5143,9 @@
     </row>
     <row r="20" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="54" t="s">
-        <v>257</v>
+      <c r="B20" s="57"/>
+      <c r="C20" s="35" t="s">
+        <v>255</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -5135,9 +5162,9 @@
     </row>
     <row r="21" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -5154,9 +5181,9 @@
     </row>
     <row r="22" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="51"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -5173,9 +5200,9 @@
     </row>
     <row r="23" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="51"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -5192,7 +5219,7 @@
     </row>
     <row r="24" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -5209,7 +5236,7 @@
     </row>
     <row r="25" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25" s="51"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -5226,7 +5253,7 @@
     </row>
     <row r="26" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="51"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -5243,7 +5270,7 @@
     </row>
     <row r="27" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="52"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,36 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
     <sheet name="Functional Specs" sheetId="4" r:id="rId2"/>
-    <sheet name="Analytiics Specs " sheetId="5" r:id="rId3"/>
+    <sheet name="Analytiics Specs" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Analytiics Specs '!$B$1:$P$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Functional Specs'!$B$1:$P$27</definedName>
-    <definedName name="Print_Area_0" localSheetId="2">'Analytiics Specs '!$B$1:$P$1</definedName>
     <definedName name="Print_Area_0" localSheetId="1">'Functional Specs'!$B$1:$P$27</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Analytiics Specs '!$B:$C,'Analytiics Specs '!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
-    <definedName name="Print_Titles_0" localSheetId="2">'Analytiics Specs '!$B:$C,'Analytiics Specs '!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="1">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="303">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -159,9 +147,6 @@
     <t>First name</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
     <t>Name of school</t>
   </si>
   <si>
@@ -441,12 +426,6 @@
     <t>job_type</t>
   </si>
   <si>
-    <t>job_salry</t>
-  </si>
-  <si>
-    <t>salry_time_range</t>
-  </si>
-  <si>
     <t>application_media</t>
   </si>
   <si>
@@ -474,9 +453,6 @@
     <t>Repeat password</t>
   </si>
   <si>
-    <t>P.O.Box</t>
-  </si>
-  <si>
     <t>Settlement</t>
   </si>
   <si>
@@ -507,9 +483,6 @@
     <t>home_address</t>
   </si>
   <si>
-    <t>post_office_box</t>
-  </si>
-  <si>
     <t>repeat_password</t>
   </si>
   <si>
@@ -585,9 +558,6 @@
     <t>fill in address</t>
   </si>
   <si>
-    <t>fill in post office box</t>
-  </si>
-  <si>
     <t>fill in password</t>
   </si>
   <si>
@@ -741,15 +711,6 @@
     <t>Databsee field size</t>
   </si>
   <si>
-    <t>Metrics/reports</t>
-  </si>
-  <si>
-    <t>Valuable Recruiting Ratios</t>
-  </si>
-  <si>
-    <t># applications vs # interviews</t>
-  </si>
-  <si>
     <t>Report/graphical type</t>
   </si>
   <si>
@@ -762,17 +723,277 @@
     <t>SQL Query Formular</t>
   </si>
   <si>
+    <t>Early Stage Attrition Rate</t>
+  </si>
+  <si>
+    <t>Average job application per candidates</t>
+  </si>
+  <si>
+    <t>Candidates Metrics</t>
+  </si>
+  <si>
+    <t>Employers Metrics</t>
+  </si>
+  <si>
+    <t>Report/Dashboard  Name</t>
+  </si>
+  <si>
+    <t>External Data Source (Yes, NO)</t>
+  </si>
+  <si>
+    <t>LinkedIn login</t>
+  </si>
+  <si>
+    <t>link to LinkedIn addin Code</t>
+  </si>
+  <si>
+    <t>Primary= 0, Secondary= 1, High school= 2, Certificate= 3, Ordinary Diploma= 4, Advanced Diploma= 5, Bachelor Degree= 6, Masters= 7, Doctorial or Professional= 8)</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>Metrics/Reportsn</t>
+  </si>
+  <si>
+    <t>HR/Recruitment Metrics</t>
+  </si>
+  <si>
+    <t>Skills segmentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application rates </t>
+  </si>
+  <si>
+    <t>Number of posted resumes/candidates per month</t>
+  </si>
+  <si>
+    <t>Returning/recurring applicants</t>
+  </si>
+  <si>
+    <t>Academic qualifications/segmentations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Job posts and skills needed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firms recruitment rates </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Candidates metrics</t>
+  </si>
+  <si>
+    <t>Time-to-Fill Analysis</t>
+  </si>
+  <si>
     <r>
+      <t xml:space="preserve">Quality of Each Hire        (                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>a.</t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">      </t>
+      <t xml:space="preserve"> New hire turnover rates                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Managerial reviews    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Productivity                 )</t>
+    </r>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Total Cost Per Hire (combined with accounts data)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <r>
+      <t>Valuable Recruiting Ratios   (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                    a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> applications vs  interviews                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> No. of interviews vs  job offers                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> open/unfilled positions vs  filled positions             )</t>
+    </r>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
+  </si>
+  <si>
+    <t>SETTTLEMENT</t>
+  </si>
+  <si>
+    <t>EDU_LEVEL</t>
+  </si>
+  <si>
+    <t>COURSE</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
+  </si>
+  <si>
+    <t>BIRTH_DATE</t>
+  </si>
+  <si>
+    <t>GRAD_YEAR</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>HOME_ADDRESS</t>
+  </si>
+  <si>
+    <t>PHOTO</t>
+  </si>
+  <si>
+    <t>AWARD</t>
+  </si>
+  <si>
+    <t>SKILLS</t>
+  </si>
+  <si>
+    <t>EXPERIENCE</t>
+  </si>
+  <si>
+    <t>RESUME</t>
+  </si>
+  <si>
+    <t>JOB_TITLE</t>
+  </si>
+  <si>
+    <t>JOB_LOCTN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>COMPANY</t>
     </r>
     <r>
       <rPr>
@@ -782,21 +1003,16 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t># of interviews vs # job offers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
+      <t xml:space="preserve"> for Company name  </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve">&amp; </t>
     </r>
     <r>
       <rPr>
@@ -806,21 +1022,17 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t># open/unfilled positions vs # filled positions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <i/>
+        <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">       </t>
+      <t>JOB_TITLE</t>
     </r>
     <r>
       <rPr>
@@ -830,198 +1042,99 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>Time-to-Fill Analysis</t>
+      <t xml:space="preserve"> for Job title</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Total Cost Per Hire (combined with accounts data)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Quality of Each Hire</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">New hire turnover rates </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Managerial reviews</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Productivity</t>
-    </r>
-  </si>
-  <si>
-    <t>Early Stage Attrition Rate</t>
-  </si>
-  <si>
-    <t>Average job application per candidates</t>
-  </si>
-  <si>
-    <t>·       Skills segmentations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">·       Application rates </t>
-  </si>
-  <si>
-    <t>·       Academic qualifications/segmentations</t>
-  </si>
-  <si>
-    <t>·       Number of posted resumes/candidates per month</t>
-  </si>
-  <si>
-    <t>·       Returning/recurring applicants</t>
-  </si>
-  <si>
-    <t>·       Candidates metrics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">·       Firms recruitment rates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">·       Job posts and skills needed </t>
-  </si>
-  <si>
-    <t>Candidates Metrics</t>
-  </si>
-  <si>
-    <t>Employers Metrics</t>
-  </si>
-  <si>
-    <t>Report/Dashboard  Name</t>
-  </si>
-  <si>
-    <t>External Data Source (Yes, NO)</t>
-  </si>
-  <si>
-    <t>LinkedIn login</t>
-  </si>
-  <si>
-    <t>link to LinkedIn addin Code</t>
-  </si>
-  <si>
-    <t>Primary= 0, Secondary= 1, High school= 2, Certificate= 3, Ordinary Diploma= 4, Advanced Diploma= 5, Bachelor Degree= 6, Masters= 7, Doctorial or Professional= 8)</t>
-  </si>
-  <si>
-    <t>LEVEL_EDU</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>LOGO</t>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>COMPANY_SIZE</t>
+  </si>
+  <si>
+    <t>FULL_NAME</t>
+  </si>
+  <si>
+    <t>SPREAD_WAY</t>
+  </si>
+  <si>
+    <t>COMPANY_LOCTN</t>
+  </si>
+  <si>
+    <t>JOB_TYPE</t>
+  </si>
+  <si>
+    <t>job_salary</t>
+  </si>
+  <si>
+    <t>JOB_SALARY</t>
+  </si>
+  <si>
+    <t>SALARY_TIME</t>
+  </si>
+  <si>
+    <t>salary_time</t>
+  </si>
+  <si>
+    <t>APPLICTN_MEDIA</t>
+  </si>
+  <si>
+    <t>APPLICTN_EMAIL</t>
+  </si>
+  <si>
+    <t>JOB_DESCRPTN</t>
+  </si>
+  <si>
+    <t>REQ_SKILLS</t>
+  </si>
+  <si>
+    <t>REQ_EDUCATION</t>
+  </si>
+  <si>
+    <t>REQ_EXPERIENCE</t>
+  </si>
+  <si>
+    <t>Male = m                                      Female = f</t>
+  </si>
+  <si>
+    <t>1-49 = 1, 50-149 = 2, 150-249 = 3, 250-499 = 4, 500-749 = 5, 750-999 = 6, 1000+ = 7</t>
+  </si>
+  <si>
+    <t>Radio = 1, TV = 2, Newspaper = 3, Social media = 4, Online video = 5, Streaming audio = 6, Search engine = 7, Mail = 8, Words of mouth = 9, Others = 10</t>
+  </si>
+  <si>
+    <t>Full time = 1, Part time = 2, Temporary = 3, Contract = 4, Internship = 5, Permanent = 6</t>
+  </si>
+  <si>
+    <t>Per hour = h, Per day = d, Per week = w, Per month = m, Per year = y</t>
+  </si>
+  <si>
+    <t>Email = e, in-person = p</t>
+  </si>
+  <si>
+    <t>Postal address</t>
+  </si>
+  <si>
+    <t>postal_address</t>
+  </si>
+  <si>
+    <t>fill in postal address</t>
+  </si>
+  <si>
+    <t>POSTAL_ADDRESS</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1136,7 +1249,21 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="7"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1180,7 +1307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1253,12 +1380,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,12 +1485,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1365,6 +1495,48 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1410,16 +1582,52 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1760,7 +1968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1774,24 +1982,24 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +2016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -1823,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1832,42 +2040,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -1897,7 +2105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1906,28 +2114,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +2150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -1957,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1966,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1992,33 +2200,33 @@
   </sheetPr>
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="33" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="26" customWidth="1"/>
     <col min="5" max="5" width="27" style="16" customWidth="1"/>
-    <col min="6" max="8" width="20.33203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="16" customWidth="1"/>
+    <col min="6" max="8" width="20.28515625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="16" customWidth="1"/>
     <col min="13" max="13" width="14" style="17" customWidth="1"/>
-    <col min="14" max="14" width="24.1640625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" style="17" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="1028" width="21.6640625" customWidth="1"/>
+    <col min="17" max="1028" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
@@ -2026,19 +2234,19 @@
         <v>14</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>16</v>
@@ -2065,12 +2273,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="40" t="s">
-        <v>156</v>
+    <row r="2" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>151</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>24</v>
@@ -2078,13 +2286,17 @@
       <c r="E2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I2" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
@@ -2098,24 +2310,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="41"/>
+    <row r="3" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="53"/>
       <c r="C3" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="35">
+        <v>32</v>
+      </c>
       <c r="I3" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -2130,24 +2344,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="41"/>
+    <row r="4" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53"/>
       <c r="C4" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
+        <v>219</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="47"/>
+      <c r="H4" s="35">
+        <v>128</v>
+      </c>
       <c r="I4" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
@@ -2161,20 +2377,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="41"/>
+    <row r="5" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="53"/>
       <c r="C5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I5" s="23" t="s">
         <v>27</v>
       </c>
@@ -2184,22 +2404,26 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="41"/>
+    <row r="6" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
       <c r="C6" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
@@ -2207,22 +2431,26 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
+    <row r="7" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
       <c r="C7" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
+        <v>103</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -2230,22 +2458,26 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
+    <row r="8" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="53"/>
       <c r="C8" s="24" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+        <v>234</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I8" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -2253,20 +2485,24 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="41"/>
+    <row r="9" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="53"/>
       <c r="C9" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+        <v>150</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="48"/>
+      <c r="H9" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I9" s="23" t="s">
         <v>27</v>
       </c>
@@ -2276,24 +2512,30 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="53" t="s">
-        <v>157</v>
+    <row r="10" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="65" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
+        <v>159</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="35">
+        <v>64</v>
+      </c>
       <c r="I10" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -2301,22 +2543,28 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="54"/>
+    <row r="11" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="66"/>
       <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
+        <v>160</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="35">
+        <v>64</v>
+      </c>
       <c r="I11" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -2324,20 +2572,26 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
+    <row r="12" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="66"/>
       <c r="C12" s="24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
+        <v>163</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="35">
+        <v>1</v>
+      </c>
       <c r="I12" s="23" t="s">
         <v>26</v>
       </c>
@@ -2347,22 +2601,28 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
+    <row r="13" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="66"/>
       <c r="C13" s="24" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+        <v>167</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="35">
+        <v>16</v>
+      </c>
       <c r="I13" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -2370,22 +2630,28 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="54"/>
+    <row r="14" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="66"/>
       <c r="C14" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+        <v>216</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="35">
+        <v>64</v>
+      </c>
       <c r="I14" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
@@ -2393,22 +2659,28 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
     </row>
-    <row r="15" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="54"/>
+    <row r="15" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="66"/>
       <c r="C15" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+        <v>214</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="35">
+        <v>64</v>
+      </c>
       <c r="I15" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
@@ -2416,28 +2688,28 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="2:16" s="25" customFormat="1" ht="91" x14ac:dyDescent="0.2">
-      <c r="B16" s="54"/>
+    <row r="16" spans="2:16" s="25" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="66"/>
       <c r="C16" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="H16" s="37">
+        <v>168</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="35">
         <v>1</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
@@ -2445,22 +2717,28 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
     </row>
-    <row r="17" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
+    <row r="17" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="66"/>
       <c r="C17" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
+        <v>169</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="35">
+        <v>128</v>
+      </c>
       <c r="I17" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
@@ -2468,22 +2746,26 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="54"/>
+    <row r="18" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="66"/>
       <c r="C18" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="37"/>
+        <v>178</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="47"/>
+      <c r="H18" s="35">
+        <v>64</v>
+      </c>
       <c r="I18" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
@@ -2491,22 +2773,26 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="54"/>
+    <row r="19" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="66"/>
       <c r="C19" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+        <v>174</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="35">
+        <v>4</v>
+      </c>
       <c r="I19" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -2514,22 +2800,26 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="54"/>
+    <row r="20" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="66"/>
       <c r="C20" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+        <v>170</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="47"/>
+      <c r="H20" s="35">
+        <v>16</v>
+      </c>
       <c r="I20" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
@@ -2537,22 +2827,26 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="54"/>
-      <c r="C21" s="24" t="s">
-        <v>52</v>
+    <row r="21" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="66"/>
+      <c r="C21" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+        <v>208</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="35">
+        <v>254</v>
+      </c>
       <c r="I21" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
@@ -2560,22 +2854,26 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="54"/>
-      <c r="C22" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>150</v>
+    <row r="22" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="67"/>
+      <c r="C22" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="47"/>
+      <c r="H22" s="35">
+        <v>254</v>
+      </c>
       <c r="I22" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
@@ -2583,22 +2881,26 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="54"/>
-      <c r="C23" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>151</v>
+    <row r="23" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="67"/>
+      <c r="C23" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>299</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+        <v>300</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="47"/>
+      <c r="H23" s="35">
+        <v>64</v>
+      </c>
       <c r="I23" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -2606,22 +2908,26 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="54"/>
-      <c r="C24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>105</v>
+    <row r="24" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="67"/>
+      <c r="C24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="35">
+        <v>32</v>
+      </c>
       <c r="I24" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -2629,22 +2935,26 @@
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
-      <c r="C25" s="24" t="s">
-        <v>41</v>
+    <row r="25" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="66"/>
+      <c r="C25" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+        <v>172</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" s="47"/>
+      <c r="H25" s="35">
+        <v>128</v>
+      </c>
       <c r="I25" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -2652,22 +2962,26 @@
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="54"/>
+    <row r="26" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="66"/>
       <c r="C26" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+        <v>173</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="47"/>
+      <c r="H26" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I26" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -2675,22 +2989,26 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="55"/>
+    <row r="27" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="68"/>
       <c r="C27" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="48"/>
+      <c r="H27" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I27" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
@@ -2704,12 +3022,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="40" t="s">
-        <v>57</v>
+    <row r="28" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>24</v>
@@ -2717,11 +3035,17 @@
       <c r="E28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="F28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I28" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
@@ -2729,10 +3053,10 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="41"/>
+    <row r="29" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="53"/>
       <c r="C29" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>24</v>
@@ -2740,11 +3064,17 @@
       <c r="E29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="F29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I29" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
@@ -2752,8 +3082,8 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="41"/>
+    <row r="30" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="53"/>
       <c r="C30" s="24" t="s">
         <v>34</v>
       </c>
@@ -2763,9 +3093,15 @@
       <c r="E30" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="F30" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="35">
+        <v>64</v>
+      </c>
       <c r="I30" s="22" t="s">
         <v>24</v>
       </c>
@@ -2777,8 +3113,8 @@
       <c r="O30" s="17"/>
       <c r="P30" s="16"/>
     </row>
-    <row r="31" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="41"/>
+    <row r="31" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="53"/>
       <c r="C31" s="24" t="s">
         <v>32</v>
       </c>
@@ -2788,9 +3124,15 @@
       <c r="E31" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="35">
+        <v>64</v>
+      </c>
       <c r="I31" s="22" t="s">
         <v>24</v>
       </c>
@@ -2802,10 +3144,10 @@
       <c r="O31" s="17"/>
       <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="41"/>
+    <row r="32" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="53"/>
       <c r="C32" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>24</v>
@@ -2813,9 +3155,15 @@
       <c r="E32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="F32" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="H32" s="35">
+        <v>1</v>
+      </c>
       <c r="I32" s="22" t="s">
         <v>24</v>
       </c>
@@ -2827,8 +3175,8 @@
       <c r="O32" s="17"/>
       <c r="P32" s="16"/>
     </row>
-    <row r="33" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="41"/>
+    <row r="33" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="53"/>
       <c r="C33" s="24" t="s">
         <v>33</v>
       </c>
@@ -2838,9 +3186,15 @@
       <c r="E33" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="F33" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="35">
+        <v>16</v>
+      </c>
       <c r="I33" s="22" t="s">
         <v>24</v>
       </c>
@@ -2852,10 +3206,10 @@
       <c r="O33" s="17"/>
       <c r="P33" s="16"/>
     </row>
-    <row r="34" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="41"/>
+    <row r="34" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="53"/>
       <c r="C34" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>24</v>
@@ -2863,9 +3217,15 @@
       <c r="E34" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="F34" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="35">
+        <v>64</v>
+      </c>
       <c r="I34" s="22" t="s">
         <v>24</v>
       </c>
@@ -2877,10 +3237,10 @@
       <c r="O34" s="17"/>
       <c r="P34" s="16"/>
     </row>
-    <row r="35" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="41"/>
+    <row r="35" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="53"/>
       <c r="C35" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>24</v>
@@ -2888,9 +3248,15 @@
       <c r="E35" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="F35" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="35">
+        <v>16</v>
+      </c>
       <c r="I35" s="22" t="s">
         <v>24</v>
       </c>
@@ -2902,10 +3268,10 @@
       <c r="O35" s="17"/>
       <c r="P35" s="16"/>
     </row>
-    <row r="36" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="45"/>
+    <row r="36" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="57"/>
       <c r="C36" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>24</v>
@@ -2913,9 +3279,15 @@
       <c r="E36" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
+      <c r="F36" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="35">
+        <v>254</v>
+      </c>
       <c r="I36" s="22" t="s">
         <v>24</v>
       </c>
@@ -2927,24 +3299,30 @@
       <c r="O36" s="17"/>
       <c r="P36" s="16"/>
     </row>
-    <row r="37" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="46" t="s">
-        <v>58</v>
+    <row r="37" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="58" t="s">
+        <v>57</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+        <v>159</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="35">
+        <v>64</v>
+      </c>
       <c r="I37" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
@@ -2954,22 +3332,28 @@
       <c r="O37" s="17"/>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="47"/>
+    <row r="38" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="59"/>
       <c r="C38" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
+        <v>176</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="35">
+        <v>64</v>
+      </c>
       <c r="I38" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
@@ -2979,20 +3363,26 @@
       <c r="O38" s="17"/>
       <c r="P38" s="16"/>
     </row>
-    <row r="39" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="47"/>
+    <row r="39" spans="2:16" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="59"/>
       <c r="C39" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
+        <v>163</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="H39" s="35">
+        <v>1</v>
+      </c>
       <c r="I39" s="23" t="s">
         <v>26</v>
       </c>
@@ -3004,22 +3394,28 @@
       <c r="O39" s="17"/>
       <c r="P39" s="16"/>
     </row>
-    <row r="40" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="47"/>
+    <row r="40" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="59"/>
       <c r="C40" s="24" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
+        <v>300</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="35">
+        <v>64</v>
+      </c>
       <c r="I40" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
@@ -3029,22 +3425,28 @@
       <c r="O40" s="17"/>
       <c r="P40" s="16"/>
     </row>
-    <row r="41" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="47"/>
+    <row r="41" spans="2:16" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="59"/>
       <c r="C41" s="24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
+        <v>167</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="35">
+        <v>16</v>
+      </c>
       <c r="I41" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
@@ -3054,10 +3456,10 @@
       <c r="O41" s="17"/>
       <c r="P41" s="16"/>
     </row>
-    <row r="42" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="48"/>
+    <row r="42" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="60"/>
       <c r="C42" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>24</v>
@@ -3065,9 +3467,15 @@
       <c r="E42" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
+      <c r="F42" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="35">
+        <v>10</v>
+      </c>
       <c r="I42" s="23" t="s">
         <v>24</v>
       </c>
@@ -3079,24 +3487,30 @@
       <c r="O42" s="17"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="49" t="s">
-        <v>64</v>
+    <row r="43" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
+        <v>169</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="35">
+        <v>128</v>
+      </c>
       <c r="I43" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
@@ -3106,22 +3520,28 @@
       <c r="O43" s="17"/>
       <c r="P43" s="16"/>
     </row>
-    <row r="44" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="50"/>
+    <row r="44" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="62"/>
       <c r="C44" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
+        <v>178</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="35">
+        <v>64</v>
+      </c>
       <c r="I44" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -3131,22 +3551,28 @@
       <c r="O44" s="17"/>
       <c r="P44" s="16"/>
     </row>
-    <row r="45" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="50"/>
+    <row r="45" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="62"/>
       <c r="C45" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+        <v>174</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="35">
+        <v>4</v>
+      </c>
       <c r="I45" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
@@ -3156,22 +3582,28 @@
       <c r="O45" s="17"/>
       <c r="P45" s="16"/>
     </row>
-    <row r="46" spans="2:16" s="25" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="50"/>
+    <row r="46" spans="2:16" s="25" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="62"/>
       <c r="C46" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
+        <v>179</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="35">
+        <v>32</v>
+      </c>
       <c r="I46" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
@@ -3181,22 +3613,28 @@
       <c r="O46" s="17"/>
       <c r="P46" s="16"/>
     </row>
-    <row r="47" spans="2:16" s="25" customFormat="1" ht="65" x14ac:dyDescent="0.2">
-      <c r="B47" s="50"/>
+    <row r="47" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="62"/>
       <c r="C47" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
+        <v>168</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H47" s="35">
+        <v>1</v>
+      </c>
       <c r="I47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
@@ -3206,22 +3644,28 @@
       <c r="O47" s="17"/>
       <c r="P47" s="16"/>
     </row>
-    <row r="48" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="50"/>
+    <row r="48" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="62"/>
       <c r="C48" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="37"/>
+        <v>180</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>302</v>
+      </c>
       <c r="I48" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -3231,22 +3675,28 @@
       <c r="O48" s="17"/>
       <c r="P48" s="16"/>
     </row>
-    <row r="49" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="50"/>
+    <row r="49" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="62"/>
       <c r="C49" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="37"/>
+        <v>181</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>302</v>
+      </c>
       <c r="I49" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
@@ -3256,22 +3706,28 @@
       <c r="O49" s="17"/>
       <c r="P49" s="16"/>
     </row>
-    <row r="50" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="51"/>
+    <row r="50" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="63"/>
       <c r="C50" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="37"/>
+        <v>182</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="35">
+        <v>10</v>
+      </c>
       <c r="I50" s="23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
@@ -3281,24 +3737,30 @@
       <c r="O50" s="17"/>
       <c r="P50" s="16"/>
     </row>
-    <row r="51" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="46" t="s">
-        <v>69</v>
+    <row r="51" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
+        <v>183</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H51" s="35">
+        <v>128</v>
+      </c>
       <c r="I51" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
@@ -3308,22 +3770,26 @@
       <c r="O51" s="17"/>
       <c r="P51" s="16"/>
     </row>
-    <row r="52" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="52"/>
+    <row r="52" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="64"/>
       <c r="C52" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="G52" s="47"/>
+      <c r="H52" s="35">
+        <v>254</v>
+      </c>
       <c r="I52" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
@@ -3333,20 +3799,24 @@
       <c r="O52" s="17"/>
       <c r="P52" s="16"/>
     </row>
-    <row r="53" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="52"/>
+    <row r="53" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="64"/>
       <c r="C53" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
+        <v>186</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="48"/>
+      <c r="H53" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I53" s="23" t="s">
         <v>27</v>
       </c>
@@ -3358,24 +3828,30 @@
       <c r="O53" s="17"/>
       <c r="P53" s="16"/>
     </row>
-    <row r="54" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="46" t="s">
-        <v>68</v>
+    <row r="54" spans="1:16" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="58" t="s">
+        <v>67</v>
       </c>
       <c r="C54" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="35">
+        <v>128</v>
+      </c>
+      <c r="I54" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
@@ -3385,20 +3861,24 @@
       <c r="O54" s="17"/>
       <c r="P54" s="16"/>
     </row>
-    <row r="55" spans="1:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="48"/>
+    <row r="55" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="60"/>
       <c r="C55" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
+        <v>187</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="48"/>
+      <c r="H55" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I55" s="23" t="s">
         <v>27</v>
       </c>
@@ -3410,24 +3890,30 @@
       <c r="O55" s="17"/>
       <c r="P55" s="16"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="49" t="s">
+    <row r="56" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>73</v>
-      </c>
       <c r="D56" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
+        <v>188</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="35">
+        <v>128</v>
+      </c>
       <c r="I56" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -3435,20 +3921,24 @@
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="50"/>
+    <row r="57" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="62"/>
       <c r="C57" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37"/>
+        <v>189</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="48"/>
+      <c r="H57" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I57" s="23" t="s">
         <v>27</v>
       </c>
@@ -3458,13 +3948,13 @@
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
     </row>
-    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
-      <c r="B58" s="40" t="s">
-        <v>154</v>
+      <c r="B58" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" s="21" t="s">
         <v>24</v>
@@ -3472,11 +3962,17 @@
       <c r="E58" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="37"/>
+      <c r="F58" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I58" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
@@ -3484,23 +3980,27 @@
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
-      <c r="B59" s="41"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" s="47"/>
+      <c r="H59" s="35">
+        <v>32</v>
+      </c>
       <c r="I59" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
@@ -3508,23 +4008,27 @@
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
-      <c r="B60" s="41"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37"/>
+        <v>190</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="47"/>
+      <c r="H60" s="35">
+        <v>128</v>
+      </c>
       <c r="I60" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
@@ -3532,21 +4036,25 @@
       <c r="M60" s="32"/>
       <c r="N60" s="32"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
-      <c r="B61" s="41"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37"/>
+      <c r="F61" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="47"/>
+      <c r="H61" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I61" s="23" t="s">
         <v>27</v>
       </c>
@@ -3556,23 +4064,27 @@
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
-      <c r="B62" s="41"/>
+      <c r="B62" s="53"/>
       <c r="C62" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="47"/>
+      <c r="H62" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I62" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
@@ -3580,21 +4092,25 @@
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
-      <c r="B63" s="41"/>
+      <c r="B63" s="53"/>
       <c r="C63" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="37"/>
+        <v>154</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="48"/>
+      <c r="H63" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I63" s="23" t="s">
         <v>27</v>
       </c>
@@ -3604,25 +4120,31 @@
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
-      <c r="B64" s="53" t="s">
-        <v>158</v>
+      <c r="B64" s="65" t="s">
+        <v>153</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="37"/>
+        <v>159</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G64" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="35">
+        <v>64</v>
+      </c>
       <c r="I64" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
@@ -3630,23 +4152,29 @@
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
-      <c r="B65" s="54"/>
+      <c r="B65" s="66"/>
       <c r="C65" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
-      <c r="H65" s="37"/>
+        <v>160</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="35">
+        <v>64</v>
+      </c>
       <c r="I65" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
@@ -3656,21 +4184,27 @@
       <c r="O65"/>
       <c r="P65"/>
     </row>
-    <row r="66" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
-      <c r="B66" s="54"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="37"/>
+        <v>163</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="H66" s="35">
+        <v>1</v>
+      </c>
       <c r="I66" s="23" t="s">
         <v>26</v>
       </c>
@@ -3680,23 +4214,29 @@
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
     </row>
-    <row r="67" spans="1:16" ht="26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
-      <c r="B67" s="54"/>
+      <c r="B67" s="66"/>
       <c r="C67" s="24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="37"/>
+        <v>167</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="35">
+        <v>16</v>
+      </c>
       <c r="I67" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J67" s="32"/>
       <c r="K67" s="32"/>
@@ -3704,23 +4244,29 @@
       <c r="M67" s="32"/>
       <c r="N67" s="32"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
-      <c r="B68" s="54"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="37"/>
+        <v>215</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="35">
+        <v>64</v>
+      </c>
       <c r="I68" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
@@ -3728,23 +4274,29 @@
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
-      <c r="B69" s="54"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F69" s="36"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
+        <v>214</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="35">
+        <v>64</v>
+      </c>
       <c r="I69" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
@@ -3752,23 +4304,29 @@
       <c r="M69" s="32"/>
       <c r="N69" s="32"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
-      <c r="B70" s="54"/>
+      <c r="B70" s="66"/>
       <c r="C70" s="24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="37"/>
+        <v>188</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H70" s="35">
+        <v>64</v>
+      </c>
       <c r="I70" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
@@ -3776,23 +4334,29 @@
       <c r="M70" s="32"/>
       <c r="N70" s="32"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
-      <c r="B71" s="54"/>
+      <c r="B71" s="66"/>
       <c r="C71" s="24" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="37"/>
+        <v>217</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="35">
+        <v>128</v>
+      </c>
       <c r="I71" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
@@ -3800,23 +4364,29 @@
       <c r="M71" s="32"/>
       <c r="N71" s="32"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
-      <c r="B72" s="54"/>
+      <c r="B72" s="66"/>
       <c r="C72" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
+        <v>170</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="35">
+        <v>16</v>
+      </c>
       <c r="I72" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
@@ -3824,23 +4394,29 @@
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
-      <c r="B73" s="54"/>
+      <c r="B73" s="66"/>
       <c r="C73" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="37"/>
+        <v>208</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H73" s="35">
+        <v>254</v>
+      </c>
       <c r="I73" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J73" s="32"/>
       <c r="K73" s="32"/>
@@ -3848,23 +4424,29 @@
       <c r="M73" s="32"/>
       <c r="N73" s="32"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
-      <c r="B74" s="54"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="35">
+        <v>254</v>
+      </c>
       <c r="I74" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J74" s="32"/>
       <c r="K74" s="32"/>
@@ -3872,23 +4454,29 @@
       <c r="M74" s="32"/>
       <c r="N74" s="32"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
-      <c r="B75" s="54"/>
+      <c r="B75" s="66"/>
       <c r="C75" s="24" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
-      <c r="H75" s="37"/>
+        <v>300</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="35">
+        <v>64</v>
+      </c>
       <c r="I75" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
@@ -3896,23 +4484,29 @@
       <c r="M75" s="32"/>
       <c r="N75" s="32"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
-      <c r="B76" s="54"/>
+      <c r="B76" s="66"/>
       <c r="C76" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="35">
+        <v>32</v>
+      </c>
       <c r="I76" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
@@ -3920,23 +4514,29 @@
       <c r="M76" s="32"/>
       <c r="N76" s="32"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
-      <c r="B77" s="54"/>
+      <c r="B77" s="66"/>
       <c r="C77" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="37"/>
+        <v>172</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H77" s="35">
+        <v>128</v>
+      </c>
       <c r="I77" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
@@ -3944,23 +4544,29 @@
       <c r="M77" s="32"/>
       <c r="N77" s="32"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
-      <c r="B78" s="54"/>
+      <c r="B78" s="66"/>
       <c r="C78" s="33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="37"/>
+        <v>173</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I78" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J78" s="32"/>
       <c r="K78" s="32"/>
@@ -3968,21 +4574,27 @@
       <c r="M78" s="32"/>
       <c r="N78" s="32"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
-      <c r="B79" s="55"/>
+      <c r="B79" s="68"/>
       <c r="C79" s="33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="37"/>
+        <v>150</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I79" s="23" t="s">
         <v>27</v>
       </c>
@@ -3992,24 +4604,30 @@
       <c r="M79" s="32"/>
       <c r="N79" s="32"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B80" s="49" t="s">
+    <row r="80" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="D80" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>24</v>
+      </c>
       <c r="I80" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J80" s="28"/>
       <c r="K80" s="28"/>
@@ -4017,22 +4635,18 @@
       <c r="M80" s="24"/>
       <c r="N80" s="24"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="50"/>
+    <row r="81" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="62"/>
       <c r="C81" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
+        <v>75</v>
+      </c>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
       <c r="I81" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J81" s="28"/>
       <c r="K81" s="28"/>
@@ -4040,22 +4654,18 @@
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B82" s="50"/>
+    <row r="82" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="62"/>
       <c r="C82" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D82" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
       <c r="I82" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J82" s="28"/>
       <c r="K82" s="28"/>
@@ -4063,22 +4673,18 @@
       <c r="M82" s="24"/>
       <c r="N82" s="24"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="50"/>
+    <row r="83" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="62"/>
       <c r="C83" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
       <c r="I83" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J83" s="28"/>
       <c r="K83" s="28"/>
@@ -4086,22 +4692,18 @@
       <c r="M83" s="24"/>
       <c r="N83" s="24"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="51"/>
+    <row r="84" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="63"/>
       <c r="C84" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
+        <v>78</v>
+      </c>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
       <c r="I84" s="23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J84" s="28"/>
       <c r="K84" s="28"/>
@@ -4109,24 +4711,30 @@
       <c r="M84" s="24"/>
       <c r="N84" s="24"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B85" s="42" t="s">
-        <v>80</v>
+    <row r="85" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="37"/>
+        <v>188</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" s="35">
+        <v>64</v>
+      </c>
       <c r="I85" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J85" s="28"/>
       <c r="K85" s="28"/>
@@ -4134,22 +4742,28 @@
       <c r="M85" s="24"/>
       <c r="N85" s="24"/>
     </row>
-    <row r="86" spans="2:14" ht="39" x14ac:dyDescent="0.2">
-      <c r="B86" s="43"/>
+    <row r="86" spans="2:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="B86" s="55"/>
       <c r="C86" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E86" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36"/>
-      <c r="H86" s="37"/>
+        <v>197</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G86" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="H86" s="35">
+        <v>1</v>
+      </c>
       <c r="I86" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J86" s="28"/>
       <c r="K86" s="28"/>
@@ -4157,22 +4771,28 @@
       <c r="M86" s="24"/>
       <c r="N86" s="24"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="43"/>
+    <row r="87" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="55"/>
       <c r="C87" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D87" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="E87" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F87" s="36"/>
-      <c r="G87" s="36"/>
-      <c r="H87" s="37"/>
+        <v>198</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G87" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" s="35">
+        <v>128</v>
+      </c>
       <c r="I87" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J87" s="28"/>
       <c r="K87" s="28"/>
@@ -4180,22 +4800,28 @@
       <c r="M87" s="24"/>
       <c r="N87" s="24"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B88" s="43"/>
+    <row r="88" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="55"/>
       <c r="C88" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="37"/>
+        <v>170</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" s="35">
+        <v>16</v>
+      </c>
       <c r="I88" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J88" s="28"/>
       <c r="K88" s="28"/>
@@ -4203,22 +4829,28 @@
       <c r="M88" s="24"/>
       <c r="N88" s="24"/>
     </row>
-    <row r="89" spans="2:14" ht="65" x14ac:dyDescent="0.2">
-      <c r="B89" s="43"/>
+    <row r="89" spans="2:14" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B89" s="55"/>
       <c r="C89" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E89" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="37"/>
+        <v>199</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G89" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="H89" s="35">
+        <v>1</v>
+      </c>
       <c r="I89" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J89" s="32"/>
       <c r="K89" s="32"/>
@@ -4226,20 +4858,26 @@
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="43"/>
+    <row r="90" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="55"/>
       <c r="C90" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="37"/>
+        <v>194</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H90" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I90" s="23" t="s">
         <v>27</v>
       </c>
@@ -4249,24 +4887,30 @@
       <c r="M90" s="24"/>
       <c r="N90" s="24"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B91" s="42" t="s">
-        <v>84</v>
+    <row r="91" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="54" t="s">
+        <v>83</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="F91" s="36"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="37"/>
+        <v>200</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G91" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" s="35">
+        <v>128</v>
+      </c>
       <c r="I91" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J91" s="28"/>
       <c r="K91" s="28"/>
@@ -4274,22 +4918,26 @@
       <c r="M91" s="24"/>
       <c r="N91" s="24"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="43"/>
+    <row r="92" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="55"/>
       <c r="C92" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" s="36"/>
-      <c r="G92" s="36"/>
-      <c r="H92" s="37"/>
+        <v>188</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G92" s="47"/>
+      <c r="H92" s="35">
+        <v>64</v>
+      </c>
       <c r="I92" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J92" s="28"/>
       <c r="K92" s="28"/>
@@ -4297,22 +4945,26 @@
       <c r="M92" s="24"/>
       <c r="N92" s="24"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="43"/>
+    <row r="93" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="55"/>
       <c r="C93" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="36"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="37"/>
+        <v>201</v>
+      </c>
+      <c r="F93" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G93" s="47"/>
+      <c r="H93" s="35">
+        <v>254</v>
+      </c>
       <c r="I93" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J93" s="28"/>
       <c r="K93" s="28"/>
@@ -4320,20 +4972,24 @@
       <c r="M93" s="24"/>
       <c r="N93" s="24"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B94" s="43"/>
+    <row r="94" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B94" s="55"/>
       <c r="C94" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D94" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="37"/>
+        <v>202</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="47"/>
+      <c r="H94" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I94" s="23" t="s">
         <v>27</v>
       </c>
@@ -4343,20 +4999,24 @@
       <c r="M94" s="24"/>
       <c r="N94" s="24"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="44"/>
+    <row r="95" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="56"/>
       <c r="C95" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D95" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="37"/>
+        <v>193</v>
+      </c>
+      <c r="F95" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="48"/>
+      <c r="H95" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I95" s="23" t="s">
         <v>27</v>
       </c>
@@ -4366,24 +5026,30 @@
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
     </row>
-    <row r="96" spans="2:14" ht="39" x14ac:dyDescent="0.2">
-      <c r="B96" s="42" t="s">
+    <row r="96" spans="2:14" ht="51" x14ac:dyDescent="0.25">
+      <c r="B96" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>90</v>
-      </c>
       <c r="D96" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="37"/>
+        <v>203</v>
+      </c>
+      <c r="F96" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G96" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="H96" s="35">
+        <v>1</v>
+      </c>
       <c r="I96" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J96" s="28"/>
       <c r="K96" s="28"/>
@@ -4391,22 +5057,28 @@
       <c r="M96" s="24"/>
       <c r="N96" s="24"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B97" s="43"/>
+    <row r="97" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="55"/>
       <c r="C97" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="37"/>
+        <v>204</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" s="35">
+        <v>16</v>
+      </c>
       <c r="I97" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J97" s="28"/>
       <c r="K97" s="28"/>
@@ -4414,22 +5086,28 @@
       <c r="M97" s="24"/>
       <c r="N97" s="24"/>
     </row>
-    <row r="98" spans="2:14" ht="39" x14ac:dyDescent="0.2">
-      <c r="B98" s="43"/>
+    <row r="98" spans="2:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B98" s="55"/>
       <c r="C98" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="37"/>
+        <v>205</v>
+      </c>
+      <c r="F98" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="H98" s="35">
+        <v>1</v>
+      </c>
       <c r="I98" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J98" s="28"/>
       <c r="K98" s="28"/>
@@ -4437,20 +5115,26 @@
       <c r="M98" s="24"/>
       <c r="N98" s="24"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B99" s="43"/>
+    <row r="99" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="55"/>
       <c r="C99" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="37"/>
+        <v>206</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I99" s="23" t="s">
         <v>27</v>
       </c>
@@ -4460,20 +5144,26 @@
       <c r="M99" s="24"/>
       <c r="N99" s="24"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B100" s="44"/>
+    <row r="100" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="56"/>
       <c r="C100" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D100" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="37"/>
+        <v>192</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H100" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I100" s="23" t="s">
         <v>27</v>
       </c>
@@ -4483,22 +5173,28 @@
       <c r="M100" s="24"/>
       <c r="N100" s="24"/>
     </row>
-    <row r="101" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B101" s="42" t="s">
-        <v>201</v>
+    <row r="101" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B101" s="54" t="s">
+        <v>195</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
+        <v>207</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G101" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="H101" s="35">
+        <v>1</v>
+      </c>
       <c r="I101" s="24" t="s">
         <v>26</v>
       </c>
@@ -4508,22 +5204,28 @@
       <c r="M101" s="24"/>
       <c r="N101" s="24"/>
     </row>
-    <row r="102" spans="2:14" ht="26" x14ac:dyDescent="0.2">
-      <c r="B102" s="43"/>
+    <row r="102" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B102" s="55"/>
       <c r="C102" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="F102" s="36"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="37"/>
+        <v>208</v>
+      </c>
+      <c r="F102" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" s="35">
+        <v>254</v>
+      </c>
       <c r="I102" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J102" s="28"/>
       <c r="K102" s="28"/>
@@ -4531,20 +5233,26 @@
       <c r="M102" s="24"/>
       <c r="N102" s="24"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B103" s="43"/>
+    <row r="103" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="55"/>
       <c r="C103" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D103" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
+        <v>209</v>
+      </c>
+      <c r="F103" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H103" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I103" s="24" t="s">
         <v>27</v>
       </c>
@@ -4554,20 +5262,26 @@
       <c r="M103" s="24"/>
       <c r="N103" s="24"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B104" s="44"/>
+    <row r="104" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="56"/>
       <c r="C104" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D104" s="21" t="s">
         <v>24</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="37"/>
+        <v>191</v>
+      </c>
+      <c r="F104" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I104" s="23" t="s">
         <v>27</v>
       </c>
@@ -4577,24 +5291,30 @@
       <c r="M104" s="24"/>
       <c r="N104" s="24"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B105" s="42" t="s">
-        <v>202</v>
+    <row r="105" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="37"/>
+        <v>210</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" s="35" t="s">
+        <v>302</v>
+      </c>
       <c r="I105" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J105" s="28"/>
       <c r="K105" s="28"/>
@@ -4602,22 +5322,28 @@
       <c r="M105" s="24"/>
       <c r="N105" s="24"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B106" s="43"/>
+    <row r="106" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="55"/>
       <c r="C106" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="37"/>
+        <v>211</v>
+      </c>
+      <c r="F106" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="G106" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H106" s="35" t="s">
+        <v>302</v>
+      </c>
       <c r="I106" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J106" s="28"/>
       <c r="K106" s="28"/>
@@ -4625,22 +5351,28 @@
       <c r="M106" s="24"/>
       <c r="N106" s="24"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B107" s="43"/>
+    <row r="107" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="55"/>
       <c r="C107" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="37"/>
+        <v>212</v>
+      </c>
+      <c r="F107" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="G107" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" s="35" t="s">
+        <v>302</v>
+      </c>
       <c r="I107" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J107" s="28"/>
       <c r="K107" s="28"/>
@@ -4648,22 +5380,28 @@
       <c r="M107" s="24"/>
       <c r="N107" s="24"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B108" s="43"/>
+    <row r="108" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="55"/>
       <c r="C108" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="37"/>
+        <v>213</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H108" s="35" t="s">
+        <v>302</v>
+      </c>
       <c r="I108" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J108" s="28"/>
       <c r="K108" s="28"/>
@@ -4671,20 +5409,26 @@
       <c r="M108" s="24"/>
       <c r="N108" s="24"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B109" s="44"/>
+    <row r="109" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="56"/>
       <c r="C109" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F109" s="36"/>
-      <c r="G109" s="36"/>
-      <c r="H109" s="37"/>
+      <c r="F109" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" s="35" t="s">
+        <v>24</v>
+      </c>
       <c r="I109" s="23" t="s">
         <v>27</v>
       </c>
@@ -4695,7 +5439,8 @@
       <c r="N109" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="28">
+    <mergeCell ref="H80:H84"/>
     <mergeCell ref="B105:B109"/>
     <mergeCell ref="B54:B55"/>
     <mergeCell ref="B56:B57"/>
@@ -4712,6 +5457,17 @@
     <mergeCell ref="B43:B50"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B10:B27"/>
+    <mergeCell ref="G91:G95"/>
+    <mergeCell ref="F80:F84"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="D80:D84"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G17:G27"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G63"/>
+    <mergeCell ref="G80:G84"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4728,60 +5484,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="33" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="26" customWidth="1"/>
-    <col min="5" max="8" width="20.33203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="14" style="17" customWidth="1"/>
-    <col min="14" max="14" width="24.1640625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="17" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="1028" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
       <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
@@ -4790,514 +5537,339 @@
       <c r="N1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-      <c r="B2" s="56" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="72"/>
+      <c r="C3" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="72"/>
+      <c r="C4" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A5"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A7"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="24" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="B5" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="24" t="s">
+      <c r="C5" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="76"/>
+      <c r="C6" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="76"/>
+      <c r="C7" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="B8" s="76"/>
+      <c r="C8" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="76"/>
+      <c r="C9" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="24" t="s">
+      <c r="D10" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="76"/>
+      <c r="C11" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="24" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="76"/>
+      <c r="C12" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="78"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="76"/>
+      <c r="C13" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="24" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="76"/>
+      <c r="C14" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="24" t="s">
+      <c r="D14" s="78"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="76"/>
+      <c r="C15" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="79"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="76"/>
+      <c r="C17" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:16" s="17" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18"/>
-      <c r="B18" s="57"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="76"/>
       <c r="C18" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="P24" s="16"/>
-    </row>
-    <row r="25" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="P25" s="16"/>
-    </row>
-    <row r="26" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="P27" s="16"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B27"/>
+  <mergeCells count="11">
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="D16:D18"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="0" pageOrder="overThenDown" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Bold"&amp;12Novartis_BYM338E2202_Global Phase II
-WR myPROpad Setup Specifications
-&amp;A&amp;R&amp;"Times New Roman,Bold"&amp;10Version DRAFT 1.0</oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Regular"&amp;8&amp;F&amp;C&amp;"Times New Roman,Regular"&amp;8Page &amp;P of &amp;N
-&amp;"Times New Roman,Italic"writeresult Proprietary Confidential - For authorized use only&amp;R&amp;"Times New Roman,Regular"&amp;8Print Date/Time: &amp;D &amp;T</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\webprog\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/FabstechTZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Approval" sheetId="1" r:id="rId1"/>
     <sheet name="Functional Specs" sheetId="4" r:id="rId2"/>
-    <sheet name="Analytiics Specs" sheetId="6" r:id="rId3"/>
+    <sheet name="Analytics Specs" sheetId="6" r:id="rId3"/>
     <sheet name="Database" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,8 +23,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
     <definedName name="Print_Titles_0" localSheetId="1">'Functional Specs'!$B:$C,'Functional Specs'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -969,6 +972,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&amp; </t>
     </r>
@@ -1502,6 +1506,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1542,6 +1547,7 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2190,7 +2196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2992,150 +2998,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3143,42 +3005,6 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3188,6 +3014,186 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3544,24 +3550,24 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -3593,7 +3599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3602,42 +3608,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -3652,7 +3658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>5</v>
@@ -3667,7 +3673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3676,28 +3682,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -3727,7 +3733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3736,7 +3742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -3757,38 +3763,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P204"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="17" customWidth="1"/>
     <col min="3" max="3" width="33" style="17" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="26" customWidth="1"/>
     <col min="5" max="5" width="27" style="16" customWidth="1"/>
-    <col min="6" max="8" width="20.28515625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="16" customWidth="1"/>
+    <col min="6" max="8" width="20.33203125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="16" customWidth="1"/>
     <col min="13" max="13" width="14" style="17" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="17" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="17" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="16" hidden="1" customWidth="1"/>
-    <col min="17" max="1028" width="21.7109375" customWidth="1"/>
+    <col min="17" max="1028" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" s="20" customFormat="1" ht="65" x14ac:dyDescent="0.2">
       <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
@@ -3835,8 +3841,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+    <row r="2" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="96" t="s">
         <v>142</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -3851,7 +3857,7 @@
       <c r="F2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="35" t="s">
@@ -3872,8 +3878,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="99"/>
+    <row r="3" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="97"/>
       <c r="C3" s="24" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +3892,7 @@
       <c r="F3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="35">
         <v>32</v>
       </c>
@@ -3906,8 +3912,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="99"/>
+    <row r="4" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="97"/>
       <c r="C4" s="24" t="s">
         <v>39</v>
       </c>
@@ -3920,7 +3926,7 @@
       <c r="F4" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="35">
         <v>128</v>
       </c>
@@ -3939,8 +3945,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="99"/>
+    <row r="5" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="97"/>
       <c r="C5" s="24" t="s">
         <v>96</v>
       </c>
@@ -3953,7 +3959,7 @@
       <c r="F5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="86"/>
       <c r="H5" s="35" t="s">
         <v>24</v>
       </c>
@@ -3966,8 +3972,8 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="99"/>
+    <row r="6" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="97"/>
       <c r="C6" s="24" t="s">
         <v>45</v>
       </c>
@@ -3980,7 +3986,7 @@
       <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="35" t="s">
         <v>24</v>
       </c>
@@ -3993,8 +3999,8 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
+    <row r="7" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="97"/>
       <c r="C7" s="24" t="s">
         <v>40</v>
       </c>
@@ -4007,7 +4013,7 @@
       <c r="F7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="86"/>
       <c r="H7" s="35" t="s">
         <v>24</v>
       </c>
@@ -4020,8 +4026,8 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="99"/>
+    <row r="8" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="97"/>
       <c r="C8" s="24" t="s">
         <v>218</v>
       </c>
@@ -4034,7 +4040,7 @@
       <c r="F8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="95"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="35" t="s">
         <v>24</v>
       </c>
@@ -4047,8 +4053,8 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="99"/>
+    <row r="9" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="97"/>
       <c r="C9" s="30" t="s">
         <v>41</v>
       </c>
@@ -4061,7 +4067,7 @@
       <c r="F9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="96"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="35" t="s">
         <v>24</v>
       </c>
@@ -4074,8 +4080,8 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
+    <row r="10" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="98" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -4105,8 +4111,8 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
     </row>
-    <row r="11" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="84"/>
+    <row r="11" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="99"/>
       <c r="C11" s="24" t="s">
         <v>303</v>
       </c>
@@ -4134,8 +4140,8 @@
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
     </row>
-    <row r="12" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="84"/>
+    <row r="12" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="99"/>
       <c r="C12" s="24" t="s">
         <v>32</v>
       </c>
@@ -4163,8 +4169,8 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
     </row>
-    <row r="13" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="84"/>
+    <row r="13" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="99"/>
       <c r="C13" s="24" t="s">
         <v>153</v>
       </c>
@@ -4192,8 +4198,8 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="84"/>
+    <row r="14" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="99"/>
       <c r="C14" s="24" t="s">
         <v>293</v>
       </c>
@@ -4221,8 +4227,8 @@
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
     </row>
-    <row r="15" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
+    <row r="15" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="99"/>
       <c r="C15" s="24" t="s">
         <v>155</v>
       </c>
@@ -4250,8 +4256,8 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="84"/>
+    <row r="16" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="99"/>
       <c r="C16" s="33" t="s">
         <v>306</v>
       </c>
@@ -4281,8 +4287,8 @@
       <c r="O16" s="17"/>
       <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="84"/>
+    <row r="17" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="99"/>
       <c r="C17" s="24" t="s">
         <v>49</v>
       </c>
@@ -4310,8 +4316,8 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
     </row>
-    <row r="18" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="84"/>
+    <row r="18" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="99"/>
       <c r="C18" s="24" t="s">
         <v>128</v>
       </c>
@@ -4339,8 +4345,8 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
     </row>
-    <row r="19" spans="2:16" s="25" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="84"/>
+    <row r="19" spans="2:16" s="25" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="99"/>
       <c r="C19" s="24" t="s">
         <v>57</v>
       </c>
@@ -4368,8 +4374,8 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
     </row>
-    <row r="20" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
+    <row r="20" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="99"/>
       <c r="C20" s="33" t="s">
         <v>35</v>
       </c>
@@ -4382,7 +4388,7 @@
       <c r="F20" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="94" t="s">
+      <c r="G20" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="35">
@@ -4397,8 +4403,8 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
     </row>
-    <row r="21" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="84"/>
+    <row r="21" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="99"/>
       <c r="C21" s="24" t="s">
         <v>126</v>
       </c>
@@ -4411,7 +4417,7 @@
       <c r="F21" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="G21" s="95"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="35">
         <v>64</v>
       </c>
@@ -4424,8 +4430,8 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
     </row>
-    <row r="22" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="84"/>
+    <row r="22" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="99"/>
       <c r="C22" s="24" t="s">
         <v>56</v>
       </c>
@@ -4438,7 +4444,7 @@
       <c r="F22" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="95"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="35">
         <v>4</v>
       </c>
@@ -4451,8 +4457,8 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
     </row>
-    <row r="23" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="84"/>
+    <row r="23" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="99"/>
       <c r="C23" s="24" t="s">
         <v>51</v>
       </c>
@@ -4465,7 +4471,7 @@
       <c r="F23" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="95"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="35">
         <v>16</v>
       </c>
@@ -4478,8 +4484,8 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
     </row>
-    <row r="24" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="84"/>
+    <row r="24" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="99"/>
       <c r="C24" s="42" t="s">
         <v>50</v>
       </c>
@@ -4492,7 +4498,7 @@
       <c r="F24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G24" s="95"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="35">
         <v>254</v>
       </c>
@@ -4505,8 +4511,8 @@
       <c r="M24" s="31"/>
       <c r="N24" s="31"/>
     </row>
-    <row r="25" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="107"/>
+    <row r="25" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="105"/>
       <c r="C25" s="24" t="s">
         <v>129</v>
       </c>
@@ -4519,7 +4525,7 @@
       <c r="F25" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="95"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="35">
         <v>254</v>
       </c>
@@ -4532,8 +4538,8 @@
       <c r="M25" s="31"/>
       <c r="N25" s="31"/>
     </row>
-    <row r="26" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="107"/>
+    <row r="26" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="105"/>
       <c r="C26" s="24" t="s">
         <v>281</v>
       </c>
@@ -4546,7 +4552,7 @@
       <c r="F26" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="95"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="35">
         <v>64</v>
       </c>
@@ -4559,8 +4565,8 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
     </row>
-    <row r="27" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
+    <row r="27" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="105"/>
       <c r="C27" s="23" t="s">
         <v>38</v>
       </c>
@@ -4573,7 +4579,7 @@
       <c r="F27" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G27" s="95"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="35">
         <v>32</v>
       </c>
@@ -4586,8 +4592,8 @@
       <c r="M27" s="31"/>
       <c r="N27" s="31"/>
     </row>
-    <row r="28" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="84"/>
+    <row r="28" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="99"/>
       <c r="C28" s="43" t="s">
         <v>39</v>
       </c>
@@ -4600,7 +4606,7 @@
       <c r="F28" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="95"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="35">
         <v>128</v>
       </c>
@@ -4613,8 +4619,8 @@
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
     </row>
-    <row r="29" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
+    <row r="29" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="99"/>
       <c r="C29" s="33" t="s">
         <v>127</v>
       </c>
@@ -4627,7 +4633,7 @@
       <c r="F29" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="95"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="35" t="s">
         <v>24</v>
       </c>
@@ -4640,8 +4646,8 @@
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
     </row>
-    <row r="30" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="85"/>
+    <row r="30" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="100"/>
       <c r="C30" s="33" t="s">
         <v>41</v>
       </c>
@@ -4654,7 +4660,7 @@
       <c r="F30" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="96"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="35" t="s">
         <v>24</v>
       </c>
@@ -4673,14 +4679,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="98" t="s">
+    <row r="31" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="96" t="s">
         <v>357</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="87" t="s">
+      <c r="D31" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="23" t="s">
@@ -4704,12 +4710,12 @@
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
     </row>
-    <row r="32" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="99"/>
+    <row r="32" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="97"/>
       <c r="C32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="88"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="23" t="s">
         <v>313</v>
       </c>
@@ -4731,12 +4737,12 @@
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
     </row>
-    <row r="33" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="99"/>
+    <row r="33" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="97"/>
       <c r="C33" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="D33" s="88"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="23" t="s">
         <v>24</v>
       </c>
@@ -4758,12 +4764,12 @@
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
     </row>
-    <row r="34" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="100"/>
+    <row r="34" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="109"/>
       <c r="C34" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="D34" s="97"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="23" t="s">
         <v>24</v>
       </c>
@@ -4785,14 +4791,14 @@
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
     </row>
-    <row r="35" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="83" t="s">
+    <row r="35" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="98" t="s">
         <v>365</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="87" t="s">
+      <c r="D35" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="23" t="s">
@@ -4818,12 +4824,12 @@
       <c r="O35" s="17"/>
       <c r="P35" s="16"/>
     </row>
-    <row r="36" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="84"/>
+    <row r="36" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="99"/>
       <c r="C36" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="88"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="23" t="s">
         <v>24</v>
       </c>
@@ -4847,12 +4853,12 @@
       <c r="O36" s="17"/>
       <c r="P36" s="16"/>
     </row>
-    <row r="37" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="84"/>
+    <row r="37" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="99"/>
       <c r="C37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="88"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="23" t="s">
         <v>24</v>
       </c>
@@ -4876,12 +4882,12 @@
       <c r="O37" s="17"/>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
+    <row r="38" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="99"/>
       <c r="C38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="88"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="23" t="s">
         <v>24</v>
       </c>
@@ -4905,12 +4911,12 @@
       <c r="O38" s="17"/>
       <c r="P38" s="16"/>
     </row>
-    <row r="39" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="84"/>
+    <row r="39" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="99"/>
       <c r="C39" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="88"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="23" t="s">
         <v>24</v>
       </c>
@@ -4934,12 +4940,12 @@
       <c r="O39" s="17"/>
       <c r="P39" s="16"/>
     </row>
-    <row r="40" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="84"/>
+    <row r="40" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="99"/>
       <c r="C40" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="88"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="23" t="s">
         <v>24</v>
       </c>
@@ -4963,12 +4969,12 @@
       <c r="O40" s="17"/>
       <c r="P40" s="16"/>
     </row>
-    <row r="41" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="84"/>
+    <row r="41" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="99"/>
       <c r="C41" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D41" s="88"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="23" t="s">
         <v>24</v>
       </c>
@@ -4992,12 +4998,12 @@
       <c r="O41" s="17"/>
       <c r="P41" s="16"/>
     </row>
-    <row r="42" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="84"/>
+    <row r="42" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="99"/>
       <c r="C42" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="88"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="23" t="s">
         <v>24</v>
       </c>
@@ -5021,12 +5027,12 @@
       <c r="O42" s="17"/>
       <c r="P42" s="16"/>
     </row>
-    <row r="43" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="84"/>
+    <row r="43" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="99"/>
       <c r="C43" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D43" s="88"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="23" t="s">
         <v>24</v>
       </c>
@@ -5050,12 +5056,12 @@
       <c r="O43" s="17"/>
       <c r="P43" s="16"/>
     </row>
-    <row r="44" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="84"/>
+    <row r="44" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="99"/>
       <c r="C44" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="88"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="23" t="s">
         <v>24</v>
       </c>
@@ -5079,12 +5085,12 @@
       <c r="O44" s="17"/>
       <c r="P44" s="16"/>
     </row>
-    <row r="45" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="84"/>
+    <row r="45" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="99"/>
       <c r="C45" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="88"/>
+      <c r="D45" s="102"/>
       <c r="E45" s="23" t="s">
         <v>24</v>
       </c>
@@ -5108,12 +5114,12 @@
       <c r="O45" s="17"/>
       <c r="P45" s="16"/>
     </row>
-    <row r="46" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="85"/>
+    <row r="46" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="100"/>
       <c r="C46" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D46" s="97"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="49" t="s">
         <v>358</v>
       </c>
@@ -5135,14 +5141,14 @@
       <c r="M46" s="24"/>
       <c r="N46" s="24"/>
     </row>
-    <row r="47" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="81" t="s">
+    <row r="47" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="88" t="s">
         <v>317</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="106" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="23" t="s">
@@ -5168,12 +5174,12 @@
       <c r="O47" s="17"/>
       <c r="P47" s="16"/>
     </row>
-    <row r="48" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="82"/>
+    <row r="48" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="89"/>
       <c r="C48" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="79"/>
+      <c r="D48" s="107"/>
       <c r="E48" s="23" t="s">
         <v>159</v>
       </c>
@@ -5197,12 +5203,12 @@
       <c r="O48" s="17"/>
       <c r="P48" s="16"/>
     </row>
-    <row r="49" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="82"/>
+    <row r="49" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="89"/>
       <c r="C49" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="79"/>
+      <c r="D49" s="107"/>
       <c r="E49" s="23" t="s">
         <v>167</v>
       </c>
@@ -5226,12 +5232,12 @@
       <c r="O49" s="17"/>
       <c r="P49" s="16"/>
     </row>
-    <row r="50" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="82"/>
+    <row r="50" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="89"/>
       <c r="C50" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="79"/>
+      <c r="D50" s="107"/>
       <c r="E50" s="32" t="s">
         <v>164</v>
       </c>
@@ -5255,12 +5261,12 @@
       <c r="O50" s="17"/>
       <c r="P50" s="16"/>
     </row>
-    <row r="51" spans="2:16" s="25" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="82"/>
+    <row r="51" spans="2:16" s="25" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="89"/>
       <c r="C51" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="79"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="23" t="s">
         <v>168</v>
       </c>
@@ -5284,12 +5290,12 @@
       <c r="O51" s="17"/>
       <c r="P51" s="16"/>
     </row>
-    <row r="52" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="82"/>
+    <row r="52" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="89"/>
       <c r="C52" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="79"/>
+      <c r="D52" s="107"/>
       <c r="E52" s="23" t="s">
         <v>169</v>
       </c>
@@ -5313,12 +5319,12 @@
       <c r="O52" s="17"/>
       <c r="P52" s="16"/>
     </row>
-    <row r="53" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="82"/>
+    <row r="53" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="89"/>
       <c r="C53" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="79"/>
+      <c r="D53" s="107"/>
       <c r="E53" s="23" t="s">
         <v>170</v>
       </c>
@@ -5342,12 +5348,12 @@
       <c r="O53" s="17"/>
       <c r="P53" s="16"/>
     </row>
-    <row r="54" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="82"/>
+    <row r="54" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="89"/>
       <c r="C54" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="D54" s="79"/>
+      <c r="D54" s="107"/>
       <c r="E54" s="21" t="s">
         <v>24</v>
       </c>
@@ -5371,12 +5377,12 @@
       <c r="O54" s="17"/>
       <c r="P54" s="16"/>
     </row>
-    <row r="55" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="82"/>
+    <row r="55" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="89"/>
       <c r="C55" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="D55" s="79"/>
+      <c r="D55" s="107"/>
       <c r="E55" s="49" t="s">
         <v>355</v>
       </c>
@@ -5398,12 +5404,12 @@
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
     </row>
-    <row r="56" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="86"/>
+    <row r="56" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="90"/>
       <c r="C56" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D56" s="80"/>
+      <c r="D56" s="108"/>
       <c r="E56" s="49" t="s">
         <v>318</v>
       </c>
@@ -5425,26 +5431,26 @@
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
     </row>
-    <row r="57" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="83" t="s">
+    <row r="57" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="98" t="s">
         <v>319</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="87" t="s">
+      <c r="D57" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="94" t="s">
+      <c r="F57" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="85" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="23" t="s">
@@ -5456,18 +5462,18 @@
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
     </row>
-    <row r="58" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="84"/>
+    <row r="58" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="99"/>
       <c r="C58" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="D58" s="88"/>
+      <c r="D58" s="102"/>
       <c r="E58" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
-      <c r="H58" s="95"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
       <c r="I58" s="23" t="s">
         <v>27</v>
       </c>
@@ -5477,18 +5483,18 @@
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
     </row>
-    <row r="59" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="84"/>
+    <row r="59" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="99"/>
       <c r="C59" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="88"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
       <c r="I59" s="23" t="s">
         <v>44</v>
       </c>
@@ -5498,18 +5504,18 @@
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
     </row>
-    <row r="60" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="85"/>
+    <row r="60" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="100"/>
       <c r="C60" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D60" s="97"/>
+      <c r="D60" s="103"/>
       <c r="E60" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
       <c r="I60" s="23" t="s">
         <v>44</v>
       </c>
@@ -5519,8 +5525,8 @@
       <c r="M60" s="32"/>
       <c r="N60" s="32"/>
     </row>
-    <row r="61" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="83" t="s">
+    <row r="61" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="98" t="s">
         <v>326</v>
       </c>
       <c r="C61" s="33" t="s">
@@ -5535,7 +5541,7 @@
       <c r="F61" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G61" s="94" t="s">
+      <c r="G61" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H61" s="46">
@@ -5550,8 +5556,8 @@
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
     </row>
-    <row r="62" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="84"/>
+    <row r="62" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="99"/>
       <c r="C62" s="33" t="s">
         <v>39</v>
       </c>
@@ -5564,7 +5570,7 @@
       <c r="F62" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="G62" s="95"/>
+      <c r="G62" s="86"/>
       <c r="H62" s="46">
         <v>128</v>
       </c>
@@ -5577,8 +5583,8 @@
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
     </row>
-    <row r="63" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="84"/>
+    <row r="63" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="99"/>
       <c r="C63" s="33" t="s">
         <v>327</v>
       </c>
@@ -5591,7 +5597,7 @@
       <c r="F63" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="95"/>
+      <c r="G63" s="86"/>
       <c r="H63" s="46">
         <v>32</v>
       </c>
@@ -5604,8 +5610,8 @@
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
     </row>
-    <row r="64" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="84"/>
+    <row r="64" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="99"/>
       <c r="C64" s="33" t="s">
         <v>328</v>
       </c>
@@ -5618,7 +5624,7 @@
       <c r="F64" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="95"/>
+      <c r="G64" s="86"/>
       <c r="H64" s="46" t="s">
         <v>24</v>
       </c>
@@ -5631,8 +5637,8 @@
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
     </row>
-    <row r="65" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="85"/>
+    <row r="65" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="100"/>
       <c r="C65" s="33" t="s">
         <v>329</v>
       </c>
@@ -5645,7 +5651,7 @@
       <c r="F65" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="96"/>
+      <c r="G65" s="87"/>
       <c r="H65" s="46" t="s">
         <v>24</v>
       </c>
@@ -5658,8 +5664,8 @@
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
     </row>
-    <row r="66" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="83" t="s">
+    <row r="66" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="98" t="s">
         <v>340</v>
       </c>
       <c r="C66" s="33" t="s">
@@ -5674,7 +5680,7 @@
       <c r="F66" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="G66" s="94" t="s">
+      <c r="G66" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H66" s="46">
@@ -5689,8 +5695,8 @@
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
     </row>
-    <row r="67" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="84"/>
+    <row r="67" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="99"/>
       <c r="C67" s="33" t="s">
         <v>342</v>
       </c>
@@ -5703,7 +5709,7 @@
       <c r="F67" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="G67" s="95"/>
+      <c r="G67" s="86"/>
       <c r="H67" s="46">
         <v>32</v>
       </c>
@@ -5716,8 +5722,8 @@
       <c r="M67" s="32"/>
       <c r="N67" s="32"/>
     </row>
-    <row r="68" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="84"/>
+    <row r="68" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="99"/>
       <c r="C68" s="33" t="s">
         <v>343</v>
       </c>
@@ -5730,7 +5736,7 @@
       <c r="F68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="95"/>
+      <c r="G68" s="86"/>
       <c r="H68" s="46" t="s">
         <v>24</v>
       </c>
@@ -5743,8 +5749,8 @@
       <c r="M68" s="32"/>
       <c r="N68" s="32"/>
     </row>
-    <row r="69" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="85"/>
+    <row r="69" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="100"/>
       <c r="C69" s="33" t="s">
         <v>329</v>
       </c>
@@ -5757,7 +5763,7 @@
       <c r="F69" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G69" s="96"/>
+      <c r="G69" s="87"/>
       <c r="H69" s="46" t="s">
         <v>24</v>
       </c>
@@ -5770,8 +5776,8 @@
       <c r="M69" s="32"/>
       <c r="N69" s="32"/>
     </row>
-    <row r="70" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="104" t="s">
+    <row r="70" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="91" t="s">
         <v>55</v>
       </c>
       <c r="C70" s="24" t="s">
@@ -5803,8 +5809,8 @@
       <c r="O70" s="17"/>
       <c r="P70" s="16"/>
     </row>
-    <row r="71" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="105"/>
+    <row r="71" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="104"/>
       <c r="C71" s="24" t="s">
         <v>53</v>
       </c>
@@ -5834,8 +5840,8 @@
       <c r="O71" s="17"/>
       <c r="P71" s="16"/>
     </row>
-    <row r="72" spans="2:16" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="105"/>
+    <row r="72" spans="2:16" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="104"/>
       <c r="C72" s="24" t="s">
         <v>48</v>
       </c>
@@ -5865,8 +5871,8 @@
       <c r="O72" s="17"/>
       <c r="P72" s="16"/>
     </row>
-    <row r="73" spans="2:16" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="105"/>
+    <row r="73" spans="2:16" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="104"/>
       <c r="C73" s="24" t="s">
         <v>156</v>
       </c>
@@ -5896,8 +5902,8 @@
       <c r="O73" s="17"/>
       <c r="P73" s="16"/>
     </row>
-    <row r="74" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="105"/>
+    <row r="74" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="104"/>
       <c r="C74" s="24" t="s">
         <v>281</v>
       </c>
@@ -5927,8 +5933,8 @@
       <c r="O74" s="17"/>
       <c r="P74" s="16"/>
     </row>
-    <row r="75" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="106"/>
+    <row r="75" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="92"/>
       <c r="C75" s="24" t="s">
         <v>54</v>
       </c>
@@ -5958,8 +5964,8 @@
       <c r="O75" s="17"/>
       <c r="P75" s="16"/>
     </row>
-    <row r="76" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="104" t="s">
+    <row r="76" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="91" t="s">
         <v>64</v>
       </c>
       <c r="C76" s="24" t="s">
@@ -5974,7 +5980,7 @@
       <c r="F76" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="G76" s="94" t="s">
+      <c r="G76" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="35">
@@ -5991,8 +5997,8 @@
       <c r="O76" s="17"/>
       <c r="P76" s="16"/>
     </row>
-    <row r="77" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="105"/>
+    <row r="77" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="104"/>
       <c r="C77" s="24" t="s">
         <v>61</v>
       </c>
@@ -6005,7 +6011,7 @@
       <c r="F77" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="G77" s="95"/>
+      <c r="G77" s="86"/>
       <c r="H77" s="35">
         <v>254</v>
       </c>
@@ -6020,8 +6026,8 @@
       <c r="O77" s="17"/>
       <c r="P77" s="16"/>
     </row>
-    <row r="78" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="106"/>
+    <row r="78" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="92"/>
       <c r="C78" s="24" t="s">
         <v>62</v>
       </c>
@@ -6034,7 +6040,7 @@
       <c r="F78" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G78" s="96"/>
+      <c r="G78" s="87"/>
       <c r="H78" s="35" t="s">
         <v>24</v>
       </c>
@@ -6049,8 +6055,8 @@
       <c r="O78" s="17"/>
       <c r="P78" s="16"/>
     </row>
-    <row r="79" spans="2:16" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="104" t="s">
+    <row r="79" spans="2:16" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="91" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="29" t="s">
@@ -6065,7 +6071,7 @@
       <c r="F79" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="G79" s="94" t="s">
+      <c r="G79" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="35">
@@ -6082,8 +6088,8 @@
       <c r="O79" s="17"/>
       <c r="P79" s="16"/>
     </row>
-    <row r="80" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="106"/>
+    <row r="80" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="92"/>
       <c r="C80" s="29" t="s">
         <v>62</v>
       </c>
@@ -6096,7 +6102,7 @@
       <c r="F80" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="96"/>
+      <c r="G80" s="87"/>
       <c r="H80" s="35" t="s">
         <v>24</v>
       </c>
@@ -6111,8 +6117,8 @@
       <c r="O80" s="17"/>
       <c r="P80" s="16"/>
     </row>
-    <row r="81" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="101" t="s">
+    <row r="81" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="24" t="s">
@@ -6127,7 +6133,7 @@
       <c r="F81" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G81" s="94" t="s">
+      <c r="G81" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H81" s="35">
@@ -6142,8 +6148,8 @@
       <c r="M81" s="24"/>
       <c r="N81" s="24"/>
     </row>
-    <row r="82" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="103"/>
+    <row r="82" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="94"/>
       <c r="C82" s="24" t="s">
         <v>62</v>
       </c>
@@ -6156,7 +6162,7 @@
       <c r="F82" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G82" s="96"/>
+      <c r="G82" s="87"/>
       <c r="H82" s="35" t="s">
         <v>24</v>
       </c>
@@ -6169,26 +6175,26 @@
       <c r="M82" s="24"/>
       <c r="N82" s="24"/>
     </row>
-    <row r="83" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="101" t="s">
+    <row r="83" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="93" t="s">
         <v>299</v>
       </c>
       <c r="C83" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" s="94" t="s">
+      <c r="D83" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="85" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="23" t="s">
@@ -6200,16 +6206,16 @@
       <c r="M83" s="24"/>
       <c r="N83" s="24"/>
     </row>
-    <row r="84" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="102"/>
+    <row r="84" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="95"/>
       <c r="C84" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="95"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
       <c r="I84" s="23" t="s">
         <v>203</v>
       </c>
@@ -6219,16 +6225,16 @@
       <c r="M84" s="24"/>
       <c r="N84" s="24"/>
     </row>
-    <row r="85" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="103"/>
+    <row r="85" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="94"/>
       <c r="C85" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D85" s="80"/>
-      <c r="E85" s="97"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="96"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="87"/>
       <c r="I85" s="23" t="s">
         <v>203</v>
       </c>
@@ -6238,14 +6244,14 @@
       <c r="M85" s="24"/>
       <c r="N85" s="24"/>
     </row>
-    <row r="86" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="81" t="s">
+    <row r="86" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="88" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="78" t="s">
+      <c r="D86" s="106" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="49" t="s">
@@ -6269,12 +6275,12 @@
       <c r="M86" s="24"/>
       <c r="N86" s="24"/>
     </row>
-    <row r="87" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="82"/>
+    <row r="87" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="89"/>
       <c r="C87" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="79"/>
+      <c r="D87" s="107"/>
       <c r="E87" s="49" t="s">
         <v>24</v>
       </c>
@@ -6296,12 +6302,12 @@
       <c r="M87" s="24"/>
       <c r="N87" s="24"/>
     </row>
-    <row r="88" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="82"/>
+    <row r="88" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="89"/>
       <c r="C88" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="79"/>
+      <c r="D88" s="107"/>
       <c r="E88" s="49" t="s">
         <v>24</v>
       </c>
@@ -6323,12 +6329,12 @@
       <c r="M88" s="24"/>
       <c r="N88" s="24"/>
     </row>
-    <row r="89" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="82"/>
+    <row r="89" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="89"/>
       <c r="C89" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="79"/>
+      <c r="D89" s="107"/>
       <c r="E89" s="49" t="s">
         <v>24</v>
       </c>
@@ -6349,12 +6355,12 @@
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
     </row>
-    <row r="90" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="82"/>
+    <row r="90" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="89"/>
       <c r="C90" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D90" s="79"/>
+      <c r="D90" s="107"/>
       <c r="E90" s="49" t="s">
         <v>24</v>
       </c>
@@ -6378,12 +6384,12 @@
       <c r="O90"/>
       <c r="P90"/>
     </row>
-    <row r="91" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="82"/>
+    <row r="91" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="89"/>
       <c r="C91" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="79"/>
+      <c r="D91" s="107"/>
       <c r="E91" s="49" t="s">
         <v>24</v>
       </c>
@@ -6407,12 +6413,12 @@
       <c r="O91"/>
       <c r="P91"/>
     </row>
-    <row r="92" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="82"/>
+    <row r="92" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="89"/>
       <c r="C92" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="79"/>
+      <c r="D92" s="107"/>
       <c r="E92" s="49" t="s">
         <v>24</v>
       </c>
@@ -6436,12 +6442,12 @@
       <c r="O92"/>
       <c r="P92"/>
     </row>
-    <row r="93" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="82"/>
+    <row r="93" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="89"/>
       <c r="C93" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="79"/>
+      <c r="D93" s="107"/>
       <c r="E93" s="49" t="s">
         <v>24</v>
       </c>
@@ -6465,12 +6471,12 @@
       <c r="O93"/>
       <c r="P93"/>
     </row>
-    <row r="94" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="82"/>
+    <row r="94" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="89"/>
       <c r="C94" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="79"/>
+      <c r="D94" s="107"/>
       <c r="E94" s="49" t="s">
         <v>24</v>
       </c>
@@ -6494,12 +6500,12 @@
       <c r="O94"/>
       <c r="P94"/>
     </row>
-    <row r="95" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="86"/>
+    <row r="95" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="90"/>
       <c r="C95" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="80"/>
+      <c r="D95" s="108"/>
       <c r="E95" s="49" t="s">
         <v>360</v>
       </c>
@@ -6521,8 +6527,8 @@
       <c r="M95" s="24"/>
       <c r="N95" s="24"/>
     </row>
-    <row r="96" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="81" t="s">
+    <row r="96" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="88" t="s">
         <v>311</v>
       </c>
       <c r="C96" s="33" t="s">
@@ -6552,8 +6558,8 @@
       <c r="M96" s="24"/>
       <c r="N96" s="24"/>
     </row>
-    <row r="97" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="82"/>
+    <row r="97" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="89"/>
       <c r="C97" s="33" t="s">
         <v>33</v>
       </c>
@@ -6581,8 +6587,8 @@
       <c r="M97" s="24"/>
       <c r="N97" s="24"/>
     </row>
-    <row r="98" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="82"/>
+    <row r="98" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="89"/>
       <c r="C98" s="33" t="s">
         <v>303</v>
       </c>
@@ -6610,8 +6616,8 @@
       <c r="M98" s="24"/>
       <c r="N98" s="24"/>
     </row>
-    <row r="99" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="82"/>
+    <row r="99" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="89"/>
       <c r="C99" s="33" t="s">
         <v>48</v>
       </c>
@@ -6639,8 +6645,8 @@
       <c r="M99" s="24"/>
       <c r="N99" s="24"/>
     </row>
-    <row r="100" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="82"/>
+    <row r="100" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="89"/>
       <c r="C100" s="33" t="s">
         <v>293</v>
       </c>
@@ -6668,8 +6674,8 @@
       <c r="M100" s="24"/>
       <c r="N100" s="24"/>
     </row>
-    <row r="101" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="82"/>
+    <row r="101" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="89"/>
       <c r="C101" s="33" t="s">
         <v>156</v>
       </c>
@@ -6697,8 +6703,8 @@
       <c r="M101" s="24"/>
       <c r="N101" s="24"/>
     </row>
-    <row r="102" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="82"/>
+    <row r="102" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="89"/>
       <c r="C102" s="33" t="s">
         <v>306</v>
       </c>
@@ -6726,8 +6732,8 @@
       <c r="M102" s="24"/>
       <c r="N102" s="24"/>
     </row>
-    <row r="103" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="82"/>
+    <row r="103" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="89"/>
       <c r="C103" s="33" t="s">
         <v>49</v>
       </c>
@@ -6755,8 +6761,8 @@
       <c r="M103" s="24"/>
       <c r="N103" s="24"/>
     </row>
-    <row r="104" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="82"/>
+    <row r="104" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="89"/>
       <c r="C104" s="33" t="s">
         <v>281</v>
       </c>
@@ -6784,8 +6790,8 @@
       <c r="M104" s="24"/>
       <c r="N104" s="24"/>
     </row>
-    <row r="105" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="82"/>
+    <row r="105" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="89"/>
       <c r="C105" s="33" t="s">
         <v>51</v>
       </c>
@@ -6813,8 +6819,8 @@
       <c r="M105" s="24"/>
       <c r="N105" s="24"/>
     </row>
-    <row r="106" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="82"/>
+    <row r="106" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="89"/>
       <c r="C106" s="33" t="s">
         <v>50</v>
       </c>
@@ -6842,8 +6848,8 @@
       <c r="M106" s="24"/>
       <c r="N106" s="24"/>
     </row>
-    <row r="107" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="82"/>
+    <row r="107" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="89"/>
       <c r="C107" s="33" t="s">
         <v>307</v>
       </c>
@@ -6871,8 +6877,8 @@
       <c r="M107" s="24"/>
       <c r="N107" s="24"/>
     </row>
-    <row r="108" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="82"/>
+    <row r="108" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="89"/>
       <c r="C108" s="33" t="s">
         <v>82</v>
       </c>
@@ -6900,8 +6906,8 @@
       <c r="M108" s="24"/>
       <c r="N108" s="24"/>
     </row>
-    <row r="109" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="82"/>
+    <row r="109" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="89"/>
       <c r="C109" s="33" t="s">
         <v>83</v>
       </c>
@@ -6929,8 +6935,8 @@
       <c r="M109" s="24"/>
       <c r="N109" s="24"/>
     </row>
-    <row r="110" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="81" t="s">
+    <row r="110" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="88" t="s">
         <v>312</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -6962,8 +6968,8 @@
       <c r="O110" s="17"/>
       <c r="P110" s="16"/>
     </row>
-    <row r="111" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="82"/>
+    <row r="111" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="89"/>
       <c r="C111" s="24" t="s">
         <v>35</v>
       </c>
@@ -6993,8 +6999,8 @@
       <c r="O111" s="17"/>
       <c r="P111" s="16"/>
     </row>
-    <row r="112" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="82"/>
+    <row r="112" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="89"/>
       <c r="C112" s="24" t="s">
         <v>34</v>
       </c>
@@ -7024,8 +7030,8 @@
       <c r="O112" s="17"/>
       <c r="P112" s="16"/>
     </row>
-    <row r="113" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="82"/>
+    <row r="113" spans="1:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="89"/>
       <c r="C113" s="24" t="s">
         <v>56</v>
       </c>
@@ -7055,8 +7061,8 @@
       <c r="O113" s="17"/>
       <c r="P113" s="16"/>
     </row>
-    <row r="114" spans="1:16" s="25" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="82"/>
+    <row r="114" spans="1:16" s="25" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="89"/>
       <c r="C114" s="24" t="s">
         <v>36</v>
       </c>
@@ -7086,8 +7092,8 @@
       <c r="O114" s="17"/>
       <c r="P114" s="16"/>
     </row>
-    <row r="115" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="82"/>
+    <row r="115" spans="1:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="89"/>
       <c r="C115" s="24" t="s">
         <v>58</v>
       </c>
@@ -7117,8 +7123,8 @@
       <c r="O115" s="17"/>
       <c r="P115" s="16"/>
     </row>
-    <row r="116" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="82"/>
+    <row r="116" spans="1:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="89"/>
       <c r="C116" s="24" t="s">
         <v>59</v>
       </c>
@@ -7148,8 +7154,8 @@
       <c r="O116" s="17"/>
       <c r="P116" s="16"/>
     </row>
-    <row r="117" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="82"/>
+    <row r="117" spans="1:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="89"/>
       <c r="C117" s="24" t="s">
         <v>354</v>
       </c>
@@ -7179,8 +7185,8 @@
       <c r="O117" s="17"/>
       <c r="P117" s="16"/>
     </row>
-    <row r="118" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="82"/>
+    <row r="118" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="89"/>
       <c r="C118" s="33" t="s">
         <v>353</v>
       </c>
@@ -7208,8 +7214,8 @@
       <c r="M118" s="24"/>
       <c r="N118" s="24"/>
     </row>
-    <row r="119" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="82"/>
+    <row r="119" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="89"/>
       <c r="C119" s="33" t="s">
         <v>307</v>
       </c>
@@ -7237,8 +7243,8 @@
       <c r="M119" s="24"/>
       <c r="N119" s="24"/>
     </row>
-    <row r="120" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="82"/>
+    <row r="120" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="89"/>
       <c r="C120" s="33" t="s">
         <v>82</v>
       </c>
@@ -7266,8 +7272,8 @@
       <c r="M120" s="24"/>
       <c r="N120" s="24"/>
     </row>
-    <row r="121" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="86"/>
+    <row r="121" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="90"/>
       <c r="C121" s="33" t="s">
         <v>351</v>
       </c>
@@ -7295,9 +7301,9 @@
       <c r="M121" s="24"/>
       <c r="N121" s="24"/>
     </row>
-    <row r="122" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="25"/>
-      <c r="B122" s="98" t="s">
+      <c r="B122" s="96" t="s">
         <v>140</v>
       </c>
       <c r="C122" s="24" t="s">
@@ -7312,7 +7318,7 @@
       <c r="F122" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G122" s="94" t="s">
+      <c r="G122" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H122" s="35" t="s">
@@ -7327,9 +7333,9 @@
       <c r="M122" s="32"/>
       <c r="N122" s="32"/>
     </row>
-    <row r="123" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="25"/>
-      <c r="B123" s="99"/>
+      <c r="B123" s="97"/>
       <c r="C123" s="24" t="s">
         <v>38</v>
       </c>
@@ -7342,7 +7348,7 @@
       <c r="F123" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G123" s="95"/>
+      <c r="G123" s="86"/>
       <c r="H123" s="35">
         <v>32</v>
       </c>
@@ -7355,9 +7361,9 @@
       <c r="M123" s="32"/>
       <c r="N123" s="32"/>
     </row>
-    <row r="124" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="25"/>
-      <c r="B124" s="99"/>
+      <c r="B124" s="97"/>
       <c r="C124" s="24" t="s">
         <v>39</v>
       </c>
@@ -7370,7 +7376,7 @@
       <c r="F124" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G124" s="95"/>
+      <c r="G124" s="86"/>
       <c r="H124" s="35">
         <v>128</v>
       </c>
@@ -7383,9 +7389,9 @@
       <c r="M124" s="32"/>
       <c r="N124" s="32"/>
     </row>
-    <row r="125" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="25"/>
-      <c r="B125" s="99"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="24" t="s">
         <v>96</v>
       </c>
@@ -7398,7 +7404,7 @@
       <c r="F125" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G125" s="95"/>
+      <c r="G125" s="86"/>
       <c r="H125" s="35" t="s">
         <v>24</v>
       </c>
@@ -7411,9 +7417,9 @@
       <c r="M125" s="32"/>
       <c r="N125" s="32"/>
     </row>
-    <row r="126" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="25"/>
-      <c r="B126" s="99"/>
+      <c r="B126" s="97"/>
       <c r="C126" s="24" t="s">
         <v>45</v>
       </c>
@@ -7426,7 +7432,7 @@
       <c r="F126" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G126" s="95"/>
+      <c r="G126" s="86"/>
       <c r="H126" s="35" t="s">
         <v>24</v>
       </c>
@@ -7439,9 +7445,9 @@
       <c r="M126" s="32"/>
       <c r="N126" s="32"/>
     </row>
-    <row r="127" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="25"/>
-      <c r="B127" s="99"/>
+      <c r="B127" s="97"/>
       <c r="C127" s="30" t="s">
         <v>41</v>
       </c>
@@ -7454,7 +7460,7 @@
       <c r="F127" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G127" s="96"/>
+      <c r="G127" s="87"/>
       <c r="H127" s="35" t="s">
         <v>24</v>
       </c>
@@ -7467,9 +7473,9 @@
       <c r="M127" s="32"/>
       <c r="N127" s="32"/>
     </row>
-    <row r="128" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="25"/>
-      <c r="B128" s="83" t="s">
+      <c r="B128" s="98" t="s">
         <v>144</v>
       </c>
       <c r="C128" s="24" t="s">
@@ -7499,9 +7505,9 @@
       <c r="M128" s="32"/>
       <c r="N128" s="32"/>
     </row>
-    <row r="129" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="25"/>
-      <c r="B129" s="84"/>
+      <c r="B129" s="99"/>
       <c r="C129" s="24" t="s">
         <v>32</v>
       </c>
@@ -7531,9 +7537,9 @@
       <c r="O129"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="25"/>
-      <c r="B130" s="84"/>
+      <c r="B130" s="99"/>
       <c r="C130" s="24" t="s">
         <v>48</v>
       </c>
@@ -7561,9 +7567,9 @@
       <c r="M130" s="32"/>
       <c r="N130" s="32"/>
     </row>
-    <row r="131" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="25"/>
-      <c r="B131" s="84"/>
+      <c r="B131" s="99"/>
       <c r="C131" s="24" t="s">
         <v>147</v>
       </c>
@@ -7591,9 +7597,9 @@
       <c r="M131" s="32"/>
       <c r="N131" s="32"/>
     </row>
-    <row r="132" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="25"/>
-      <c r="B132" s="84"/>
+      <c r="B132" s="99"/>
       <c r="C132" s="24" t="s">
         <v>148</v>
       </c>
@@ -7621,9 +7627,9 @@
       <c r="M132" s="32"/>
       <c r="N132" s="32"/>
     </row>
-    <row r="133" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="25"/>
-      <c r="B133" s="84"/>
+      <c r="B133" s="99"/>
       <c r="C133" s="24" t="s">
         <v>51</v>
       </c>
@@ -7653,9 +7659,9 @@
       <c r="O133"/>
       <c r="P133"/>
     </row>
-    <row r="134" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="25"/>
-      <c r="B134" s="84"/>
+      <c r="B134" s="99"/>
       <c r="C134" s="24" t="s">
         <v>50</v>
       </c>
@@ -7685,9 +7691,9 @@
       <c r="O134"/>
       <c r="P134"/>
     </row>
-    <row r="135" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="25"/>
-      <c r="B135" s="84"/>
+      <c r="B135" s="99"/>
       <c r="C135" s="24" t="s">
         <v>281</v>
       </c>
@@ -7717,9 +7723,9 @@
       <c r="O135"/>
       <c r="P135"/>
     </row>
-    <row r="136" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="25"/>
-      <c r="B136" s="84"/>
+      <c r="B136" s="99"/>
       <c r="C136" s="23" t="s">
         <v>38</v>
       </c>
@@ -7749,9 +7755,9 @@
       <c r="O136"/>
       <c r="P136"/>
     </row>
-    <row r="137" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="25"/>
-      <c r="B137" s="84"/>
+      <c r="B137" s="99"/>
       <c r="C137" s="24" t="s">
         <v>39</v>
       </c>
@@ -7781,9 +7787,9 @@
       <c r="O137"/>
       <c r="P137"/>
     </row>
-    <row r="138" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="25"/>
-      <c r="B138" s="84"/>
+      <c r="B138" s="99"/>
       <c r="C138" s="33" t="s">
         <v>127</v>
       </c>
@@ -7813,9 +7819,9 @@
       <c r="O138"/>
       <c r="P138"/>
     </row>
-    <row r="139" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="25"/>
-      <c r="B139" s="85"/>
+      <c r="B139" s="100"/>
       <c r="C139" s="33" t="s">
         <v>146</v>
       </c>
@@ -7845,26 +7851,26 @@
       <c r="O139"/>
       <c r="P139"/>
     </row>
-    <row r="140" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="101" t="s">
+    <row r="140" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="93" t="s">
         <v>69</v>
       </c>
       <c r="C140" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F140" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H140" s="94" t="s">
+      <c r="D140" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="85" t="s">
         <v>24</v>
       </c>
       <c r="I140" s="23" t="s">
@@ -7878,16 +7884,16 @@
       <c r="O140"/>
       <c r="P140"/>
     </row>
-    <row r="141" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="102"/>
+    <row r="141" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="95"/>
       <c r="C141" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D141" s="88"/>
-      <c r="E141" s="88"/>
-      <c r="F141" s="95"/>
-      <c r="G141" s="95"/>
-      <c r="H141" s="95"/>
+      <c r="D141" s="102"/>
+      <c r="E141" s="102"/>
+      <c r="F141" s="86"/>
+      <c r="G141" s="86"/>
+      <c r="H141" s="86"/>
       <c r="I141" s="23" t="s">
         <v>203</v>
       </c>
@@ -7897,16 +7903,16 @@
       <c r="M141" s="24"/>
       <c r="N141" s="24"/>
     </row>
-    <row r="142" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="102"/>
+    <row r="142" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="95"/>
       <c r="C142" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="88"/>
-      <c r="E142" s="88"/>
-      <c r="F142" s="95"/>
-      <c r="G142" s="95"/>
-      <c r="H142" s="95"/>
+      <c r="D142" s="102"/>
+      <c r="E142" s="102"/>
+      <c r="F142" s="86"/>
+      <c r="G142" s="86"/>
+      <c r="H142" s="86"/>
       <c r="I142" s="23" t="s">
         <v>203</v>
       </c>
@@ -7916,16 +7922,16 @@
       <c r="M142" s="24"/>
       <c r="N142" s="24"/>
     </row>
-    <row r="143" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="102"/>
+    <row r="143" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="95"/>
       <c r="C143" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D143" s="88"/>
-      <c r="E143" s="88"/>
-      <c r="F143" s="95"/>
-      <c r="G143" s="95"/>
-      <c r="H143" s="95"/>
+      <c r="D143" s="102"/>
+      <c r="E143" s="102"/>
+      <c r="F143" s="86"/>
+      <c r="G143" s="86"/>
+      <c r="H143" s="86"/>
       <c r="I143" s="23" t="s">
         <v>203</v>
       </c>
@@ -7935,16 +7941,16 @@
       <c r="M143" s="24"/>
       <c r="N143" s="24"/>
     </row>
-    <row r="144" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="103"/>
+    <row r="144" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="94"/>
       <c r="C144" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D144" s="97"/>
-      <c r="E144" s="97"/>
-      <c r="F144" s="96"/>
-      <c r="G144" s="96"/>
-      <c r="H144" s="96"/>
+      <c r="D144" s="103"/>
+      <c r="E144" s="103"/>
+      <c r="F144" s="87"/>
+      <c r="G144" s="87"/>
+      <c r="H144" s="87"/>
       <c r="I144" s="23" t="s">
         <v>203</v>
       </c>
@@ -7954,8 +7960,8 @@
       <c r="M144" s="24"/>
       <c r="N144" s="24"/>
     </row>
-    <row r="145" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="81" t="s">
+    <row r="145" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="88" t="s">
         <v>75</v>
       </c>
       <c r="C145" s="24" t="s">
@@ -7987,8 +7993,8 @@
       <c r="O145"/>
       <c r="P145"/>
     </row>
-    <row r="146" spans="2:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="B146" s="82"/>
+    <row r="146" spans="2:16" ht="52" x14ac:dyDescent="0.2">
+      <c r="B146" s="89"/>
       <c r="C146" s="24" t="s">
         <v>76</v>
       </c>
@@ -8018,8 +8024,8 @@
       <c r="O146"/>
       <c r="P146"/>
     </row>
-    <row r="147" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="82"/>
+    <row r="147" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="89"/>
       <c r="C147" s="24" t="s">
         <v>81</v>
       </c>
@@ -8047,8 +8053,8 @@
       <c r="O147"/>
       <c r="P147"/>
     </row>
-    <row r="148" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="82"/>
+    <row r="148" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="89"/>
       <c r="C148" s="24" t="s">
         <v>77</v>
       </c>
@@ -8078,8 +8084,8 @@
       <c r="O148"/>
       <c r="P148"/>
     </row>
-    <row r="149" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B149" s="82"/>
+    <row r="149" spans="2:16" ht="78" x14ac:dyDescent="0.2">
+      <c r="B149" s="89"/>
       <c r="C149" s="24" t="s">
         <v>86</v>
       </c>
@@ -8109,8 +8115,8 @@
       <c r="O149"/>
       <c r="P149"/>
     </row>
-    <row r="150" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="82"/>
+    <row r="150" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="89"/>
       <c r="C150" s="24" t="s">
         <v>83</v>
       </c>
@@ -8140,8 +8146,8 @@
       <c r="O150"/>
       <c r="P150"/>
     </row>
-    <row r="151" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="81" t="s">
+    <row r="151" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="88" t="s">
         <v>79</v>
       </c>
       <c r="C151" s="24" t="s">
@@ -8156,7 +8162,7 @@
       <c r="F151" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="G151" s="94" t="s">
+      <c r="G151" s="85" t="s">
         <v>24</v>
       </c>
       <c r="H151" s="35">
@@ -8173,8 +8179,8 @@
       <c r="O151"/>
       <c r="P151"/>
     </row>
-    <row r="152" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="82"/>
+    <row r="152" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="89"/>
       <c r="C152" s="24" t="s">
         <v>80</v>
       </c>
@@ -8187,7 +8193,7 @@
       <c r="F152" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G152" s="95"/>
+      <c r="G152" s="86"/>
       <c r="H152" s="35">
         <v>64</v>
       </c>
@@ -8202,8 +8208,8 @@
       <c r="O152"/>
       <c r="P152"/>
     </row>
-    <row r="153" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="82"/>
+    <row r="153" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="89"/>
       <c r="C153" s="24" t="s">
         <v>81</v>
       </c>
@@ -8216,7 +8222,7 @@
       <c r="F153" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="G153" s="95"/>
+      <c r="G153" s="86"/>
       <c r="H153" s="35">
         <v>254</v>
       </c>
@@ -8231,8 +8237,8 @@
       <c r="O153"/>
       <c r="P153"/>
     </row>
-    <row r="154" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B154" s="82"/>
+    <row r="154" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B154" s="89"/>
       <c r="C154" s="24" t="s">
         <v>82</v>
       </c>
@@ -8245,7 +8251,7 @@
       <c r="F154" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G154" s="95"/>
+      <c r="G154" s="86"/>
       <c r="H154" s="35" t="s">
         <v>24</v>
       </c>
@@ -8260,8 +8266,8 @@
       <c r="O154"/>
       <c r="P154"/>
     </row>
-    <row r="155" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="86"/>
+    <row r="155" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="90"/>
       <c r="C155" s="24" t="s">
         <v>83</v>
       </c>
@@ -8274,7 +8280,7 @@
       <c r="F155" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G155" s="96"/>
+      <c r="G155" s="87"/>
       <c r="H155" s="35" t="s">
         <v>24</v>
       </c>
@@ -8289,8 +8295,8 @@
       <c r="O155"/>
       <c r="P155"/>
     </row>
-    <row r="156" spans="2:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="B156" s="81" t="s">
+    <row r="156" spans="2:16" ht="52" x14ac:dyDescent="0.2">
+      <c r="B156" s="88" t="s">
         <v>84</v>
       </c>
       <c r="C156" s="24" t="s">
@@ -8322,8 +8328,8 @@
       <c r="O156"/>
       <c r="P156"/>
     </row>
-    <row r="157" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="82"/>
+    <row r="157" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="89"/>
       <c r="C157" s="24" t="s">
         <v>87</v>
       </c>
@@ -8353,8 +8359,8 @@
       <c r="O157"/>
       <c r="P157"/>
     </row>
-    <row r="158" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B158" s="82"/>
+    <row r="158" spans="2:16" ht="39" x14ac:dyDescent="0.2">
+      <c r="B158" s="89"/>
       <c r="C158" s="24" t="s">
         <v>88</v>
       </c>
@@ -8384,8 +8390,8 @@
       <c r="O158"/>
       <c r="P158"/>
     </row>
-    <row r="159" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="82"/>
+    <row r="159" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="89"/>
       <c r="C159" s="24" t="s">
         <v>82</v>
       </c>
@@ -8415,8 +8421,8 @@
       <c r="O159"/>
       <c r="P159"/>
     </row>
-    <row r="160" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="86"/>
+    <row r="160" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="90"/>
       <c r="C160" s="24" t="s">
         <v>83</v>
       </c>
@@ -8446,8 +8452,8 @@
       <c r="O160"/>
       <c r="P160"/>
     </row>
-    <row r="161" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="81" t="s">
+    <row r="161" spans="2:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="B161" s="88" t="s">
         <v>183</v>
       </c>
       <c r="C161" s="24" t="s">
@@ -8479,8 +8485,8 @@
       <c r="O161"/>
       <c r="P161"/>
     </row>
-    <row r="162" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B162" s="82"/>
+    <row r="162" spans="2:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="B162" s="89"/>
       <c r="C162" s="24" t="s">
         <v>90</v>
       </c>
@@ -8510,8 +8516,8 @@
       <c r="O162"/>
       <c r="P162"/>
     </row>
-    <row r="163" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="82"/>
+    <row r="163" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="89"/>
       <c r="C163" s="24" t="s">
         <v>82</v>
       </c>
@@ -8541,8 +8547,8 @@
       <c r="O163"/>
       <c r="P163"/>
     </row>
-    <row r="164" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="86"/>
+    <row r="164" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="90"/>
       <c r="C164" s="24" t="s">
         <v>83</v>
       </c>
@@ -8572,8 +8578,8 @@
       <c r="O164"/>
       <c r="P164"/>
     </row>
-    <row r="165" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="81" t="s">
+    <row r="165" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="88" t="s">
         <v>184</v>
       </c>
       <c r="C165" s="24" t="s">
@@ -8605,8 +8611,8 @@
       <c r="O165"/>
       <c r="P165"/>
     </row>
-    <row r="166" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="82"/>
+    <row r="166" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="89"/>
       <c r="C166" s="24" t="s">
         <v>93</v>
       </c>
@@ -8636,8 +8642,8 @@
       <c r="O166"/>
       <c r="P166"/>
     </row>
-    <row r="167" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="82"/>
+    <row r="167" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="89"/>
       <c r="C167" s="24" t="s">
         <v>92</v>
       </c>
@@ -8667,8 +8673,8 @@
       <c r="O167"/>
       <c r="P167"/>
     </row>
-    <row r="168" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="82"/>
+    <row r="168" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="89"/>
       <c r="C168" s="24" t="s">
         <v>91</v>
       </c>
@@ -8698,8 +8704,8 @@
       <c r="O168"/>
       <c r="P168"/>
     </row>
-    <row r="169" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="82"/>
+    <row r="169" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="89"/>
       <c r="C169" s="24" t="s">
         <v>289</v>
       </c>
@@ -8729,8 +8735,8 @@
       <c r="O169"/>
       <c r="P169"/>
     </row>
-    <row r="170" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="86"/>
+    <row r="170" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="90"/>
       <c r="C170" s="24" t="s">
         <v>94</v>
       </c>
@@ -8760,26 +8766,26 @@
       <c r="O170"/>
       <c r="P170"/>
     </row>
-    <row r="171" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="93" t="s">
+    <row r="171" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="111" t="s">
         <v>369</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D171" s="90" t="s">
+      <c r="D171" s="110" t="s">
         <v>24</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F171" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="H171" s="92" t="s">
+      <c r="F171" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G171" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" s="113" t="s">
         <v>24</v>
       </c>
       <c r="I171" s="23" t="s">
@@ -8789,71 +8795,71 @@
       <c r="O171"/>
       <c r="P171"/>
     </row>
-    <row r="172" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B172" s="93"/>
+    <row r="172" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="111"/>
       <c r="C172" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="D172" s="90"/>
+      <c r="D172" s="110"/>
       <c r="E172" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="F172" s="92"/>
-      <c r="G172" s="92"/>
-      <c r="H172" s="92"/>
+      <c r="F172" s="113"/>
+      <c r="G172" s="113"/>
+      <c r="H172" s="113"/>
       <c r="I172" s="23" t="s">
         <v>371</v>
       </c>
       <c r="J172" s="32"/>
     </row>
-    <row r="173" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="89" t="s">
+    <row r="173" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="112" t="s">
         <v>372</v>
       </c>
       <c r="C173" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D173" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E173" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="F173" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="H173" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" s="90" t="s">
+      <c r="D173" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G173" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="110" t="s">
         <v>24</v>
       </c>
       <c r="J173" s="32"/>
     </row>
-    <row r="174" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B174" s="89"/>
+    <row r="174" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B174" s="112"/>
       <c r="C174" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="D174" s="90"/>
-      <c r="E174" s="90"/>
-      <c r="F174" s="92"/>
-      <c r="G174" s="92"/>
-      <c r="H174" s="92"/>
-      <c r="I174" s="90"/>
+      <c r="D174" s="110"/>
+      <c r="E174" s="110"/>
+      <c r="F174" s="113"/>
+      <c r="G174" s="113"/>
+      <c r="H174" s="113"/>
+      <c r="I174" s="110"/>
       <c r="J174" s="32"/>
     </row>
-    <row r="175" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="89" t="s">
+    <row r="175" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="112" t="s">
         <v>374</v>
       </c>
       <c r="C175" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="D175" s="78" t="s">
+      <c r="D175" s="106" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="21" t="s">
@@ -8873,12 +8879,12 @@
       </c>
       <c r="J175" s="32"/>
     </row>
-    <row r="176" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="89"/>
+    <row r="176" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="112"/>
       <c r="C176" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D176" s="79"/>
+      <c r="D176" s="107"/>
       <c r="E176" s="21" t="s">
         <v>24</v>
       </c>
@@ -8896,12 +8902,12 @@
       </c>
       <c r="J176" s="32"/>
     </row>
-    <row r="177" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="89"/>
+    <row r="177" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="112"/>
       <c r="C177" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="79"/>
+      <c r="D177" s="107"/>
       <c r="E177" s="21" t="s">
         <v>24</v>
       </c>
@@ -8919,12 +8925,12 @@
       </c>
       <c r="J177" s="32"/>
     </row>
-    <row r="178" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="89"/>
+    <row r="178" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="112"/>
       <c r="C178" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D178" s="79"/>
+      <c r="D178" s="107"/>
       <c r="E178" s="21" t="s">
         <v>24</v>
       </c>
@@ -8942,12 +8948,12 @@
       </c>
       <c r="J178" s="32"/>
     </row>
-    <row r="179" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B179" s="89"/>
+    <row r="179" spans="2:16" ht="26" x14ac:dyDescent="0.2">
+      <c r="B179" s="112"/>
       <c r="C179" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="79"/>
+      <c r="D179" s="107"/>
       <c r="E179" s="21" t="s">
         <v>24</v>
       </c>
@@ -8965,12 +8971,12 @@
       </c>
       <c r="J179" s="32"/>
     </row>
-    <row r="180" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="89"/>
+    <row r="180" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B180" s="112"/>
       <c r="C180" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D180" s="79"/>
+      <c r="D180" s="107"/>
       <c r="E180" s="21" t="s">
         <v>24</v>
       </c>
@@ -8988,12 +8994,12 @@
       </c>
       <c r="J180" s="32"/>
     </row>
-    <row r="181" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="89"/>
+    <row r="181" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="112"/>
       <c r="C181" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D181" s="79"/>
+      <c r="D181" s="107"/>
       <c r="E181" s="21" t="s">
         <v>24</v>
       </c>
@@ -9011,12 +9017,12 @@
       </c>
       <c r="J181" s="52"/>
     </row>
-    <row r="182" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B182" s="89"/>
+    <row r="182" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B182" s="112"/>
       <c r="C182" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="D182" s="79"/>
+      <c r="D182" s="107"/>
       <c r="E182" s="23" t="s">
         <v>376</v>
       </c>
@@ -9034,12 +9040,12 @@
       </c>
       <c r="J182" s="32"/>
     </row>
-    <row r="183" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="89"/>
+    <row r="183" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="112"/>
       <c r="C183" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D183" s="80"/>
+      <c r="D183" s="108"/>
       <c r="E183" s="21" t="s">
         <v>24</v>
       </c>
@@ -9057,26 +9063,26 @@
       </c>
       <c r="J183" s="32"/>
     </row>
-    <row r="184" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="89" t="s">
+    <row r="184" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="112" t="s">
         <v>378</v>
       </c>
       <c r="C184" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="D184" s="90" t="s">
+      <c r="D184" s="110" t="s">
         <v>382</v>
       </c>
-      <c r="E184" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="F184" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" s="92" t="s">
-        <v>24</v>
-      </c>
-      <c r="H184" s="92" t="s">
+      <c r="E184" s="114" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" s="113" t="s">
         <v>24</v>
       </c>
       <c r="I184" s="23" t="s">
@@ -9088,16 +9094,16 @@
       <c r="M184" s="32"/>
       <c r="N184" s="32"/>
     </row>
-    <row r="185" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="89"/>
+    <row r="185" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="112"/>
       <c r="C185" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D185" s="90"/>
-      <c r="E185" s="91"/>
-      <c r="F185" s="92"/>
-      <c r="G185" s="92"/>
-      <c r="H185" s="92"/>
+      <c r="D185" s="110"/>
+      <c r="E185" s="114"/>
+      <c r="F185" s="113"/>
+      <c r="G185" s="113"/>
+      <c r="H185" s="113"/>
       <c r="I185" s="23" t="s">
         <v>298</v>
       </c>
@@ -9107,14 +9113,14 @@
       <c r="M185" s="32"/>
       <c r="N185" s="32"/>
     </row>
-    <row r="186" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="83" t="s">
+    <row r="186" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="98" t="s">
         <v>383</v>
       </c>
       <c r="C186" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D186" s="87" t="s">
+      <c r="D186" s="101" t="s">
         <v>24</v>
       </c>
       <c r="E186" s="23" t="s">
@@ -9140,12 +9146,12 @@
       <c r="O186" s="17"/>
       <c r="P186" s="16"/>
     </row>
-    <row r="187" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="84"/>
+    <row r="187" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="99"/>
       <c r="C187" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="88"/>
+      <c r="D187" s="102"/>
       <c r="E187" s="23" t="s">
         <v>24</v>
       </c>
@@ -9169,12 +9175,12 @@
       <c r="O187" s="17"/>
       <c r="P187" s="16"/>
     </row>
-    <row r="188" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="84"/>
+    <row r="188" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="99"/>
       <c r="C188" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D188" s="88"/>
+      <c r="D188" s="102"/>
       <c r="E188" s="23" t="s">
         <v>24</v>
       </c>
@@ -9198,12 +9204,12 @@
       <c r="O188" s="17"/>
       <c r="P188" s="16"/>
     </row>
-    <row r="189" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="84"/>
+    <row r="189" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="99"/>
       <c r="C189" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D189" s="88"/>
+      <c r="D189" s="102"/>
       <c r="E189" s="23" t="s">
         <v>24</v>
       </c>
@@ -9227,12 +9233,12 @@
       <c r="O189" s="17"/>
       <c r="P189" s="16"/>
     </row>
-    <row r="190" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="84"/>
+    <row r="190" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="99"/>
       <c r="C190" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D190" s="88"/>
+      <c r="D190" s="102"/>
       <c r="E190" s="23" t="s">
         <v>24</v>
       </c>
@@ -9256,12 +9262,12 @@
       <c r="O190" s="17"/>
       <c r="P190" s="16"/>
     </row>
-    <row r="191" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="84"/>
+    <row r="191" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="99"/>
       <c r="C191" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D191" s="88"/>
+      <c r="D191" s="102"/>
       <c r="E191" s="23" t="s">
         <v>24</v>
       </c>
@@ -9285,12 +9291,12 @@
       <c r="O191" s="17"/>
       <c r="P191" s="16"/>
     </row>
-    <row r="192" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="84"/>
+    <row r="192" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="99"/>
       <c r="C192" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D192" s="88"/>
+      <c r="D192" s="102"/>
       <c r="E192" s="23" t="s">
         <v>24</v>
       </c>
@@ -9314,12 +9320,12 @@
       <c r="O192" s="17"/>
       <c r="P192" s="16"/>
     </row>
-    <row r="193" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="84"/>
+    <row r="193" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="99"/>
       <c r="C193" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="88"/>
+      <c r="D193" s="102"/>
       <c r="E193" s="23" t="s">
         <v>24</v>
       </c>
@@ -9343,12 +9349,12 @@
       <c r="O193" s="17"/>
       <c r="P193" s="16"/>
     </row>
-    <row r="194" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="84"/>
+    <row r="194" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="99"/>
       <c r="C194" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D194" s="88"/>
+      <c r="D194" s="102"/>
       <c r="E194" s="23" t="s">
         <v>24</v>
       </c>
@@ -9372,12 +9378,12 @@
       <c r="O194" s="17"/>
       <c r="P194" s="16"/>
     </row>
-    <row r="195" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="84"/>
+    <row r="195" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="99"/>
       <c r="C195" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D195" s="88"/>
+      <c r="D195" s="102"/>
       <c r="E195" s="23" t="s">
         <v>24</v>
       </c>
@@ -9401,12 +9407,12 @@
       <c r="O195" s="17"/>
       <c r="P195" s="16"/>
     </row>
-    <row r="196" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="84"/>
+    <row r="196" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B196" s="99"/>
       <c r="C196" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D196" s="88"/>
+      <c r="D196" s="102"/>
       <c r="E196" s="23" t="s">
         <v>24</v>
       </c>
@@ -9430,14 +9436,14 @@
       <c r="O196" s="17"/>
       <c r="P196" s="16"/>
     </row>
-    <row r="197" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="81" t="s">
+    <row r="197" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="88" t="s">
         <v>384</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D197" s="78" t="s">
+      <c r="D197" s="106" t="s">
         <v>24</v>
       </c>
       <c r="E197" s="23" t="s">
@@ -9463,12 +9469,12 @@
       <c r="O197" s="17"/>
       <c r="P197" s="16"/>
     </row>
-    <row r="198" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="82"/>
+    <row r="198" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="89"/>
       <c r="C198" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D198" s="79"/>
+      <c r="D198" s="107"/>
       <c r="E198" s="23" t="s">
         <v>159</v>
       </c>
@@ -9492,12 +9498,12 @@
       <c r="O198" s="17"/>
       <c r="P198" s="16"/>
     </row>
-    <row r="199" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="82"/>
+    <row r="199" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="89"/>
       <c r="C199" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D199" s="79"/>
+      <c r="D199" s="107"/>
       <c r="E199" s="23" t="s">
         <v>167</v>
       </c>
@@ -9521,12 +9527,12 @@
       <c r="O199" s="17"/>
       <c r="P199" s="16"/>
     </row>
-    <row r="200" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="82"/>
+    <row r="200" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="89"/>
       <c r="C200" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D200" s="79"/>
+      <c r="D200" s="107"/>
       <c r="E200" s="32" t="s">
         <v>164</v>
       </c>
@@ -9550,12 +9556,12 @@
       <c r="O200" s="17"/>
       <c r="P200" s="16"/>
     </row>
-    <row r="201" spans="2:16" s="25" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="82"/>
+    <row r="201" spans="2:16" s="25" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="89"/>
       <c r="C201" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D201" s="79"/>
+      <c r="D201" s="107"/>
       <c r="E201" s="23" t="s">
         <v>168</v>
       </c>
@@ -9579,12 +9585,12 @@
       <c r="O201" s="17"/>
       <c r="P201" s="16"/>
     </row>
-    <row r="202" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="82"/>
+    <row r="202" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="89"/>
       <c r="C202" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D202" s="79"/>
+      <c r="D202" s="107"/>
       <c r="E202" s="23" t="s">
         <v>169</v>
       </c>
@@ -9608,12 +9614,12 @@
       <c r="O202" s="17"/>
       <c r="P202" s="16"/>
     </row>
-    <row r="203" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="82"/>
+    <row r="203" spans="2:16" s="25" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="89"/>
       <c r="C203" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D203" s="79"/>
+      <c r="D203" s="107"/>
       <c r="E203" s="23" t="s">
         <v>170</v>
       </c>
@@ -9637,12 +9643,12 @@
       <c r="O203" s="17"/>
       <c r="P203" s="16"/>
     </row>
-    <row r="204" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="86"/>
+    <row r="204" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="90"/>
       <c r="C204" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="D204" s="80"/>
+      <c r="D204" s="108"/>
       <c r="E204" s="49" t="s">
         <v>355</v>
       </c>
@@ -9666,6 +9672,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="D86:D95"/>
+    <mergeCell ref="B96:B109"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="D175:D183"/>
+    <mergeCell ref="B197:B204"/>
+    <mergeCell ref="D197:D204"/>
+    <mergeCell ref="B186:B196"/>
+    <mergeCell ref="D186:D196"/>
+    <mergeCell ref="B175:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D47:D56"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G20:G30"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="B86:B95"/>
+    <mergeCell ref="B110:B121"/>
     <mergeCell ref="H140:H144"/>
     <mergeCell ref="B165:B170"/>
     <mergeCell ref="B79:B80"/>
@@ -9682,65 +9747,6 @@
     <mergeCell ref="G122:G127"/>
     <mergeCell ref="G140:G144"/>
     <mergeCell ref="G83:G85"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="B86:B95"/>
-    <mergeCell ref="B110:B121"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G20:G30"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D47:D56"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="D86:D95"/>
-    <mergeCell ref="B96:B109"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="D175:D183"/>
-    <mergeCell ref="B197:B204"/>
-    <mergeCell ref="D197:D204"/>
-    <mergeCell ref="B186:B196"/>
-    <mergeCell ref="D186:D196"/>
-    <mergeCell ref="B175:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9759,25 +9765,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="54.7109375" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="18" t="s">
         <v>13</v>
@@ -9811,27 +9817,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="118" t="s">
         <v>368</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="40"/>
-      <c r="F2" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="108" t="s">
+      <c r="F2" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="115" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="40"/>
@@ -9840,54 +9846,54 @@
       <c r="M2" s="40"/>
       <c r="N2" s="40"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="111"/>
+    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="118"/>
       <c r="C3" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="113"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="40"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
       <c r="M3" s="40"/>
       <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="111"/>
+    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="118"/>
       <c r="C4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="114"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
     </row>
-    <row r="5" spans="1:14" ht="240" x14ac:dyDescent="0.25">
-      <c r="B5" s="115" t="s">
+    <row r="5" spans="1:14" ht="182" x14ac:dyDescent="0.2">
+      <c r="B5" s="122" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="144" t="s">
+      <c r="D5" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="83" t="s">
         <v>430</v>
       </c>
       <c r="H5" s="39" t="s">
@@ -9902,12 +9908,12 @@
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="115"/>
+    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="122"/>
       <c r="C6" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -9921,12 +9927,12 @@
       <c r="M6" s="40"/>
       <c r="N6" s="40"/>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="115"/>
+    <row r="7" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="B7" s="122"/>
       <c r="C7" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="117"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -9940,12 +9946,12 @@
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
     </row>
-    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="B8" s="115"/>
+    <row r="8" spans="1:14" ht="56" x14ac:dyDescent="0.2">
+      <c r="B8" s="122"/>
       <c r="C8" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="117"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -9961,12 +9967,12 @@
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="122"/>
       <c r="C9" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="118"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -9978,23 +9984,23 @@
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="115" t="s">
+    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="122" t="s">
         <v>214</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="108" t="s">
+      <c r="I10" s="115" t="s">
         <v>234</v>
       </c>
       <c r="J10" s="40"/>
@@ -10003,108 +10009,108 @@
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="115"/>
+    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="122"/>
       <c r="C11" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="117"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
+    <row r="12" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+      <c r="B12" s="122"/>
       <c r="C12" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
       <c r="N12" s="40"/>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+    <row r="13" spans="1:14" ht="42" x14ac:dyDescent="0.2">
+      <c r="B13" s="122"/>
       <c r="C13" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="117"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="115"/>
+    <row r="14" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+      <c r="B14" s="122"/>
       <c r="C14" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="117"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
     </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
+    <row r="15" spans="1:14" ht="28" x14ac:dyDescent="0.2">
+      <c r="B15" s="122"/>
       <c r="C15" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="118"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="115" t="s">
+    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="122" t="s">
         <v>215</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="119" t="s">
+      <c r="D16" s="126" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="I16" s="108" t="s">
+      <c r="I16" s="115" t="s">
         <v>234</v>
       </c>
       <c r="J16" s="40"/>
@@ -10113,34 +10119,34 @@
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
     </row>
-    <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="115"/>
+    <row r="17" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="122"/>
       <c r="C17" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="120"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
       <c r="N17" s="40"/>
     </row>
-    <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="115"/>
+    <row r="18" spans="2:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="122"/>
       <c r="C18" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="121"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
@@ -10175,57 +10181,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="137" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="123" t="s">
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+    </row>
+    <row r="3" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="134" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
-      <c r="F4" s="123" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="136"/>
+      <c r="F4" s="134" t="s">
         <v>408</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="J4" s="123" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="136"/>
+      <c r="J4" s="134" t="s">
         <v>399</v>
       </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="125"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
+    </row>
+    <row r="5" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="66" t="s">
         <v>387</v>
       </c>
@@ -10254,7 +10260,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="56" t="s">
         <v>395</v>
       </c>
@@ -10283,7 +10289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="57" t="s">
         <v>238</v>
       </c>
@@ -10293,13 +10299,13 @@
       <c r="D7" s="63">
         <v>64</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="78" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="127" t="s">
+      <c r="G7" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="H7" s="128">
+      <c r="H7" s="80">
         <v>10</v>
       </c>
       <c r="J7" s="34" t="s">
@@ -10312,7 +10318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
         <v>305</v>
       </c>
@@ -10322,13 +10328,13 @@
       <c r="D8" s="63">
         <v>64</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="78" t="s">
         <v>411</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="H8" s="128">
+      <c r="H8" s="80">
         <v>10</v>
       </c>
       <c r="J8" s="34" t="s">
@@ -10341,7 +10347,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="57" t="s">
         <v>239</v>
       </c>
@@ -10370,7 +10376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="57" t="s">
         <v>240</v>
       </c>
@@ -10380,13 +10386,13 @@
       <c r="D10" s="63">
         <v>1</v>
       </c>
-      <c r="F10" s="142" t="s">
+      <c r="F10" s="82" t="s">
         <v>427</v>
       </c>
-      <c r="G10" s="141" t="s">
+      <c r="G10" s="81" t="s">
         <v>391</v>
       </c>
-      <c r="H10" s="128">
+      <c r="H10" s="80">
         <v>1</v>
       </c>
       <c r="J10" s="34" t="s">
@@ -10399,7 +10405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="57" t="s">
         <v>296</v>
       </c>
@@ -10409,13 +10415,13 @@
       <c r="D11" s="63">
         <v>1</v>
       </c>
-      <c r="F11" s="142" t="s">
+      <c r="F11" s="82" t="s">
         <v>428</v>
       </c>
-      <c r="G11" s="141" t="s">
+      <c r="G11" s="81" t="s">
         <v>391</v>
       </c>
-      <c r="H11" s="128">
+      <c r="H11" s="80">
         <v>1</v>
       </c>
       <c r="J11" s="34" t="s">
@@ -10428,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="57" t="s">
         <v>246</v>
       </c>
@@ -10448,7 +10454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="57" t="s">
         <v>310</v>
       </c>
@@ -10468,7 +10474,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57" t="s">
         <v>241</v>
       </c>
@@ -10481,11 +10487,11 @@
       <c r="E14" t="s">
         <v>429</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="142" t="s">
         <v>397</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="131"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
       <c r="J14" s="34" t="s">
         <v>271</v>
       </c>
@@ -10496,7 +10502,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="57" t="s">
         <v>284</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="57" t="s">
         <v>248</v>
       </c>
@@ -10554,7 +10560,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="57" t="s">
         <v>249</v>
       </c>
@@ -10583,7 +10589,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="58" t="s">
         <v>243</v>
       </c>
@@ -10612,7 +10618,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
         <v>244</v>
       </c>
@@ -10641,7 +10647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="58" t="s">
         <v>245</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
         <v>247</v>
       </c>
@@ -10681,7 +10687,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="58" t="s">
         <v>252</v>
       </c>
@@ -10700,13 +10706,13 @@
       <c r="H22" s="69">
         <v>16</v>
       </c>
-      <c r="J22" s="123" t="s">
+      <c r="J22" s="134" t="s">
         <v>405</v>
       </c>
-      <c r="K22" s="124"/>
-      <c r="L22" s="125"/>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="135"/>
+      <c r="L22" s="136"/>
+    </row>
+    <row r="23" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="58" t="s">
         <v>253</v>
       </c>
@@ -10735,7 +10741,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="58" t="s">
         <v>254</v>
       </c>
@@ -10764,7 +10770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="58" t="s">
         <v>255</v>
       </c>
@@ -10793,7 +10799,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="58" t="s">
         <v>251</v>
       </c>
@@ -10822,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="58" t="s">
         <v>398</v>
       </c>
@@ -10842,7 +10848,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
         <v>415</v>
       </c>
@@ -10862,12 +10868,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="123" t="s">
+    <row r="29" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="134" t="s">
         <v>416</v>
       </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="125"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="136"/>
       <c r="J29" s="34" t="s">
         <v>262</v>
       </c>
@@ -10878,7 +10884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F30" s="66" t="s">
         <v>387</v>
       </c>
@@ -10898,12 +10904,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="123" t="s">
+    <row r="31" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="134" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="136"/>
       <c r="F31" s="56" t="s">
         <v>417</v>
       </c>
@@ -10914,7 +10920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="66" t="s">
         <v>387</v>
       </c>
@@ -10934,7 +10940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>414</v>
       </c>
@@ -10954,7 +10960,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="57" t="s">
         <v>238</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="57" t="s">
         <v>305</v>
       </c>
@@ -10985,7 +10991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="57" t="s">
         <v>239</v>
       </c>
@@ -10996,7 +11002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="57" t="s">
         <v>240</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="57" t="s">
         <v>246</v>
       </c>
@@ -11018,7 +11024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="57" t="s">
         <v>241</v>
       </c>
@@ -11028,14 +11034,14 @@
       <c r="D39" s="63">
         <v>64</v>
       </c>
-      <c r="F39" s="140" t="s">
+      <c r="F39" s="129" t="s">
         <v>422</v>
       </c>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-    </row>
-    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="129"/>
+      <c r="H39" s="129"/>
+      <c r="I39" s="129"/>
+    </row>
+    <row r="40" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="57" t="s">
         <v>284</v>
       </c>
@@ -11056,7 +11062,7 @@
       </c>
       <c r="I40" s="139"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="57" t="s">
         <v>248</v>
       </c>
@@ -11072,12 +11078,12 @@
       <c r="G41" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="H41" s="136" t="s">
+      <c r="H41" s="140" t="s">
         <v>423</v>
       </c>
-      <c r="I41" s="137"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="141"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="57" t="s">
         <v>249</v>
       </c>
@@ -11093,12 +11099,12 @@
       <c r="G42" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="H42" s="134" t="s">
+      <c r="H42" s="130" t="s">
         <v>423</v>
       </c>
-      <c r="I42" s="135"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="131"/>
+    </row>
+    <row r="43" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="59" t="s">
         <v>415</v>
       </c>
@@ -11114,48 +11120,48 @@
       <c r="G43" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="H43" s="134" t="s">
+      <c r="H43" s="130" t="s">
         <v>424</v>
       </c>
-      <c r="I43" s="135"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="131"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F44" s="74" t="s">
         <v>397</v>
       </c>
       <c r="G44" s="75" t="s">
         <v>405</v>
       </c>
-      <c r="H44" s="134" t="s">
+      <c r="H44" s="130" t="s">
         <v>425</v>
       </c>
-      <c r="I44" s="135"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="131"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F45" s="74" t="s">
         <v>416</v>
       </c>
       <c r="G45" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="H45" s="134" t="s">
+      <c r="H45" s="130" t="s">
         <v>425</v>
       </c>
-      <c r="I45" s="135"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="131"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F46" s="74" t="s">
         <v>416</v>
       </c>
       <c r="G46" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="H46" s="134" t="s">
+      <c r="H46" s="130" t="s">
         <v>425</v>
       </c>
-      <c r="I46" s="135"/>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="131"/>
+    </row>
+    <row r="47" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F47" s="76" t="s">
         <v>416</v>
       </c>
@@ -11169,14 +11175,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H41:I41"/>
@@ -11186,6 +11184,14 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J22:L22"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\webprog\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="432">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -1912,6 +1912,279 @@
   </si>
   <si>
     <t>DATABASE TABLES</t>
+  </si>
+  <si>
+    <t>CALLED_FOR_INTERVIEW</t>
+  </si>
+  <si>
+    <t>CALLED_FOR _JOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                        </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-applications =  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SELECT * FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> APPLICATIONS;                          -interviews = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SELECT * FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> APPLICATIONS </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">WHERE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">CALLED_FOR_INTERVIEW=Y;                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>b )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">-interviews = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SELECT * FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> APPLICATIONS </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CALLED_FOR_INTERVIEW=Y;                          -interviews -job offers = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SELECT * FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> APPLICATIONS </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> CALLED_FOR_JOB=Y; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a ) -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>applications</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>APPLICATIONS.* -interviews = APPLICATIONS.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">CALLED_FOR_INTERVIEW               b )                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-interviews = APPLICATIONS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">.CALLED_FOR_INTERVIEW                    &amp;                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>job offers = APPLICATIONS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.CALLED_FOR_JOB</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2151,7 +2424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2418,12 +2691,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2614,6 +2974,72 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2623,87 +3049,39 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2746,6 +3124,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2755,45 +3136,58 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3442,7 +3836,7 @@
       </c>
     </row>
     <row r="2" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="98" t="s">
         <v>142</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -3457,7 +3851,7 @@
       <c r="F2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="35" t="s">
@@ -3479,7 +3873,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="80"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="24" t="s">
         <v>38</v>
       </c>
@@ -3492,7 +3886,7 @@
       <c r="F3" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="35">
         <v>32</v>
       </c>
@@ -3513,7 +3907,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="24" t="s">
         <v>39</v>
       </c>
@@ -3526,7 +3920,7 @@
       <c r="F4" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="35">
         <v>128</v>
       </c>
@@ -3546,7 +3940,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="24" t="s">
         <v>96</v>
       </c>
@@ -3559,7 +3953,7 @@
       <c r="F5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="35" t="s">
         <v>24</v>
       </c>
@@ -3573,7 +3967,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="24" t="s">
         <v>45</v>
       </c>
@@ -3586,7 +3980,7 @@
       <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="35" t="s">
         <v>24</v>
       </c>
@@ -3600,7 +3994,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="24" t="s">
         <v>40</v>
       </c>
@@ -3613,7 +4007,7 @@
       <c r="F7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="69"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="35" t="s">
         <v>24</v>
       </c>
@@ -3627,7 +4021,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="24" t="s">
         <v>218</v>
       </c>
@@ -3640,7 +4034,7 @@
       <c r="F8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="69"/>
+      <c r="G8" s="95"/>
       <c r="H8" s="35" t="s">
         <v>24</v>
       </c>
@@ -3654,7 +4048,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="30" t="s">
         <v>41</v>
       </c>
@@ -3667,7 +4061,7 @@
       <c r="F9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="35" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +4075,7 @@
       <c r="N9" s="31"/>
     </row>
     <row r="10" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="83" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -3712,7 +4106,7 @@
       <c r="N10" s="31"/>
     </row>
     <row r="11" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="24" t="s">
         <v>303</v>
       </c>
@@ -3741,7 +4135,7 @@
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="24" t="s">
         <v>32</v>
       </c>
@@ -3770,7 +4164,7 @@
       <c r="N12" s="31"/>
     </row>
     <row r="13" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="82"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="24" t="s">
         <v>153</v>
       </c>
@@ -3799,7 +4193,7 @@
       <c r="N13" s="31"/>
     </row>
     <row r="14" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="82"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="24" t="s">
         <v>293</v>
       </c>
@@ -3828,7 +4222,7 @@
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="82"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="24" t="s">
         <v>155</v>
       </c>
@@ -3857,7 +4251,7 @@
       <c r="N15" s="31"/>
     </row>
     <row r="16" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="33" t="s">
         <v>306</v>
       </c>
@@ -3888,7 +4282,7 @@
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="82"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="24" t="s">
         <v>49</v>
       </c>
@@ -3917,7 +4311,7 @@
       <c r="N17" s="31"/>
     </row>
     <row r="18" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="82"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="24" t="s">
         <v>128</v>
       </c>
@@ -3946,7 +4340,7 @@
       <c r="N18" s="31"/>
     </row>
     <row r="19" spans="2:16" s="25" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="82"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="24" t="s">
         <v>57</v>
       </c>
@@ -3975,7 +4369,7 @@
       <c r="N19" s="31"/>
     </row>
     <row r="20" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="82"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="33" t="s">
         <v>35</v>
       </c>
@@ -3988,7 +4382,7 @@
       <c r="F20" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="68" t="s">
+      <c r="G20" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="35">
@@ -4004,7 +4398,7 @@
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="82"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="24" t="s">
         <v>126</v>
       </c>
@@ -4017,7 +4411,7 @@
       <c r="F21" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="35">
         <v>64</v>
       </c>
@@ -4031,7 +4425,7 @@
       <c r="N21" s="31"/>
     </row>
     <row r="22" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="82"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="24" t="s">
         <v>56</v>
       </c>
@@ -4044,7 +4438,7 @@
       <c r="F22" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="G22" s="95"/>
       <c r="H22" s="35">
         <v>4</v>
       </c>
@@ -4058,7 +4452,7 @@
       <c r="N22" s="31"/>
     </row>
     <row r="23" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="82"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="24" t="s">
         <v>51</v>
       </c>
@@ -4071,7 +4465,7 @@
       <c r="F23" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="G23" s="69"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="35">
         <v>16</v>
       </c>
@@ -4085,7 +4479,7 @@
       <c r="N23" s="31"/>
     </row>
     <row r="24" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="82"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="42" t="s">
         <v>50</v>
       </c>
@@ -4098,7 +4492,7 @@
       <c r="F24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G24" s="69"/>
+      <c r="G24" s="95"/>
       <c r="H24" s="35">
         <v>254</v>
       </c>
@@ -4112,7 +4506,7 @@
       <c r="N24" s="31"/>
     </row>
     <row r="25" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="88"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="24" t="s">
         <v>129</v>
       </c>
@@ -4125,7 +4519,7 @@
       <c r="F25" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="G25" s="69"/>
+      <c r="G25" s="95"/>
       <c r="H25" s="35">
         <v>254</v>
       </c>
@@ -4139,7 +4533,7 @@
       <c r="N25" s="31"/>
     </row>
     <row r="26" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="88"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="24" t="s">
         <v>281</v>
       </c>
@@ -4152,7 +4546,7 @@
       <c r="F26" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="95"/>
       <c r="H26" s="35">
         <v>64</v>
       </c>
@@ -4166,7 +4560,7 @@
       <c r="N26" s="31"/>
     </row>
     <row r="27" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="88"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="23" t="s">
         <v>38</v>
       </c>
@@ -4179,7 +4573,7 @@
       <c r="F27" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="35">
         <v>32</v>
       </c>
@@ -4193,7 +4587,7 @@
       <c r="N27" s="31"/>
     </row>
     <row r="28" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="82"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="43" t="s">
         <v>39</v>
       </c>
@@ -4206,7 +4600,7 @@
       <c r="F28" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="69"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="35">
         <v>128</v>
       </c>
@@ -4220,7 +4614,7 @@
       <c r="N28" s="31"/>
     </row>
     <row r="29" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="82"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="33" t="s">
         <v>127</v>
       </c>
@@ -4233,7 +4627,7 @@
       <c r="F29" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="95"/>
       <c r="H29" s="35" t="s">
         <v>24</v>
       </c>
@@ -4247,7 +4641,7 @@
       <c r="N29" s="31"/>
     </row>
     <row r="30" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="83"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="33" t="s">
         <v>41</v>
       </c>
@@ -4260,7 +4654,7 @@
       <c r="F30" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="70"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="35" t="s">
         <v>24</v>
       </c>
@@ -4280,13 +4674,13 @@
       </c>
     </row>
     <row r="31" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="98" t="s">
         <v>357</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="23" t="s">
@@ -4311,11 +4705,11 @@
       <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="80"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="85"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="23" t="s">
         <v>313</v>
       </c>
@@ -4338,11 +4732,11 @@
       <c r="N32" s="32"/>
     </row>
     <row r="33" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="80"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="D33" s="85"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="23" t="s">
         <v>24</v>
       </c>
@@ -4365,11 +4759,11 @@
       <c r="N33" s="32"/>
     </row>
     <row r="34" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="D34" s="86"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="23" t="s">
         <v>24</v>
       </c>
@@ -4392,13 +4786,13 @@
       <c r="N34" s="32"/>
     </row>
     <row r="35" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="83" t="s">
         <v>365</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="23" t="s">
@@ -4425,11 +4819,11 @@
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="82"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="85"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="23" t="s">
         <v>24</v>
       </c>
@@ -4454,11 +4848,11 @@
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="85"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="23" t="s">
         <v>24</v>
       </c>
@@ -4483,11 +4877,11 @@
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="82"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="85"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="23" t="s">
         <v>24</v>
       </c>
@@ -4512,11 +4906,11 @@
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="82"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="85"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="23" t="s">
         <v>24</v>
       </c>
@@ -4541,11 +4935,11 @@
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="82"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="85"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="23" t="s">
         <v>24</v>
       </c>
@@ -4570,11 +4964,11 @@
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="82"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D41" s="85"/>
+      <c r="D41" s="88"/>
       <c r="E41" s="23" t="s">
         <v>24</v>
       </c>
@@ -4599,11 +4993,11 @@
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="82"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="85"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="23" t="s">
         <v>24</v>
       </c>
@@ -4628,11 +5022,11 @@
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D43" s="85"/>
+      <c r="D43" s="88"/>
       <c r="E43" s="23" t="s">
         <v>24</v>
       </c>
@@ -4657,11 +5051,11 @@
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="82"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="85"/>
+      <c r="D44" s="88"/>
       <c r="E44" s="23" t="s">
         <v>24</v>
       </c>
@@ -4686,11 +5080,11 @@
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="85"/>
+      <c r="D45" s="88"/>
       <c r="E45" s="23" t="s">
         <v>24</v>
       </c>
@@ -4715,11 +5109,11 @@
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="83"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D46" s="86"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="49" t="s">
         <v>358</v>
       </c>
@@ -4742,13 +5136,13 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="81" t="s">
         <v>317</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="78" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="23" t="s">
@@ -4775,11 +5169,11 @@
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="72"/>
+      <c r="B48" s="82"/>
       <c r="C48" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="90"/>
+      <c r="D48" s="79"/>
       <c r="E48" s="23" t="s">
         <v>159</v>
       </c>
@@ -4804,11 +5198,11 @@
       <c r="P48" s="16"/>
     </row>
     <row r="49" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="72"/>
+      <c r="B49" s="82"/>
       <c r="C49" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="90"/>
+      <c r="D49" s="79"/>
       <c r="E49" s="23" t="s">
         <v>167</v>
       </c>
@@ -4833,11 +5227,11 @@
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="72"/>
+      <c r="B50" s="82"/>
       <c r="C50" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="90"/>
+      <c r="D50" s="79"/>
       <c r="E50" s="32" t="s">
         <v>164</v>
       </c>
@@ -4862,11 +5256,11 @@
       <c r="P50" s="16"/>
     </row>
     <row r="51" spans="2:16" s="25" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="72"/>
+      <c r="B51" s="82"/>
       <c r="C51" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="90"/>
+      <c r="D51" s="79"/>
       <c r="E51" s="23" t="s">
         <v>168</v>
       </c>
@@ -4891,11 +5285,11 @@
       <c r="P51" s="16"/>
     </row>
     <row r="52" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="72"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="90"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="23" t="s">
         <v>169</v>
       </c>
@@ -4920,11 +5314,11 @@
       <c r="P52" s="16"/>
     </row>
     <row r="53" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="72"/>
+      <c r="B53" s="82"/>
       <c r="C53" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="90"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="23" t="s">
         <v>170</v>
       </c>
@@ -4949,11 +5343,11 @@
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="72"/>
+      <c r="B54" s="82"/>
       <c r="C54" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="D54" s="90"/>
+      <c r="D54" s="79"/>
       <c r="E54" s="21" t="s">
         <v>24</v>
       </c>
@@ -4978,11 +5372,11 @@
       <c r="P54" s="16"/>
     </row>
     <row r="55" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="72"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="D55" s="90"/>
+      <c r="D55" s="79"/>
       <c r="E55" s="49" t="s">
         <v>355</v>
       </c>
@@ -5005,11 +5399,11 @@
       <c r="N55" s="24"/>
     </row>
     <row r="56" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="73"/>
+      <c r="B56" s="86"/>
       <c r="C56" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D56" s="91"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="49" t="s">
         <v>318</v>
       </c>
@@ -5032,25 +5426,25 @@
       <c r="N56" s="24"/>
     </row>
     <row r="57" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="83" t="s">
         <v>319</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="84" t="s">
+      <c r="D57" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="68" t="s">
+      <c r="F57" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="23" t="s">
@@ -5063,17 +5457,17 @@
       <c r="N57" s="32"/>
     </row>
     <row r="58" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="82"/>
+      <c r="B58" s="84"/>
       <c r="C58" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="D58" s="85"/>
+      <c r="D58" s="88"/>
       <c r="E58" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="95"/>
       <c r="I58" s="23" t="s">
         <v>27</v>
       </c>
@@ -5084,17 +5478,17 @@
       <c r="N58" s="32"/>
     </row>
     <row r="59" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="82"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="85"/>
+      <c r="D59" s="88"/>
       <c r="E59" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="95"/>
+      <c r="H59" s="95"/>
       <c r="I59" s="23" t="s">
         <v>44</v>
       </c>
@@ -5105,17 +5499,17 @@
       <c r="N59" s="32"/>
     </row>
     <row r="60" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="83"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D60" s="86"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
       <c r="I60" s="23" t="s">
         <v>44</v>
       </c>
@@ -5126,7 +5520,7 @@
       <c r="N60" s="32"/>
     </row>
     <row r="61" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="81" t="s">
+      <c r="B61" s="83" t="s">
         <v>326</v>
       </c>
       <c r="C61" s="33" t="s">
@@ -5141,7 +5535,7 @@
       <c r="F61" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H61" s="46">
@@ -5157,7 +5551,7 @@
       <c r="N61" s="32"/>
     </row>
     <row r="62" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="82"/>
+      <c r="B62" s="84"/>
       <c r="C62" s="33" t="s">
         <v>39</v>
       </c>
@@ -5170,7 +5564,7 @@
       <c r="F62" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="G62" s="69"/>
+      <c r="G62" s="95"/>
       <c r="H62" s="46">
         <v>128</v>
       </c>
@@ -5184,7 +5578,7 @@
       <c r="N62" s="32"/>
     </row>
     <row r="63" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="82"/>
+      <c r="B63" s="84"/>
       <c r="C63" s="33" t="s">
         <v>327</v>
       </c>
@@ -5197,7 +5591,7 @@
       <c r="F63" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="G63" s="69"/>
+      <c r="G63" s="95"/>
       <c r="H63" s="46">
         <v>32</v>
       </c>
@@ -5211,7 +5605,7 @@
       <c r="N63" s="32"/>
     </row>
     <row r="64" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="82"/>
+      <c r="B64" s="84"/>
       <c r="C64" s="33" t="s">
         <v>328</v>
       </c>
@@ -5224,7 +5618,7 @@
       <c r="F64" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="69"/>
+      <c r="G64" s="95"/>
       <c r="H64" s="46" t="s">
         <v>24</v>
       </c>
@@ -5238,7 +5632,7 @@
       <c r="N64" s="32"/>
     </row>
     <row r="65" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="83"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="33" t="s">
         <v>329</v>
       </c>
@@ -5251,7 +5645,7 @@
       <c r="F65" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="70"/>
+      <c r="G65" s="96"/>
       <c r="H65" s="46" t="s">
         <v>24</v>
       </c>
@@ -5265,7 +5659,7 @@
       <c r="N65" s="32"/>
     </row>
     <row r="66" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="83" t="s">
         <v>340</v>
       </c>
       <c r="C66" s="33" t="s">
@@ -5280,7 +5674,7 @@
       <c r="F66" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="G66" s="68" t="s">
+      <c r="G66" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H66" s="46">
@@ -5296,7 +5690,7 @@
       <c r="N66" s="32"/>
     </row>
     <row r="67" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="82"/>
+      <c r="B67" s="84"/>
       <c r="C67" s="33" t="s">
         <v>342</v>
       </c>
@@ -5309,7 +5703,7 @@
       <c r="F67" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="G67" s="69"/>
+      <c r="G67" s="95"/>
       <c r="H67" s="46">
         <v>32</v>
       </c>
@@ -5323,7 +5717,7 @@
       <c r="N67" s="32"/>
     </row>
     <row r="68" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
+      <c r="B68" s="84"/>
       <c r="C68" s="33" t="s">
         <v>343</v>
       </c>
@@ -5336,7 +5730,7 @@
       <c r="F68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="69"/>
+      <c r="G68" s="95"/>
       <c r="H68" s="46" t="s">
         <v>24</v>
       </c>
@@ -5350,7 +5744,7 @@
       <c r="N68" s="32"/>
     </row>
     <row r="69" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="83"/>
+      <c r="B69" s="85"/>
       <c r="C69" s="33" t="s">
         <v>329</v>
       </c>
@@ -5363,7 +5757,7 @@
       <c r="F69" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G69" s="70"/>
+      <c r="G69" s="96"/>
       <c r="H69" s="46" t="s">
         <v>24</v>
       </c>
@@ -5377,7 +5771,7 @@
       <c r="N69" s="32"/>
     </row>
     <row r="70" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="74" t="s">
+      <c r="B70" s="104" t="s">
         <v>55</v>
       </c>
       <c r="C70" s="24" t="s">
@@ -5410,7 +5804,7 @@
       <c r="P70" s="16"/>
     </row>
     <row r="71" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="87"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="24" t="s">
         <v>53</v>
       </c>
@@ -5441,7 +5835,7 @@
       <c r="P71" s="16"/>
     </row>
     <row r="72" spans="2:16" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="87"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="24" t="s">
         <v>48</v>
       </c>
@@ -5472,7 +5866,7 @@
       <c r="P72" s="16"/>
     </row>
     <row r="73" spans="2:16" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="87"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="24" t="s">
         <v>156</v>
       </c>
@@ -5503,7 +5897,7 @@
       <c r="P73" s="16"/>
     </row>
     <row r="74" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="87"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="24" t="s">
         <v>281</v>
       </c>
@@ -5534,7 +5928,7 @@
       <c r="P74" s="16"/>
     </row>
     <row r="75" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="75"/>
+      <c r="B75" s="106"/>
       <c r="C75" s="24" t="s">
         <v>54</v>
       </c>
@@ -5565,7 +5959,7 @@
       <c r="P75" s="16"/>
     </row>
     <row r="76" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="74" t="s">
+      <c r="B76" s="104" t="s">
         <v>64</v>
       </c>
       <c r="C76" s="24" t="s">
@@ -5580,7 +5974,7 @@
       <c r="F76" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="G76" s="68" t="s">
+      <c r="G76" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H76" s="35">
@@ -5598,7 +5992,7 @@
       <c r="P76" s="16"/>
     </row>
     <row r="77" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="87"/>
+      <c r="B77" s="105"/>
       <c r="C77" s="24" t="s">
         <v>61</v>
       </c>
@@ -5611,7 +6005,7 @@
       <c r="F77" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="G77" s="69"/>
+      <c r="G77" s="95"/>
       <c r="H77" s="35">
         <v>254</v>
       </c>
@@ -5627,7 +6021,7 @@
       <c r="P77" s="16"/>
     </row>
     <row r="78" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="75"/>
+      <c r="B78" s="106"/>
       <c r="C78" s="24" t="s">
         <v>62</v>
       </c>
@@ -5640,7 +6034,7 @@
       <c r="F78" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G78" s="70"/>
+      <c r="G78" s="96"/>
       <c r="H78" s="35" t="s">
         <v>24</v>
       </c>
@@ -5656,7 +6050,7 @@
       <c r="P78" s="16"/>
     </row>
     <row r="79" spans="2:16" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="74" t="s">
+      <c r="B79" s="104" t="s">
         <v>63</v>
       </c>
       <c r="C79" s="29" t="s">
@@ -5671,7 +6065,7 @@
       <c r="F79" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="G79" s="68" t="s">
+      <c r="G79" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="35">
@@ -5689,7 +6083,7 @@
       <c r="P79" s="16"/>
     </row>
     <row r="80" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="75"/>
+      <c r="B80" s="106"/>
       <c r="C80" s="29" t="s">
         <v>62</v>
       </c>
@@ -5702,7 +6096,7 @@
       <c r="F80" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G80" s="70"/>
+      <c r="G80" s="96"/>
       <c r="H80" s="35" t="s">
         <v>24</v>
       </c>
@@ -5718,7 +6112,7 @@
       <c r="P80" s="16"/>
     </row>
     <row r="81" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="76" t="s">
+      <c r="B81" s="101" t="s">
         <v>67</v>
       </c>
       <c r="C81" s="24" t="s">
@@ -5733,7 +6127,7 @@
       <c r="F81" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G81" s="68" t="s">
+      <c r="G81" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H81" s="35">
@@ -5749,7 +6143,7 @@
       <c r="N81" s="24"/>
     </row>
     <row r="82" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="77"/>
+      <c r="B82" s="103"/>
       <c r="C82" s="24" t="s">
         <v>62</v>
       </c>
@@ -5762,7 +6156,7 @@
       <c r="F82" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G82" s="70"/>
+      <c r="G82" s="96"/>
       <c r="H82" s="35" t="s">
         <v>24</v>
       </c>
@@ -5776,25 +6170,25 @@
       <c r="N82" s="24"/>
     </row>
     <row r="83" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="76" t="s">
+      <c r="B83" s="101" t="s">
         <v>299</v>
       </c>
       <c r="C83" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H83" s="68" t="s">
+      <c r="D83" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I83" s="23" t="s">
@@ -5807,15 +6201,15 @@
       <c r="N83" s="24"/>
     </row>
     <row r="84" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="78"/>
+      <c r="B84" s="102"/>
       <c r="C84" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="D84" s="90"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
-      <c r="H84" s="69"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="88"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="95"/>
+      <c r="H84" s="95"/>
       <c r="I84" s="23" t="s">
         <v>203</v>
       </c>
@@ -5826,15 +6220,15 @@
       <c r="N84" s="24"/>
     </row>
     <row r="85" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="77"/>
+      <c r="B85" s="103"/>
       <c r="C85" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D85" s="91"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
       <c r="I85" s="23" t="s">
         <v>203</v>
       </c>
@@ -5845,13 +6239,13 @@
       <c r="N85" s="24"/>
     </row>
     <row r="86" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="81" t="s">
         <v>84</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D86" s="89" t="s">
+      <c r="D86" s="78" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="49" t="s">
@@ -5876,11 +6270,11 @@
       <c r="N86" s="24"/>
     </row>
     <row r="87" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="72"/>
+      <c r="B87" s="82"/>
       <c r="C87" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="90"/>
+      <c r="D87" s="79"/>
       <c r="E87" s="49" t="s">
         <v>24</v>
       </c>
@@ -5903,11 +6297,11 @@
       <c r="N87" s="24"/>
     </row>
     <row r="88" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="72"/>
+      <c r="B88" s="82"/>
       <c r="C88" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="90"/>
+      <c r="D88" s="79"/>
       <c r="E88" s="49" t="s">
         <v>24</v>
       </c>
@@ -5930,11 +6324,11 @@
       <c r="N88" s="24"/>
     </row>
     <row r="89" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="72"/>
+      <c r="B89" s="82"/>
       <c r="C89" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="90"/>
+      <c r="D89" s="79"/>
       <c r="E89" s="49" t="s">
         <v>24</v>
       </c>
@@ -5956,11 +6350,11 @@
       <c r="N89" s="24"/>
     </row>
     <row r="90" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="72"/>
+      <c r="B90" s="82"/>
       <c r="C90" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D90" s="90"/>
+      <c r="D90" s="79"/>
       <c r="E90" s="49" t="s">
         <v>24</v>
       </c>
@@ -5985,11 +6379,11 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="72"/>
+      <c r="B91" s="82"/>
       <c r="C91" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D91" s="90"/>
+      <c r="D91" s="79"/>
       <c r="E91" s="49" t="s">
         <v>24</v>
       </c>
@@ -6014,11 +6408,11 @@
       <c r="P91"/>
     </row>
     <row r="92" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="72"/>
+      <c r="B92" s="82"/>
       <c r="C92" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="90"/>
+      <c r="D92" s="79"/>
       <c r="E92" s="49" t="s">
         <v>24</v>
       </c>
@@ -6043,11 +6437,11 @@
       <c r="P92"/>
     </row>
     <row r="93" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="72"/>
+      <c r="B93" s="82"/>
       <c r="C93" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D93" s="90"/>
+      <c r="D93" s="79"/>
       <c r="E93" s="49" t="s">
         <v>24</v>
       </c>
@@ -6072,11 +6466,11 @@
       <c r="P93"/>
     </row>
     <row r="94" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="72"/>
+      <c r="B94" s="82"/>
       <c r="C94" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="90"/>
+      <c r="D94" s="79"/>
       <c r="E94" s="49" t="s">
         <v>24</v>
       </c>
@@ -6101,11 +6495,11 @@
       <c r="P94"/>
     </row>
     <row r="95" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="73"/>
+      <c r="B95" s="86"/>
       <c r="C95" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="91"/>
+      <c r="D95" s="80"/>
       <c r="E95" s="49" t="s">
         <v>360</v>
       </c>
@@ -6128,7 +6522,7 @@
       <c r="N95" s="24"/>
     </row>
     <row r="96" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="81" t="s">
         <v>311</v>
       </c>
       <c r="C96" s="33" t="s">
@@ -6159,7 +6553,7 @@
       <c r="N96" s="24"/>
     </row>
     <row r="97" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="72"/>
+      <c r="B97" s="82"/>
       <c r="C97" s="33" t="s">
         <v>33</v>
       </c>
@@ -6188,7 +6582,7 @@
       <c r="N97" s="24"/>
     </row>
     <row r="98" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="72"/>
+      <c r="B98" s="82"/>
       <c r="C98" s="33" t="s">
         <v>303</v>
       </c>
@@ -6217,7 +6611,7 @@
       <c r="N98" s="24"/>
     </row>
     <row r="99" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="72"/>
+      <c r="B99" s="82"/>
       <c r="C99" s="33" t="s">
         <v>48</v>
       </c>
@@ -6246,7 +6640,7 @@
       <c r="N99" s="24"/>
     </row>
     <row r="100" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="72"/>
+      <c r="B100" s="82"/>
       <c r="C100" s="33" t="s">
         <v>293</v>
       </c>
@@ -6275,7 +6669,7 @@
       <c r="N100" s="24"/>
     </row>
     <row r="101" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="72"/>
+      <c r="B101" s="82"/>
       <c r="C101" s="33" t="s">
         <v>156</v>
       </c>
@@ -6304,7 +6698,7 @@
       <c r="N101" s="24"/>
     </row>
     <row r="102" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="72"/>
+      <c r="B102" s="82"/>
       <c r="C102" s="33" t="s">
         <v>306</v>
       </c>
@@ -6333,7 +6727,7 @@
       <c r="N102" s="24"/>
     </row>
     <row r="103" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="72"/>
+      <c r="B103" s="82"/>
       <c r="C103" s="33" t="s">
         <v>49</v>
       </c>
@@ -6362,7 +6756,7 @@
       <c r="N103" s="24"/>
     </row>
     <row r="104" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="72"/>
+      <c r="B104" s="82"/>
       <c r="C104" s="33" t="s">
         <v>281</v>
       </c>
@@ -6391,7 +6785,7 @@
       <c r="N104" s="24"/>
     </row>
     <row r="105" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="72"/>
+      <c r="B105" s="82"/>
       <c r="C105" s="33" t="s">
         <v>51</v>
       </c>
@@ -6420,7 +6814,7 @@
       <c r="N105" s="24"/>
     </row>
     <row r="106" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="72"/>
+      <c r="B106" s="82"/>
       <c r="C106" s="33" t="s">
         <v>50</v>
       </c>
@@ -6449,7 +6843,7 @@
       <c r="N106" s="24"/>
     </row>
     <row r="107" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="72"/>
+      <c r="B107" s="82"/>
       <c r="C107" s="33" t="s">
         <v>307</v>
       </c>
@@ -6478,7 +6872,7 @@
       <c r="N107" s="24"/>
     </row>
     <row r="108" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="72"/>
+      <c r="B108" s="82"/>
       <c r="C108" s="33" t="s">
         <v>82</v>
       </c>
@@ -6507,7 +6901,7 @@
       <c r="N108" s="24"/>
     </row>
     <row r="109" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="72"/>
+      <c r="B109" s="82"/>
       <c r="C109" s="33" t="s">
         <v>83</v>
       </c>
@@ -6536,7 +6930,7 @@
       <c r="N109" s="24"/>
     </row>
     <row r="110" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="71" t="s">
+      <c r="B110" s="81" t="s">
         <v>312</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -6569,7 +6963,7 @@
       <c r="P110" s="16"/>
     </row>
     <row r="111" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="72"/>
+      <c r="B111" s="82"/>
       <c r="C111" s="24" t="s">
         <v>35</v>
       </c>
@@ -6600,7 +6994,7 @@
       <c r="P111" s="16"/>
     </row>
     <row r="112" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="72"/>
+      <c r="B112" s="82"/>
       <c r="C112" s="24" t="s">
         <v>34</v>
       </c>
@@ -6631,7 +7025,7 @@
       <c r="P112" s="16"/>
     </row>
     <row r="113" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="72"/>
+      <c r="B113" s="82"/>
       <c r="C113" s="24" t="s">
         <v>56</v>
       </c>
@@ -6662,7 +7056,7 @@
       <c r="P113" s="16"/>
     </row>
     <row r="114" spans="1:16" s="25" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="72"/>
+      <c r="B114" s="82"/>
       <c r="C114" s="24" t="s">
         <v>36</v>
       </c>
@@ -6693,7 +7087,7 @@
       <c r="P114" s="16"/>
     </row>
     <row r="115" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="72"/>
+      <c r="B115" s="82"/>
       <c r="C115" s="24" t="s">
         <v>58</v>
       </c>
@@ -6724,7 +7118,7 @@
       <c r="P115" s="16"/>
     </row>
     <row r="116" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="72"/>
+      <c r="B116" s="82"/>
       <c r="C116" s="24" t="s">
         <v>59</v>
       </c>
@@ -6755,7 +7149,7 @@
       <c r="P116" s="16"/>
     </row>
     <row r="117" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="72"/>
+      <c r="B117" s="82"/>
       <c r="C117" s="24" t="s">
         <v>354</v>
       </c>
@@ -6786,7 +7180,7 @@
       <c r="P117" s="16"/>
     </row>
     <row r="118" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="72"/>
+      <c r="B118" s="82"/>
       <c r="C118" s="33" t="s">
         <v>353</v>
       </c>
@@ -6815,7 +7209,7 @@
       <c r="N118" s="24"/>
     </row>
     <row r="119" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="72"/>
+      <c r="B119" s="82"/>
       <c r="C119" s="33" t="s">
         <v>307</v>
       </c>
@@ -6844,7 +7238,7 @@
       <c r="N119" s="24"/>
     </row>
     <row r="120" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="72"/>
+      <c r="B120" s="82"/>
       <c r="C120" s="33" t="s">
         <v>82</v>
       </c>
@@ -6873,7 +7267,7 @@
       <c r="N120" s="24"/>
     </row>
     <row r="121" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="73"/>
+      <c r="B121" s="86"/>
       <c r="C121" s="33" t="s">
         <v>351</v>
       </c>
@@ -6903,7 +7297,7 @@
     </row>
     <row r="122" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="98" t="s">
         <v>140</v>
       </c>
       <c r="C122" s="24" t="s">
@@ -6918,7 +7312,7 @@
       <c r="F122" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G122" s="68" t="s">
+      <c r="G122" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H122" s="35" t="s">
@@ -6935,7 +7329,7 @@
     </row>
     <row r="123" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
-      <c r="B123" s="80"/>
+      <c r="B123" s="99"/>
       <c r="C123" s="24" t="s">
         <v>38</v>
       </c>
@@ -6948,7 +7342,7 @@
       <c r="F123" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="G123" s="69"/>
+      <c r="G123" s="95"/>
       <c r="H123" s="35">
         <v>32</v>
       </c>
@@ -6963,7 +7357,7 @@
     </row>
     <row r="124" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
-      <c r="B124" s="80"/>
+      <c r="B124" s="99"/>
       <c r="C124" s="24" t="s">
         <v>39</v>
       </c>
@@ -6976,7 +7370,7 @@
       <c r="F124" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="G124" s="69"/>
+      <c r="G124" s="95"/>
       <c r="H124" s="35">
         <v>128</v>
       </c>
@@ -6991,7 +7385,7 @@
     </row>
     <row r="125" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
-      <c r="B125" s="80"/>
+      <c r="B125" s="99"/>
       <c r="C125" s="24" t="s">
         <v>96</v>
       </c>
@@ -7004,7 +7398,7 @@
       <c r="F125" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G125" s="69"/>
+      <c r="G125" s="95"/>
       <c r="H125" s="35" t="s">
         <v>24</v>
       </c>
@@ -7019,7 +7413,7 @@
     </row>
     <row r="126" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
-      <c r="B126" s="80"/>
+      <c r="B126" s="99"/>
       <c r="C126" s="24" t="s">
         <v>45</v>
       </c>
@@ -7032,7 +7426,7 @@
       <c r="F126" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G126" s="69"/>
+      <c r="G126" s="95"/>
       <c r="H126" s="35" t="s">
         <v>24</v>
       </c>
@@ -7047,7 +7441,7 @@
     </row>
     <row r="127" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
-      <c r="B127" s="80"/>
+      <c r="B127" s="99"/>
       <c r="C127" s="30" t="s">
         <v>41</v>
       </c>
@@ -7060,7 +7454,7 @@
       <c r="F127" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G127" s="70"/>
+      <c r="G127" s="96"/>
       <c r="H127" s="35" t="s">
         <v>24</v>
       </c>
@@ -7075,7 +7469,7 @@
     </row>
     <row r="128" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="83" t="s">
         <v>144</v>
       </c>
       <c r="C128" s="24" t="s">
@@ -7107,7 +7501,7 @@
     </row>
     <row r="129" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
-      <c r="B129" s="82"/>
+      <c r="B129" s="84"/>
       <c r="C129" s="24" t="s">
         <v>32</v>
       </c>
@@ -7139,7 +7533,7 @@
     </row>
     <row r="130" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
-      <c r="B130" s="82"/>
+      <c r="B130" s="84"/>
       <c r="C130" s="24" t="s">
         <v>48</v>
       </c>
@@ -7169,7 +7563,7 @@
     </row>
     <row r="131" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
-      <c r="B131" s="82"/>
+      <c r="B131" s="84"/>
       <c r="C131" s="24" t="s">
         <v>147</v>
       </c>
@@ -7199,7 +7593,7 @@
     </row>
     <row r="132" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
-      <c r="B132" s="82"/>
+      <c r="B132" s="84"/>
       <c r="C132" s="24" t="s">
         <v>148</v>
       </c>
@@ -7229,7 +7623,7 @@
     </row>
     <row r="133" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
-      <c r="B133" s="82"/>
+      <c r="B133" s="84"/>
       <c r="C133" s="24" t="s">
         <v>51</v>
       </c>
@@ -7261,7 +7655,7 @@
     </row>
     <row r="134" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
-      <c r="B134" s="82"/>
+      <c r="B134" s="84"/>
       <c r="C134" s="24" t="s">
         <v>50</v>
       </c>
@@ -7293,7 +7687,7 @@
     </row>
     <row r="135" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
-      <c r="B135" s="82"/>
+      <c r="B135" s="84"/>
       <c r="C135" s="24" t="s">
         <v>281</v>
       </c>
@@ -7325,7 +7719,7 @@
     </row>
     <row r="136" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
-      <c r="B136" s="82"/>
+      <c r="B136" s="84"/>
       <c r="C136" s="23" t="s">
         <v>38</v>
       </c>
@@ -7357,7 +7751,7 @@
     </row>
     <row r="137" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
-      <c r="B137" s="82"/>
+      <c r="B137" s="84"/>
       <c r="C137" s="24" t="s">
         <v>39</v>
       </c>
@@ -7389,7 +7783,7 @@
     </row>
     <row r="138" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
-      <c r="B138" s="82"/>
+      <c r="B138" s="84"/>
       <c r="C138" s="33" t="s">
         <v>127</v>
       </c>
@@ -7421,7 +7815,7 @@
     </row>
     <row r="139" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25"/>
-      <c r="B139" s="83"/>
+      <c r="B139" s="85"/>
       <c r="C139" s="33" t="s">
         <v>146</v>
       </c>
@@ -7452,25 +7846,25 @@
       <c r="P139"/>
     </row>
     <row r="140" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="76" t="s">
+      <c r="B140" s="101" t="s">
         <v>69</v>
       </c>
       <c r="C140" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F140" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H140" s="68" t="s">
+      <c r="D140" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G140" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" s="94" t="s">
         <v>24</v>
       </c>
       <c r="I140" s="23" t="s">
@@ -7485,15 +7879,15 @@
       <c r="P140"/>
     </row>
     <row r="141" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="78"/>
+      <c r="B141" s="102"/>
       <c r="C141" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="69"/>
-      <c r="G141" s="69"/>
-      <c r="H141" s="69"/>
+      <c r="D141" s="88"/>
+      <c r="E141" s="88"/>
+      <c r="F141" s="95"/>
+      <c r="G141" s="95"/>
+      <c r="H141" s="95"/>
       <c r="I141" s="23" t="s">
         <v>203</v>
       </c>
@@ -7504,15 +7898,15 @@
       <c r="N141" s="24"/>
     </row>
     <row r="142" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="78"/>
+      <c r="B142" s="102"/>
       <c r="C142" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="85"/>
-      <c r="E142" s="85"/>
-      <c r="F142" s="69"/>
-      <c r="G142" s="69"/>
-      <c r="H142" s="69"/>
+      <c r="D142" s="88"/>
+      <c r="E142" s="88"/>
+      <c r="F142" s="95"/>
+      <c r="G142" s="95"/>
+      <c r="H142" s="95"/>
       <c r="I142" s="23" t="s">
         <v>203</v>
       </c>
@@ -7523,15 +7917,15 @@
       <c r="N142" s="24"/>
     </row>
     <row r="143" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="78"/>
+      <c r="B143" s="102"/>
       <c r="C143" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D143" s="85"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
-      <c r="H143" s="69"/>
+      <c r="D143" s="88"/>
+      <c r="E143" s="88"/>
+      <c r="F143" s="95"/>
+      <c r="G143" s="95"/>
+      <c r="H143" s="95"/>
       <c r="I143" s="23" t="s">
         <v>203</v>
       </c>
@@ -7542,15 +7936,15 @@
       <c r="N143" s="24"/>
     </row>
     <row r="144" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="77"/>
+      <c r="B144" s="103"/>
       <c r="C144" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D144" s="86"/>
-      <c r="E144" s="86"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
-      <c r="H144" s="70"/>
+      <c r="D144" s="97"/>
+      <c r="E144" s="97"/>
+      <c r="F144" s="96"/>
+      <c r="G144" s="96"/>
+      <c r="H144" s="96"/>
       <c r="I144" s="23" t="s">
         <v>203</v>
       </c>
@@ -7561,7 +7955,7 @@
       <c r="N144" s="24"/>
     </row>
     <row r="145" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="71" t="s">
+      <c r="B145" s="81" t="s">
         <v>75</v>
       </c>
       <c r="C145" s="24" t="s">
@@ -7594,7 +7988,7 @@
       <c r="P145"/>
     </row>
     <row r="146" spans="2:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="B146" s="72"/>
+      <c r="B146" s="82"/>
       <c r="C146" s="24" t="s">
         <v>76</v>
       </c>
@@ -7625,7 +8019,7 @@
       <c r="P146"/>
     </row>
     <row r="147" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="72"/>
+      <c r="B147" s="82"/>
       <c r="C147" s="24" t="s">
         <v>81</v>
       </c>
@@ -7654,7 +8048,7 @@
       <c r="P147"/>
     </row>
     <row r="148" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="72"/>
+      <c r="B148" s="82"/>
       <c r="C148" s="24" t="s">
         <v>77</v>
       </c>
@@ -7685,7 +8079,7 @@
       <c r="P148"/>
     </row>
     <row r="149" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B149" s="72"/>
+      <c r="B149" s="82"/>
       <c r="C149" s="24" t="s">
         <v>86</v>
       </c>
@@ -7716,7 +8110,7 @@
       <c r="P149"/>
     </row>
     <row r="150" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="72"/>
+      <c r="B150" s="82"/>
       <c r="C150" s="24" t="s">
         <v>83</v>
       </c>
@@ -7747,7 +8141,7 @@
       <c r="P150"/>
     </row>
     <row r="151" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="71" t="s">
+      <c r="B151" s="81" t="s">
         <v>79</v>
       </c>
       <c r="C151" s="24" t="s">
@@ -7762,7 +8156,7 @@
       <c r="F151" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="G151" s="68" t="s">
+      <c r="G151" s="94" t="s">
         <v>24</v>
       </c>
       <c r="H151" s="35">
@@ -7780,7 +8174,7 @@
       <c r="P151"/>
     </row>
     <row r="152" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="72"/>
+      <c r="B152" s="82"/>
       <c r="C152" s="24" t="s">
         <v>80</v>
       </c>
@@ -7793,7 +8187,7 @@
       <c r="F152" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G152" s="69"/>
+      <c r="G152" s="95"/>
       <c r="H152" s="35">
         <v>64</v>
       </c>
@@ -7809,7 +8203,7 @@
       <c r="P152"/>
     </row>
     <row r="153" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="72"/>
+      <c r="B153" s="82"/>
       <c r="C153" s="24" t="s">
         <v>81</v>
       </c>
@@ -7822,7 +8216,7 @@
       <c r="F153" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="G153" s="69"/>
+      <c r="G153" s="95"/>
       <c r="H153" s="35">
         <v>254</v>
       </c>
@@ -7838,7 +8232,7 @@
       <c r="P153"/>
     </row>
     <row r="154" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B154" s="72"/>
+      <c r="B154" s="82"/>
       <c r="C154" s="24" t="s">
         <v>82</v>
       </c>
@@ -7851,7 +8245,7 @@
       <c r="F154" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G154" s="69"/>
+      <c r="G154" s="95"/>
       <c r="H154" s="35" t="s">
         <v>24</v>
       </c>
@@ -7867,7 +8261,7 @@
       <c r="P154"/>
     </row>
     <row r="155" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="73"/>
+      <c r="B155" s="86"/>
       <c r="C155" s="24" t="s">
         <v>83</v>
       </c>
@@ -7880,7 +8274,7 @@
       <c r="F155" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G155" s="70"/>
+      <c r="G155" s="96"/>
       <c r="H155" s="35" t="s">
         <v>24</v>
       </c>
@@ -7896,7 +8290,7 @@
       <c r="P155"/>
     </row>
     <row r="156" spans="2:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="B156" s="71" t="s">
+      <c r="B156" s="81" t="s">
         <v>84</v>
       </c>
       <c r="C156" s="24" t="s">
@@ -7929,7 +8323,7 @@
       <c r="P156"/>
     </row>
     <row r="157" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="72"/>
+      <c r="B157" s="82"/>
       <c r="C157" s="24" t="s">
         <v>87</v>
       </c>
@@ -7960,7 +8354,7 @@
       <c r="P157"/>
     </row>
     <row r="158" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B158" s="72"/>
+      <c r="B158" s="82"/>
       <c r="C158" s="24" t="s">
         <v>88</v>
       </c>
@@ -7991,7 +8385,7 @@
       <c r="P158"/>
     </row>
     <row r="159" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="72"/>
+      <c r="B159" s="82"/>
       <c r="C159" s="24" t="s">
         <v>82</v>
       </c>
@@ -8022,7 +8416,7 @@
       <c r="P159"/>
     </row>
     <row r="160" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="73"/>
+      <c r="B160" s="86"/>
       <c r="C160" s="24" t="s">
         <v>83</v>
       </c>
@@ -8053,7 +8447,7 @@
       <c r="P160"/>
     </row>
     <row r="161" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="71" t="s">
+      <c r="B161" s="81" t="s">
         <v>183</v>
       </c>
       <c r="C161" s="24" t="s">
@@ -8086,7 +8480,7 @@
       <c r="P161"/>
     </row>
     <row r="162" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B162" s="72"/>
+      <c r="B162" s="82"/>
       <c r="C162" s="24" t="s">
         <v>90</v>
       </c>
@@ -8117,7 +8511,7 @@
       <c r="P162"/>
     </row>
     <row r="163" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="72"/>
+      <c r="B163" s="82"/>
       <c r="C163" s="24" t="s">
         <v>82</v>
       </c>
@@ -8148,7 +8542,7 @@
       <c r="P163"/>
     </row>
     <row r="164" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="73"/>
+      <c r="B164" s="86"/>
       <c r="C164" s="24" t="s">
         <v>83</v>
       </c>
@@ -8179,7 +8573,7 @@
       <c r="P164"/>
     </row>
     <row r="165" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="71" t="s">
+      <c r="B165" s="81" t="s">
         <v>184</v>
       </c>
       <c r="C165" s="24" t="s">
@@ -8212,7 +8606,7 @@
       <c r="P165"/>
     </row>
     <row r="166" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="72"/>
+      <c r="B166" s="82"/>
       <c r="C166" s="24" t="s">
         <v>93</v>
       </c>
@@ -8243,7 +8637,7 @@
       <c r="P166"/>
     </row>
     <row r="167" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="72"/>
+      <c r="B167" s="82"/>
       <c r="C167" s="24" t="s">
         <v>92</v>
       </c>
@@ -8274,7 +8668,7 @@
       <c r="P167"/>
     </row>
     <row r="168" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="72"/>
+      <c r="B168" s="82"/>
       <c r="C168" s="24" t="s">
         <v>91</v>
       </c>
@@ -8305,7 +8699,7 @@
       <c r="P168"/>
     </row>
     <row r="169" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="72"/>
+      <c r="B169" s="82"/>
       <c r="C169" s="24" t="s">
         <v>289</v>
       </c>
@@ -8336,7 +8730,7 @@
       <c r="P169"/>
     </row>
     <row r="170" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="73"/>
+      <c r="B170" s="86"/>
       <c r="C170" s="24" t="s">
         <v>94</v>
       </c>
@@ -8367,25 +8761,25 @@
       <c r="P170"/>
     </row>
     <row r="171" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="94" t="s">
+      <c r="B171" s="93" t="s">
         <v>369</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D171" s="93" t="s">
+      <c r="D171" s="90" t="s">
         <v>24</v>
       </c>
       <c r="E171" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F171" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G171" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H171" s="96" t="s">
+      <c r="F171" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G171" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H171" s="92" t="s">
         <v>24</v>
       </c>
       <c r="I171" s="23" t="s">
@@ -8396,70 +8790,70 @@
       <c r="P171"/>
     </row>
     <row r="172" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B172" s="94"/>
+      <c r="B172" s="93"/>
       <c r="C172" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="D172" s="93"/>
+      <c r="D172" s="90"/>
       <c r="E172" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="F172" s="96"/>
-      <c r="G172" s="96"/>
-      <c r="H172" s="96"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="92"/>
+      <c r="H172" s="92"/>
       <c r="I172" s="23" t="s">
         <v>371</v>
       </c>
       <c r="J172" s="32"/>
     </row>
     <row r="173" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="95" t="s">
+      <c r="B173" s="89" t="s">
         <v>372</v>
       </c>
       <c r="C173" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D173" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="E173" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="F173" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H173" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" s="93" t="s">
+      <c r="D173" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G173" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="90" t="s">
         <v>24</v>
       </c>
       <c r="J173" s="32"/>
     </row>
     <row r="174" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B174" s="95"/>
+      <c r="B174" s="89"/>
       <c r="C174" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="D174" s="93"/>
-      <c r="E174" s="93"/>
-      <c r="F174" s="96"/>
-      <c r="G174" s="96"/>
-      <c r="H174" s="96"/>
-      <c r="I174" s="93"/>
+      <c r="D174" s="90"/>
+      <c r="E174" s="90"/>
+      <c r="F174" s="92"/>
+      <c r="G174" s="92"/>
+      <c r="H174" s="92"/>
+      <c r="I174" s="90"/>
       <c r="J174" s="32"/>
     </row>
     <row r="175" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="95" t="s">
+      <c r="B175" s="89" t="s">
         <v>374</v>
       </c>
       <c r="C175" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="D175" s="89" t="s">
+      <c r="D175" s="78" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="21" t="s">
@@ -8480,11 +8874,11 @@
       <c r="J175" s="32"/>
     </row>
     <row r="176" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="95"/>
+      <c r="B176" s="89"/>
       <c r="C176" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D176" s="90"/>
+      <c r="D176" s="79"/>
       <c r="E176" s="21" t="s">
         <v>24</v>
       </c>
@@ -8503,11 +8897,11 @@
       <c r="J176" s="32"/>
     </row>
     <row r="177" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="95"/>
+      <c r="B177" s="89"/>
       <c r="C177" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="90"/>
+      <c r="D177" s="79"/>
       <c r="E177" s="21" t="s">
         <v>24</v>
       </c>
@@ -8526,11 +8920,11 @@
       <c r="J177" s="32"/>
     </row>
     <row r="178" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="95"/>
+      <c r="B178" s="89"/>
       <c r="C178" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D178" s="90"/>
+      <c r="D178" s="79"/>
       <c r="E178" s="21" t="s">
         <v>24</v>
       </c>
@@ -8549,11 +8943,11 @@
       <c r="J178" s="32"/>
     </row>
     <row r="179" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B179" s="95"/>
+      <c r="B179" s="89"/>
       <c r="C179" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="90"/>
+      <c r="D179" s="79"/>
       <c r="E179" s="21" t="s">
         <v>24</v>
       </c>
@@ -8572,11 +8966,11 @@
       <c r="J179" s="32"/>
     </row>
     <row r="180" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="95"/>
+      <c r="B180" s="89"/>
       <c r="C180" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D180" s="90"/>
+      <c r="D180" s="79"/>
       <c r="E180" s="21" t="s">
         <v>24</v>
       </c>
@@ -8595,11 +8989,11 @@
       <c r="J180" s="32"/>
     </row>
     <row r="181" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="95"/>
+      <c r="B181" s="89"/>
       <c r="C181" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="D181" s="90"/>
+      <c r="D181" s="79"/>
       <c r="E181" s="21" t="s">
         <v>24</v>
       </c>
@@ -8618,11 +9012,11 @@
       <c r="J181" s="52"/>
     </row>
     <row r="182" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B182" s="95"/>
+      <c r="B182" s="89"/>
       <c r="C182" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="D182" s="90"/>
+      <c r="D182" s="79"/>
       <c r="E182" s="23" t="s">
         <v>376</v>
       </c>
@@ -8641,11 +9035,11 @@
       <c r="J182" s="32"/>
     </row>
     <row r="183" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="95"/>
+      <c r="B183" s="89"/>
       <c r="C183" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D183" s="91"/>
+      <c r="D183" s="80"/>
       <c r="E183" s="21" t="s">
         <v>24</v>
       </c>
@@ -8664,25 +9058,25 @@
       <c r="J183" s="32"/>
     </row>
     <row r="184" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="95" t="s">
+      <c r="B184" s="89" t="s">
         <v>378</v>
       </c>
       <c r="C184" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="D184" s="93" t="s">
+      <c r="D184" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="E184" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="F184" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H184" s="96" t="s">
+      <c r="E184" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G184" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" s="92" t="s">
         <v>24</v>
       </c>
       <c r="I184" s="23" t="s">
@@ -8695,15 +9089,15 @@
       <c r="N184" s="32"/>
     </row>
     <row r="185" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="95"/>
+      <c r="B185" s="89"/>
       <c r="C185" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="D185" s="93"/>
-      <c r="E185" s="97"/>
-      <c r="F185" s="96"/>
-      <c r="G185" s="96"/>
-      <c r="H185" s="96"/>
+      <c r="D185" s="90"/>
+      <c r="E185" s="91"/>
+      <c r="F185" s="92"/>
+      <c r="G185" s="92"/>
+      <c r="H185" s="92"/>
       <c r="I185" s="23" t="s">
         <v>298</v>
       </c>
@@ -8714,13 +9108,13 @@
       <c r="N185" s="32"/>
     </row>
     <row r="186" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="81" t="s">
+      <c r="B186" s="83" t="s">
         <v>383</v>
       </c>
       <c r="C186" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D186" s="84" t="s">
+      <c r="D186" s="87" t="s">
         <v>24</v>
       </c>
       <c r="E186" s="23" t="s">
@@ -8747,11 +9141,11 @@
       <c r="P186" s="16"/>
     </row>
     <row r="187" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="82"/>
+      <c r="B187" s="84"/>
       <c r="C187" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D187" s="85"/>
+      <c r="D187" s="88"/>
       <c r="E187" s="23" t="s">
         <v>24</v>
       </c>
@@ -8776,11 +9170,11 @@
       <c r="P187" s="16"/>
     </row>
     <row r="188" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="82"/>
+      <c r="B188" s="84"/>
       <c r="C188" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D188" s="85"/>
+      <c r="D188" s="88"/>
       <c r="E188" s="23" t="s">
         <v>24</v>
       </c>
@@ -8805,11 +9199,11 @@
       <c r="P188" s="16"/>
     </row>
     <row r="189" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="82"/>
+      <c r="B189" s="84"/>
       <c r="C189" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D189" s="85"/>
+      <c r="D189" s="88"/>
       <c r="E189" s="23" t="s">
         <v>24</v>
       </c>
@@ -8834,11 +9228,11 @@
       <c r="P189" s="16"/>
     </row>
     <row r="190" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="82"/>
+      <c r="B190" s="84"/>
       <c r="C190" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D190" s="85"/>
+      <c r="D190" s="88"/>
       <c r="E190" s="23" t="s">
         <v>24</v>
       </c>
@@ -8863,11 +9257,11 @@
       <c r="P190" s="16"/>
     </row>
     <row r="191" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="82"/>
+      <c r="B191" s="84"/>
       <c r="C191" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D191" s="85"/>
+      <c r="D191" s="88"/>
       <c r="E191" s="23" t="s">
         <v>24</v>
       </c>
@@ -8892,11 +9286,11 @@
       <c r="P191" s="16"/>
     </row>
     <row r="192" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="82"/>
+      <c r="B192" s="84"/>
       <c r="C192" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="D192" s="85"/>
+      <c r="D192" s="88"/>
       <c r="E192" s="23" t="s">
         <v>24</v>
       </c>
@@ -8921,11 +9315,11 @@
       <c r="P192" s="16"/>
     </row>
     <row r="193" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="82"/>
+      <c r="B193" s="84"/>
       <c r="C193" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="85"/>
+      <c r="D193" s="88"/>
       <c r="E193" s="23" t="s">
         <v>24</v>
       </c>
@@ -8950,11 +9344,11 @@
       <c r="P193" s="16"/>
     </row>
     <row r="194" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="82"/>
+      <c r="B194" s="84"/>
       <c r="C194" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D194" s="85"/>
+      <c r="D194" s="88"/>
       <c r="E194" s="23" t="s">
         <v>24</v>
       </c>
@@ -8979,11 +9373,11 @@
       <c r="P194" s="16"/>
     </row>
     <row r="195" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="82"/>
+      <c r="B195" s="84"/>
       <c r="C195" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D195" s="85"/>
+      <c r="D195" s="88"/>
       <c r="E195" s="23" t="s">
         <v>24</v>
       </c>
@@ -9008,11 +9402,11 @@
       <c r="P195" s="16"/>
     </row>
     <row r="196" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="82"/>
+      <c r="B196" s="84"/>
       <c r="C196" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D196" s="85"/>
+      <c r="D196" s="88"/>
       <c r="E196" s="23" t="s">
         <v>24</v>
       </c>
@@ -9037,13 +9431,13 @@
       <c r="P196" s="16"/>
     </row>
     <row r="197" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="71" t="s">
+      <c r="B197" s="81" t="s">
         <v>384</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D197" s="89" t="s">
+      <c r="D197" s="78" t="s">
         <v>24</v>
       </c>
       <c r="E197" s="23" t="s">
@@ -9070,11 +9464,11 @@
       <c r="P197" s="16"/>
     </row>
     <row r="198" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="72"/>
+      <c r="B198" s="82"/>
       <c r="C198" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D198" s="90"/>
+      <c r="D198" s="79"/>
       <c r="E198" s="23" t="s">
         <v>159</v>
       </c>
@@ -9099,11 +9493,11 @@
       <c r="P198" s="16"/>
     </row>
     <row r="199" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="72"/>
+      <c r="B199" s="82"/>
       <c r="C199" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D199" s="90"/>
+      <c r="D199" s="79"/>
       <c r="E199" s="23" t="s">
         <v>167</v>
       </c>
@@ -9128,11 +9522,11 @@
       <c r="P199" s="16"/>
     </row>
     <row r="200" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="72"/>
+      <c r="B200" s="82"/>
       <c r="C200" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D200" s="90"/>
+      <c r="D200" s="79"/>
       <c r="E200" s="32" t="s">
         <v>164</v>
       </c>
@@ -9157,11 +9551,11 @@
       <c r="P200" s="16"/>
     </row>
     <row r="201" spans="2:16" s="25" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="72"/>
+      <c r="B201" s="82"/>
       <c r="C201" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D201" s="90"/>
+      <c r="D201" s="79"/>
       <c r="E201" s="23" t="s">
         <v>168</v>
       </c>
@@ -9186,11 +9580,11 @@
       <c r="P201" s="16"/>
     </row>
     <row r="202" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="72"/>
+      <c r="B202" s="82"/>
       <c r="C202" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D202" s="90"/>
+      <c r="D202" s="79"/>
       <c r="E202" s="23" t="s">
         <v>169</v>
       </c>
@@ -9215,11 +9609,11 @@
       <c r="P202" s="16"/>
     </row>
     <row r="203" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="72"/>
+      <c r="B203" s="82"/>
       <c r="C203" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D203" s="90"/>
+      <c r="D203" s="79"/>
       <c r="E203" s="23" t="s">
         <v>170</v>
       </c>
@@ -9244,11 +9638,11 @@
       <c r="P203" s="16"/>
     </row>
     <row r="204" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="73"/>
+      <c r="B204" s="86"/>
       <c r="C204" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="D204" s="91"/>
+      <c r="D204" s="80"/>
       <c r="E204" s="49" t="s">
         <v>355</v>
       </c>
@@ -9272,65 +9666,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="D86:D95"/>
-    <mergeCell ref="B96:B109"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="D175:D183"/>
-    <mergeCell ref="B197:B204"/>
-    <mergeCell ref="D197:D204"/>
-    <mergeCell ref="B186:B196"/>
-    <mergeCell ref="D186:D196"/>
-    <mergeCell ref="B175:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="G61:G65"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="D35:D46"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D47:D56"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G20:G30"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B10:B30"/>
-    <mergeCell ref="B86:B95"/>
-    <mergeCell ref="B110:B121"/>
     <mergeCell ref="H140:H144"/>
     <mergeCell ref="B165:B170"/>
     <mergeCell ref="B79:B80"/>
@@ -9347,6 +9682,65 @@
     <mergeCell ref="G122:G127"/>
     <mergeCell ref="G140:G144"/>
     <mergeCell ref="G83:G85"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="B86:B95"/>
+    <mergeCell ref="B110:B121"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G20:G30"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="D35:D46"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D47:D56"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="G61:G65"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="D86:D95"/>
+    <mergeCell ref="B96:B109"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="D175:D183"/>
+    <mergeCell ref="B197:B204"/>
+    <mergeCell ref="D197:D204"/>
+    <mergeCell ref="B186:B196"/>
+    <mergeCell ref="D186:D196"/>
+    <mergeCell ref="B175:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="D184:D185"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9367,7 +9761,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9378,7 +9772,7 @@
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
@@ -9418,26 +9812,26 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="111" t="s">
         <v>368</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="40"/>
-      <c r="F2" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="98" t="s">
+      <c r="F2" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="108" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="40"/>
@@ -9447,16 +9841,16 @@
       <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="101"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="103"/>
+      <c r="D3" s="113"/>
       <c r="E3" s="40"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
       <c r="L3" s="40"/>
@@ -9464,35 +9858,38 @@
       <c r="N3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="101"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
       <c r="L4" s="40"/>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
     </row>
-    <row r="5" spans="1:14" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+    <row r="5" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+      <c r="B5" s="115" t="s">
         <v>223</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="D5" s="116" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="144" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" s="143" t="s">
+        <v>430</v>
+      </c>
       <c r="H5" s="39" t="s">
         <v>286</v>
       </c>
@@ -9506,11 +9903,11 @@
       <c r="N5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="105"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -9525,11 +9922,11 @@
       <c r="N6" s="40"/>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
+      <c r="B7" s="115"/>
       <c r="C7" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="107"/>
+      <c r="D7" s="117"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -9544,11 +9941,11 @@
       <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="B8" s="105"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="107"/>
+      <c r="D8" s="117"/>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -9565,11 +9962,11 @@
       <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="105"/>
+      <c r="B9" s="115"/>
       <c r="C9" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="118"/>
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -9582,22 +9979,22 @@
       <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="115" t="s">
         <v>214</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="116" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="108" t="s">
         <v>234</v>
       </c>
       <c r="J10" s="40"/>
@@ -9607,16 +10004,16 @@
       <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="107"/>
+      <c r="D11" s="117"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
       <c r="L11" s="40"/>
@@ -9624,16 +10021,16 @@
       <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="105"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
       <c r="L12" s="40"/>
@@ -9641,16 +10038,16 @@
       <c r="N12" s="40"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="105"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="107"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
       <c r="L13" s="40"/>
@@ -9658,16 +10055,16 @@
       <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="105"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
       <c r="L14" s="40"/>
@@ -9675,16 +10072,16 @@
       <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="105"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="D15" s="108"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
@@ -9692,22 +10089,22 @@
       <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="115" t="s">
         <v>215</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="108" t="s">
         <v>286</v>
       </c>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="108" t="s">
         <v>234</v>
       </c>
       <c r="J16" s="40"/>
@@ -9717,16 +10114,16 @@
       <c r="N16" s="40"/>
     </row>
     <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="110"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
       <c r="L17" s="40"/>
@@ -9734,16 +10131,16 @@
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="111"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
@@ -9776,10 +10173,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L45"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9796,37 +10193,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="122" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="123" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="114"/>
-      <c r="F4" s="112" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="F4" s="123" t="s">
         <v>408</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="114"/>
-      <c r="J4" s="112" t="s">
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="J4" s="123" t="s">
         <v>399</v>
       </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="66" t="s">
@@ -9857,7 +10254,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="56" t="s">
         <v>395</v>
       </c>
@@ -9886,7 +10283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="57" t="s">
         <v>238</v>
       </c>
@@ -9896,13 +10293,13 @@
       <c r="D7" s="63">
         <v>64</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="126" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="127" t="s">
         <v>392</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="128">
         <v>10</v>
       </c>
       <c r="J7" s="34" t="s">
@@ -9925,13 +10322,13 @@
       <c r="D8" s="63">
         <v>64</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="126" t="s">
         <v>411</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="128">
         <v>10</v>
       </c>
       <c r="J8" s="34" t="s">
@@ -9944,7 +10341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="57" t="s">
         <v>239</v>
       </c>
@@ -9954,13 +10351,13 @@
       <c r="D9" s="63">
         <v>64</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="H9" s="65">
+      <c r="H9" s="63">
         <v>16</v>
       </c>
       <c r="J9" s="36" t="s">
@@ -9983,6 +10380,15 @@
       <c r="D10" s="63">
         <v>1</v>
       </c>
+      <c r="F10" s="142" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>391</v>
+      </c>
+      <c r="H10" s="128">
+        <v>1</v>
+      </c>
       <c r="J10" s="34" t="s">
         <v>266</v>
       </c>
@@ -9993,7 +10399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
         <v>296</v>
       </c>
@@ -10003,6 +10409,15 @@
       <c r="D11" s="63">
         <v>1</v>
       </c>
+      <c r="F11" s="142" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="128">
+        <v>1</v>
+      </c>
       <c r="J11" s="34" t="s">
         <v>267</v>
       </c>
@@ -10013,7 +10428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="57" t="s">
         <v>246</v>
       </c>
@@ -10023,11 +10438,6 @@
       <c r="D12" s="63">
         <v>16</v>
       </c>
-      <c r="F12" s="112" t="s">
-        <v>397</v>
-      </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
       <c r="J12" s="34" t="s">
         <v>269</v>
       </c>
@@ -10038,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="57" t="s">
         <v>310</v>
       </c>
@@ -10048,15 +10458,6 @@
       <c r="D13" s="63">
         <v>64</v>
       </c>
-      <c r="F13" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="J13" s="34" t="s">
         <v>270</v>
       </c>
@@ -10067,7 +10468,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="57" t="s">
         <v>241</v>
       </c>
@@ -10077,15 +10478,14 @@
       <c r="D14" s="63">
         <v>64</v>
       </c>
-      <c r="F14" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="H14" s="61">
-        <v>10</v>
-      </c>
+      <c r="E14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="129" t="s">
+        <v>397</v>
+      </c>
+      <c r="G14" s="130"/>
+      <c r="H14" s="131"/>
       <c r="J14" s="34" t="s">
         <v>271</v>
       </c>
@@ -10096,7 +10496,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="57" t="s">
         <v>284</v>
       </c>
@@ -10106,14 +10506,14 @@
       <c r="D15" s="63">
         <v>64</v>
       </c>
-      <c r="F15" s="115" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H15" s="116">
-        <v>64</v>
+      <c r="F15" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>389</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>273</v>
@@ -10135,14 +10535,14 @@
       <c r="D16" s="63">
         <v>16</v>
       </c>
-      <c r="F16" s="115" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H16" s="116">
-        <v>64</v>
+      <c r="F16" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="61">
+        <v>10</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>272</v>
@@ -10164,14 +10564,14 @@
       <c r="D17" s="63">
         <v>254</v>
       </c>
-      <c r="F17" s="115" t="s">
-        <v>240</v>
+      <c r="F17" s="68" t="s">
+        <v>238</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>391</v>
-      </c>
-      <c r="H17" s="116">
-        <v>1</v>
+        <v>390</v>
+      </c>
+      <c r="H17" s="69">
+        <v>64</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>274</v>
@@ -10193,14 +10593,14 @@
       <c r="D18" s="63">
         <v>1</v>
       </c>
-      <c r="F18" s="115" t="s">
-        <v>401</v>
+      <c r="F18" s="68" t="s">
+        <v>239</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="H18" s="116">
-        <v>10</v>
+        <v>390</v>
+      </c>
+      <c r="H18" s="69">
+        <v>64</v>
       </c>
       <c r="J18" s="34" t="s">
         <v>292</v>
@@ -10222,14 +10622,14 @@
       <c r="D19" s="63">
         <v>128</v>
       </c>
-      <c r="F19" s="115" t="s">
-        <v>260</v>
+      <c r="F19" s="68" t="s">
+        <v>240</v>
       </c>
       <c r="G19" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H19" s="116">
-        <v>128</v>
+        <v>391</v>
+      </c>
+      <c r="H19" s="69">
+        <v>1</v>
       </c>
       <c r="J19" s="59" t="s">
         <v>400</v>
@@ -10251,14 +10651,14 @@
       <c r="D20" s="63">
         <v>64</v>
       </c>
-      <c r="F20" s="115" t="s">
-        <v>248</v>
+      <c r="F20" s="68" t="s">
+        <v>401</v>
       </c>
       <c r="G20" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H20" s="116">
-        <v>16</v>
+        <v>392</v>
+      </c>
+      <c r="H20" s="69">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10271,14 +10671,14 @@
       <c r="D21" s="63">
         <v>4</v>
       </c>
-      <c r="F21" s="115" t="s">
-        <v>249</v>
+      <c r="F21" s="68" t="s">
+        <v>260</v>
       </c>
       <c r="G21" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="H21" s="116">
-        <v>254</v>
+      <c r="H21" s="69">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10291,20 +10691,20 @@
       <c r="D22" s="63">
         <v>1</v>
       </c>
-      <c r="F22" s="115" t="s">
-        <v>284</v>
+      <c r="F22" s="68" t="s">
+        <v>248</v>
       </c>
       <c r="G22" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="H22" s="116">
-        <v>64</v>
-      </c>
-      <c r="J22" s="112" t="s">
+      <c r="H22" s="69">
+        <v>16</v>
+      </c>
+      <c r="J22" s="123" t="s">
         <v>405</v>
       </c>
-      <c r="K22" s="113"/>
-      <c r="L22" s="114"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="125"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="58" t="s">
@@ -10316,14 +10716,14 @@
       <c r="D23" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="F23" s="58" t="s">
-        <v>398</v>
+      <c r="F23" s="68" t="s">
+        <v>249</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>394</v>
-      </c>
-      <c r="H23" s="63">
-        <v>16</v>
+        <v>390</v>
+      </c>
+      <c r="H23" s="69">
+        <v>254</v>
       </c>
       <c r="J23" s="66" t="s">
         <v>387</v>
@@ -10335,7 +10735,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="58" t="s">
         <v>254</v>
       </c>
@@ -10345,14 +10745,14 @@
       <c r="D24" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="F24" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="H24" s="65">
-        <v>10</v>
+      <c r="F24" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="H24" s="69">
+        <v>64</v>
       </c>
       <c r="J24" s="56" t="s">
         <v>406</v>
@@ -10374,6 +10774,15 @@
       <c r="D25" s="63">
         <v>10</v>
       </c>
+      <c r="F25" s="58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="63">
+        <v>16</v>
+      </c>
       <c r="J25" s="34" t="s">
         <v>407</v>
       </c>
@@ -10394,6 +10803,15 @@
       <c r="D26" s="63">
         <v>10</v>
       </c>
+      <c r="F26" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="65">
+        <v>10</v>
+      </c>
       <c r="J26" s="34" t="s">
         <v>261</v>
       </c>
@@ -10404,7 +10822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="58" t="s">
         <v>398</v>
       </c>
@@ -10414,11 +10832,6 @@
       <c r="D27" s="63">
         <v>16</v>
       </c>
-      <c r="F27" s="112" t="s">
-        <v>416</v>
-      </c>
-      <c r="G27" s="113"/>
-      <c r="H27" s="114"/>
       <c r="J27" s="34" t="s">
         <v>263</v>
       </c>
@@ -10439,15 +10852,6 @@
       <c r="D28" s="65">
         <v>10</v>
       </c>
-      <c r="F28" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="G28" s="67" t="s">
-        <v>388</v>
-      </c>
-      <c r="H28" s="67" t="s">
-        <v>389</v>
-      </c>
       <c r="J28" s="34" t="s">
         <v>248</v>
       </c>
@@ -10458,16 +10862,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F29" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="H29" s="61">
-        <v>10</v>
-      </c>
+    <row r="29" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="123" t="s">
+        <v>416</v>
+      </c>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
       <c r="J29" s="34" t="s">
         <v>262</v>
       </c>
@@ -10479,14 +10879,14 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="115" t="s">
-        <v>221</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H30" s="63">
-        <v>32</v>
+      <c r="F30" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="G30" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="H30" s="67" t="s">
+        <v>389</v>
       </c>
       <c r="J30" s="59" t="s">
         <v>398</v>
@@ -10499,19 +10899,19 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="123" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
-      <c r="F31" s="115" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="62" t="s">
-        <v>390</v>
-      </c>
-      <c r="H31" s="63">
-        <v>128</v>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="F31" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="61">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10524,14 +10924,14 @@
       <c r="D32" s="67" t="s">
         <v>389</v>
       </c>
-      <c r="F32" s="117" t="s">
-        <v>418</v>
-      </c>
-      <c r="G32" s="64" t="s">
+      <c r="F32" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="H32" s="65">
-        <v>16</v>
+      <c r="H32" s="63">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -10544,8 +10944,17 @@
       <c r="D33" s="61">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F33" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="H33" s="63">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="57" t="s">
         <v>238</v>
       </c>
@@ -10554,6 +10963,15 @@
       </c>
       <c r="D34" s="63">
         <v>64</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="H34" s="65">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -10578,7 +10996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="57" t="s">
         <v>240</v>
       </c>
@@ -10588,14 +11006,8 @@
       <c r="D37" s="63">
         <v>1</v>
       </c>
-      <c r="F37" s="118" t="s">
-        <v>422</v>
-      </c>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="57" t="s">
         <v>246</v>
       </c>
@@ -10605,18 +11017,8 @@
       <c r="D38" s="63">
         <v>16</v>
       </c>
-      <c r="F38" s="119" t="s">
-        <v>419</v>
-      </c>
-      <c r="G38" s="119" t="s">
-        <v>420</v>
-      </c>
-      <c r="H38" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="I38" s="120"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="57" t="s">
         <v>241</v>
       </c>
@@ -10626,18 +11028,14 @@
       <c r="D39" s="63">
         <v>64</v>
       </c>
-      <c r="F39" s="121" t="s">
-        <v>396</v>
-      </c>
-      <c r="G39" s="122" t="s">
-        <v>408</v>
-      </c>
-      <c r="H39" s="123" t="s">
-        <v>423</v>
-      </c>
-      <c r="I39" s="124"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="140" t="s">
+        <v>422</v>
+      </c>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="57" t="s">
         <v>284</v>
       </c>
@@ -10647,16 +11045,16 @@
       <c r="D40" s="63">
         <v>64</v>
       </c>
-      <c r="F40" s="125" t="s">
-        <v>408</v>
-      </c>
-      <c r="G40" s="126" t="s">
-        <v>399</v>
-      </c>
-      <c r="H40" s="127" t="s">
-        <v>423</v>
-      </c>
-      <c r="I40" s="128"/>
+      <c r="F40" s="71" t="s">
+        <v>419</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="H40" s="138" t="s">
+        <v>421</v>
+      </c>
+      <c r="I40" s="139"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
@@ -10668,16 +11066,16 @@
       <c r="D41" s="63">
         <v>16</v>
       </c>
-      <c r="F41" s="125" t="s">
-        <v>399</v>
-      </c>
-      <c r="G41" s="126" t="s">
-        <v>405</v>
-      </c>
-      <c r="H41" s="127" t="s">
-        <v>424</v>
-      </c>
-      <c r="I41" s="128"/>
+      <c r="F41" s="72" t="s">
+        <v>396</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="H41" s="136" t="s">
+        <v>423</v>
+      </c>
+      <c r="I41" s="137"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="57" t="s">
@@ -10689,16 +11087,16 @@
       <c r="D42" s="63">
         <v>254</v>
       </c>
-      <c r="F42" s="125" t="s">
-        <v>397</v>
-      </c>
-      <c r="G42" s="126" t="s">
-        <v>405</v>
-      </c>
-      <c r="H42" s="127" t="s">
-        <v>425</v>
-      </c>
-      <c r="I42" s="128"/>
+      <c r="F42" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="G42" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="H42" s="134" t="s">
+        <v>423</v>
+      </c>
+      <c r="I42" s="135"/>
     </row>
     <row r="43" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="59" t="s">
@@ -10710,60 +11108,84 @@
       <c r="D43" s="65">
         <v>10</v>
       </c>
-      <c r="F43" s="125" t="s">
+      <c r="F43" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="G43" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="H43" s="134" t="s">
+        <v>424</v>
+      </c>
+      <c r="I43" s="135"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="74" t="s">
+        <v>397</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="H44" s="134" t="s">
+        <v>425</v>
+      </c>
+      <c r="I44" s="135"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="G43" s="126" t="s">
+      <c r="G45" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="H43" s="127" t="s">
+      <c r="H45" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="I43" s="128"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="125" t="s">
+      <c r="I45" s="135"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="G44" s="126" t="s">
+      <c r="G46" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="H44" s="127" t="s">
+      <c r="H46" s="134" t="s">
         <v>425</v>
       </c>
-      <c r="I44" s="128"/>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F45" s="129" t="s">
+      <c r="I46" s="135"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="76" t="s">
         <v>416</v>
       </c>
-      <c r="G45" s="130" t="s">
+      <c r="G47" s="77" t="s">
         <v>413</v>
       </c>
-      <c r="H45" s="131" t="s">
+      <c r="H47" s="132" t="s">
         <v>425</v>
       </c>
-      <c r="I45" s="132"/>
+      <c r="I47" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="B2:L2"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J22:L22"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Form SpecificationsV0.1_DRAFT.xlsx
+++ b/Form SpecificationsV0.1_DRAFT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="607">
   <si>
     <t xml:space="preserve"> Specifications Author:</t>
   </si>
@@ -3045,6 +3045,52 @@
         <family val="1"/>
       </rPr>
       <t>( foreign key )</t>
+    </r>
+  </si>
+  <si>
+    <t>COUNTRIES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>COUNTRY_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( primary key )</t>
+    </r>
+  </si>
+  <si>
+    <t>COUNTRY_NAME</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>COUNTRY_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( foreign key )</t>
     </r>
   </si>
 </sst>
@@ -3575,7 +3621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3881,6 +3927,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3888,6 +3964,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3899,19 +3981,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3920,61 +3993,34 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4019,53 +4065,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4086,10 +4093,53 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4739,7 +4789,7 @@
       </c>
     </row>
     <row r="2" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="131" t="s">
         <v>140</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -4754,7 +4804,7 @@
       <c r="F2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="111" t="s">
+      <c r="G2" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="35" t="s">
@@ -4776,7 +4826,7 @@
       </c>
     </row>
     <row r="3" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="123"/>
+      <c r="B3" s="132"/>
       <c r="C3" s="24" t="s">
         <v>37</v>
       </c>
@@ -4789,7 +4839,7 @@
       <c r="F3" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="G3" s="112"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="35">
         <v>32</v>
       </c>
@@ -4810,7 +4860,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="123"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="24" t="s">
         <v>38</v>
       </c>
@@ -4823,7 +4873,7 @@
       <c r="F4" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="112"/>
+      <c r="G4" s="122"/>
       <c r="H4" s="35">
         <v>128</v>
       </c>
@@ -4843,7 +4893,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="123"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="24" t="s">
         <v>95</v>
       </c>
@@ -4856,7 +4906,7 @@
       <c r="F5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="112"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="35" t="s">
         <v>24</v>
       </c>
@@ -4870,7 +4920,7 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="123"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="24" t="s">
         <v>44</v>
       </c>
@@ -4883,7 +4933,7 @@
       <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="112"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="35" t="s">
         <v>24</v>
       </c>
@@ -4897,7 +4947,7 @@
       <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="123"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="24" t="s">
         <v>39</v>
       </c>
@@ -4910,7 +4960,7 @@
       <c r="F7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="35" t="s">
         <v>24</v>
       </c>
@@ -4924,7 +4974,7 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="123"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="24" t="s">
         <v>211</v>
       </c>
@@ -4937,7 +4987,7 @@
       <c r="F8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="35" t="s">
         <v>24</v>
       </c>
@@ -4951,7 +5001,7 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="123"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="30" t="s">
         <v>40</v>
       </c>
@@ -4964,7 +5014,7 @@
       <c r="F9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="113"/>
+      <c r="G9" s="123"/>
       <c r="H9" s="35" t="s">
         <v>24</v>
       </c>
@@ -4978,7 +5028,7 @@
       <c r="N9" s="31"/>
     </row>
     <row r="10" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="116" t="s">
         <v>141</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -5009,7 +5059,7 @@
       <c r="N10" s="31"/>
     </row>
     <row r="11" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="125"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="24" t="s">
         <v>293</v>
       </c>
@@ -5038,7 +5088,7 @@
       <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="125"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="24" t="s">
         <v>32</v>
       </c>
@@ -5067,7 +5117,7 @@
       <c r="N12" s="31"/>
     </row>
     <row r="13" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="125"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="24" t="s">
         <v>151</v>
       </c>
@@ -5096,7 +5146,7 @@
       <c r="N13" s="31"/>
     </row>
     <row r="14" spans="2:16" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="24" t="s">
         <v>283</v>
       </c>
@@ -5125,7 +5175,7 @@
       <c r="N14" s="32"/>
     </row>
     <row r="15" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="125"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="24" t="s">
         <v>153</v>
       </c>
@@ -5154,7 +5204,7 @@
       <c r="N15" s="31"/>
     </row>
     <row r="16" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="125"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="33" t="s">
         <v>296</v>
       </c>
@@ -5185,7 +5235,7 @@
       <c r="P16" s="16"/>
     </row>
     <row r="17" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="125"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="24" t="s">
         <v>48</v>
       </c>
@@ -5214,7 +5264,7 @@
       <c r="N17" s="31"/>
     </row>
     <row r="18" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="125"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="24" t="s">
         <v>126</v>
       </c>
@@ -5243,7 +5293,7 @@
       <c r="N18" s="31"/>
     </row>
     <row r="19" spans="2:16" s="25" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="125"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="24" t="s">
         <v>56</v>
       </c>
@@ -5272,7 +5322,7 @@
       <c r="N19" s="31"/>
     </row>
     <row r="20" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="125"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="33" t="s">
         <v>35</v>
       </c>
@@ -5285,7 +5335,7 @@
       <c r="F20" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="35">
@@ -5301,7 +5351,7 @@
       <c r="N20" s="31"/>
     </row>
     <row r="21" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="125"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="24" t="s">
         <v>124</v>
       </c>
@@ -5314,7 +5364,7 @@
       <c r="F21" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="112"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="35">
         <v>64</v>
       </c>
@@ -5328,7 +5378,7 @@
       <c r="N21" s="31"/>
     </row>
     <row r="22" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="125"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="24" t="s">
         <v>55</v>
       </c>
@@ -5341,7 +5391,7 @@
       <c r="F22" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="112"/>
+      <c r="G22" s="122"/>
       <c r="H22" s="35">
         <v>4</v>
       </c>
@@ -5355,7 +5405,7 @@
       <c r="N22" s="31"/>
     </row>
     <row r="23" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="125"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="24" t="s">
         <v>50</v>
       </c>
@@ -5368,7 +5418,7 @@
       <c r="F23" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="G23" s="112"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="35">
         <v>16</v>
       </c>
@@ -5382,7 +5432,7 @@
       <c r="N23" s="31"/>
     </row>
     <row r="24" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="125"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="42" t="s">
         <v>49</v>
       </c>
@@ -5395,7 +5445,7 @@
       <c r="F24" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="G24" s="112"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="35">
         <v>254</v>
       </c>
@@ -5409,7 +5459,7 @@
       <c r="N24" s="31"/>
     </row>
     <row r="25" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="136"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="24" t="s">
         <v>127</v>
       </c>
@@ -5422,7 +5472,7 @@
       <c r="F25" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="G25" s="112"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="35">
         <v>254</v>
       </c>
@@ -5436,7 +5486,7 @@
       <c r="N25" s="31"/>
     </row>
     <row r="26" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="136"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="24" t="s">
         <v>271</v>
       </c>
@@ -5449,7 +5499,7 @@
       <c r="F26" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="G26" s="112"/>
+      <c r="G26" s="122"/>
       <c r="H26" s="35">
         <v>64</v>
       </c>
@@ -5463,7 +5513,7 @@
       <c r="N26" s="31"/>
     </row>
     <row r="27" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="136"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="23" t="s">
         <v>37</v>
       </c>
@@ -5476,7 +5526,7 @@
       <c r="F27" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="G27" s="112"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="35">
         <v>32</v>
       </c>
@@ -5490,7 +5540,7 @@
       <c r="N27" s="31"/>
     </row>
     <row r="28" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="125"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="43" t="s">
         <v>38</v>
       </c>
@@ -5503,7 +5553,7 @@
       <c r="F28" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G28" s="112"/>
+      <c r="G28" s="122"/>
       <c r="H28" s="35">
         <v>128</v>
       </c>
@@ -5517,7 +5567,7 @@
       <c r="N28" s="31"/>
     </row>
     <row r="29" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="125"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="33" t="s">
         <v>125</v>
       </c>
@@ -5530,7 +5580,7 @@
       <c r="F29" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="112"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="35" t="s">
         <v>24</v>
       </c>
@@ -5544,7 +5594,7 @@
       <c r="N29" s="31"/>
     </row>
     <row r="30" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="126"/>
+      <c r="B30" s="130"/>
       <c r="C30" s="33" t="s">
         <v>40</v>
       </c>
@@ -5557,7 +5607,7 @@
       <c r="F30" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="113"/>
+      <c r="G30" s="123"/>
       <c r="H30" s="35" t="s">
         <v>24</v>
       </c>
@@ -5577,13 +5627,13 @@
       </c>
     </row>
     <row r="31" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="131" t="s">
         <v>346</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="127" t="s">
+      <c r="D31" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="23" t="s">
@@ -5608,11 +5658,11 @@
       <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="123"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="128"/>
+      <c r="D32" s="112"/>
       <c r="E32" s="23" t="s">
         <v>303</v>
       </c>
@@ -5635,11 +5685,11 @@
       <c r="N32" s="32"/>
     </row>
     <row r="33" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="123"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="D33" s="128"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="23" t="s">
         <v>24</v>
       </c>
@@ -5662,11 +5712,11 @@
       <c r="N33" s="32"/>
     </row>
     <row r="34" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="137"/>
+      <c r="B34" s="142"/>
       <c r="C34" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="D34" s="129"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="23" t="s">
         <v>24</v>
       </c>
@@ -5689,13 +5739,13 @@
       <c r="N34" s="32"/>
     </row>
     <row r="35" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="124" t="s">
+      <c r="B35" s="116" t="s">
         <v>354</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="23" t="s">
@@ -5722,11 +5772,11 @@
       <c r="P35" s="16"/>
     </row>
     <row r="36" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="125"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D36" s="128"/>
+      <c r="D36" s="112"/>
       <c r="E36" s="23" t="s">
         <v>24</v>
       </c>
@@ -5751,11 +5801,11 @@
       <c r="P36" s="16"/>
     </row>
     <row r="37" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="125"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="128"/>
+      <c r="D37" s="112"/>
       <c r="E37" s="23" t="s">
         <v>24</v>
       </c>
@@ -5780,11 +5830,11 @@
       <c r="P37" s="16"/>
     </row>
     <row r="38" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="125"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="128"/>
+      <c r="D38" s="112"/>
       <c r="E38" s="23" t="s">
         <v>24</v>
       </c>
@@ -5809,11 +5859,11 @@
       <c r="P38" s="16"/>
     </row>
     <row r="39" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="125"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="D39" s="128"/>
+      <c r="D39" s="112"/>
       <c r="E39" s="23" t="s">
         <v>24</v>
       </c>
@@ -5838,11 +5888,11 @@
       <c r="P39" s="16"/>
     </row>
     <row r="40" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="125"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="128"/>
+      <c r="D40" s="112"/>
       <c r="E40" s="23" t="s">
         <v>24</v>
       </c>
@@ -5867,11 +5917,11 @@
       <c r="P40" s="16"/>
     </row>
     <row r="41" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="125"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D41" s="128"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="23" t="s">
         <v>24</v>
       </c>
@@ -5896,11 +5946,11 @@
       <c r="P41" s="16"/>
     </row>
     <row r="42" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="125"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="128"/>
+      <c r="D42" s="112"/>
       <c r="E42" s="23" t="s">
         <v>24</v>
       </c>
@@ -5925,11 +5975,11 @@
       <c r="P42" s="16"/>
     </row>
     <row r="43" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="125"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D43" s="128"/>
+      <c r="D43" s="112"/>
       <c r="E43" s="23" t="s">
         <v>24</v>
       </c>
@@ -5954,11 +6004,11 @@
       <c r="P43" s="16"/>
     </row>
     <row r="44" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="125"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="128"/>
+      <c r="D44" s="112"/>
       <c r="E44" s="23" t="s">
         <v>24</v>
       </c>
@@ -5983,11 +6033,11 @@
       <c r="P44" s="16"/>
     </row>
     <row r="45" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="125"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="128"/>
+      <c r="D45" s="112"/>
       <c r="E45" s="23" t="s">
         <v>24</v>
       </c>
@@ -6012,11 +6062,11 @@
       <c r="P45" s="16"/>
     </row>
     <row r="46" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="126"/>
+      <c r="B46" s="130"/>
       <c r="C46" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="D46" s="129"/>
+      <c r="D46" s="113"/>
       <c r="E46" s="49" t="s">
         <v>347</v>
       </c>
@@ -6039,13 +6089,13 @@
       <c r="N46" s="24"/>
     </row>
     <row r="47" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="126" t="s">
         <v>307</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="23" t="s">
@@ -6072,11 +6122,11 @@
       <c r="P47" s="16"/>
     </row>
     <row r="48" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="115"/>
+      <c r="B48" s="127"/>
       <c r="C48" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="132"/>
+      <c r="D48" s="120"/>
       <c r="E48" s="23" t="s">
         <v>24</v>
       </c>
@@ -6101,11 +6151,11 @@
       <c r="P48" s="16"/>
     </row>
     <row r="49" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="115"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="132"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="23" t="s">
         <v>24</v>
       </c>
@@ -6130,11 +6180,11 @@
       <c r="P49" s="16"/>
     </row>
     <row r="50" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="115"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="132"/>
+      <c r="D50" s="120"/>
       <c r="E50" s="23" t="s">
         <v>24</v>
       </c>
@@ -6159,11 +6209,11 @@
       <c r="P50" s="16"/>
     </row>
     <row r="51" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="115"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="132"/>
+      <c r="D51" s="120"/>
       <c r="E51" s="23" t="s">
         <v>24</v>
       </c>
@@ -6188,11 +6238,11 @@
       <c r="P51" s="16"/>
     </row>
     <row r="52" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="115"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="132"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="23" t="s">
         <v>24</v>
       </c>
@@ -6217,11 +6267,11 @@
       <c r="P52" s="16"/>
     </row>
     <row r="53" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="115"/>
+      <c r="B53" s="127"/>
       <c r="C53" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D53" s="132"/>
+      <c r="D53" s="120"/>
       <c r="E53" s="21" t="s">
         <v>24</v>
       </c>
@@ -6246,11 +6296,11 @@
       <c r="P53" s="16"/>
     </row>
     <row r="54" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="115"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="D54" s="132"/>
+      <c r="D54" s="120"/>
       <c r="E54" s="49" t="s">
         <v>345</v>
       </c>
@@ -6273,11 +6323,11 @@
       <c r="N54" s="24"/>
     </row>
     <row r="55" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="116"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="133"/>
+      <c r="D55" s="129"/>
       <c r="E55" s="49" t="s">
         <v>308</v>
       </c>
@@ -6300,25 +6350,25 @@
       <c r="N55" s="24"/>
     </row>
     <row r="56" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="124" t="s">
+      <c r="B56" s="116" t="s">
         <v>309</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="127" t="s">
+      <c r="D56" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F56" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" s="111" t="s">
+      <c r="F56" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="121" t="s">
         <v>24</v>
       </c>
       <c r="I56" s="23" t="s">
@@ -6331,17 +6381,17 @@
       <c r="N56" s="32"/>
     </row>
     <row r="57" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="125"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="D57" s="128"/>
+      <c r="D57" s="112"/>
       <c r="E57" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
       <c r="I57" s="23" t="s">
         <v>27</v>
       </c>
@@ -6352,17 +6402,17 @@
       <c r="N57" s="32"/>
     </row>
     <row r="58" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="125"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="D58" s="128"/>
+      <c r="D58" s="112"/>
       <c r="E58" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
       <c r="I58" s="23" t="s">
         <v>43</v>
       </c>
@@ -6373,17 +6423,17 @@
       <c r="N58" s="32"/>
     </row>
     <row r="59" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="126"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="D59" s="129"/>
+      <c r="D59" s="113"/>
       <c r="E59" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
       <c r="I59" s="23" t="s">
         <v>43</v>
       </c>
@@ -6394,7 +6444,7 @@
       <c r="N59" s="32"/>
     </row>
     <row r="60" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="124" t="s">
+      <c r="B60" s="116" t="s">
         <v>316</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -6409,7 +6459,7 @@
       <c r="F60" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="G60" s="111" t="s">
+      <c r="G60" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H60" s="46">
@@ -6425,7 +6475,7 @@
       <c r="N60" s="32"/>
     </row>
     <row r="61" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="125"/>
+      <c r="B61" s="117"/>
       <c r="C61" s="33" t="s">
         <v>38</v>
       </c>
@@ -6438,7 +6488,7 @@
       <c r="F61" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="G61" s="112"/>
+      <c r="G61" s="122"/>
       <c r="H61" s="46">
         <v>128</v>
       </c>
@@ -6452,7 +6502,7 @@
       <c r="N61" s="32"/>
     </row>
     <row r="62" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="125"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="33" t="s">
         <v>317</v>
       </c>
@@ -6465,7 +6515,7 @@
       <c r="F62" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="G62" s="112"/>
+      <c r="G62" s="122"/>
       <c r="H62" s="46">
         <v>32</v>
       </c>
@@ -6479,7 +6529,7 @@
       <c r="N62" s="32"/>
     </row>
     <row r="63" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="125"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="33" t="s">
         <v>318</v>
       </c>
@@ -6492,7 +6542,7 @@
       <c r="F63" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="112"/>
+      <c r="G63" s="122"/>
       <c r="H63" s="46" t="s">
         <v>24</v>
       </c>
@@ -6506,7 +6556,7 @@
       <c r="N63" s="32"/>
     </row>
     <row r="64" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="126"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="33" t="s">
         <v>319</v>
       </c>
@@ -6519,7 +6569,7 @@
       <c r="F64" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="113"/>
+      <c r="G64" s="123"/>
       <c r="H64" s="46" t="s">
         <v>24</v>
       </c>
@@ -6533,7 +6583,7 @@
       <c r="N64" s="32"/>
     </row>
     <row r="65" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="116" t="s">
         <v>330</v>
       </c>
       <c r="C65" s="33" t="s">
@@ -6548,7 +6598,7 @@
       <c r="F65" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="111" t="s">
+      <c r="G65" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H65" s="46">
@@ -6564,7 +6614,7 @@
       <c r="N65" s="32"/>
     </row>
     <row r="66" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="125"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="33" t="s">
         <v>332</v>
       </c>
@@ -6577,7 +6627,7 @@
       <c r="F66" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="G66" s="112"/>
+      <c r="G66" s="122"/>
       <c r="H66" s="46">
         <v>32</v>
       </c>
@@ -6591,7 +6641,7 @@
       <c r="N66" s="32"/>
     </row>
     <row r="67" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="125"/>
+      <c r="B67" s="117"/>
       <c r="C67" s="33" t="s">
         <v>333</v>
       </c>
@@ -6604,7 +6654,7 @@
       <c r="F67" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G67" s="112"/>
+      <c r="G67" s="122"/>
       <c r="H67" s="46" t="s">
         <v>24</v>
       </c>
@@ -6618,7 +6668,7 @@
       <c r="N67" s="32"/>
     </row>
     <row r="68" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="126"/>
+      <c r="B68" s="130"/>
       <c r="C68" s="33" t="s">
         <v>319</v>
       </c>
@@ -6631,7 +6681,7 @@
       <c r="F68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="113"/>
+      <c r="G68" s="123"/>
       <c r="H68" s="46" t="s">
         <v>24</v>
       </c>
@@ -6645,7 +6695,7 @@
       <c r="N68" s="32"/>
     </row>
     <row r="69" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="117" t="s">
+      <c r="B69" s="135" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="24" t="s">
@@ -6678,7 +6728,7 @@
       <c r="P69" s="16"/>
     </row>
     <row r="70" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="135"/>
+      <c r="B70" s="136"/>
       <c r="C70" s="24" t="s">
         <v>52</v>
       </c>
@@ -6709,7 +6759,7 @@
       <c r="P70" s="16"/>
     </row>
     <row r="71" spans="2:16" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="135"/>
+      <c r="B71" s="136"/>
       <c r="C71" s="24" t="s">
         <v>47</v>
       </c>
@@ -6740,7 +6790,7 @@
       <c r="P71" s="16"/>
     </row>
     <row r="72" spans="2:16" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="135"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="24" t="s">
         <v>154</v>
       </c>
@@ -6771,7 +6821,7 @@
       <c r="P72" s="16"/>
     </row>
     <row r="73" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="135"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="24" t="s">
         <v>271</v>
       </c>
@@ -6802,7 +6852,7 @@
       <c r="P73" s="16"/>
     </row>
     <row r="74" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="118"/>
+      <c r="B74" s="137"/>
       <c r="C74" s="24" t="s">
         <v>53</v>
       </c>
@@ -6833,7 +6883,7 @@
       <c r="P74" s="16"/>
     </row>
     <row r="75" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="135" t="s">
         <v>63</v>
       </c>
       <c r="C75" s="24" t="s">
@@ -6848,7 +6898,7 @@
       <c r="F75" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="G75" s="111" t="s">
+      <c r="G75" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H75" s="35">
@@ -6866,7 +6916,7 @@
       <c r="P75" s="16"/>
     </row>
     <row r="76" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="135"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="24" t="s">
         <v>60</v>
       </c>
@@ -6879,7 +6929,7 @@
       <c r="F76" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="G76" s="112"/>
+      <c r="G76" s="122"/>
       <c r="H76" s="35">
         <v>254</v>
       </c>
@@ -6895,7 +6945,7 @@
       <c r="P76" s="16"/>
     </row>
     <row r="77" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="118"/>
+      <c r="B77" s="137"/>
       <c r="C77" s="24" t="s">
         <v>61</v>
       </c>
@@ -6908,7 +6958,7 @@
       <c r="F77" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G77" s="113"/>
+      <c r="G77" s="123"/>
       <c r="H77" s="35" t="s">
         <v>24</v>
       </c>
@@ -6924,7 +6974,7 @@
       <c r="P77" s="16"/>
     </row>
     <row r="78" spans="2:16" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="117" t="s">
+      <c r="B78" s="135" t="s">
         <v>62</v>
       </c>
       <c r="C78" s="29" t="s">
@@ -6939,7 +6989,7 @@
       <c r="F78" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="G78" s="111" t="s">
+      <c r="G78" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H78" s="35">
@@ -6957,7 +7007,7 @@
       <c r="P78" s="16"/>
     </row>
     <row r="79" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="118"/>
+      <c r="B79" s="137"/>
       <c r="C79" s="29" t="s">
         <v>61</v>
       </c>
@@ -6970,7 +7020,7 @@
       <c r="F79" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G79" s="113"/>
+      <c r="G79" s="123"/>
       <c r="H79" s="35" t="s">
         <v>24</v>
       </c>
@@ -6986,7 +7036,7 @@
       <c r="P79" s="16"/>
     </row>
     <row r="80" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="119" t="s">
+      <c r="B80" s="139" t="s">
         <v>66</v>
       </c>
       <c r="C80" s="24" t="s">
@@ -7001,7 +7051,7 @@
       <c r="F80" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G80" s="111" t="s">
+      <c r="G80" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H80" s="35">
@@ -7017,7 +7067,7 @@
       <c r="N80" s="24"/>
     </row>
     <row r="81" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="120"/>
+      <c r="B81" s="141"/>
       <c r="C81" s="24" t="s">
         <v>61</v>
       </c>
@@ -7030,7 +7080,7 @@
       <c r="F81" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G81" s="113"/>
+      <c r="G81" s="123"/>
       <c r="H81" s="35" t="s">
         <v>24</v>
       </c>
@@ -7044,25 +7094,25 @@
       <c r="N81" s="24"/>
     </row>
     <row r="82" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="119" t="s">
+      <c r="B82" s="139" t="s">
         <v>289</v>
       </c>
       <c r="C82" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" s="111" t="s">
+      <c r="D82" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" s="121" t="s">
         <v>24</v>
       </c>
       <c r="I82" s="23" t="s">
@@ -7075,15 +7125,15 @@
       <c r="N82" s="24"/>
     </row>
     <row r="83" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="121"/>
+      <c r="B83" s="140"/>
       <c r="C83" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="D83" s="132"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="112"/>
-      <c r="G83" s="112"/>
-      <c r="H83" s="112"/>
+      <c r="D83" s="120"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="122"/>
+      <c r="G83" s="122"/>
+      <c r="H83" s="122"/>
       <c r="I83" s="23" t="s">
         <v>197</v>
       </c>
@@ -7094,15 +7144,15 @@
       <c r="N83" s="24"/>
     </row>
     <row r="84" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="120"/>
+      <c r="B84" s="141"/>
       <c r="C84" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D84" s="133"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="113"/>
-      <c r="G84" s="113"/>
-      <c r="H84" s="113"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="113"/>
+      <c r="F84" s="123"/>
+      <c r="G84" s="123"/>
+      <c r="H84" s="123"/>
       <c r="I84" s="23" t="s">
         <v>197</v>
       </c>
@@ -7113,13 +7163,13 @@
       <c r="N84" s="24"/>
     </row>
     <row r="85" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="114" t="s">
+      <c r="B85" s="126" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D85" s="131" t="s">
+      <c r="D85" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E85" s="49" t="s">
@@ -7144,11 +7194,11 @@
       <c r="N85" s="24"/>
     </row>
     <row r="86" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="115"/>
+      <c r="B86" s="127"/>
       <c r="C86" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="132"/>
+      <c r="D86" s="120"/>
       <c r="E86" s="49" t="s">
         <v>24</v>
       </c>
@@ -7171,11 +7221,11 @@
       <c r="N86" s="24"/>
     </row>
     <row r="87" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="115"/>
+      <c r="B87" s="127"/>
       <c r="C87" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="132"/>
+      <c r="D87" s="120"/>
       <c r="E87" s="49" t="s">
         <v>24</v>
       </c>
@@ -7198,11 +7248,11 @@
       <c r="N87" s="24"/>
     </row>
     <row r="88" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="115"/>
+      <c r="B88" s="127"/>
       <c r="C88" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D88" s="132"/>
+      <c r="D88" s="120"/>
       <c r="E88" s="49" t="s">
         <v>24</v>
       </c>
@@ -7224,11 +7274,11 @@
       <c r="N88" s="24"/>
     </row>
     <row r="89" spans="2:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="115"/>
+      <c r="B89" s="127"/>
       <c r="C89" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="D89" s="132"/>
+      <c r="D89" s="120"/>
       <c r="E89" s="49" t="s">
         <v>24</v>
       </c>
@@ -7250,11 +7300,11 @@
       <c r="N89" s="24"/>
     </row>
     <row r="90" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="115"/>
+      <c r="B90" s="127"/>
       <c r="C90" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="132"/>
+      <c r="D90" s="120"/>
       <c r="E90" s="49" t="s">
         <v>24</v>
       </c>
@@ -7279,11 +7329,11 @@
       <c r="P90"/>
     </row>
     <row r="91" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="115"/>
+      <c r="B91" s="127"/>
       <c r="C91" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D91" s="132"/>
+      <c r="D91" s="120"/>
       <c r="E91" s="49" t="s">
         <v>24</v>
       </c>
@@ -7308,11 +7358,11 @@
       <c r="P91"/>
     </row>
     <row r="92" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="115"/>
+      <c r="B92" s="127"/>
       <c r="C92" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D92" s="132"/>
+      <c r="D92" s="120"/>
       <c r="E92" s="49" t="s">
         <v>24</v>
       </c>
@@ -7337,11 +7387,11 @@
       <c r="P92"/>
     </row>
     <row r="93" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="115"/>
+      <c r="B93" s="127"/>
       <c r="C93" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="132"/>
+      <c r="D93" s="120"/>
       <c r="E93" s="49" t="s">
         <v>24</v>
       </c>
@@ -7366,11 +7416,11 @@
       <c r="P93"/>
     </row>
     <row r="94" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="115"/>
+      <c r="B94" s="127"/>
       <c r="C94" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="D94" s="132"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="49" t="s">
         <v>24</v>
       </c>
@@ -7395,11 +7445,11 @@
       <c r="P94"/>
     </row>
     <row r="95" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="116"/>
+      <c r="B95" s="128"/>
       <c r="C95" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D95" s="133"/>
+      <c r="D95" s="129"/>
       <c r="E95" s="49" t="s">
         <v>349</v>
       </c>
@@ -7422,7 +7472,7 @@
       <c r="N95" s="24"/>
     </row>
     <row r="96" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="114" t="s">
+      <c r="B96" s="126" t="s">
         <v>301</v>
       </c>
       <c r="C96" s="33" t="s">
@@ -7453,7 +7503,7 @@
       <c r="N96" s="24"/>
     </row>
     <row r="97" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="115"/>
+      <c r="B97" s="127"/>
       <c r="C97" s="33" t="s">
         <v>33</v>
       </c>
@@ -7482,7 +7532,7 @@
       <c r="N97" s="24"/>
     </row>
     <row r="98" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="115"/>
+      <c r="B98" s="127"/>
       <c r="C98" s="33" t="s">
         <v>293</v>
       </c>
@@ -7511,7 +7561,7 @@
       <c r="N98" s="24"/>
     </row>
     <row r="99" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="115"/>
+      <c r="B99" s="127"/>
       <c r="C99" s="33" t="s">
         <v>47</v>
       </c>
@@ -7540,7 +7590,7 @@
       <c r="N99" s="24"/>
     </row>
     <row r="100" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="115"/>
+      <c r="B100" s="127"/>
       <c r="C100" s="33" t="s">
         <v>283</v>
       </c>
@@ -7569,7 +7619,7 @@
       <c r="N100" s="24"/>
     </row>
     <row r="101" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="115"/>
+      <c r="B101" s="127"/>
       <c r="C101" s="33" t="s">
         <v>154</v>
       </c>
@@ -7598,7 +7648,7 @@
       <c r="N101" s="24"/>
     </row>
     <row r="102" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="115"/>
+      <c r="B102" s="127"/>
       <c r="C102" s="33" t="s">
         <v>296</v>
       </c>
@@ -7627,7 +7677,7 @@
       <c r="N102" s="24"/>
     </row>
     <row r="103" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="115"/>
+      <c r="B103" s="127"/>
       <c r="C103" s="33" t="s">
         <v>48</v>
       </c>
@@ -7656,7 +7706,7 @@
       <c r="N103" s="24"/>
     </row>
     <row r="104" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="115"/>
+      <c r="B104" s="127"/>
       <c r="C104" s="33" t="s">
         <v>271</v>
       </c>
@@ -7685,7 +7735,7 @@
       <c r="N104" s="24"/>
     </row>
     <row r="105" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="115"/>
+      <c r="B105" s="127"/>
       <c r="C105" s="33" t="s">
         <v>50</v>
       </c>
@@ -7714,7 +7764,7 @@
       <c r="N105" s="24"/>
     </row>
     <row r="106" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="115"/>
+      <c r="B106" s="127"/>
       <c r="C106" s="33" t="s">
         <v>49</v>
       </c>
@@ -7743,7 +7793,7 @@
       <c r="N106" s="24"/>
     </row>
     <row r="107" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="115"/>
+      <c r="B107" s="127"/>
       <c r="C107" s="33" t="s">
         <v>297</v>
       </c>
@@ -7772,7 +7822,7 @@
       <c r="N107" s="24"/>
     </row>
     <row r="108" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="115"/>
+      <c r="B108" s="127"/>
       <c r="C108" s="33" t="s">
         <v>81</v>
       </c>
@@ -7801,7 +7851,7 @@
       <c r="N108" s="24"/>
     </row>
     <row r="109" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="115"/>
+      <c r="B109" s="127"/>
       <c r="C109" s="33" t="s">
         <v>82</v>
       </c>
@@ -7830,7 +7880,7 @@
       <c r="N109" s="24"/>
     </row>
     <row r="110" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="114" t="s">
+      <c r="B110" s="126" t="s">
         <v>302</v>
       </c>
       <c r="C110" s="24" t="s">
@@ -7863,7 +7913,7 @@
       <c r="P110" s="16"/>
     </row>
     <row r="111" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="115"/>
+      <c r="B111" s="127"/>
       <c r="C111" s="24" t="s">
         <v>35</v>
       </c>
@@ -7894,7 +7944,7 @@
       <c r="P111" s="16"/>
     </row>
     <row r="112" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="115"/>
+      <c r="B112" s="127"/>
       <c r="C112" s="24" t="s">
         <v>34</v>
       </c>
@@ -7925,7 +7975,7 @@
       <c r="P112" s="16"/>
     </row>
     <row r="113" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="115"/>
+      <c r="B113" s="127"/>
       <c r="C113" s="24" t="s">
         <v>55</v>
       </c>
@@ -7956,7 +8006,7 @@
       <c r="P113" s="16"/>
     </row>
     <row r="114" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="115"/>
+      <c r="B114" s="127"/>
       <c r="C114" s="24" t="s">
         <v>57</v>
       </c>
@@ -7987,7 +8037,7 @@
       <c r="P114" s="16"/>
     </row>
     <row r="115" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="115"/>
+      <c r="B115" s="127"/>
       <c r="C115" s="24" t="s">
         <v>58</v>
       </c>
@@ -8018,7 +8068,7 @@
       <c r="P115" s="16"/>
     </row>
     <row r="116" spans="1:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="115"/>
+      <c r="B116" s="127"/>
       <c r="C116" s="24" t="s">
         <v>344</v>
       </c>
@@ -8049,7 +8099,7 @@
       <c r="P116" s="16"/>
     </row>
     <row r="117" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="115"/>
+      <c r="B117" s="127"/>
       <c r="C117" s="33" t="s">
         <v>343</v>
       </c>
@@ -8078,7 +8128,7 @@
       <c r="N117" s="24"/>
     </row>
     <row r="118" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="115"/>
+      <c r="B118" s="127"/>
       <c r="C118" s="33" t="s">
         <v>297</v>
       </c>
@@ -8107,7 +8157,7 @@
       <c r="N118" s="24"/>
     </row>
     <row r="119" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="115"/>
+      <c r="B119" s="127"/>
       <c r="C119" s="33" t="s">
         <v>81</v>
       </c>
@@ -8136,7 +8186,7 @@
       <c r="N119" s="24"/>
     </row>
     <row r="120" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="116"/>
+      <c r="B120" s="128"/>
       <c r="C120" s="33" t="s">
         <v>341</v>
       </c>
@@ -8166,7 +8216,7 @@
     </row>
     <row r="121" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="25"/>
-      <c r="B121" s="122" t="s">
+      <c r="B121" s="131" t="s">
         <v>138</v>
       </c>
       <c r="C121" s="24" t="s">
@@ -8181,7 +8231,7 @@
       <c r="F121" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G121" s="111" t="s">
+      <c r="G121" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H121" s="35" t="s">
@@ -8198,7 +8248,7 @@
     </row>
     <row r="122" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25"/>
-      <c r="B122" s="123"/>
+      <c r="B122" s="132"/>
       <c r="C122" s="24" t="s">
         <v>37</v>
       </c>
@@ -8211,7 +8261,7 @@
       <c r="F122" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="G122" s="112"/>
+      <c r="G122" s="122"/>
       <c r="H122" s="35">
         <v>32</v>
       </c>
@@ -8226,7 +8276,7 @@
     </row>
     <row r="123" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25"/>
-      <c r="B123" s="123"/>
+      <c r="B123" s="132"/>
       <c r="C123" s="24" t="s">
         <v>38</v>
       </c>
@@ -8239,7 +8289,7 @@
       <c r="F123" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G123" s="112"/>
+      <c r="G123" s="122"/>
       <c r="H123" s="35">
         <v>128</v>
       </c>
@@ -8254,7 +8304,7 @@
     </row>
     <row r="124" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25"/>
-      <c r="B124" s="123"/>
+      <c r="B124" s="132"/>
       <c r="C124" s="24" t="s">
         <v>95</v>
       </c>
@@ -8267,7 +8317,7 @@
       <c r="F124" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G124" s="112"/>
+      <c r="G124" s="122"/>
       <c r="H124" s="35" t="s">
         <v>24</v>
       </c>
@@ -8282,7 +8332,7 @@
     </row>
     <row r="125" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="25"/>
-      <c r="B125" s="123"/>
+      <c r="B125" s="132"/>
       <c r="C125" s="24" t="s">
         <v>44</v>
       </c>
@@ -8295,7 +8345,7 @@
       <c r="F125" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G125" s="112"/>
+      <c r="G125" s="122"/>
       <c r="H125" s="35" t="s">
         <v>24</v>
       </c>
@@ -8310,7 +8360,7 @@
     </row>
     <row r="126" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25"/>
-      <c r="B126" s="123"/>
+      <c r="B126" s="132"/>
       <c r="C126" s="30" t="s">
         <v>40</v>
       </c>
@@ -8323,7 +8373,7 @@
       <c r="F126" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G126" s="113"/>
+      <c r="G126" s="123"/>
       <c r="H126" s="35" t="s">
         <v>24</v>
       </c>
@@ -8338,7 +8388,7 @@
     </row>
     <row r="127" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25"/>
-      <c r="B127" s="124" t="s">
+      <c r="B127" s="116" t="s">
         <v>142</v>
       </c>
       <c r="C127" s="24" t="s">
@@ -8370,7 +8420,7 @@
     </row>
     <row r="128" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25"/>
-      <c r="B128" s="125"/>
+      <c r="B128" s="117"/>
       <c r="C128" s="24" t="s">
         <v>32</v>
       </c>
@@ -8402,7 +8452,7 @@
     </row>
     <row r="129" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="25"/>
-      <c r="B129" s="125"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="24" t="s">
         <v>47</v>
       </c>
@@ -8432,7 +8482,7 @@
     </row>
     <row r="130" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25"/>
-      <c r="B130" s="125"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="24" t="s">
         <v>145</v>
       </c>
@@ -8462,7 +8512,7 @@
     </row>
     <row r="131" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
-      <c r="B131" s="125"/>
+      <c r="B131" s="117"/>
       <c r="C131" s="24" t="s">
         <v>146</v>
       </c>
@@ -8492,7 +8542,7 @@
     </row>
     <row r="132" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="25"/>
-      <c r="B132" s="125"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="24" t="s">
         <v>50</v>
       </c>
@@ -8524,7 +8574,7 @@
     </row>
     <row r="133" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25"/>
-      <c r="B133" s="125"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="24" t="s">
         <v>49</v>
       </c>
@@ -8556,7 +8606,7 @@
     </row>
     <row r="134" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25"/>
-      <c r="B134" s="125"/>
+      <c r="B134" s="117"/>
       <c r="C134" s="24" t="s">
         <v>271</v>
       </c>
@@ -8588,7 +8638,7 @@
     </row>
     <row r="135" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
-      <c r="B135" s="125"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="23" t="s">
         <v>37</v>
       </c>
@@ -8620,7 +8670,7 @@
     </row>
     <row r="136" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25"/>
-      <c r="B136" s="125"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="24" t="s">
         <v>38</v>
       </c>
@@ -8652,7 +8702,7 @@
     </row>
     <row r="137" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25"/>
-      <c r="B137" s="125"/>
+      <c r="B137" s="117"/>
       <c r="C137" s="33" t="s">
         <v>125</v>
       </c>
@@ -8684,7 +8734,7 @@
     </row>
     <row r="138" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25"/>
-      <c r="B138" s="126"/>
+      <c r="B138" s="130"/>
       <c r="C138" s="33" t="s">
         <v>144</v>
       </c>
@@ -8715,25 +8765,25 @@
       <c r="P138"/>
     </row>
     <row r="139" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="119" t="s">
+      <c r="B139" s="139" t="s">
         <v>68</v>
       </c>
       <c r="C139" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D139" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="F139" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H139" s="111" t="s">
+      <c r="D139" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E139" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G139" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H139" s="121" t="s">
         <v>24</v>
       </c>
       <c r="I139" s="23" t="s">
@@ -8748,15 +8798,15 @@
       <c r="P139"/>
     </row>
     <row r="140" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="121"/>
+      <c r="B140" s="140"/>
       <c r="C140" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="128"/>
-      <c r="E140" s="128"/>
-      <c r="F140" s="112"/>
-      <c r="G140" s="112"/>
-      <c r="H140" s="112"/>
+      <c r="D140" s="112"/>
+      <c r="E140" s="112"/>
+      <c r="F140" s="122"/>
+      <c r="G140" s="122"/>
+      <c r="H140" s="122"/>
       <c r="I140" s="23" t="s">
         <v>197</v>
       </c>
@@ -8767,15 +8817,15 @@
       <c r="N140" s="24"/>
     </row>
     <row r="141" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="121"/>
+      <c r="B141" s="140"/>
       <c r="C141" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D141" s="128"/>
-      <c r="E141" s="128"/>
-      <c r="F141" s="112"/>
-      <c r="G141" s="112"/>
-      <c r="H141" s="112"/>
+      <c r="D141" s="112"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="122"/>
+      <c r="G141" s="122"/>
+      <c r="H141" s="122"/>
       <c r="I141" s="23" t="s">
         <v>197</v>
       </c>
@@ -8786,15 +8836,15 @@
       <c r="N141" s="24"/>
     </row>
     <row r="142" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="121"/>
+      <c r="B142" s="140"/>
       <c r="C142" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="128"/>
-      <c r="E142" s="128"/>
-      <c r="F142" s="112"/>
-      <c r="G142" s="112"/>
-      <c r="H142" s="112"/>
+      <c r="D142" s="112"/>
+      <c r="E142" s="112"/>
+      <c r="F142" s="122"/>
+      <c r="G142" s="122"/>
+      <c r="H142" s="122"/>
       <c r="I142" s="23" t="s">
         <v>197</v>
       </c>
@@ -8805,15 +8855,15 @@
       <c r="N142" s="24"/>
     </row>
     <row r="143" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="120"/>
+      <c r="B143" s="141"/>
       <c r="C143" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D143" s="129"/>
-      <c r="E143" s="129"/>
-      <c r="F143" s="113"/>
-      <c r="G143" s="113"/>
-      <c r="H143" s="113"/>
+      <c r="D143" s="113"/>
+      <c r="E143" s="113"/>
+      <c r="F143" s="123"/>
+      <c r="G143" s="123"/>
+      <c r="H143" s="123"/>
       <c r="I143" s="23" t="s">
         <v>197</v>
       </c>
@@ -8824,7 +8874,7 @@
       <c r="N143" s="24"/>
     </row>
     <row r="144" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="114" t="s">
+      <c r="B144" s="126" t="s">
         <v>74</v>
       </c>
       <c r="C144" s="24" t="s">
@@ -8857,7 +8907,7 @@
       <c r="P144"/>
     </row>
     <row r="145" spans="2:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="B145" s="115"/>
+      <c r="B145" s="127"/>
       <c r="C145" s="24" t="s">
         <v>75</v>
       </c>
@@ -8888,7 +8938,7 @@
       <c r="P145"/>
     </row>
     <row r="146" spans="2:16" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="115"/>
+      <c r="B146" s="127"/>
       <c r="C146" s="24" t="s">
         <v>561</v>
       </c>
@@ -8917,7 +8967,7 @@
       <c r="N146" s="95"/>
     </row>
     <row r="147" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="115"/>
+      <c r="B147" s="127"/>
       <c r="C147" s="24" t="s">
         <v>80</v>
       </c>
@@ -8946,7 +8996,7 @@
       <c r="P147"/>
     </row>
     <row r="148" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="115"/>
+      <c r="B148" s="127"/>
       <c r="C148" s="24" t="s">
         <v>76</v>
       </c>
@@ -8977,7 +9027,7 @@
       <c r="P148"/>
     </row>
     <row r="149" spans="2:16" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B149" s="115"/>
+      <c r="B149" s="127"/>
       <c r="C149" s="24" t="s">
         <v>85</v>
       </c>
@@ -9008,7 +9058,7 @@
       <c r="P149"/>
     </row>
     <row r="150" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="115"/>
+      <c r="B150" s="127"/>
       <c r="C150" s="24" t="s">
         <v>82</v>
       </c>
@@ -9039,7 +9089,7 @@
       <c r="P150"/>
     </row>
     <row r="151" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="126" t="s">
         <v>78</v>
       </c>
       <c r="C151" s="24" t="s">
@@ -9054,7 +9104,7 @@
       <c r="F151" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="G151" s="111" t="s">
+      <c r="G151" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H151" s="35">
@@ -9072,7 +9122,7 @@
       <c r="P151"/>
     </row>
     <row r="152" spans="2:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="115"/>
+      <c r="B152" s="127"/>
       <c r="C152" s="24" t="s">
         <v>79</v>
       </c>
@@ -9085,7 +9135,7 @@
       <c r="F152" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="G152" s="112"/>
+      <c r="G152" s="122"/>
       <c r="H152" s="35">
         <v>64</v>
       </c>
@@ -9101,7 +9151,7 @@
       <c r="P152"/>
     </row>
     <row r="153" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="115"/>
+      <c r="B153" s="127"/>
       <c r="C153" s="24" t="s">
         <v>80</v>
       </c>
@@ -9114,7 +9164,7 @@
       <c r="F153" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G153" s="112"/>
+      <c r="G153" s="122"/>
       <c r="H153" s="35">
         <v>254</v>
       </c>
@@ -9130,7 +9180,7 @@
       <c r="P153"/>
     </row>
     <row r="154" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B154" s="115"/>
+      <c r="B154" s="127"/>
       <c r="C154" s="24" t="s">
         <v>81</v>
       </c>
@@ -9143,7 +9193,7 @@
       <c r="F154" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G154" s="112"/>
+      <c r="G154" s="122"/>
       <c r="H154" s="35" t="s">
         <v>24</v>
       </c>
@@ -9159,7 +9209,7 @@
       <c r="P154"/>
     </row>
     <row r="155" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="116"/>
+      <c r="B155" s="128"/>
       <c r="C155" s="24" t="s">
         <v>82</v>
       </c>
@@ -9172,7 +9222,7 @@
       <c r="F155" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G155" s="113"/>
+      <c r="G155" s="123"/>
       <c r="H155" s="35" t="s">
         <v>24</v>
       </c>
@@ -9188,7 +9238,7 @@
       <c r="P155"/>
     </row>
     <row r="156" spans="2:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="B156" s="114" t="s">
+      <c r="B156" s="126" t="s">
         <v>83</v>
       </c>
       <c r="C156" s="24" t="s">
@@ -9221,7 +9271,7 @@
       <c r="P156"/>
     </row>
     <row r="157" spans="2:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B157" s="115"/>
+      <c r="B157" s="127"/>
       <c r="C157" s="33" t="s">
         <v>447</v>
       </c>
@@ -9249,7 +9299,7 @@
       <c r="N157" s="24"/>
     </row>
     <row r="158" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="115"/>
+      <c r="B158" s="127"/>
       <c r="C158" s="24" t="s">
         <v>86</v>
       </c>
@@ -9280,7 +9330,7 @@
       <c r="P158"/>
     </row>
     <row r="159" spans="2:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B159" s="115"/>
+      <c r="B159" s="127"/>
       <c r="C159" s="24" t="s">
         <v>87</v>
       </c>
@@ -9311,7 +9361,7 @@
       <c r="P159"/>
     </row>
     <row r="160" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="115"/>
+      <c r="B160" s="127"/>
       <c r="C160" s="24" t="s">
         <v>422</v>
       </c>
@@ -9342,7 +9392,7 @@
       <c r="P160"/>
     </row>
     <row r="161" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="115"/>
+      <c r="B161" s="127"/>
       <c r="C161" s="24" t="s">
         <v>81</v>
       </c>
@@ -9373,7 +9423,7 @@
       <c r="P161"/>
     </row>
     <row r="162" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="116"/>
+      <c r="B162" s="128"/>
       <c r="C162" s="24" t="s">
         <v>82</v>
       </c>
@@ -9404,7 +9454,7 @@
       <c r="P162"/>
     </row>
     <row r="163" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="114" t="s">
+      <c r="B163" s="126" t="s">
         <v>177</v>
       </c>
       <c r="C163" s="24" t="s">
@@ -9437,7 +9487,7 @@
       <c r="P163"/>
     </row>
     <row r="164" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B164" s="115"/>
+      <c r="B164" s="127"/>
       <c r="C164" s="24" t="s">
         <v>89</v>
       </c>
@@ -9468,7 +9518,7 @@
       <c r="P164"/>
     </row>
     <row r="165" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="115"/>
+      <c r="B165" s="127"/>
       <c r="C165" s="24" t="s">
         <v>81</v>
       </c>
@@ -9499,7 +9549,7 @@
       <c r="P165"/>
     </row>
     <row r="166" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="116"/>
+      <c r="B166" s="128"/>
       <c r="C166" s="24" t="s">
         <v>82</v>
       </c>
@@ -9530,7 +9580,7 @@
       <c r="P166"/>
     </row>
     <row r="167" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="114" t="s">
+      <c r="B167" s="126" t="s">
         <v>178</v>
       </c>
       <c r="C167" s="24" t="s">
@@ -9563,7 +9613,7 @@
       <c r="P167"/>
     </row>
     <row r="168" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="115"/>
+      <c r="B168" s="127"/>
       <c r="C168" s="24" t="s">
         <v>92</v>
       </c>
@@ -9594,7 +9644,7 @@
       <c r="P168"/>
     </row>
     <row r="169" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="115"/>
+      <c r="B169" s="127"/>
       <c r="C169" s="24" t="s">
         <v>91</v>
       </c>
@@ -9625,7 +9675,7 @@
       <c r="P169"/>
     </row>
     <row r="170" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="115"/>
+      <c r="B170" s="127"/>
       <c r="C170" s="24" t="s">
         <v>90</v>
       </c>
@@ -9656,7 +9706,7 @@
       <c r="P170"/>
     </row>
     <row r="171" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="115"/>
+      <c r="B171" s="127"/>
       <c r="C171" s="24" t="s">
         <v>279</v>
       </c>
@@ -9687,7 +9737,7 @@
       <c r="P171"/>
     </row>
     <row r="172" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="116"/>
+      <c r="B172" s="128"/>
       <c r="C172" s="24" t="s">
         <v>93</v>
       </c>
@@ -9718,25 +9768,25 @@
       <c r="P172"/>
     </row>
     <row r="173" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="139" t="s">
+      <c r="B173" s="134" t="s">
         <v>358</v>
       </c>
       <c r="C173" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D173" s="138" t="s">
+      <c r="D173" s="125" t="s">
         <v>24</v>
       </c>
       <c r="E173" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F173" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G173" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H173" s="130" t="s">
+      <c r="F173" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G173" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" s="124" t="s">
         <v>24</v>
       </c>
       <c r="I173" s="23" t="s">
@@ -9747,96 +9797,96 @@
       <c r="P173"/>
     </row>
     <row r="174" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="139"/>
+      <c r="B174" s="134"/>
       <c r="C174" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="D174" s="138"/>
+      <c r="D174" s="125"/>
       <c r="E174" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="F174" s="130"/>
-      <c r="G174" s="130"/>
-      <c r="H174" s="130"/>
+      <c r="F174" s="124"/>
+      <c r="G174" s="124"/>
+      <c r="H174" s="124"/>
       <c r="I174" s="23" t="s">
         <v>360</v>
       </c>
       <c r="J174" s="32"/>
     </row>
     <row r="175" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="134" t="s">
+      <c r="B175" s="118" t="s">
         <v>361</v>
       </c>
       <c r="C175" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D175" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="E175" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="F175" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G175" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H175" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="I175" s="138" t="s">
+      <c r="D175" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E175" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G175" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H175" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175" s="125" t="s">
         <v>24</v>
       </c>
       <c r="J175" s="32"/>
     </row>
     <row r="176" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="134"/>
+      <c r="B176" s="118"/>
       <c r="C176" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="D176" s="138"/>
-      <c r="E176" s="138"/>
-      <c r="F176" s="130"/>
-      <c r="G176" s="130"/>
-      <c r="H176" s="130"/>
-      <c r="I176" s="138"/>
+      <c r="D176" s="125"/>
+      <c r="E176" s="125"/>
+      <c r="F176" s="124"/>
+      <c r="G176" s="124"/>
+      <c r="H176" s="124"/>
+      <c r="I176" s="125"/>
       <c r="J176" s="79"/>
     </row>
     <row r="177" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="134"/>
+      <c r="B177" s="118"/>
       <c r="C177" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D177" s="138"/>
-      <c r="E177" s="138"/>
-      <c r="F177" s="130"/>
-      <c r="G177" s="130"/>
-      <c r="H177" s="130"/>
-      <c r="I177" s="138"/>
+      <c r="D177" s="125"/>
+      <c r="E177" s="125"/>
+      <c r="F177" s="124"/>
+      <c r="G177" s="124"/>
+      <c r="H177" s="124"/>
+      <c r="I177" s="125"/>
       <c r="J177" s="79"/>
     </row>
     <row r="178" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B178" s="134"/>
+      <c r="B178" s="118"/>
       <c r="C178" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="D178" s="138"/>
-      <c r="E178" s="138"/>
-      <c r="F178" s="130"/>
-      <c r="G178" s="130"/>
-      <c r="H178" s="130"/>
-      <c r="I178" s="138"/>
+      <c r="D178" s="125"/>
+      <c r="E178" s="125"/>
+      <c r="F178" s="124"/>
+      <c r="G178" s="124"/>
+      <c r="H178" s="124"/>
+      <c r="I178" s="125"/>
       <c r="J178" s="32"/>
     </row>
     <row r="179" spans="2:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="134" t="s">
+      <c r="B179" s="118" t="s">
         <v>363</v>
       </c>
       <c r="C179" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D179" s="131" t="s">
+      <c r="D179" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E179" s="21" t="s">
@@ -9857,11 +9907,11 @@
       <c r="J179" s="32"/>
     </row>
     <row r="180" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="134"/>
+      <c r="B180" s="118"/>
       <c r="C180" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D180" s="132"/>
+      <c r="D180" s="120"/>
       <c r="E180" s="21" t="s">
         <v>24</v>
       </c>
@@ -9880,11 +9930,11 @@
       <c r="J180" s="32"/>
     </row>
     <row r="181" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="134"/>
+      <c r="B181" s="118"/>
       <c r="C181" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="132"/>
+      <c r="D181" s="120"/>
       <c r="E181" s="21" t="s">
         <v>24</v>
       </c>
@@ -9903,11 +9953,11 @@
       <c r="J181" s="32"/>
     </row>
     <row r="182" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="134"/>
+      <c r="B182" s="118"/>
       <c r="C182" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D182" s="132"/>
+      <c r="D182" s="120"/>
       <c r="E182" s="21" t="s">
         <v>24</v>
       </c>
@@ -9926,11 +9976,11 @@
       <c r="J182" s="32"/>
     </row>
     <row r="183" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B183" s="134"/>
+      <c r="B183" s="118"/>
       <c r="C183" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D183" s="132"/>
+      <c r="D183" s="120"/>
       <c r="E183" s="21" t="s">
         <v>24</v>
       </c>
@@ -9949,11 +9999,11 @@
       <c r="J183" s="32"/>
     </row>
     <row r="184" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="134"/>
+      <c r="B184" s="118"/>
       <c r="C184" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D184" s="132"/>
+      <c r="D184" s="120"/>
       <c r="E184" s="21" t="s">
         <v>24</v>
       </c>
@@ -9972,11 +10022,11 @@
       <c r="J184" s="32"/>
     </row>
     <row r="185" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="134"/>
+      <c r="B185" s="118"/>
       <c r="C185" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="D185" s="132"/>
+      <c r="D185" s="120"/>
       <c r="E185" s="21" t="s">
         <v>24</v>
       </c>
@@ -9995,11 +10045,11 @@
       <c r="J185" s="52"/>
     </row>
     <row r="186" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B186" s="134"/>
+      <c r="B186" s="118"/>
       <c r="C186" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="D186" s="132"/>
+      <c r="D186" s="120"/>
       <c r="E186" s="23" t="s">
         <v>365</v>
       </c>
@@ -10018,11 +10068,11 @@
       <c r="J186" s="32"/>
     </row>
     <row r="187" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="134"/>
+      <c r="B187" s="118"/>
       <c r="C187" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="D187" s="133"/>
+      <c r="D187" s="129"/>
       <c r="E187" s="21" t="s">
         <v>24</v>
       </c>
@@ -10041,25 +10091,25 @@
       <c r="J187" s="32"/>
     </row>
     <row r="188" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="134" t="s">
+      <c r="B188" s="118" t="s">
         <v>367</v>
       </c>
       <c r="C188" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="D188" s="138" t="s">
+      <c r="D188" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="E188" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="F188" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G188" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H188" s="130" t="s">
+      <c r="E188" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F188" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G188" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" s="124" t="s">
         <v>24</v>
       </c>
       <c r="I188" s="23" t="s">
@@ -10072,15 +10122,15 @@
       <c r="N188" s="32"/>
     </row>
     <row r="189" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="134"/>
+      <c r="B189" s="118"/>
       <c r="C189" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D189" s="138"/>
-      <c r="E189" s="140"/>
-      <c r="F189" s="130"/>
-      <c r="G189" s="130"/>
-      <c r="H189" s="130"/>
+      <c r="D189" s="125"/>
+      <c r="E189" s="115"/>
+      <c r="F189" s="124"/>
+      <c r="G189" s="124"/>
+      <c r="H189" s="124"/>
       <c r="I189" s="23" t="s">
         <v>288</v>
       </c>
@@ -10091,13 +10141,13 @@
       <c r="N189" s="32"/>
     </row>
     <row r="190" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="124" t="s">
+      <c r="B190" s="116" t="s">
         <v>372</v>
       </c>
       <c r="C190" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D190" s="127" t="s">
+      <c r="D190" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E190" s="23" t="s">
@@ -10124,11 +10174,11 @@
       <c r="P190" s="16"/>
     </row>
     <row r="191" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="125"/>
+      <c r="B191" s="117"/>
       <c r="C191" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D191" s="128"/>
+      <c r="D191" s="112"/>
       <c r="E191" s="23" t="s">
         <v>24</v>
       </c>
@@ -10153,11 +10203,11 @@
       <c r="P191" s="16"/>
     </row>
     <row r="192" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="125"/>
+      <c r="B192" s="117"/>
       <c r="C192" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D192" s="128"/>
+      <c r="D192" s="112"/>
       <c r="E192" s="23" t="s">
         <v>24</v>
       </c>
@@ -10182,11 +10232,11 @@
       <c r="P192" s="16"/>
     </row>
     <row r="193" spans="2:16" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="125"/>
+      <c r="B193" s="117"/>
       <c r="C193" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D193" s="128"/>
+      <c r="D193" s="112"/>
       <c r="E193" s="23" t="s">
         <v>24</v>
       </c>
@@ -10211,11 +10261,11 @@
       <c r="P193" s="16"/>
     </row>
     <row r="194" spans="2:16" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="125"/>
+      <c r="B194" s="117"/>
       <c r="C194" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="D194" s="128"/>
+      <c r="D194" s="112"/>
       <c r="E194" s="23" t="s">
         <v>24</v>
       </c>
@@ -10240,11 +10290,11 @@
       <c r="P194" s="16"/>
     </row>
     <row r="195" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="125"/>
+      <c r="B195" s="117"/>
       <c r="C195" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D195" s="128"/>
+      <c r="D195" s="112"/>
       <c r="E195" s="23" t="s">
         <v>24</v>
       </c>
@@ -10269,11 +10319,11 @@
       <c r="P195" s="16"/>
     </row>
     <row r="196" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="125"/>
+      <c r="B196" s="117"/>
       <c r="C196" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D196" s="128"/>
+      <c r="D196" s="112"/>
       <c r="E196" s="23" t="s">
         <v>24</v>
       </c>
@@ -10298,11 +10348,11 @@
       <c r="P196" s="16"/>
     </row>
     <row r="197" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="125"/>
+      <c r="B197" s="117"/>
       <c r="C197" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D197" s="128"/>
+      <c r="D197" s="112"/>
       <c r="E197" s="23" t="s">
         <v>24</v>
       </c>
@@ -10327,11 +10377,11 @@
       <c r="P197" s="16"/>
     </row>
     <row r="198" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="125"/>
+      <c r="B198" s="117"/>
       <c r="C198" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D198" s="128"/>
+      <c r="D198" s="112"/>
       <c r="E198" s="23" t="s">
         <v>24</v>
       </c>
@@ -10356,11 +10406,11 @@
       <c r="P198" s="16"/>
     </row>
     <row r="199" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="125"/>
+      <c r="B199" s="117"/>
       <c r="C199" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D199" s="128"/>
+      <c r="D199" s="112"/>
       <c r="E199" s="23" t="s">
         <v>24</v>
       </c>
@@ -10385,11 +10435,11 @@
       <c r="P199" s="16"/>
     </row>
     <row r="200" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="125"/>
+      <c r="B200" s="117"/>
       <c r="C200" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="128"/>
+      <c r="D200" s="112"/>
       <c r="E200" s="23" t="s">
         <v>24</v>
       </c>
@@ -10414,13 +10464,13 @@
       <c r="P200" s="16"/>
     </row>
     <row r="201" spans="2:16" s="25" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="114" t="s">
+      <c r="B201" s="126" t="s">
         <v>373</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D201" s="131" t="s">
+      <c r="D201" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E201" s="23" t="s">
@@ -10447,11 +10497,11 @@
       <c r="P201" s="16"/>
     </row>
     <row r="202" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="115"/>
+      <c r="B202" s="127"/>
       <c r="C202" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D202" s="132"/>
+      <c r="D202" s="120"/>
       <c r="E202" s="23" t="s">
         <v>24</v>
       </c>
@@ -10476,11 +10526,11 @@
       <c r="P202" s="16"/>
     </row>
     <row r="203" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="115"/>
+      <c r="B203" s="127"/>
       <c r="C203" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D203" s="132"/>
+      <c r="D203" s="120"/>
       <c r="E203" s="23" t="s">
         <v>24</v>
       </c>
@@ -10505,11 +10555,11 @@
       <c r="P203" s="16"/>
     </row>
     <row r="204" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="115"/>
+      <c r="B204" s="127"/>
       <c r="C204" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D204" s="132"/>
+      <c r="D204" s="120"/>
       <c r="E204" s="23" t="s">
         <v>24</v>
       </c>
@@ -10534,11 +10584,11 @@
       <c r="P204" s="16"/>
     </row>
     <row r="205" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="115"/>
+      <c r="B205" s="127"/>
       <c r="C205" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D205" s="132"/>
+      <c r="D205" s="120"/>
       <c r="E205" s="23" t="s">
         <v>24</v>
       </c>
@@ -10563,11 +10613,11 @@
       <c r="P205" s="16"/>
     </row>
     <row r="206" spans="2:16" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="115"/>
+      <c r="B206" s="127"/>
       <c r="C206" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D206" s="132"/>
+      <c r="D206" s="120"/>
       <c r="E206" s="23" t="s">
         <v>24</v>
       </c>
@@ -10592,11 +10642,11 @@
       <c r="P206" s="16"/>
     </row>
     <row r="207" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="116"/>
+      <c r="B207" s="128"/>
       <c r="C207" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="D207" s="133"/>
+      <c r="D207" s="129"/>
       <c r="E207" s="49" t="s">
         <v>345</v>
       </c>
@@ -10619,7 +10669,7 @@
       <c r="N207" s="24"/>
     </row>
     <row r="208" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="122" t="s">
+      <c r="B208" s="131" t="s">
         <v>427</v>
       </c>
       <c r="C208" s="24" t="s">
@@ -10634,7 +10684,7 @@
       <c r="F208" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G208" s="111" t="s">
+      <c r="G208" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H208" s="81" t="s">
@@ -10650,7 +10700,7 @@
       <c r="N208" s="80"/>
     </row>
     <row r="209" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="123"/>
+      <c r="B209" s="132"/>
       <c r="C209" s="24" t="s">
         <v>37</v>
       </c>
@@ -10663,7 +10713,7 @@
       <c r="F209" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="G209" s="112"/>
+      <c r="G209" s="122"/>
       <c r="H209" s="81">
         <v>32</v>
       </c>
@@ -10677,7 +10727,7 @@
       <c r="N209" s="80"/>
     </row>
     <row r="210" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="123"/>
+      <c r="B210" s="132"/>
       <c r="C210" s="24" t="s">
         <v>38</v>
       </c>
@@ -10690,7 +10740,7 @@
       <c r="F210" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G210" s="112"/>
+      <c r="G210" s="122"/>
       <c r="H210" s="81">
         <v>128</v>
       </c>
@@ -10704,7 +10754,7 @@
       <c r="N210" s="80"/>
     </row>
     <row r="211" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="123"/>
+      <c r="B211" s="132"/>
       <c r="C211" s="24" t="s">
         <v>95</v>
       </c>
@@ -10717,7 +10767,7 @@
       <c r="F211" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G211" s="112"/>
+      <c r="G211" s="122"/>
       <c r="H211" s="81" t="s">
         <v>24</v>
       </c>
@@ -10731,7 +10781,7 @@
       <c r="N211" s="80"/>
     </row>
     <row r="212" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="123"/>
+      <c r="B212" s="132"/>
       <c r="C212" s="24" t="s">
         <v>44</v>
       </c>
@@ -10744,7 +10794,7 @@
       <c r="F212" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G212" s="112"/>
+      <c r="G212" s="122"/>
       <c r="H212" s="81" t="s">
         <v>24</v>
       </c>
@@ -10758,7 +10808,7 @@
       <c r="N212" s="80"/>
     </row>
     <row r="213" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="123"/>
+      <c r="B213" s="132"/>
       <c r="C213" s="30" t="s">
         <v>40</v>
       </c>
@@ -10771,7 +10821,7 @@
       <c r="F213" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G213" s="113"/>
+      <c r="G213" s="123"/>
       <c r="H213" s="81" t="s">
         <v>24</v>
       </c>
@@ -10785,7 +10835,7 @@
       <c r="N213" s="80"/>
     </row>
     <row r="214" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B214" s="124" t="s">
+      <c r="B214" s="116" t="s">
         <v>429</v>
       </c>
       <c r="C214" s="24" t="s">
@@ -10816,7 +10866,7 @@
       <c r="N214" s="84"/>
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B215" s="125"/>
+      <c r="B215" s="117"/>
       <c r="C215" s="24" t="s">
         <v>32</v>
       </c>
@@ -10845,7 +10895,7 @@
       <c r="N215" s="84"/>
     </row>
     <row r="216" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B216" s="125"/>
+      <c r="B216" s="117"/>
       <c r="C216" s="24" t="s">
         <v>47</v>
       </c>
@@ -10874,7 +10924,7 @@
       <c r="N216" s="84"/>
     </row>
     <row r="217" spans="2:14" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="125"/>
+      <c r="B217" s="117"/>
       <c r="C217" s="24" t="s">
         <v>283</v>
       </c>
@@ -10903,7 +10953,7 @@
       <c r="N217" s="84"/>
     </row>
     <row r="218" spans="2:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="125"/>
+      <c r="B218" s="117"/>
       <c r="C218" s="24" t="s">
         <v>153</v>
       </c>
@@ -10932,7 +10982,7 @@
       <c r="N218" s="84"/>
     </row>
     <row r="219" spans="2:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="125"/>
+      <c r="B219" s="117"/>
       <c r="C219" s="24" t="s">
         <v>48</v>
       </c>
@@ -10961,7 +11011,7 @@
       <c r="N219" s="84"/>
     </row>
     <row r="220" spans="2:14" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="125"/>
+      <c r="B220" s="117"/>
       <c r="C220" s="24" t="s">
         <v>126</v>
       </c>
@@ -10990,7 +11040,7 @@
       <c r="N220" s="84"/>
     </row>
     <row r="221" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="125"/>
+      <c r="B221" s="117"/>
       <c r="C221" s="24" t="s">
         <v>50</v>
       </c>
@@ -11019,7 +11069,7 @@
       <c r="N221" s="84"/>
     </row>
     <row r="222" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="125"/>
+      <c r="B222" s="117"/>
       <c r="C222" s="24" t="s">
         <v>49</v>
       </c>
@@ -11048,7 +11098,7 @@
       <c r="N222" s="84"/>
     </row>
     <row r="223" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="125"/>
+      <c r="B223" s="117"/>
       <c r="C223" s="24" t="s">
         <v>271</v>
       </c>
@@ -11077,7 +11127,7 @@
       <c r="N223" s="84"/>
     </row>
     <row r="224" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="125"/>
+      <c r="B224" s="117"/>
       <c r="C224" s="23" t="s">
         <v>37</v>
       </c>
@@ -11106,7 +11156,7 @@
       <c r="N224" s="84"/>
     </row>
     <row r="225" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="125"/>
+      <c r="B225" s="117"/>
       <c r="C225" s="24" t="s">
         <v>38</v>
       </c>
@@ -11135,7 +11185,7 @@
       <c r="N225" s="84"/>
     </row>
     <row r="226" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="125"/>
+      <c r="B226" s="117"/>
       <c r="C226" s="33" t="s">
         <v>125</v>
       </c>
@@ -11164,7 +11214,7 @@
       <c r="N226" s="84"/>
     </row>
     <row r="227" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="126"/>
+      <c r="B227" s="130"/>
       <c r="C227" s="33" t="s">
         <v>144</v>
       </c>
@@ -11193,25 +11243,25 @@
       <c r="N227" s="84"/>
     </row>
     <row r="228" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="122" t="s">
+      <c r="B228" s="131" t="s">
         <v>430</v>
       </c>
       <c r="C228" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D228" s="127" t="s">
+      <c r="D228" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E228" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F228" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G228" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H228" s="111" t="s">
+      <c r="F228" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G228" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H228" s="121" t="s">
         <v>24</v>
       </c>
       <c r="I228" s="23" t="s">
@@ -11224,17 +11274,17 @@
       <c r="N228" s="84"/>
     </row>
     <row r="229" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="123"/>
+      <c r="B229" s="132"/>
       <c r="C229" s="98" t="s">
         <v>432</v>
       </c>
-      <c r="D229" s="128"/>
+      <c r="D229" s="112"/>
       <c r="E229" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="F229" s="112"/>
-      <c r="G229" s="112"/>
-      <c r="H229" s="112"/>
+      <c r="F229" s="122"/>
+      <c r="G229" s="122"/>
+      <c r="H229" s="122"/>
       <c r="I229" s="23" t="s">
         <v>43</v>
       </c>
@@ -11245,17 +11295,17 @@
       <c r="N229" s="84"/>
     </row>
     <row r="230" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="123"/>
+      <c r="B230" s="132"/>
       <c r="C230" s="98" t="s">
         <v>436</v>
       </c>
-      <c r="D230" s="128"/>
+      <c r="D230" s="112"/>
       <c r="E230" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F230" s="112"/>
-      <c r="G230" s="112"/>
-      <c r="H230" s="112"/>
+      <c r="F230" s="122"/>
+      <c r="G230" s="122"/>
+      <c r="H230" s="122"/>
       <c r="I230" s="23" t="s">
         <v>43</v>
       </c>
@@ -11266,17 +11316,17 @@
       <c r="N230" s="84"/>
     </row>
     <row r="231" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="123"/>
+      <c r="B231" s="132"/>
       <c r="C231" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="D231" s="128"/>
+      <c r="D231" s="112"/>
       <c r="E231" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F231" s="112"/>
-      <c r="G231" s="112"/>
-      <c r="H231" s="112"/>
+      <c r="F231" s="122"/>
+      <c r="G231" s="122"/>
+      <c r="H231" s="122"/>
       <c r="I231" s="23" t="s">
         <v>43</v>
       </c>
@@ -11287,17 +11337,17 @@
       <c r="N231" s="84"/>
     </row>
     <row r="232" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="123"/>
+      <c r="B232" s="132"/>
       <c r="C232" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="D232" s="128"/>
+      <c r="D232" s="112"/>
       <c r="E232" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F232" s="112"/>
-      <c r="G232" s="112"/>
-      <c r="H232" s="112"/>
+      <c r="F232" s="122"/>
+      <c r="G232" s="122"/>
+      <c r="H232" s="122"/>
       <c r="I232" s="23" t="s">
         <v>43</v>
       </c>
@@ -11308,17 +11358,17 @@
       <c r="N232" s="84"/>
     </row>
     <row r="233" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="123"/>
+      <c r="B233" s="132"/>
       <c r="C233" s="98" t="s">
         <v>510</v>
       </c>
-      <c r="D233" s="128"/>
+      <c r="D233" s="112"/>
       <c r="E233" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F233" s="112"/>
-      <c r="G233" s="112"/>
-      <c r="H233" s="112"/>
+      <c r="F233" s="122"/>
+      <c r="G233" s="122"/>
+      <c r="H233" s="122"/>
       <c r="I233" s="23" t="s">
         <v>43</v>
       </c>
@@ -11329,17 +11379,17 @@
       <c r="N233" s="91"/>
     </row>
     <row r="234" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="123"/>
+      <c r="B234" s="132"/>
       <c r="C234" s="98" t="s">
         <v>438</v>
       </c>
-      <c r="D234" s="128"/>
+      <c r="D234" s="112"/>
       <c r="E234" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F234" s="112"/>
-      <c r="G234" s="112"/>
-      <c r="H234" s="112"/>
+      <c r="F234" s="122"/>
+      <c r="G234" s="122"/>
+      <c r="H234" s="122"/>
       <c r="I234" s="23" t="s">
         <v>43</v>
       </c>
@@ -11350,17 +11400,17 @@
       <c r="N234" s="91"/>
     </row>
     <row r="235" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="123"/>
+      <c r="B235" s="132"/>
       <c r="C235" s="98" t="s">
         <v>437</v>
       </c>
-      <c r="D235" s="128"/>
+      <c r="D235" s="112"/>
       <c r="E235" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F235" s="112"/>
-      <c r="G235" s="112"/>
-      <c r="H235" s="112"/>
+      <c r="F235" s="122"/>
+      <c r="G235" s="122"/>
+      <c r="H235" s="122"/>
       <c r="I235" s="23" t="s">
         <v>43</v>
       </c>
@@ -11371,13 +11421,13 @@
       <c r="N235" s="84"/>
     </row>
     <row r="236" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="141" t="s">
+      <c r="B236" s="133" t="s">
         <v>435</v>
       </c>
       <c r="C236" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D236" s="128" t="s">
+      <c r="D236" s="112" t="s">
         <v>24</v>
       </c>
       <c r="E236" s="23" t="s">
@@ -11402,11 +11452,11 @@
       <c r="N236" s="84"/>
     </row>
     <row r="237" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="141"/>
+      <c r="B237" s="133"/>
       <c r="C237" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="D237" s="128"/>
+      <c r="D237" s="112"/>
       <c r="E237" s="23" t="s">
         <v>24</v>
       </c>
@@ -11429,13 +11479,13 @@
       <c r="N237" s="84"/>
     </row>
     <row r="238" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="124" t="s">
+      <c r="B238" s="116" t="s">
         <v>431</v>
       </c>
       <c r="C238" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D238" s="127" t="s">
+      <c r="D238" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E238" s="23" t="s">
@@ -11460,11 +11510,11 @@
       <c r="N238" s="24"/>
     </row>
     <row r="239" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="125"/>
+      <c r="B239" s="117"/>
       <c r="C239" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D239" s="128"/>
+      <c r="D239" s="112"/>
       <c r="E239" s="23" t="s">
         <v>24</v>
       </c>
@@ -11487,11 +11537,11 @@
       <c r="N239" s="24"/>
     </row>
     <row r="240" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B240" s="125"/>
+      <c r="B240" s="117"/>
       <c r="C240" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D240" s="128"/>
+      <c r="D240" s="112"/>
       <c r="E240" s="23" t="s">
         <v>24</v>
       </c>
@@ -11514,11 +11564,11 @@
       <c r="N240" s="24"/>
     </row>
     <row r="241" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B241" s="125"/>
+      <c r="B241" s="117"/>
       <c r="C241" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="D241" s="128"/>
+      <c r="D241" s="112"/>
       <c r="E241" s="23" t="s">
         <v>24</v>
       </c>
@@ -11541,11 +11591,11 @@
       <c r="N241" s="24"/>
     </row>
     <row r="242" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="125"/>
+      <c r="B242" s="117"/>
       <c r="C242" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D242" s="128"/>
+      <c r="D242" s="112"/>
       <c r="E242" s="23" t="s">
         <v>24</v>
       </c>
@@ -11568,11 +11618,11 @@
       <c r="N242" s="24"/>
     </row>
     <row r="243" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="125"/>
+      <c r="B243" s="117"/>
       <c r="C243" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D243" s="128"/>
+      <c r="D243" s="112"/>
       <c r="E243" s="23" t="s">
         <v>24</v>
       </c>
@@ -11595,11 +11645,11 @@
       <c r="N243" s="24"/>
     </row>
     <row r="244" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="125"/>
+      <c r="B244" s="117"/>
       <c r="C244" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D244" s="128"/>
+      <c r="D244" s="112"/>
       <c r="E244" s="23" t="s">
         <v>24</v>
       </c>
@@ -11622,11 +11672,11 @@
       <c r="N244" s="24"/>
     </row>
     <row r="245" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="125"/>
+      <c r="B245" s="117"/>
       <c r="C245" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D245" s="128"/>
+      <c r="D245" s="112"/>
       <c r="E245" s="23" t="s">
         <v>24</v>
       </c>
@@ -11649,11 +11699,11 @@
       <c r="N245" s="24"/>
     </row>
     <row r="246" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="125"/>
+      <c r="B246" s="117"/>
       <c r="C246" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D246" s="128"/>
+      <c r="D246" s="112"/>
       <c r="E246" s="23" t="s">
         <v>24</v>
       </c>
@@ -11676,11 +11726,11 @@
       <c r="N246" s="24"/>
     </row>
     <row r="247" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="125"/>
+      <c r="B247" s="117"/>
       <c r="C247" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D247" s="128"/>
+      <c r="D247" s="112"/>
       <c r="E247" s="23" t="s">
         <v>24</v>
       </c>
@@ -11703,11 +11753,11 @@
       <c r="N247" s="24"/>
     </row>
     <row r="248" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B248" s="126"/>
+      <c r="B248" s="130"/>
       <c r="C248" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="D248" s="129"/>
+      <c r="D248" s="113"/>
       <c r="E248" s="49" t="s">
         <v>347</v>
       </c>
@@ -11730,25 +11780,25 @@
       <c r="N248" s="24"/>
     </row>
     <row r="249" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="124" t="s">
+      <c r="B249" s="116" t="s">
         <v>309</v>
       </c>
       <c r="C249" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D249" s="127" t="s">
+      <c r="D249" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E249" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F249" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G249" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H249" s="111" t="s">
+      <c r="F249" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G249" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H249" s="121" t="s">
         <v>24</v>
       </c>
       <c r="I249" s="23" t="s">
@@ -11761,17 +11811,17 @@
       <c r="N249" s="84"/>
     </row>
     <row r="250" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="125"/>
+      <c r="B250" s="117"/>
       <c r="C250" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="D250" s="128"/>
+      <c r="D250" s="112"/>
       <c r="E250" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="F250" s="112"/>
-      <c r="G250" s="112"/>
-      <c r="H250" s="112"/>
+      <c r="F250" s="122"/>
+      <c r="G250" s="122"/>
+      <c r="H250" s="122"/>
       <c r="I250" s="23" t="s">
         <v>27</v>
       </c>
@@ -11782,17 +11832,17 @@
       <c r="N250" s="84"/>
     </row>
     <row r="251" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="125"/>
+      <c r="B251" s="117"/>
       <c r="C251" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="D251" s="128"/>
+      <c r="D251" s="112"/>
       <c r="E251" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F251" s="112"/>
-      <c r="G251" s="112"/>
-      <c r="H251" s="112"/>
+      <c r="F251" s="122"/>
+      <c r="G251" s="122"/>
+      <c r="H251" s="122"/>
       <c r="I251" s="23" t="s">
         <v>43</v>
       </c>
@@ -11803,17 +11853,17 @@
       <c r="N251" s="84"/>
     </row>
     <row r="252" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="126"/>
+      <c r="B252" s="130"/>
       <c r="C252" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="D252" s="129"/>
+      <c r="D252" s="113"/>
       <c r="E252" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F252" s="113"/>
-      <c r="G252" s="113"/>
-      <c r="H252" s="113"/>
+      <c r="F252" s="123"/>
+      <c r="G252" s="123"/>
+      <c r="H252" s="123"/>
       <c r="I252" s="23" t="s">
         <v>43</v>
       </c>
@@ -11824,7 +11874,7 @@
       <c r="N252" s="84"/>
     </row>
     <row r="253" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="124" t="s">
+      <c r="B253" s="116" t="s">
         <v>316</v>
       </c>
       <c r="C253" s="33" t="s">
@@ -11839,7 +11889,7 @@
       <c r="F253" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="G253" s="111" t="s">
+      <c r="G253" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H253" s="83">
@@ -11855,7 +11905,7 @@
       <c r="N253" s="84"/>
     </row>
     <row r="254" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="125"/>
+      <c r="B254" s="117"/>
       <c r="C254" s="33" t="s">
         <v>38</v>
       </c>
@@ -11868,7 +11918,7 @@
       <c r="F254" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="G254" s="112"/>
+      <c r="G254" s="122"/>
       <c r="H254" s="83">
         <v>128</v>
       </c>
@@ -11882,7 +11932,7 @@
       <c r="N254" s="84"/>
     </row>
     <row r="255" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="125"/>
+      <c r="B255" s="117"/>
       <c r="C255" s="33" t="s">
         <v>317</v>
       </c>
@@ -11895,7 +11945,7 @@
       <c r="F255" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="G255" s="112"/>
+      <c r="G255" s="122"/>
       <c r="H255" s="83">
         <v>32</v>
       </c>
@@ -11909,7 +11959,7 @@
       <c r="N255" s="84"/>
     </row>
     <row r="256" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="125"/>
+      <c r="B256" s="117"/>
       <c r="C256" s="33" t="s">
         <v>318</v>
       </c>
@@ -11922,7 +11972,7 @@
       <c r="F256" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G256" s="112"/>
+      <c r="G256" s="122"/>
       <c r="H256" s="83" t="s">
         <v>24</v>
       </c>
@@ -11936,7 +11986,7 @@
       <c r="N256" s="84"/>
     </row>
     <row r="257" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="126"/>
+      <c r="B257" s="130"/>
       <c r="C257" s="33" t="s">
         <v>319</v>
       </c>
@@ -11949,7 +11999,7 @@
       <c r="F257" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G257" s="113"/>
+      <c r="G257" s="123"/>
       <c r="H257" s="83" t="s">
         <v>24</v>
       </c>
@@ -11963,7 +12013,7 @@
       <c r="N257" s="84"/>
     </row>
     <row r="258" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="124" t="s">
+      <c r="B258" s="116" t="s">
         <v>330</v>
       </c>
       <c r="C258" s="33" t="s">
@@ -11978,7 +12028,7 @@
       <c r="F258" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="G258" s="111" t="s">
+      <c r="G258" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H258" s="83">
@@ -11994,7 +12044,7 @@
       <c r="N258" s="84"/>
     </row>
     <row r="259" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="125"/>
+      <c r="B259" s="117"/>
       <c r="C259" s="33" t="s">
         <v>332</v>
       </c>
@@ -12007,7 +12057,7 @@
       <c r="F259" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="G259" s="112"/>
+      <c r="G259" s="122"/>
       <c r="H259" s="83">
         <v>32</v>
       </c>
@@ -12021,7 +12071,7 @@
       <c r="N259" s="84"/>
     </row>
     <row r="260" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="125"/>
+      <c r="B260" s="117"/>
       <c r="C260" s="33" t="s">
         <v>333</v>
       </c>
@@ -12034,7 +12084,7 @@
       <c r="F260" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G260" s="112"/>
+      <c r="G260" s="122"/>
       <c r="H260" s="83" t="s">
         <v>24</v>
       </c>
@@ -12048,7 +12098,7 @@
       <c r="N260" s="84"/>
     </row>
     <row r="261" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="126"/>
+      <c r="B261" s="130"/>
       <c r="C261" s="33" t="s">
         <v>319</v>
       </c>
@@ -12061,7 +12111,7 @@
       <c r="F261" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G261" s="113"/>
+      <c r="G261" s="123"/>
       <c r="H261" s="83" t="s">
         <v>24</v>
       </c>
@@ -12106,7 +12156,7 @@
       <c r="N262" s="89"/>
     </row>
     <row r="263" spans="2:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B263" s="124" t="s">
+      <c r="B263" s="116" t="s">
         <v>461</v>
       </c>
       <c r="C263" s="24" t="s">
@@ -12137,7 +12187,7 @@
       <c r="N263" s="89"/>
     </row>
     <row r="264" spans="2:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="125"/>
+      <c r="B264" s="117"/>
       <c r="C264" s="24" t="s">
         <v>442</v>
       </c>
@@ -12166,7 +12216,7 @@
       <c r="N264" s="89"/>
     </row>
     <row r="265" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="125"/>
+      <c r="B265" s="117"/>
       <c r="C265" s="30" t="s">
         <v>445</v>
       </c>
@@ -12195,16 +12245,16 @@
       <c r="N265" s="24"/>
     </row>
     <row r="266" spans="2:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="124" t="s">
+      <c r="B266" s="116" t="s">
         <v>445</v>
       </c>
       <c r="C266" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="D266" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E266" s="127" t="s">
+      <c r="D266" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E266" s="111" t="s">
         <v>24</v>
       </c>
       <c r="F266" s="34" t="s">
@@ -12226,12 +12276,12 @@
       <c r="N266" s="89"/>
     </row>
     <row r="267" spans="2:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="125"/>
+      <c r="B267" s="117"/>
       <c r="C267" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="D267" s="128"/>
-      <c r="E267" s="128"/>
+      <c r="D267" s="112"/>
+      <c r="E267" s="112"/>
       <c r="F267" s="34" t="s">
         <v>24</v>
       </c>
@@ -12251,12 +12301,12 @@
       <c r="N267" s="89"/>
     </row>
     <row r="268" spans="2:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="125"/>
+      <c r="B268" s="117"/>
       <c r="C268" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D268" s="128"/>
-      <c r="E268" s="128"/>
+      <c r="D268" s="112"/>
+      <c r="E268" s="112"/>
       <c r="F268" s="50" t="s">
         <v>246</v>
       </c>
@@ -12276,12 +12326,12 @@
       <c r="N268" s="89"/>
     </row>
     <row r="269" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="125"/>
+      <c r="B269" s="117"/>
       <c r="C269" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D269" s="128"/>
-      <c r="E269" s="128"/>
+      <c r="D269" s="112"/>
+      <c r="E269" s="112"/>
       <c r="F269" s="50" t="s">
         <v>249</v>
       </c>
@@ -12301,12 +12351,12 @@
       <c r="N269" s="89"/>
     </row>
     <row r="270" spans="2:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="125"/>
+      <c r="B270" s="117"/>
       <c r="C270" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D270" s="128"/>
-      <c r="E270" s="128"/>
+      <c r="D270" s="112"/>
+      <c r="E270" s="112"/>
       <c r="F270" s="50" t="s">
         <v>253</v>
       </c>
@@ -12326,12 +12376,12 @@
       <c r="N270" s="89"/>
     </row>
     <row r="271" spans="2:14" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="125"/>
+      <c r="B271" s="117"/>
       <c r="C271" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="D271" s="128"/>
-      <c r="E271" s="128"/>
+      <c r="D271" s="112"/>
+      <c r="E271" s="112"/>
       <c r="F271" s="50" t="s">
         <v>448</v>
       </c>
@@ -12351,12 +12401,12 @@
       <c r="N271" s="89"/>
     </row>
     <row r="272" spans="2:14" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="125"/>
+      <c r="B272" s="117"/>
       <c r="C272" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D272" s="128"/>
-      <c r="E272" s="128"/>
+      <c r="D272" s="112"/>
+      <c r="E272" s="112"/>
       <c r="F272" s="50" t="s">
         <v>254</v>
       </c>
@@ -12376,12 +12426,12 @@
       <c r="N272" s="24"/>
     </row>
     <row r="273" spans="2:14" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="125"/>
+      <c r="B273" s="117"/>
       <c r="C273" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="D273" s="129"/>
-      <c r="E273" s="128"/>
+      <c r="D273" s="113"/>
+      <c r="E273" s="112"/>
       <c r="F273" s="100" t="s">
         <v>385</v>
       </c>
@@ -12401,13 +12451,13 @@
       <c r="N273" s="24"/>
     </row>
     <row r="274" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="114" t="s">
+      <c r="B274" s="126" t="s">
         <v>446</v>
       </c>
       <c r="C274" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D274" s="131" t="s">
+      <c r="D274" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E274" s="49" t="s">
@@ -12432,11 +12482,11 @@
       <c r="N274" s="24"/>
     </row>
     <row r="275" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="115"/>
+      <c r="B275" s="127"/>
       <c r="C275" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D275" s="132"/>
+      <c r="D275" s="120"/>
       <c r="E275" s="49" t="s">
         <v>24</v>
       </c>
@@ -12459,11 +12509,11 @@
       <c r="N275" s="24"/>
     </row>
     <row r="276" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="115"/>
+      <c r="B276" s="127"/>
       <c r="C276" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D276" s="132"/>
+      <c r="D276" s="120"/>
       <c r="E276" s="49" t="s">
         <v>24</v>
       </c>
@@ -12486,11 +12536,11 @@
       <c r="N276" s="24"/>
     </row>
     <row r="277" spans="2:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B277" s="115"/>
+      <c r="B277" s="127"/>
       <c r="C277" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D277" s="132"/>
+      <c r="D277" s="120"/>
       <c r="E277" s="49" t="s">
         <v>24</v>
       </c>
@@ -12512,11 +12562,11 @@
       <c r="N277" s="24"/>
     </row>
     <row r="278" spans="2:14" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="B278" s="115"/>
+      <c r="B278" s="127"/>
       <c r="C278" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="D278" s="132"/>
+      <c r="D278" s="120"/>
       <c r="E278" s="49" t="s">
         <v>24</v>
       </c>
@@ -12538,11 +12588,11 @@
       <c r="N278" s="24"/>
     </row>
     <row r="279" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="115"/>
+      <c r="B279" s="127"/>
       <c r="C279" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D279" s="132"/>
+      <c r="D279" s="120"/>
       <c r="E279" s="49" t="s">
         <v>24</v>
       </c>
@@ -12565,11 +12615,11 @@
       <c r="N279" s="24"/>
     </row>
     <row r="280" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="115"/>
+      <c r="B280" s="127"/>
       <c r="C280" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D280" s="132"/>
+      <c r="D280" s="120"/>
       <c r="E280" s="49" t="s">
         <v>24</v>
       </c>
@@ -12592,11 +12642,11 @@
       <c r="N280" s="24"/>
     </row>
     <row r="281" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="115"/>
+      <c r="B281" s="127"/>
       <c r="C281" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D281" s="132"/>
+      <c r="D281" s="120"/>
       <c r="E281" s="49" t="s">
         <v>24</v>
       </c>
@@ -12619,11 +12669,11 @@
       <c r="N281" s="24"/>
     </row>
     <row r="282" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="115"/>
+      <c r="B282" s="127"/>
       <c r="C282" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D282" s="132"/>
+      <c r="D282" s="120"/>
       <c r="E282" s="49" t="s">
         <v>24</v>
       </c>
@@ -12646,11 +12696,11 @@
       <c r="N282" s="24"/>
     </row>
     <row r="283" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="115"/>
+      <c r="B283" s="127"/>
       <c r="C283" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="D283" s="132"/>
+      <c r="D283" s="120"/>
       <c r="E283" s="49" t="s">
         <v>24</v>
       </c>
@@ -12673,13 +12723,13 @@
       <c r="N283" s="24"/>
     </row>
     <row r="284" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="142" t="s">
+      <c r="B284" s="114" t="s">
         <v>456</v>
       </c>
       <c r="C284" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="D284" s="140" t="s">
+      <c r="D284" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="23" t="s">
@@ -12704,11 +12754,11 @@
       <c r="N284" s="89"/>
     </row>
     <row r="285" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="142"/>
+      <c r="B285" s="114"/>
       <c r="C285" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="D285" s="140"/>
+      <c r="D285" s="115"/>
       <c r="E285" s="23" t="s">
         <v>469</v>
       </c>
@@ -12731,11 +12781,11 @@
       <c r="N285" s="89"/>
     </row>
     <row r="286" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="142"/>
+      <c r="B286" s="114"/>
       <c r="C286" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="D286" s="140"/>
+      <c r="D286" s="115"/>
       <c r="E286" s="23" t="s">
         <v>471</v>
       </c>
@@ -12758,11 +12808,11 @@
       <c r="N286" s="89"/>
     </row>
     <row r="287" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="142"/>
+      <c r="B287" s="114"/>
       <c r="C287" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D287" s="140"/>
+      <c r="D287" s="115"/>
       <c r="E287" s="23" t="s">
         <v>472</v>
       </c>
@@ -12785,11 +12835,11 @@
       <c r="N287" s="89"/>
     </row>
     <row r="288" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="142"/>
+      <c r="B288" s="114"/>
       <c r="C288" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="D288" s="140"/>
+      <c r="D288" s="115"/>
       <c r="E288" s="23" t="s">
         <v>473</v>
       </c>
@@ -12812,11 +12862,11 @@
       <c r="N288" s="89"/>
     </row>
     <row r="289" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="142"/>
+      <c r="B289" s="114"/>
       <c r="C289" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="D289" s="140"/>
+      <c r="D289" s="115"/>
       <c r="E289" s="23" t="s">
         <v>474</v>
       </c>
@@ -12839,11 +12889,11 @@
       <c r="N289" s="89"/>
     </row>
     <row r="290" spans="2:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="142"/>
+      <c r="B290" s="114"/>
       <c r="C290" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="D290" s="140"/>
+      <c r="D290" s="115"/>
       <c r="E290" s="23" t="s">
         <v>475</v>
       </c>
@@ -12866,11 +12916,11 @@
       <c r="N290" s="89"/>
     </row>
     <row r="291" spans="2:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="142"/>
+      <c r="B291" s="114"/>
       <c r="C291" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="D291" s="140"/>
+      <c r="D291" s="115"/>
       <c r="E291" s="23" t="s">
         <v>476</v>
       </c>
@@ -12893,7 +12943,7 @@
       <c r="N291" s="89"/>
     </row>
     <row r="292" spans="2:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B292" s="124" t="s">
+      <c r="B292" s="116" t="s">
         <v>477</v>
       </c>
       <c r="C292" s="24" t="s">
@@ -12924,7 +12974,7 @@
       <c r="N292" s="89"/>
     </row>
     <row r="293" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="125"/>
+      <c r="B293" s="117"/>
       <c r="C293" s="24" t="s">
         <v>442</v>
       </c>
@@ -12953,7 +13003,7 @@
       <c r="N293" s="89"/>
     </row>
     <row r="294" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="125"/>
+      <c r="B294" s="117"/>
       <c r="C294" s="30" t="s">
         <v>496</v>
       </c>
@@ -12982,13 +13032,13 @@
       <c r="N294" s="24"/>
     </row>
     <row r="295" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="124" t="s">
+      <c r="B295" s="116" t="s">
         <v>497</v>
       </c>
       <c r="C295" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="D295" s="127" t="s">
+      <c r="D295" s="111" t="s">
         <v>24</v>
       </c>
       <c r="E295" s="23" t="s">
@@ -13013,11 +13063,11 @@
       <c r="N295" s="89"/>
     </row>
     <row r="296" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="125"/>
+      <c r="B296" s="117"/>
       <c r="C296" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="D296" s="128"/>
+      <c r="D296" s="112"/>
       <c r="E296" s="94" t="s">
         <v>498</v>
       </c>
@@ -13040,11 +13090,11 @@
       <c r="N296" s="91"/>
     </row>
     <row r="297" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="125"/>
+      <c r="B297" s="117"/>
       <c r="C297" s="30" t="s">
         <v>491</v>
       </c>
-      <c r="D297" s="128"/>
+      <c r="D297" s="112"/>
       <c r="E297" s="94" t="s">
         <v>499</v>
       </c>
@@ -13067,11 +13117,11 @@
       <c r="N297" s="89"/>
     </row>
     <row r="298" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="125"/>
+      <c r="B298" s="117"/>
       <c r="C298" s="30" t="s">
         <v>492</v>
       </c>
-      <c r="D298" s="128"/>
+      <c r="D298" s="112"/>
       <c r="E298" s="94" t="s">
         <v>500</v>
       </c>
@@ -13094,11 +13144,11 @@
       <c r="N298" s="89"/>
     </row>
     <row r="299" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B299" s="125"/>
+      <c r="B299" s="117"/>
       <c r="C299" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="D299" s="128"/>
+      <c r="D299" s="112"/>
       <c r="E299" s="94" t="s">
         <v>24</v>
       </c>
@@ -13121,11 +13171,11 @@
       <c r="N299" s="24"/>
     </row>
     <row r="300" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B300" s="125"/>
+      <c r="B300" s="117"/>
       <c r="C300" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="D300" s="128"/>
+      <c r="D300" s="112"/>
       <c r="E300" s="94" t="s">
         <v>24</v>
       </c>
@@ -13148,11 +13198,11 @@
       <c r="N300" s="91"/>
     </row>
     <row r="301" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B301" s="125"/>
+      <c r="B301" s="117"/>
       <c r="C301" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="D301" s="128"/>
+      <c r="D301" s="112"/>
       <c r="E301" s="94" t="s">
         <v>24</v>
       </c>
@@ -13175,25 +13225,25 @@
       <c r="N301" s="91"/>
     </row>
     <row r="302" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B302" s="142" t="s">
+      <c r="B302" s="114" t="s">
         <v>559</v>
       </c>
       <c r="C302" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="D302" s="140" t="s">
+      <c r="D302" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E302" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="F302" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G302" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H302" s="111" t="s">
+      <c r="F302" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G302" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H302" s="121" t="s">
         <v>24</v>
       </c>
       <c r="I302" s="23" t="s">
@@ -13206,17 +13256,17 @@
       <c r="N302" s="91"/>
     </row>
     <row r="303" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B303" s="142"/>
+      <c r="B303" s="114"/>
       <c r="C303" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="D303" s="140"/>
+      <c r="D303" s="115"/>
       <c r="E303" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="F303" s="112"/>
-      <c r="G303" s="112"/>
-      <c r="H303" s="112"/>
+      <c r="F303" s="122"/>
+      <c r="G303" s="122"/>
+      <c r="H303" s="122"/>
       <c r="I303" s="23" t="s">
         <v>43</v>
       </c>
@@ -13227,17 +13277,17 @@
       <c r="N303" s="91"/>
     </row>
     <row r="304" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B304" s="142"/>
+      <c r="B304" s="114"/>
       <c r="C304" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="D304" s="140"/>
+      <c r="D304" s="115"/>
       <c r="E304" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="F304" s="112"/>
-      <c r="G304" s="112"/>
-      <c r="H304" s="112"/>
+      <c r="F304" s="122"/>
+      <c r="G304" s="122"/>
+      <c r="H304" s="122"/>
       <c r="I304" s="23" t="s">
         <v>43</v>
       </c>
@@ -13248,17 +13298,17 @@
       <c r="N304" s="91"/>
     </row>
     <row r="305" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B305" s="142"/>
+      <c r="B305" s="114"/>
       <c r="C305" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="D305" s="140"/>
+      <c r="D305" s="115"/>
       <c r="E305" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="F305" s="112"/>
-      <c r="G305" s="112"/>
-      <c r="H305" s="112"/>
+      <c r="F305" s="122"/>
+      <c r="G305" s="122"/>
+      <c r="H305" s="122"/>
       <c r="I305" s="23" t="s">
         <v>43</v>
       </c>
@@ -13269,17 +13319,17 @@
       <c r="N305" s="91"/>
     </row>
     <row r="306" spans="2:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B306" s="142"/>
+      <c r="B306" s="114"/>
       <c r="C306" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="D306" s="140"/>
+      <c r="D306" s="115"/>
       <c r="E306" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="F306" s="113"/>
-      <c r="G306" s="113"/>
-      <c r="H306" s="113"/>
+      <c r="F306" s="123"/>
+      <c r="G306" s="123"/>
+      <c r="H306" s="123"/>
       <c r="I306" s="23" t="s">
         <v>43</v>
       </c>
@@ -13290,7 +13340,7 @@
       <c r="N306" s="91"/>
     </row>
     <row r="307" spans="2:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B307" s="124" t="s">
+      <c r="B307" s="116" t="s">
         <v>486</v>
       </c>
       <c r="C307" s="24" t="s">
@@ -13321,7 +13371,7 @@
       <c r="N307" s="91"/>
     </row>
     <row r="308" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="125"/>
+      <c r="B308" s="117"/>
       <c r="C308" s="24" t="s">
         <v>442</v>
       </c>
@@ -13350,7 +13400,7 @@
       <c r="N308" s="91"/>
     </row>
     <row r="309" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="125"/>
+      <c r="B309" s="117"/>
       <c r="C309" s="30" t="s">
         <v>487</v>
       </c>
@@ -13379,13 +13429,13 @@
       <c r="N309" s="24"/>
     </row>
     <row r="310" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="134" t="s">
+      <c r="B310" s="118" t="s">
         <v>487</v>
       </c>
       <c r="C310" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D310" s="131" t="s">
+      <c r="D310" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E310" s="21" t="s">
@@ -13406,11 +13456,11 @@
       <c r="J310" s="91"/>
     </row>
     <row r="311" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="134"/>
+      <c r="B311" s="118"/>
       <c r="C311" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D311" s="132"/>
+      <c r="D311" s="120"/>
       <c r="E311" s="21" t="s">
         <v>24</v>
       </c>
@@ -13429,11 +13479,11 @@
       <c r="J311" s="91"/>
     </row>
     <row r="312" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="134"/>
+      <c r="B312" s="118"/>
       <c r="C312" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D312" s="132"/>
+      <c r="D312" s="120"/>
       <c r="E312" s="21" t="s">
         <v>24</v>
       </c>
@@ -13452,11 +13502,11 @@
       <c r="J312" s="91"/>
     </row>
     <row r="313" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="134"/>
+      <c r="B313" s="118"/>
       <c r="C313" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D313" s="132"/>
+      <c r="D313" s="120"/>
       <c r="E313" s="21" t="s">
         <v>24</v>
       </c>
@@ -13475,11 +13525,11 @@
       <c r="J313" s="91"/>
     </row>
     <row r="314" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B314" s="134"/>
+      <c r="B314" s="118"/>
       <c r="C314" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D314" s="132"/>
+      <c r="D314" s="120"/>
       <c r="E314" s="21" t="s">
         <v>24</v>
       </c>
@@ -13498,11 +13548,11 @@
       <c r="J314" s="91"/>
     </row>
     <row r="315" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="134"/>
+      <c r="B315" s="118"/>
       <c r="C315" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D315" s="132"/>
+      <c r="D315" s="120"/>
       <c r="E315" s="21" t="s">
         <v>24</v>
       </c>
@@ -13521,11 +13571,11 @@
       <c r="J315" s="91"/>
     </row>
     <row r="316" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="134"/>
+      <c r="B316" s="118"/>
       <c r="C316" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="D316" s="132"/>
+      <c r="D316" s="120"/>
       <c r="E316" s="21" t="s">
         <v>24</v>
       </c>
@@ -13544,11 +13594,11 @@
       <c r="J316" s="91"/>
     </row>
     <row r="317" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B317" s="134"/>
+      <c r="B317" s="118"/>
       <c r="C317" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="D317" s="132"/>
+      <c r="D317" s="120"/>
       <c r="E317" s="23" t="s">
         <v>365</v>
       </c>
@@ -13567,25 +13617,25 @@
       <c r="J317" s="91"/>
     </row>
     <row r="318" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="134" t="s">
+      <c r="B318" s="118" t="s">
         <v>367</v>
       </c>
       <c r="C318" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="D318" s="138" t="s">
+      <c r="D318" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="E318" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="F318" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G318" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H318" s="130" t="s">
+      <c r="E318" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F318" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G318" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H318" s="124" t="s">
         <v>24</v>
       </c>
       <c r="I318" s="23" t="s">
@@ -13598,15 +13648,15 @@
       <c r="N318" s="91"/>
     </row>
     <row r="319" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="134"/>
+      <c r="B319" s="118"/>
       <c r="C319" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D319" s="138"/>
-      <c r="E319" s="140"/>
-      <c r="F319" s="130"/>
-      <c r="G319" s="130"/>
-      <c r="H319" s="130"/>
+      <c r="D319" s="125"/>
+      <c r="E319" s="115"/>
+      <c r="F319" s="124"/>
+      <c r="G319" s="124"/>
+      <c r="H319" s="124"/>
       <c r="I319" s="23" t="s">
         <v>288</v>
       </c>
@@ -13617,16 +13667,16 @@
       <c r="N319" s="91"/>
     </row>
     <row r="320" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="124" t="s">
+      <c r="B320" s="116" t="s">
         <v>372</v>
       </c>
       <c r="C320" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D320" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E320" s="127" t="s">
+      <c r="D320" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E320" s="111" t="s">
         <v>24</v>
       </c>
       <c r="F320" s="36" t="s">
@@ -13638,7 +13688,7 @@
       <c r="H320" s="92">
         <v>64</v>
       </c>
-      <c r="I320" s="127" t="s">
+      <c r="I320" s="111" t="s">
         <v>24</v>
       </c>
       <c r="J320" s="91"/>
@@ -13648,12 +13698,12 @@
       <c r="N320" s="24"/>
     </row>
     <row r="321" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="125"/>
+      <c r="B321" s="117"/>
       <c r="C321" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D321" s="128"/>
-      <c r="E321" s="128"/>
+      <c r="D321" s="112"/>
+      <c r="E321" s="112"/>
       <c r="F321" s="36" t="s">
         <v>231</v>
       </c>
@@ -13663,7 +13713,7 @@
       <c r="H321" s="92">
         <v>64</v>
       </c>
-      <c r="I321" s="128"/>
+      <c r="I321" s="112"/>
       <c r="J321" s="91"/>
       <c r="K321" s="91"/>
       <c r="L321" s="91"/>
@@ -13671,12 +13721,12 @@
       <c r="N321" s="24"/>
     </row>
     <row r="322" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="125"/>
+      <c r="B322" s="117"/>
       <c r="C322" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D322" s="128"/>
-      <c r="E322" s="128"/>
+      <c r="D322" s="112"/>
+      <c r="E322" s="112"/>
       <c r="F322" s="36" t="s">
         <v>295</v>
       </c>
@@ -13686,7 +13736,7 @@
       <c r="H322" s="92">
         <v>64</v>
       </c>
-      <c r="I322" s="128"/>
+      <c r="I322" s="112"/>
       <c r="J322" s="91"/>
       <c r="K322" s="91"/>
       <c r="L322" s="91"/>
@@ -13694,12 +13744,12 @@
       <c r="N322" s="24"/>
     </row>
     <row r="323" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B323" s="125"/>
+      <c r="B323" s="117"/>
       <c r="C323" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D323" s="128"/>
-      <c r="E323" s="128"/>
+      <c r="D323" s="112"/>
+      <c r="E323" s="112"/>
       <c r="F323" s="36" t="s">
         <v>233</v>
       </c>
@@ -13709,7 +13759,7 @@
       <c r="H323" s="92">
         <v>1</v>
       </c>
-      <c r="I323" s="128"/>
+      <c r="I323" s="112"/>
       <c r="J323" s="91"/>
       <c r="K323" s="91"/>
       <c r="L323" s="91"/>
@@ -13717,12 +13767,12 @@
       <c r="N323" s="24"/>
     </row>
     <row r="324" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B324" s="125"/>
+      <c r="B324" s="117"/>
       <c r="C324" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="D324" s="128"/>
-      <c r="E324" s="128"/>
+      <c r="D324" s="112"/>
+      <c r="E324" s="112"/>
       <c r="F324" s="36" t="s">
         <v>286</v>
       </c>
@@ -13732,7 +13782,7 @@
       <c r="H324" s="92">
         <v>1</v>
       </c>
-      <c r="I324" s="128"/>
+      <c r="I324" s="112"/>
       <c r="J324" s="91"/>
       <c r="K324" s="91"/>
       <c r="L324" s="91"/>
@@ -13740,12 +13790,12 @@
       <c r="N324" s="24"/>
     </row>
     <row r="325" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="125"/>
+      <c r="B325" s="117"/>
       <c r="C325" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D325" s="128"/>
-      <c r="E325" s="128"/>
+      <c r="D325" s="112"/>
+      <c r="E325" s="112"/>
       <c r="F325" s="36" t="s">
         <v>237</v>
       </c>
@@ -13755,7 +13805,7 @@
       <c r="H325" s="92">
         <v>16</v>
       </c>
-      <c r="I325" s="128"/>
+      <c r="I325" s="112"/>
       <c r="J325" s="91"/>
       <c r="K325" s="91"/>
       <c r="L325" s="91"/>
@@ -13763,12 +13813,12 @@
       <c r="N325" s="24"/>
     </row>
     <row r="326" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="125"/>
+      <c r="B326" s="117"/>
       <c r="C326" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D326" s="128"/>
-      <c r="E326" s="128"/>
+      <c r="D326" s="112"/>
+      <c r="E326" s="112"/>
       <c r="F326" s="36" t="s">
         <v>300</v>
       </c>
@@ -13778,7 +13828,7 @@
       <c r="H326" s="92">
         <v>64</v>
       </c>
-      <c r="I326" s="128"/>
+      <c r="I326" s="112"/>
       <c r="J326" s="91"/>
       <c r="K326" s="91"/>
       <c r="L326" s="91"/>
@@ -13786,12 +13836,12 @@
       <c r="N326" s="24"/>
     </row>
     <row r="327" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="125"/>
+      <c r="B327" s="117"/>
       <c r="C327" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D327" s="128"/>
-      <c r="E327" s="128"/>
+      <c r="D327" s="112"/>
+      <c r="E327" s="112"/>
       <c r="F327" s="36" t="s">
         <v>234</v>
       </c>
@@ -13801,7 +13851,7 @@
       <c r="H327" s="92">
         <v>64</v>
       </c>
-      <c r="I327" s="128"/>
+      <c r="I327" s="112"/>
       <c r="J327" s="91"/>
       <c r="K327" s="91"/>
       <c r="L327" s="91"/>
@@ -13809,12 +13859,12 @@
       <c r="N327" s="24"/>
     </row>
     <row r="328" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="125"/>
+      <c r="B328" s="117"/>
       <c r="C328" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D328" s="128"/>
-      <c r="E328" s="128"/>
+      <c r="D328" s="112"/>
+      <c r="E328" s="112"/>
       <c r="F328" s="36" t="s">
         <v>274</v>
       </c>
@@ -13824,7 +13874,7 @@
       <c r="H328" s="92">
         <v>64</v>
       </c>
-      <c r="I328" s="128"/>
+      <c r="I328" s="112"/>
       <c r="J328" s="91"/>
       <c r="K328" s="91"/>
       <c r="L328" s="91"/>
@@ -13832,12 +13882,12 @@
       <c r="N328" s="24"/>
     </row>
     <row r="329" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="125"/>
+      <c r="B329" s="117"/>
       <c r="C329" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D329" s="128"/>
-      <c r="E329" s="128"/>
+      <c r="D329" s="112"/>
+      <c r="E329" s="112"/>
       <c r="F329" s="36" t="s">
         <v>239</v>
       </c>
@@ -13847,7 +13897,7 @@
       <c r="H329" s="92">
         <v>16</v>
       </c>
-      <c r="I329" s="128"/>
+      <c r="I329" s="112"/>
       <c r="J329" s="91"/>
       <c r="K329" s="91"/>
       <c r="L329" s="91"/>
@@ -13855,12 +13905,12 @@
       <c r="N329" s="24"/>
     </row>
     <row r="330" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="125"/>
+      <c r="B330" s="117"/>
       <c r="C330" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D330" s="128"/>
-      <c r="E330" s="129"/>
+      <c r="D330" s="112"/>
+      <c r="E330" s="113"/>
       <c r="F330" s="36" t="s">
         <v>240</v>
       </c>
@@ -13870,7 +13920,7 @@
       <c r="H330" s="92">
         <v>254</v>
       </c>
-      <c r="I330" s="129"/>
+      <c r="I330" s="113"/>
       <c r="J330" s="91"/>
       <c r="K330" s="91"/>
       <c r="L330" s="91"/>
@@ -13878,13 +13928,13 @@
       <c r="N330" s="24"/>
     </row>
     <row r="331" spans="2:14" ht="102" x14ac:dyDescent="0.25">
-      <c r="B331" s="114" t="s">
+      <c r="B331" s="126" t="s">
         <v>373</v>
       </c>
       <c r="C331" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D331" s="131" t="s">
+      <c r="D331" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E331" s="23" t="s">
@@ -13909,11 +13959,11 @@
       <c r="N331" s="24"/>
     </row>
     <row r="332" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="115"/>
+      <c r="B332" s="127"/>
       <c r="C332" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D332" s="132"/>
+      <c r="D332" s="120"/>
       <c r="E332" s="23" t="s">
         <v>24</v>
       </c>
@@ -13936,11 +13986,11 @@
       <c r="N332" s="24"/>
     </row>
     <row r="333" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="115"/>
+      <c r="B333" s="127"/>
       <c r="C333" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D333" s="132"/>
+      <c r="D333" s="120"/>
       <c r="E333" s="23" t="s">
         <v>24</v>
       </c>
@@ -13963,11 +14013,11 @@
       <c r="N333" s="24"/>
     </row>
     <row r="334" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" s="115"/>
+      <c r="B334" s="127"/>
       <c r="C334" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D334" s="132"/>
+      <c r="D334" s="120"/>
       <c r="E334" s="23" t="s">
         <v>24</v>
       </c>
@@ -13990,11 +14040,11 @@
       <c r="N334" s="24"/>
     </row>
     <row r="335" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="115"/>
+      <c r="B335" s="127"/>
       <c r="C335" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D335" s="132"/>
+      <c r="D335" s="120"/>
       <c r="E335" s="23" t="s">
         <v>24</v>
       </c>
@@ -14017,11 +14067,11 @@
       <c r="N335" s="24"/>
     </row>
     <row r="336" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="115"/>
+      <c r="B336" s="127"/>
       <c r="C336" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D336" s="132"/>
+      <c r="D336" s="120"/>
       <c r="E336" s="23" t="s">
         <v>24</v>
       </c>
@@ -14044,11 +14094,11 @@
       <c r="N336" s="24"/>
     </row>
     <row r="337" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="116"/>
+      <c r="B337" s="128"/>
       <c r="C337" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="D337" s="133"/>
+      <c r="D337" s="129"/>
       <c r="E337" s="49" t="s">
         <v>345</v>
       </c>
@@ -14071,13 +14121,13 @@
       <c r="N337" s="24"/>
     </row>
     <row r="338" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="142" t="s">
+      <c r="B338" s="114" t="s">
         <v>511</v>
       </c>
       <c r="C338" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="D338" s="140" t="s">
+      <c r="D338" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E338" s="23" t="s">
@@ -14102,11 +14152,11 @@
       <c r="N338" s="91"/>
     </row>
     <row r="339" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B339" s="142"/>
+      <c r="B339" s="114"/>
       <c r="C339" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="D339" s="140"/>
+      <c r="D339" s="115"/>
       <c r="E339" s="23" t="s">
         <v>514</v>
       </c>
@@ -14129,7 +14179,7 @@
       <c r="N339" s="91"/>
     </row>
     <row r="340" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B340" s="124" t="s">
+      <c r="B340" s="116" t="s">
         <v>516</v>
       </c>
       <c r="C340" s="24" t="s">
@@ -14160,7 +14210,7 @@
       <c r="N340" s="91"/>
     </row>
     <row r="341" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="125"/>
+      <c r="B341" s="117"/>
       <c r="C341" s="24" t="s">
         <v>442</v>
       </c>
@@ -14189,7 +14239,7 @@
       <c r="N341" s="91"/>
     </row>
     <row r="342" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="125"/>
+      <c r="B342" s="117"/>
       <c r="C342" s="30" t="s">
         <v>517</v>
       </c>
@@ -14218,13 +14268,13 @@
       <c r="N342" s="24"/>
     </row>
     <row r="343" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" s="134" t="s">
+      <c r="B343" s="118" t="s">
         <v>517</v>
       </c>
       <c r="C343" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D343" s="131" t="s">
+      <c r="D343" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E343" s="21" t="s">
@@ -14245,11 +14295,11 @@
       <c r="J343" s="91"/>
     </row>
     <row r="344" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="134"/>
+      <c r="B344" s="118"/>
       <c r="C344" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D344" s="132"/>
+      <c r="D344" s="120"/>
       <c r="E344" s="21" t="s">
         <v>24</v>
       </c>
@@ -14268,11 +14318,11 @@
       <c r="J344" s="91"/>
     </row>
     <row r="345" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="134"/>
+      <c r="B345" s="118"/>
       <c r="C345" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D345" s="132"/>
+      <c r="D345" s="120"/>
       <c r="E345" s="21" t="s">
         <v>24</v>
       </c>
@@ -14291,11 +14341,11 @@
       <c r="J345" s="91"/>
     </row>
     <row r="346" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" s="134"/>
+      <c r="B346" s="118"/>
       <c r="C346" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D346" s="132"/>
+      <c r="D346" s="120"/>
       <c r="E346" s="21" t="s">
         <v>24</v>
       </c>
@@ -14314,11 +14364,11 @@
       <c r="J346" s="91"/>
     </row>
     <row r="347" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B347" s="134"/>
+      <c r="B347" s="118"/>
       <c r="C347" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D347" s="132"/>
+      <c r="D347" s="120"/>
       <c r="E347" s="21" t="s">
         <v>24</v>
       </c>
@@ -14337,11 +14387,11 @@
       <c r="J347" s="91"/>
     </row>
     <row r="348" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="134"/>
+      <c r="B348" s="118"/>
       <c r="C348" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D348" s="132"/>
+      <c r="D348" s="120"/>
       <c r="E348" s="21" t="s">
         <v>24</v>
       </c>
@@ -14360,11 +14410,11 @@
       <c r="J348" s="91"/>
     </row>
     <row r="349" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="134"/>
+      <c r="B349" s="118"/>
       <c r="C349" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="D349" s="132"/>
+      <c r="D349" s="120"/>
       <c r="E349" s="21" t="s">
         <v>24</v>
       </c>
@@ -14383,11 +14433,11 @@
       <c r="J349" s="91"/>
     </row>
     <row r="350" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B350" s="134"/>
+      <c r="B350" s="118"/>
       <c r="C350" s="30" t="s">
         <v>519</v>
       </c>
-      <c r="D350" s="132"/>
+      <c r="D350" s="120"/>
       <c r="E350" s="23" t="s">
         <v>520</v>
       </c>
@@ -14406,25 +14456,25 @@
       <c r="J350" s="91"/>
     </row>
     <row r="351" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="134" t="s">
+      <c r="B351" s="118" t="s">
         <v>521</v>
       </c>
       <c r="C351" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="D351" s="138" t="s">
+      <c r="D351" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="E351" s="140" t="s">
-        <v>24</v>
-      </c>
-      <c r="F351" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G351" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="H351" s="130" t="s">
+      <c r="E351" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F351" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="G351" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H351" s="124" t="s">
         <v>24</v>
       </c>
       <c r="I351" s="23" t="s">
@@ -14437,15 +14487,15 @@
       <c r="N351" s="91"/>
     </row>
     <row r="352" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" s="134"/>
+      <c r="B352" s="118"/>
       <c r="C352" s="30" t="s">
         <v>523</v>
       </c>
-      <c r="D352" s="138"/>
-      <c r="E352" s="140"/>
-      <c r="F352" s="130"/>
-      <c r="G352" s="130"/>
-      <c r="H352" s="130"/>
+      <c r="D352" s="125"/>
+      <c r="E352" s="115"/>
+      <c r="F352" s="124"/>
+      <c r="G352" s="124"/>
+      <c r="H352" s="124"/>
       <c r="I352" s="23" t="s">
         <v>288</v>
       </c>
@@ -14456,16 +14506,16 @@
       <c r="N352" s="91"/>
     </row>
     <row r="353" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B353" s="124" t="s">
+      <c r="B353" s="116" t="s">
         <v>524</v>
       </c>
       <c r="C353" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D353" s="127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E353" s="127" t="s">
+      <c r="D353" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E353" s="111" t="s">
         <v>24</v>
       </c>
       <c r="F353" s="36" t="s">
@@ -14477,7 +14527,7 @@
       <c r="H353" s="92">
         <v>64</v>
       </c>
-      <c r="I353" s="127" t="s">
+      <c r="I353" s="111" t="s">
         <v>24</v>
       </c>
       <c r="J353" s="91"/>
@@ -14487,12 +14537,12 @@
       <c r="N353" s="24"/>
     </row>
     <row r="354" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B354" s="125"/>
+      <c r="B354" s="117"/>
       <c r="C354" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D354" s="128"/>
-      <c r="E354" s="128"/>
+      <c r="D354" s="112"/>
+      <c r="E354" s="112"/>
       <c r="F354" s="36" t="s">
         <v>231</v>
       </c>
@@ -14502,7 +14552,7 @@
       <c r="H354" s="92">
         <v>64</v>
       </c>
-      <c r="I354" s="128"/>
+      <c r="I354" s="112"/>
       <c r="J354" s="91"/>
       <c r="K354" s="91"/>
       <c r="L354" s="91"/>
@@ -14510,12 +14560,12 @@
       <c r="N354" s="24"/>
     </row>
     <row r="355" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B355" s="125"/>
+      <c r="B355" s="117"/>
       <c r="C355" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D355" s="128"/>
-      <c r="E355" s="128"/>
+      <c r="D355" s="112"/>
+      <c r="E355" s="112"/>
       <c r="F355" s="36" t="s">
         <v>295</v>
       </c>
@@ -14525,7 +14575,7 @@
       <c r="H355" s="92">
         <v>64</v>
       </c>
-      <c r="I355" s="128"/>
+      <c r="I355" s="112"/>
       <c r="J355" s="91"/>
       <c r="K355" s="91"/>
       <c r="L355" s="91"/>
@@ -14533,12 +14583,12 @@
       <c r="N355" s="24"/>
     </row>
     <row r="356" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B356" s="125"/>
+      <c r="B356" s="117"/>
       <c r="C356" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D356" s="128"/>
-      <c r="E356" s="128"/>
+      <c r="D356" s="112"/>
+      <c r="E356" s="112"/>
       <c r="F356" s="36" t="s">
         <v>233</v>
       </c>
@@ -14548,7 +14598,7 @@
       <c r="H356" s="92">
         <v>1</v>
       </c>
-      <c r="I356" s="128"/>
+      <c r="I356" s="112"/>
       <c r="J356" s="91"/>
       <c r="K356" s="91"/>
       <c r="L356" s="91"/>
@@ -14556,12 +14606,12 @@
       <c r="N356" s="24"/>
     </row>
     <row r="357" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B357" s="125"/>
+      <c r="B357" s="117"/>
       <c r="C357" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="D357" s="128"/>
-      <c r="E357" s="128"/>
+      <c r="D357" s="112"/>
+      <c r="E357" s="112"/>
       <c r="F357" s="36" t="s">
         <v>286</v>
       </c>
@@ -14571,7 +14621,7 @@
       <c r="H357" s="92">
         <v>1</v>
       </c>
-      <c r="I357" s="128"/>
+      <c r="I357" s="112"/>
       <c r="J357" s="91"/>
       <c r="K357" s="91"/>
       <c r="L357" s="91"/>
@@ -14579,12 +14629,12 @@
       <c r="N357" s="24"/>
     </row>
     <row r="358" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="125"/>
+      <c r="B358" s="117"/>
       <c r="C358" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D358" s="128"/>
-      <c r="E358" s="128"/>
+      <c r="D358" s="112"/>
+      <c r="E358" s="112"/>
       <c r="F358" s="36" t="s">
         <v>237</v>
       </c>
@@ -14594,7 +14644,7 @@
       <c r="H358" s="92">
         <v>16</v>
       </c>
-      <c r="I358" s="128"/>
+      <c r="I358" s="112"/>
       <c r="J358" s="91"/>
       <c r="K358" s="91"/>
       <c r="L358" s="91"/>
@@ -14602,12 +14652,12 @@
       <c r="N358" s="24"/>
     </row>
     <row r="359" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="125"/>
+      <c r="B359" s="117"/>
       <c r="C359" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D359" s="128"/>
-      <c r="E359" s="128"/>
+      <c r="D359" s="112"/>
+      <c r="E359" s="112"/>
       <c r="F359" s="36" t="s">
         <v>300</v>
       </c>
@@ -14617,7 +14667,7 @@
       <c r="H359" s="92">
         <v>64</v>
       </c>
-      <c r="I359" s="128"/>
+      <c r="I359" s="112"/>
       <c r="J359" s="91"/>
       <c r="K359" s="91"/>
       <c r="L359" s="91"/>
@@ -14625,12 +14675,12 @@
       <c r="N359" s="24"/>
     </row>
     <row r="360" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="125"/>
+      <c r="B360" s="117"/>
       <c r="C360" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D360" s="128"/>
-      <c r="E360" s="128"/>
+      <c r="D360" s="112"/>
+      <c r="E360" s="112"/>
       <c r="F360" s="36" t="s">
         <v>234</v>
       </c>
@@ -14640,7 +14690,7 @@
       <c r="H360" s="92">
         <v>64</v>
       </c>
-      <c r="I360" s="128"/>
+      <c r="I360" s="112"/>
       <c r="J360" s="91"/>
       <c r="K360" s="91"/>
       <c r="L360" s="91"/>
@@ -14648,12 +14698,12 @@
       <c r="N360" s="24"/>
     </row>
     <row r="361" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="125"/>
+      <c r="B361" s="117"/>
       <c r="C361" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D361" s="128"/>
-      <c r="E361" s="128"/>
+      <c r="D361" s="112"/>
+      <c r="E361" s="112"/>
       <c r="F361" s="36" t="s">
         <v>274</v>
       </c>
@@ -14663,7 +14713,7 @@
       <c r="H361" s="92">
         <v>64</v>
       </c>
-      <c r="I361" s="128"/>
+      <c r="I361" s="112"/>
       <c r="J361" s="91"/>
       <c r="K361" s="91"/>
       <c r="L361" s="91"/>
@@ -14671,12 +14721,12 @@
       <c r="N361" s="24"/>
     </row>
     <row r="362" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="125"/>
+      <c r="B362" s="117"/>
       <c r="C362" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D362" s="128"/>
-      <c r="E362" s="128"/>
+      <c r="D362" s="112"/>
+      <c r="E362" s="112"/>
       <c r="F362" s="36" t="s">
         <v>239</v>
       </c>
@@ -14686,7 +14736,7 @@
       <c r="H362" s="92">
         <v>16</v>
       </c>
-      <c r="I362" s="128"/>
+      <c r="I362" s="112"/>
       <c r="J362" s="91"/>
       <c r="K362" s="91"/>
       <c r="L362" s="91"/>
@@ -14694,12 +14744,12 @@
       <c r="N362" s="24"/>
     </row>
     <row r="363" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="125"/>
+      <c r="B363" s="117"/>
       <c r="C363" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D363" s="128"/>
-      <c r="E363" s="129"/>
+      <c r="D363" s="112"/>
+      <c r="E363" s="113"/>
       <c r="F363" s="36" t="s">
         <v>240</v>
       </c>
@@ -14709,7 +14759,7 @@
       <c r="H363" s="92">
         <v>254</v>
       </c>
-      <c r="I363" s="129"/>
+      <c r="I363" s="113"/>
       <c r="J363" s="91"/>
       <c r="K363" s="91"/>
       <c r="L363" s="91"/>
@@ -14717,13 +14767,13 @@
       <c r="N363" s="24"/>
     </row>
     <row r="364" spans="2:14" ht="102" x14ac:dyDescent="0.25">
-      <c r="B364" s="114" t="s">
+      <c r="B364" s="126" t="s">
         <v>525</v>
       </c>
       <c r="C364" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D364" s="131" t="s">
+      <c r="D364" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E364" s="23" t="s">
@@ -14748,11 +14798,11 @@
       <c r="N364" s="24"/>
     </row>
     <row r="365" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" s="115"/>
+      <c r="B365" s="127"/>
       <c r="C365" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D365" s="132"/>
+      <c r="D365" s="120"/>
       <c r="E365" s="23" t="s">
         <v>24</v>
       </c>
@@ -14775,11 +14825,11 @@
       <c r="N365" s="24"/>
     </row>
     <row r="366" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="115"/>
+      <c r="B366" s="127"/>
       <c r="C366" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D366" s="132"/>
+      <c r="D366" s="120"/>
       <c r="E366" s="23" t="s">
         <v>24</v>
       </c>
@@ -14802,11 +14852,11 @@
       <c r="N366" s="24"/>
     </row>
     <row r="367" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" s="115"/>
+      <c r="B367" s="127"/>
       <c r="C367" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D367" s="132"/>
+      <c r="D367" s="120"/>
       <c r="E367" s="23" t="s">
         <v>24</v>
       </c>
@@ -14829,11 +14879,11 @@
       <c r="N367" s="24"/>
     </row>
     <row r="368" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="115"/>
+      <c r="B368" s="127"/>
       <c r="C368" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D368" s="132"/>
+      <c r="D368" s="120"/>
       <c r="E368" s="23" t="s">
         <v>24</v>
       </c>
@@ -14856,11 +14906,11 @@
       <c r="N368" s="24"/>
     </row>
     <row r="369" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="115"/>
+      <c r="B369" s="127"/>
       <c r="C369" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D369" s="132"/>
+      <c r="D369" s="120"/>
       <c r="E369" s="23" t="s">
         <v>24</v>
       </c>
@@ -14883,11 +14933,11 @@
       <c r="N369" s="24"/>
     </row>
     <row r="370" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="116"/>
+      <c r="B370" s="128"/>
       <c r="C370" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="D370" s="133"/>
+      <c r="D370" s="129"/>
       <c r="E370" s="49" t="s">
         <v>345</v>
       </c>
@@ -14910,13 +14960,13 @@
       <c r="N370" s="24"/>
     </row>
     <row r="371" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="142" t="s">
+      <c r="B371" s="114" t="s">
         <v>526</v>
       </c>
       <c r="C371" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="D371" s="140" t="s">
+      <c r="D371" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E371" s="23" t="s">
@@ -14941,11 +14991,11 @@
       <c r="N371" s="91"/>
     </row>
     <row r="372" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B372" s="142"/>
+      <c r="B372" s="114"/>
       <c r="C372" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="D372" s="140"/>
+      <c r="D372" s="115"/>
       <c r="E372" s="23" t="s">
         <v>529</v>
       </c>
@@ -14968,7 +15018,7 @@
       <c r="N372" s="91"/>
     </row>
     <row r="373" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B373" s="124" t="s">
+      <c r="B373" s="116" t="s">
         <v>530</v>
       </c>
       <c r="C373" s="24" t="s">
@@ -14999,7 +15049,7 @@
       <c r="N373" s="91"/>
     </row>
     <row r="374" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="125"/>
+      <c r="B374" s="117"/>
       <c r="C374" s="24" t="s">
         <v>442</v>
       </c>
@@ -15028,7 +15078,7 @@
       <c r="N374" s="91"/>
     </row>
     <row r="375" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="125"/>
+      <c r="B375" s="117"/>
       <c r="C375" s="30" t="s">
         <v>531</v>
       </c>
@@ -15057,13 +15107,13 @@
       <c r="N375" s="24"/>
     </row>
     <row r="376" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="134" t="s">
+      <c r="B376" s="118" t="s">
         <v>533</v>
       </c>
       <c r="C376" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D376" s="131" t="s">
+      <c r="D376" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E376" s="21" t="s">
@@ -15084,11 +15134,11 @@
       <c r="J376" s="91"/>
     </row>
     <row r="377" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" s="134"/>
+      <c r="B377" s="118"/>
       <c r="C377" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D377" s="132"/>
+      <c r="D377" s="120"/>
       <c r="E377" s="21" t="s">
         <v>24</v>
       </c>
@@ -15107,11 +15157,11 @@
       <c r="J377" s="91"/>
     </row>
     <row r="378" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="134"/>
+      <c r="B378" s="118"/>
       <c r="C378" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D378" s="132"/>
+      <c r="D378" s="120"/>
       <c r="E378" s="21" t="s">
         <v>24</v>
       </c>
@@ -15130,11 +15180,11 @@
       <c r="J378" s="91"/>
     </row>
     <row r="379" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="134"/>
+      <c r="B379" s="118"/>
       <c r="C379" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D379" s="132"/>
+      <c r="D379" s="120"/>
       <c r="E379" s="21" t="s">
         <v>24</v>
       </c>
@@ -15153,11 +15203,11 @@
       <c r="J379" s="91"/>
     </row>
     <row r="380" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B380" s="134"/>
+      <c r="B380" s="118"/>
       <c r="C380" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D380" s="132"/>
+      <c r="D380" s="120"/>
       <c r="E380" s="21" t="s">
         <v>24</v>
       </c>
@@ -15176,11 +15226,11 @@
       <c r="J380" s="91"/>
     </row>
     <row r="381" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" s="134"/>
+      <c r="B381" s="118"/>
       <c r="C381" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D381" s="132"/>
+      <c r="D381" s="120"/>
       <c r="E381" s="21" t="s">
         <v>24</v>
       </c>
@@ -15199,11 +15249,11 @@
       <c r="J381" s="91"/>
     </row>
     <row r="382" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B382" s="134"/>
+      <c r="B382" s="118"/>
       <c r="C382" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="D382" s="132"/>
+      <c r="D382" s="120"/>
       <c r="E382" s="21" t="s">
         <v>24</v>
       </c>
@@ -15222,11 +15272,11 @@
       <c r="J382" s="91"/>
     </row>
     <row r="383" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B383" s="134"/>
+      <c r="B383" s="118"/>
       <c r="C383" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="D383" s="132"/>
+      <c r="D383" s="120"/>
       <c r="E383" s="23" t="s">
         <v>537</v>
       </c>
@@ -15246,16 +15296,16 @@
     </row>
     <row r="384" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="25"/>
-      <c r="B384" s="114" t="s">
+      <c r="B384" s="126" t="s">
         <v>538</v>
       </c>
       <c r="C384" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D384" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E384" s="127" t="s">
+      <c r="D384" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E384" s="111" t="s">
         <v>24</v>
       </c>
       <c r="F384" s="34" t="s">
@@ -15267,7 +15317,7 @@
       <c r="H384" s="92">
         <v>64</v>
       </c>
-      <c r="I384" s="127" t="s">
+      <c r="I384" s="111" t="s">
         <v>24</v>
       </c>
       <c r="J384" s="91"/>
@@ -15278,12 +15328,12 @@
     </row>
     <row r="385" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="25"/>
-      <c r="B385" s="115"/>
+      <c r="B385" s="127"/>
       <c r="C385" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D385" s="132"/>
-      <c r="E385" s="128"/>
+      <c r="D385" s="120"/>
+      <c r="E385" s="112"/>
       <c r="F385" s="34" t="s">
         <v>232</v>
       </c>
@@ -15293,7 +15343,7 @@
       <c r="H385" s="92">
         <v>64</v>
       </c>
-      <c r="I385" s="128"/>
+      <c r="I385" s="112"/>
       <c r="J385" s="91"/>
       <c r="K385" s="91"/>
       <c r="L385" s="91"/>
@@ -15304,12 +15354,12 @@
     </row>
     <row r="386" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="25"/>
-      <c r="B386" s="115"/>
+      <c r="B386" s="127"/>
       <c r="C386" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D386" s="132"/>
-      <c r="E386" s="128"/>
+      <c r="D386" s="120"/>
+      <c r="E386" s="112"/>
       <c r="F386" s="34" t="s">
         <v>233</v>
       </c>
@@ -15319,7 +15369,7 @@
       <c r="H386" s="92">
         <v>1</v>
       </c>
-      <c r="I386" s="128"/>
+      <c r="I386" s="112"/>
       <c r="J386" s="91"/>
       <c r="K386" s="91"/>
       <c r="L386" s="91"/>
@@ -15328,12 +15378,12 @@
     </row>
     <row r="387" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="25"/>
-      <c r="B387" s="115"/>
+      <c r="B387" s="127"/>
       <c r="C387" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D387" s="132"/>
-      <c r="E387" s="128"/>
+      <c r="D387" s="120"/>
+      <c r="E387" s="112"/>
       <c r="F387" s="34" t="s">
         <v>392</v>
       </c>
@@ -15343,7 +15393,7 @@
       <c r="H387" s="92">
         <v>64</v>
       </c>
-      <c r="I387" s="128"/>
+      <c r="I387" s="112"/>
       <c r="J387" s="91"/>
       <c r="K387" s="91"/>
       <c r="L387" s="91"/>
@@ -15352,12 +15402,12 @@
     </row>
     <row r="388" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="25"/>
-      <c r="B388" s="115"/>
+      <c r="B388" s="127"/>
       <c r="C388" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="D388" s="132"/>
-      <c r="E388" s="128"/>
+      <c r="D388" s="120"/>
+      <c r="E388" s="112"/>
       <c r="F388" s="34" t="s">
         <v>250</v>
       </c>
@@ -15367,7 +15417,7 @@
       <c r="H388" s="92">
         <v>128</v>
       </c>
-      <c r="I388" s="128"/>
+      <c r="I388" s="112"/>
       <c r="J388" s="91"/>
       <c r="K388" s="91"/>
       <c r="L388" s="91"/>
@@ -15376,12 +15426,12 @@
     </row>
     <row r="389" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="25"/>
-      <c r="B389" s="115"/>
+      <c r="B389" s="127"/>
       <c r="C389" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D389" s="132"/>
-      <c r="E389" s="128"/>
+      <c r="D389" s="120"/>
+      <c r="E389" s="112"/>
       <c r="F389" s="34" t="s">
         <v>239</v>
       </c>
@@ -15391,7 +15441,7 @@
       <c r="H389" s="92">
         <v>16</v>
       </c>
-      <c r="I389" s="128"/>
+      <c r="I389" s="112"/>
       <c r="J389" s="91"/>
       <c r="K389" s="91"/>
       <c r="L389" s="91"/>
@@ -15402,12 +15452,12 @@
     </row>
     <row r="390" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="25"/>
-      <c r="B390" s="115"/>
+      <c r="B390" s="127"/>
       <c r="C390" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D390" s="132"/>
-      <c r="E390" s="128"/>
+      <c r="D390" s="120"/>
+      <c r="E390" s="112"/>
       <c r="F390" s="34" t="s">
         <v>240</v>
       </c>
@@ -15417,7 +15467,7 @@
       <c r="H390" s="92">
         <v>254</v>
       </c>
-      <c r="I390" s="128"/>
+      <c r="I390" s="112"/>
       <c r="J390" s="91"/>
       <c r="K390" s="91"/>
       <c r="L390" s="91"/>
@@ -15428,12 +15478,12 @@
     </row>
     <row r="391" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="25"/>
-      <c r="B391" s="116"/>
+      <c r="B391" s="128"/>
       <c r="C391" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="D391" s="133"/>
-      <c r="E391" s="129"/>
+      <c r="D391" s="129"/>
+      <c r="E391" s="113"/>
       <c r="F391" s="34" t="s">
         <v>274</v>
       </c>
@@ -15443,7 +15493,7 @@
       <c r="H391" s="92">
         <v>64</v>
       </c>
-      <c r="I391" s="129"/>
+      <c r="I391" s="113"/>
       <c r="J391" s="91"/>
       <c r="K391" s="91"/>
       <c r="L391" s="91"/>
@@ -15453,25 +15503,25 @@
       <c r="P391"/>
     </row>
     <row r="392" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="142" t="s">
+      <c r="B392" s="114" t="s">
         <v>539</v>
       </c>
       <c r="C392" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="D392" s="140" t="s">
+      <c r="D392" s="115" t="s">
         <v>24</v>
       </c>
       <c r="E392" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F392" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G392" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H392" s="111" t="s">
+      <c r="F392" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="G392" s="121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H392" s="121" t="s">
         <v>24</v>
       </c>
       <c r="I392" s="23" t="s">
@@ -15484,17 +15534,17 @@
       <c r="N392" s="91"/>
     </row>
     <row r="393" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="142"/>
+      <c r="B393" s="114"/>
       <c r="C393" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="D393" s="140"/>
+      <c r="D393" s="115"/>
       <c r="E393" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="F393" s="112"/>
-      <c r="G393" s="112"/>
-      <c r="H393" s="112"/>
+      <c r="F393" s="122"/>
+      <c r="G393" s="122"/>
+      <c r="H393" s="122"/>
       <c r="I393" s="23" t="s">
         <v>43</v>
       </c>
@@ -15505,17 +15555,17 @@
       <c r="N393" s="91"/>
     </row>
     <row r="394" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="142"/>
+      <c r="B394" s="114"/>
       <c r="C394" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="D394" s="140"/>
+      <c r="D394" s="115"/>
       <c r="E394" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="F394" s="112"/>
-      <c r="G394" s="112"/>
-      <c r="H394" s="112"/>
+      <c r="F394" s="122"/>
+      <c r="G394" s="122"/>
+      <c r="H394" s="122"/>
       <c r="I394" s="23" t="s">
         <v>43</v>
       </c>
@@ -15526,17 +15576,17 @@
       <c r="N394" s="91"/>
     </row>
     <row r="395" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="142"/>
+      <c r="B395" s="114"/>
       <c r="C395" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="D395" s="140"/>
+      <c r="D395" s="115"/>
       <c r="E395" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="F395" s="112"/>
-      <c r="G395" s="112"/>
-      <c r="H395" s="112"/>
+      <c r="F395" s="122"/>
+      <c r="G395" s="122"/>
+      <c r="H395" s="122"/>
       <c r="I395" s="23" t="s">
         <v>43</v>
       </c>
@@ -15547,17 +15597,17 @@
       <c r="N395" s="91"/>
     </row>
     <row r="396" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B396" s="142"/>
+      <c r="B396" s="114"/>
       <c r="C396" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="D396" s="140"/>
+      <c r="D396" s="115"/>
       <c r="E396" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="F396" s="113"/>
-      <c r="G396" s="113"/>
-      <c r="H396" s="113"/>
+      <c r="F396" s="123"/>
+      <c r="G396" s="123"/>
+      <c r="H396" s="123"/>
       <c r="I396" s="23" t="s">
         <v>43</v>
       </c>
@@ -15568,7 +15618,7 @@
       <c r="N396" s="91"/>
     </row>
     <row r="397" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B397" s="124" t="s">
+      <c r="B397" s="116" t="s">
         <v>550</v>
       </c>
       <c r="C397" s="24" t="s">
@@ -15599,7 +15649,7 @@
       <c r="N397" s="91"/>
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B398" s="125"/>
+      <c r="B398" s="117"/>
       <c r="C398" s="24" t="s">
         <v>442</v>
       </c>
@@ -15628,7 +15678,7 @@
       <c r="N398" s="91"/>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B399" s="125"/>
+      <c r="B399" s="117"/>
       <c r="C399" s="30" t="s">
         <v>552</v>
       </c>
@@ -15641,7 +15691,7 @@
       <c r="F399" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G399" s="111" t="s">
+      <c r="G399" s="121" t="s">
         <v>24</v>
       </c>
       <c r="H399" s="92" t="s">
@@ -15657,13 +15707,13 @@
       <c r="N399" s="24"/>
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B400" s="134" t="s">
+      <c r="B400" s="118" t="s">
         <v>552</v>
       </c>
       <c r="C400" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="D400" s="131" t="s">
+      <c r="D400" s="119" t="s">
         <v>24</v>
       </c>
       <c r="E400" s="21" t="s">
@@ -15672,7 +15722,7 @@
       <c r="F400" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G400" s="112"/>
+      <c r="G400" s="122"/>
       <c r="H400" s="92" t="s">
         <v>24</v>
       </c>
@@ -15686,18 +15736,18 @@
       <c r="N400" s="24"/>
     </row>
     <row r="401" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B401" s="134"/>
+      <c r="B401" s="118"/>
       <c r="C401" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D401" s="132"/>
+      <c r="D401" s="120"/>
       <c r="E401" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F401" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="G401" s="112"/>
+      <c r="G401" s="122"/>
       <c r="H401" s="92">
         <v>64</v>
       </c>
@@ -15711,18 +15761,18 @@
       <c r="N401" s="24"/>
     </row>
     <row r="402" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B402" s="134"/>
+      <c r="B402" s="118"/>
       <c r="C402" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="D402" s="132"/>
+      <c r="D402" s="120"/>
       <c r="E402" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F402" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="G402" s="112"/>
+      <c r="G402" s="122"/>
       <c r="H402" s="92">
         <v>254</v>
       </c>
@@ -15736,18 +15786,18 @@
       <c r="N402" s="24"/>
     </row>
     <row r="403" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B403" s="134"/>
+      <c r="B403" s="118"/>
       <c r="C403" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="D403" s="132"/>
+      <c r="D403" s="120"/>
       <c r="E403" s="23" t="s">
         <v>556</v>
       </c>
       <c r="F403" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G403" s="113"/>
+      <c r="G403" s="123"/>
       <c r="H403" s="92" t="s">
         <v>24</v>
       </c>
@@ -15761,16 +15811,16 @@
       <c r="N403" s="24"/>
     </row>
     <row r="404" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" s="134" t="s">
+      <c r="B404" s="118" t="s">
         <v>553</v>
       </c>
       <c r="C404" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D404" s="138" t="s">
+      <c r="D404" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="E404" s="140" t="s">
+      <c r="E404" s="115" t="s">
         <v>24</v>
       </c>
       <c r="F404" s="34" t="s">
@@ -15792,12 +15842,12 @@
       <c r="N404" s="91"/>
     </row>
     <row r="405" spans="2:14" ht="51" x14ac:dyDescent="0.25">
-      <c r="B405" s="134"/>
+      <c r="B405" s="118"/>
       <c r="C405" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D405" s="138"/>
-      <c r="E405" s="140"/>
+      <c r="D405" s="125"/>
+      <c r="E405" s="115"/>
       <c r="F405" s="34" t="s">
         <v>251</v>
       </c>
@@ -15807,7 +15857,7 @@
       <c r="H405" s="92">
         <v>1</v>
       </c>
-      <c r="I405" s="140" t="s">
+      <c r="I405" s="115" t="s">
         <v>24</v>
       </c>
       <c r="J405" s="91"/>
@@ -15817,12 +15867,12 @@
       <c r="N405" s="91"/>
     </row>
     <row r="406" spans="2:14" s="25" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="134"/>
+      <c r="B406" s="118"/>
       <c r="C406" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="D406" s="138"/>
-      <c r="E406" s="140"/>
+      <c r="D406" s="125"/>
+      <c r="E406" s="115"/>
       <c r="F406" s="50" t="s">
         <v>560</v>
       </c>
@@ -15832,7 +15882,7 @@
       <c r="H406" s="96">
         <v>1</v>
       </c>
-      <c r="I406" s="140"/>
+      <c r="I406" s="115"/>
       <c r="J406" s="95"/>
       <c r="K406" s="95"/>
       <c r="L406" s="95"/>
@@ -15840,12 +15890,12 @@
       <c r="N406" s="95"/>
     </row>
     <row r="407" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B407" s="134"/>
+      <c r="B407" s="118"/>
       <c r="C407" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="D407" s="138"/>
-      <c r="E407" s="140"/>
+      <c r="D407" s="125"/>
+      <c r="E407" s="115"/>
       <c r="F407" s="34" t="s">
         <v>253</v>
       </c>
@@ -15855,7 +15905,7 @@
       <c r="H407" s="92">
         <v>254</v>
       </c>
-      <c r="I407" s="140"/>
+      <c r="I407" s="115"/>
       <c r="J407" s="91"/>
       <c r="K407" s="91"/>
       <c r="L407" s="91"/>
@@ -15863,12 +15913,12 @@
       <c r="N407" s="24"/>
     </row>
     <row r="408" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="134"/>
+      <c r="B408" s="118"/>
       <c r="C408" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="D408" s="138"/>
-      <c r="E408" s="140"/>
+      <c r="D408" s="125"/>
+      <c r="E408" s="115"/>
       <c r="F408" s="34" t="s">
         <v>239</v>
       </c>
@@ -15878,7 +15928,7 @@
       <c r="H408" s="92">
         <v>16</v>
       </c>
-      <c r="I408" s="140"/>
+      <c r="I408" s="115"/>
       <c r="J408" s="91"/>
       <c r="K408" s="91"/>
       <c r="L408" s="91"/>
@@ -15886,12 +15936,12 @@
       <c r="N408" s="24"/>
     </row>
     <row r="409" spans="2:14" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B409" s="134"/>
+      <c r="B409" s="118"/>
       <c r="C409" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="D409" s="138"/>
-      <c r="E409" s="140"/>
+      <c r="D409" s="125"/>
+      <c r="E409" s="115"/>
       <c r="F409" s="34" t="s">
         <v>252</v>
       </c>
@@ -15901,7 +15951,7 @@
       <c r="H409" s="92">
         <v>1</v>
       </c>
-      <c r="I409" s="140"/>
+      <c r="I409" s="115"/>
       <c r="J409" s="91"/>
       <c r="K409" s="91"/>
       <c r="L409" s="91"/>
@@ -15909,12 +15959,12 @@
       <c r="N409" s="24"/>
     </row>
     <row r="410" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="134"/>
+      <c r="B410" s="118"/>
       <c r="C410" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="D410" s="138"/>
-      <c r="E410" s="140"/>
+      <c r="D410" s="125"/>
+      <c r="E410" s="115"/>
       <c r="F410" s="34" t="s">
         <v>383</v>
       </c>
@@ -15924,7 +15974,7 @@
       <c r="H410" s="92">
         <v>16</v>
       </c>
-      <c r="I410" s="140"/>
+      <c r="I410" s="115"/>
       <c r="J410" s="91"/>
       <c r="K410" s="91"/>
       <c r="L410" s="91"/>
@@ -15933,124 +15983,30 @@
     </row>
   </sheetData>
   <mergeCells count="166">
-    <mergeCell ref="I320:I330"/>
-    <mergeCell ref="B392:B396"/>
-    <mergeCell ref="D392:D396"/>
-    <mergeCell ref="B397:B399"/>
-    <mergeCell ref="B400:B403"/>
-    <mergeCell ref="D400:D403"/>
-    <mergeCell ref="F392:F396"/>
-    <mergeCell ref="G392:G396"/>
-    <mergeCell ref="H392:H396"/>
-    <mergeCell ref="G399:G403"/>
-    <mergeCell ref="G351:G352"/>
-    <mergeCell ref="H351:H352"/>
-    <mergeCell ref="B338:B339"/>
-    <mergeCell ref="D338:D339"/>
-    <mergeCell ref="B340:B342"/>
-    <mergeCell ref="B343:B350"/>
-    <mergeCell ref="D343:D350"/>
-    <mergeCell ref="B351:B352"/>
-    <mergeCell ref="D351:D352"/>
-    <mergeCell ref="E351:E352"/>
-    <mergeCell ref="F351:F352"/>
-    <mergeCell ref="D404:D410"/>
-    <mergeCell ref="E404:E410"/>
-    <mergeCell ref="I405:I410"/>
-    <mergeCell ref="B404:B410"/>
-    <mergeCell ref="B384:B391"/>
-    <mergeCell ref="D384:D391"/>
-    <mergeCell ref="E384:E391"/>
-    <mergeCell ref="I384:I391"/>
-    <mergeCell ref="I353:I363"/>
-    <mergeCell ref="E353:E363"/>
-    <mergeCell ref="B376:B383"/>
-    <mergeCell ref="D376:D383"/>
-    <mergeCell ref="B353:B363"/>
-    <mergeCell ref="D353:D363"/>
-    <mergeCell ref="B364:B370"/>
-    <mergeCell ref="D364:D370"/>
-    <mergeCell ref="B371:B372"/>
-    <mergeCell ref="D371:D372"/>
-    <mergeCell ref="B373:B375"/>
-    <mergeCell ref="F318:F319"/>
-    <mergeCell ref="G318:G319"/>
-    <mergeCell ref="H318:H319"/>
-    <mergeCell ref="B320:B330"/>
-    <mergeCell ref="D320:D330"/>
-    <mergeCell ref="B331:B337"/>
-    <mergeCell ref="D331:D337"/>
-    <mergeCell ref="D266:D273"/>
-    <mergeCell ref="E266:E273"/>
-    <mergeCell ref="D295:D301"/>
-    <mergeCell ref="E320:E330"/>
-    <mergeCell ref="F302:F306"/>
-    <mergeCell ref="G302:G306"/>
-    <mergeCell ref="H302:H306"/>
-    <mergeCell ref="B307:B309"/>
-    <mergeCell ref="B310:B317"/>
-    <mergeCell ref="D310:D317"/>
-    <mergeCell ref="B318:B319"/>
-    <mergeCell ref="D318:D319"/>
-    <mergeCell ref="E318:E319"/>
-    <mergeCell ref="H249:H252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="G253:G257"/>
-    <mergeCell ref="B258:B261"/>
-    <mergeCell ref="G258:G261"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="D249:D252"/>
-    <mergeCell ref="F249:F252"/>
-    <mergeCell ref="B302:B306"/>
-    <mergeCell ref="D302:D306"/>
-    <mergeCell ref="B295:B301"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="B274:B283"/>
-    <mergeCell ref="D274:D283"/>
-    <mergeCell ref="B266:B273"/>
-    <mergeCell ref="B284:B291"/>
-    <mergeCell ref="D284:D291"/>
-    <mergeCell ref="B292:B294"/>
-    <mergeCell ref="B228:B235"/>
-    <mergeCell ref="D228:D235"/>
-    <mergeCell ref="B238:B248"/>
-    <mergeCell ref="D238:D248"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="G249:G252"/>
-    <mergeCell ref="B201:B207"/>
-    <mergeCell ref="D201:D207"/>
-    <mergeCell ref="F228:F235"/>
-    <mergeCell ref="G228:G235"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="D47:D55"/>
-    <mergeCell ref="B47:B55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="G56:G59"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="B214:B227"/>
-    <mergeCell ref="B190:B200"/>
-    <mergeCell ref="D190:D200"/>
-    <mergeCell ref="H56:H59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="I175:I178"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D175:D178"/>
-    <mergeCell ref="E175:E178"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="F175:F178"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="G175:G178"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="H175:H178"/>
-    <mergeCell ref="D85:D95"/>
-    <mergeCell ref="B96:B109"/>
-    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="H228:H235"/>
+    <mergeCell ref="H139:H143"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B127:B138"/>
+    <mergeCell ref="G151:G155"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="E139:E143"/>
+    <mergeCell ref="D139:D143"/>
+    <mergeCell ref="G121:G126"/>
+    <mergeCell ref="G139:G143"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="H188:H189"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="G208:G213"/>
+    <mergeCell ref="D179:D187"/>
+    <mergeCell ref="B179:B187"/>
+    <mergeCell ref="B188:B189"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B156:B162"/>
     <mergeCell ref="B163:B166"/>
@@ -16075,30 +16031,124 @@
     <mergeCell ref="D35:D46"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="D56:D59"/>
-    <mergeCell ref="H228:H235"/>
-    <mergeCell ref="H139:H143"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B121:B126"/>
-    <mergeCell ref="B127:B138"/>
-    <mergeCell ref="G151:G155"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="E139:E143"/>
-    <mergeCell ref="D139:D143"/>
-    <mergeCell ref="G121:G126"/>
-    <mergeCell ref="G139:G143"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="H188:H189"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="G208:G213"/>
-    <mergeCell ref="D179:D187"/>
-    <mergeCell ref="B179:B187"/>
-    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="I175:I178"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D175:D178"/>
+    <mergeCell ref="E175:E178"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="F175:F178"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="G175:G178"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="H175:H178"/>
+    <mergeCell ref="D85:D95"/>
+    <mergeCell ref="B96:B109"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="D47:D55"/>
+    <mergeCell ref="B47:B55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="B214:B227"/>
+    <mergeCell ref="B190:B200"/>
+    <mergeCell ref="D190:D200"/>
+    <mergeCell ref="B228:B235"/>
+    <mergeCell ref="D228:D235"/>
+    <mergeCell ref="B238:B248"/>
+    <mergeCell ref="D238:D248"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="G249:G252"/>
+    <mergeCell ref="B201:B207"/>
+    <mergeCell ref="D201:D207"/>
+    <mergeCell ref="F228:F235"/>
+    <mergeCell ref="G228:G235"/>
+    <mergeCell ref="H249:H252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="G253:G257"/>
+    <mergeCell ref="B258:B261"/>
+    <mergeCell ref="G258:G261"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="D249:D252"/>
+    <mergeCell ref="F249:F252"/>
+    <mergeCell ref="B302:B306"/>
+    <mergeCell ref="D302:D306"/>
+    <mergeCell ref="B295:B301"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="B274:B283"/>
+    <mergeCell ref="D274:D283"/>
+    <mergeCell ref="B266:B273"/>
+    <mergeCell ref="B284:B291"/>
+    <mergeCell ref="D284:D291"/>
+    <mergeCell ref="B292:B294"/>
+    <mergeCell ref="F318:F319"/>
+    <mergeCell ref="G318:G319"/>
+    <mergeCell ref="H318:H319"/>
+    <mergeCell ref="B320:B330"/>
+    <mergeCell ref="D320:D330"/>
+    <mergeCell ref="B331:B337"/>
+    <mergeCell ref="D331:D337"/>
+    <mergeCell ref="D266:D273"/>
+    <mergeCell ref="E266:E273"/>
+    <mergeCell ref="D295:D301"/>
+    <mergeCell ref="E320:E330"/>
+    <mergeCell ref="F302:F306"/>
+    <mergeCell ref="G302:G306"/>
+    <mergeCell ref="H302:H306"/>
+    <mergeCell ref="B307:B309"/>
+    <mergeCell ref="B310:B317"/>
+    <mergeCell ref="D310:D317"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="D318:D319"/>
+    <mergeCell ref="E318:E319"/>
+    <mergeCell ref="D404:D410"/>
+    <mergeCell ref="E404:E410"/>
+    <mergeCell ref="I405:I410"/>
+    <mergeCell ref="B404:B410"/>
+    <mergeCell ref="B384:B391"/>
+    <mergeCell ref="D384:D391"/>
+    <mergeCell ref="E384:E391"/>
+    <mergeCell ref="I384:I391"/>
+    <mergeCell ref="I353:I363"/>
+    <mergeCell ref="E353:E363"/>
+    <mergeCell ref="B376:B383"/>
+    <mergeCell ref="D376:D383"/>
+    <mergeCell ref="B353:B363"/>
+    <mergeCell ref="D353:D363"/>
+    <mergeCell ref="B364:B370"/>
+    <mergeCell ref="D364:D370"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="D371:D372"/>
+    <mergeCell ref="B373:B375"/>
+    <mergeCell ref="I320:I330"/>
+    <mergeCell ref="B392:B396"/>
+    <mergeCell ref="D392:D396"/>
+    <mergeCell ref="B397:B399"/>
+    <mergeCell ref="B400:B403"/>
+    <mergeCell ref="D400:D403"/>
+    <mergeCell ref="F392:F396"/>
+    <mergeCell ref="G392:G396"/>
+    <mergeCell ref="H392:H396"/>
+    <mergeCell ref="G399:G403"/>
+    <mergeCell ref="G351:G352"/>
+    <mergeCell ref="H351:H352"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="D338:D339"/>
+    <mergeCell ref="B340:B342"/>
+    <mergeCell ref="B343:B350"/>
+    <mergeCell ref="D343:D350"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="D351:D352"/>
+    <mergeCell ref="E351:E352"/>
+    <mergeCell ref="F351:F352"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16533,8 +16583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16551,37 +16601,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="169" t="s">
         <v>408</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="173" t="s">
         <v>590</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="161"/>
-      <c r="F4" s="159" t="s">
+      <c r="C4" s="174"/>
+      <c r="D4" s="175"/>
+      <c r="F4" s="173" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="160"/>
-      <c r="H4" s="161"/>
-      <c r="J4" s="159" t="s">
+      <c r="G4" s="174"/>
+      <c r="H4" s="175"/>
+      <c r="J4" s="173" t="s">
         <v>384</v>
       </c>
-      <c r="K4" s="160"/>
-      <c r="L4" s="161"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="175"/>
     </row>
     <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="65" t="s">
@@ -16839,11 +16889,11 @@
       <c r="E14" t="s">
         <v>411</v>
       </c>
-      <c r="F14" s="169" t="s">
+      <c r="F14" s="170" t="s">
         <v>382</v>
       </c>
-      <c r="G14" s="170"/>
-      <c r="H14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
       <c r="J14" s="67" t="s">
         <v>260</v>
       </c>
@@ -17107,11 +17157,11 @@
       <c r="H24" s="68">
         <v>64</v>
       </c>
-      <c r="J24" s="159" t="s">
+      <c r="J24" s="173" t="s">
         <v>390</v>
       </c>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
+      <c r="K24" s="174"/>
+      <c r="L24" s="175"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F25" s="57" t="s">
@@ -17134,11 +17184,11 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="159" t="s">
+      <c r="B26" s="173" t="s">
         <v>414</v>
       </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="161"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
       <c r="F26" s="58" t="s">
         <v>398</v>
       </c>
@@ -17208,11 +17258,11 @@
       <c r="D29" s="62">
         <v>64</v>
       </c>
-      <c r="F29" s="159" t="s">
+      <c r="F29" s="173" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="160"/>
-      <c r="H29" s="161"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="175"/>
       <c r="J29" s="34" t="s">
         <v>251</v>
       </c>
@@ -17380,11 +17430,11 @@
       <c r="D36" s="62">
         <v>254</v>
       </c>
-      <c r="J36" s="159" t="s">
+      <c r="J36" s="173" t="s">
         <v>418</v>
       </c>
-      <c r="K36" s="160"/>
-      <c r="L36" s="161"/>
+      <c r="K36" s="174"/>
+      <c r="L36" s="175"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="58" t="s">
@@ -17396,11 +17446,11 @@
       <c r="D37" s="64">
         <v>10</v>
       </c>
-      <c r="F37" s="159" t="s">
+      <c r="F37" s="173" t="s">
         <v>415</v>
       </c>
-      <c r="G37" s="160"/>
-      <c r="H37" s="161"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="175"/>
       <c r="J37" s="65" t="s">
         <v>374</v>
       </c>
@@ -17453,11 +17503,11 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="159" t="s">
-        <v>582</v>
-      </c>
-      <c r="C40" s="160"/>
-      <c r="D40" s="161"/>
+      <c r="B40" s="173" t="s">
+        <v>603</v>
+      </c>
+      <c r="C40" s="174"/>
+      <c r="D40" s="175"/>
       <c r="F40" s="67" t="s">
         <v>417</v>
       </c>
@@ -17487,13 +17537,13 @@
       <c r="D41" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="F41" s="103" t="s">
+      <c r="F41" s="67" t="s">
         <v>566</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="H41" s="64">
+      <c r="H41" s="62">
         <v>64</v>
       </c>
       <c r="J41" s="69" t="s">
@@ -17506,39 +17556,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="55" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="C42" s="59" t="s">
         <v>379</v>
       </c>
       <c r="D42" s="60">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F42" s="184" t="s">
+        <v>606</v>
+      </c>
+      <c r="G42" s="185" t="s">
+        <v>379</v>
+      </c>
+      <c r="H42" s="105">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="103" t="s">
-        <v>571</v>
-      </c>
-      <c r="C43" s="63" t="s">
+      <c r="B43" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>379</v>
+      </c>
+      <c r="D43" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="103" t="s">
+        <v>605</v>
+      </c>
+      <c r="C44" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="D43" s="64">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="159" t="s">
+      <c r="D44" s="64">
+        <v>64</v>
+      </c>
+      <c r="F44" s="173" t="s">
         <v>586</v>
       </c>
-      <c r="G44" s="160"/>
-      <c r="H44" s="161"/>
-      <c r="J44" s="159" t="s">
+      <c r="G44" s="174"/>
+      <c r="H44" s="175"/>
+      <c r="J44" s="173" t="s">
         <v>583</v>
       </c>
-      <c r="K44" s="160"/>
-      <c r="L44" s="161"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="175"/>
     </row>
     <row r="45" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F45" s="65" t="s">
@@ -17561,11 +17629,6 @@
       </c>
     </row>
     <row r="46" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="159" t="s">
-        <v>572</v>
-      </c>
-      <c r="C46" s="160"/>
-      <c r="D46" s="161"/>
       <c r="F46" s="55" t="s">
         <v>564</v>
       </c>
@@ -17586,15 +17649,11 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="D47" s="66" t="s">
-        <v>376</v>
-      </c>
+      <c r="B47" s="173" t="s">
+        <v>582</v>
+      </c>
+      <c r="C47" s="174"/>
+      <c r="D47" s="175"/>
       <c r="F47" s="103" t="s">
         <v>565</v>
       </c>
@@ -17615,14 +17674,14 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="55" t="s">
-        <v>573</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>379</v>
-      </c>
-      <c r="D48" s="60">
-        <v>5</v>
+      <c r="B48" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>376</v>
       </c>
       <c r="J48" s="103" t="s">
         <v>592</v>
@@ -17635,31 +17694,31 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="67" t="s">
-        <v>574</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="D49" s="62">
-        <v>64</v>
+      <c r="B49" s="55" t="s">
+        <v>570</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="60">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="103" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D50" s="64">
-        <v>1</v>
-      </c>
-      <c r="F50" s="159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="173" t="s">
         <v>580</v>
       </c>
-      <c r="G50" s="160"/>
-      <c r="H50" s="161"/>
+      <c r="G50" s="174"/>
+      <c r="H50" s="175"/>
     </row>
     <row r="51" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F51" s="65" t="s">
@@ -17671,11 +17730,11 @@
       <c r="H51" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="J51" s="159" t="s">
+      <c r="J51" s="173" t="s">
         <v>581</v>
       </c>
-      <c r="K51" s="160"/>
-      <c r="L51" s="161"/>
+      <c r="K51" s="174"/>
+      <c r="L51" s="175"/>
     </row>
     <row r="52" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F52" s="55" t="s">
@@ -17698,11 +17757,11 @@
       </c>
     </row>
     <row r="53" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="159" t="s">
-        <v>575</v>
-      </c>
-      <c r="C53" s="160"/>
-      <c r="D53" s="161"/>
+      <c r="B53" s="173" t="s">
+        <v>572</v>
+      </c>
+      <c r="C53" s="174"/>
+      <c r="D53" s="175"/>
       <c r="F53" s="103" t="s">
         <v>569</v>
       </c>
@@ -17744,32 +17803,41 @@
     </row>
     <row r="55" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="55" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="C55" s="59" t="s">
         <v>379</v>
       </c>
       <c r="D55" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="67" t="s">
+        <v>574</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>377</v>
+      </c>
+      <c r="D56" s="62">
+        <v>64</v>
+      </c>
+      <c r="F56" s="173" t="s">
+        <v>596</v>
+      </c>
+      <c r="G56" s="174"/>
+      <c r="H56" s="175"/>
+    </row>
+    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="103" t="s">
+        <v>593</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" s="64">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="103" t="s">
-        <v>565</v>
-      </c>
-      <c r="C56" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="D56" s="64">
-        <v>16</v>
-      </c>
-      <c r="F56" s="159" t="s">
-        <v>596</v>
-      </c>
-      <c r="G56" s="160"/>
-      <c r="H56" s="161"/>
-    </row>
-    <row r="57" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F57" s="65" t="s">
         <v>374</v>
       </c>
@@ -17791,7 +17859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F59" s="67" t="s">
         <v>600</v>
       </c>
@@ -17802,7 +17870,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="173" t="s">
+        <v>575</v>
+      </c>
+      <c r="C60" s="174"/>
+      <c r="D60" s="175"/>
       <c r="F60" s="67" t="s">
         <v>601</v>
       </c>
@@ -17813,7 +17886,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="66" t="s">
+        <v>376</v>
+      </c>
       <c r="F61" s="56" t="s">
         <v>595</v>
       </c>
@@ -17825,6 +17907,15 @@
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="55" t="s">
+        <v>564</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62" s="60">
+        <v>1</v>
+      </c>
       <c r="F62" s="56" t="s">
         <v>602</v>
       </c>
@@ -17836,6 +17927,15 @@
       </c>
     </row>
     <row r="63" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>377</v>
+      </c>
+      <c r="D63" s="64">
+        <v>16</v>
+      </c>
       <c r="F63" s="69" t="s">
         <v>599</v>
       </c>
@@ -17847,238 +17947,276 @@
       </c>
     </row>
     <row r="69" spans="4:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D69" s="167" t="s">
+      <c r="D69" s="177" t="s">
         <v>405</v>
       </c>
-      <c r="E69" s="167"/>
-      <c r="F69" s="167"/>
-      <c r="G69" s="167"/>
-      <c r="H69" s="167"/>
+      <c r="E69" s="177"/>
+      <c r="F69" s="177"/>
+      <c r="G69" s="177"/>
+      <c r="H69" s="177"/>
     </row>
     <row r="70" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="178" t="s">
+      <c r="D71" s="165" t="s">
         <v>402</v>
       </c>
-      <c r="E71" s="179"/>
+      <c r="E71" s="166"/>
       <c r="F71" s="106" t="s">
         <v>403</v>
       </c>
-      <c r="G71" s="166" t="s">
+      <c r="G71" s="176" t="s">
         <v>404</v>
       </c>
-      <c r="H71" s="166"/>
+      <c r="H71" s="176"/>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="180" t="s">
+      <c r="D72" s="167" t="s">
         <v>393</v>
       </c>
-      <c r="E72" s="181"/>
+      <c r="E72" s="168"/>
       <c r="F72" s="70" t="s">
         <v>509</v>
       </c>
-      <c r="G72" s="182" t="s">
+      <c r="G72" s="159" t="s">
         <v>406</v>
       </c>
-      <c r="H72" s="183"/>
+      <c r="H72" s="160"/>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D73" s="172" t="s">
+      <c r="D73" s="157" t="s">
         <v>393</v>
       </c>
-      <c r="E73" s="173"/>
+      <c r="E73" s="158"/>
       <c r="F73" s="71" t="s">
         <v>384</v>
       </c>
-      <c r="G73" s="174" t="s">
+      <c r="G73" s="161" t="s">
         <v>406</v>
       </c>
-      <c r="H73" s="175"/>
+      <c r="H73" s="162"/>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D74" s="172" t="s">
+      <c r="D74" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="E74" s="173"/>
+      <c r="E74" s="158"/>
       <c r="F74" s="71" t="s">
         <v>390</v>
       </c>
-      <c r="G74" s="174" t="s">
+      <c r="G74" s="161" t="s">
         <v>406</v>
       </c>
-      <c r="H74" s="175"/>
+      <c r="H74" s="162"/>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D75" s="172" t="s">
+      <c r="D75" s="157" t="s">
         <v>382</v>
       </c>
-      <c r="E75" s="173"/>
+      <c r="E75" s="158"/>
       <c r="F75" s="71" t="s">
         <v>390</v>
       </c>
-      <c r="G75" s="174" t="s">
+      <c r="G75" s="161" t="s">
         <v>407</v>
       </c>
-      <c r="H75" s="175"/>
+      <c r="H75" s="162"/>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D76" s="172" t="s">
+      <c r="D76" s="157" t="s">
         <v>509</v>
       </c>
-      <c r="E76" s="173"/>
+      <c r="E76" s="158"/>
       <c r="F76" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="G76" s="174" t="s">
+      <c r="G76" s="161" t="s">
         <v>407</v>
       </c>
-      <c r="H76" s="175"/>
+      <c r="H76" s="162"/>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D77" s="172" t="s">
+      <c r="D77" s="157" t="s">
         <v>382</v>
       </c>
-      <c r="E77" s="173"/>
+      <c r="E77" s="158"/>
       <c r="F77" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="G77" s="174" t="s">
+      <c r="G77" s="161" t="s">
         <v>407</v>
       </c>
-      <c r="H77" s="175"/>
+      <c r="H77" s="162"/>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D78" s="172" t="s">
+      <c r="D78" s="157" t="s">
         <v>414</v>
       </c>
-      <c r="E78" s="173"/>
+      <c r="E78" s="158"/>
       <c r="F78" s="71" t="s">
         <v>399</v>
       </c>
-      <c r="G78" s="174" t="s">
+      <c r="G78" s="161" t="s">
         <v>407</v>
       </c>
-      <c r="H78" s="175"/>
+      <c r="H78" s="162"/>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D79" s="172" t="s">
+      <c r="D79" s="157" t="s">
         <v>509</v>
       </c>
-      <c r="E79" s="173"/>
+      <c r="E79" s="158"/>
       <c r="F79" s="102" t="s">
         <v>415</v>
       </c>
-      <c r="G79" s="176" t="s">
+      <c r="G79" s="163" t="s">
         <v>406</v>
       </c>
-      <c r="H79" s="177"/>
+      <c r="H79" s="164"/>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D80" s="172" t="s">
+      <c r="D80" s="157" t="s">
         <v>418</v>
       </c>
-      <c r="E80" s="173"/>
+      <c r="E80" s="158"/>
       <c r="F80" s="102" t="s">
         <v>415</v>
       </c>
-      <c r="G80" s="176" t="s">
+      <c r="G80" s="163" t="s">
         <v>406</v>
       </c>
-      <c r="H80" s="177"/>
+      <c r="H80" s="164"/>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D81" s="172" t="s">
+      <c r="D81" s="157" t="s">
         <v>583</v>
       </c>
-      <c r="E81" s="173"/>
+      <c r="E81" s="158"/>
       <c r="F81" s="102" t="s">
         <v>586</v>
       </c>
-      <c r="G81" s="176" t="s">
+      <c r="G81" s="163" t="s">
         <v>406</v>
       </c>
-      <c r="H81" s="177"/>
+      <c r="H81" s="164"/>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D82" s="172" t="s">
+      <c r="D82" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="E82" s="173"/>
+      <c r="E82" s="158"/>
       <c r="F82" s="71" t="s">
         <v>580</v>
       </c>
-      <c r="G82" s="174" t="s">
+      <c r="G82" s="161" t="s">
         <v>406</v>
       </c>
-      <c r="H82" s="175"/>
+      <c r="H82" s="162"/>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D83" s="172" t="s">
+      <c r="D83" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="E83" s="173"/>
+      <c r="E83" s="158"/>
       <c r="F83" s="71" t="s">
         <v>581</v>
       </c>
-      <c r="G83" s="174" t="s">
+      <c r="G83" s="161" t="s">
         <v>406</v>
       </c>
-      <c r="H83" s="175"/>
+      <c r="H83" s="162"/>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D84" s="172" t="s">
+      <c r="D84" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="E84" s="173"/>
+      <c r="E84" s="158"/>
       <c r="F84" s="71" t="s">
         <v>582</v>
       </c>
-      <c r="G84" s="174" t="s">
+      <c r="G84" s="161" t="s">
         <v>406</v>
       </c>
-      <c r="H84" s="175"/>
+      <c r="H84" s="162"/>
     </row>
     <row r="85" spans="4:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="162" t="s">
+      <c r="D85" s="180" t="s">
         <v>596</v>
       </c>
-      <c r="E85" s="163"/>
+      <c r="E85" s="181"/>
       <c r="F85" s="40" t="s">
         <v>590</v>
       </c>
-      <c r="G85" s="164" t="s">
+      <c r="G85" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="H85" s="165"/>
+      <c r="H85" s="183"/>
     </row>
     <row r="86" spans="4:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D86" s="162" t="s">
+      <c r="D86" s="180" t="s">
         <v>596</v>
       </c>
-      <c r="E86" s="163"/>
+      <c r="E86" s="181"/>
       <c r="F86" s="40" t="s">
         <v>583</v>
       </c>
-      <c r="G86" s="164" t="s">
+      <c r="G86" s="182" t="s">
         <v>406</v>
       </c>
-      <c r="H86" s="165"/>
+      <c r="H86" s="183"/>
     </row>
     <row r="87" spans="4:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="162" t="s">
+      <c r="D87" s="180" t="s">
         <v>596</v>
       </c>
-      <c r="E87" s="163"/>
+      <c r="E87" s="181"/>
       <c r="F87" s="110" t="s">
         <v>572</v>
       </c>
-      <c r="G87" s="157" t="s">
+      <c r="G87" s="178" t="s">
         <v>406</v>
       </c>
-      <c r="H87" s="158"/>
+      <c r="H87" s="179"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="54">
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="G72:H72"/>
@@ -18095,43 +18233,6 @@
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="G80:H80"/>
     <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G78:H78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
